--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251790</v>
+        <v>252071</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>235.0583333333333</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:12:03</t>
+          <t>08-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>28207</v>
+        <v>5488</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-8.466707175925926</v>
+        <v>-26.33800925925926</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252686</v>
+        <v>252371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>329.15</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -634,21 +634,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:13:09</t>
+          <t>08-07-2025 08:36:02</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>39498</v>
+        <v>6005</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-8.358362268518519</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252071</v>
+        <v>251790</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>45.73333333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -706,21 +706,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:44</t>
+          <t>08-07-2025 11:16:03</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5488</v>
+        <v>28207</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
@@ -746,53 +746,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-26.33523148148148</v>
+        <v>-8.469484953703704</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251919</v>
+        <v>251674</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>56.5</v>
       </c>
       <c r="D5" t="n">
-        <v>140.05</v>
+        <v>147.125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:44</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:44</t>
+          <t>08-07-2025 07:56:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:44</t>
+          <t>08-07-2025 07:56:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:56:47</t>
+          <t>08-07-2025 10:23:37</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16806</v>
+        <v>17655</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,14 +801,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -818,53 +818,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-22.45609953703704</v>
+        <v>-1.433072916666667</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252087</v>
+        <v>252152</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:56:47</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:47</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:47</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:17</t>
+          <t>08-07-2025 08:17:22</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4260</v>
+        <v>3284</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,53 +890,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-9.504363425925925</v>
+        <v>-18.34539351851852</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252636</v>
+        <v>252047</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>11.275</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:17</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:17</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:17</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:33</t>
+          <t>08-07-2025 08:29:53</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1353</v>
+        <v>8506</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,11 +962,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-9.354085648148148</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -974,41 +974,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252152</v>
+        <v>243525</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>27.36666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:33</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:55</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3284</v>
+        <v>15598</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
@@ -1034,53 +1034,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-18.56661458333333</v>
+        <v>-4.409710648148148</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252201</v>
+        <v>243569</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>34.10833333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:55</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:55</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:55</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:02</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4093</v>
+        <v>2601</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1106,11 +1106,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-18.60210648148148</v>
+        <v>-295.3344965277778</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1118,41 +1118,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252402</v>
+        <v>252207</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>25.075</v>
+        <v>51.55</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:02</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:02</t>
+          <t>08-07-2025 08:36:40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:02</t>
+          <t>08-07-2025 08:36:40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:06</t>
+          <t>08-07-2025 09:28:13</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3009</v>
+        <v>6186</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1178,53 +1178,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-12.29938078703704</v>
+        <v>-12.39460069444444</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252298</v>
+        <v>244023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>70.76666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:06</t>
+          <t>08-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:06</t>
+          <t>08-07-2025 08:38:44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:06</t>
+          <t>08-07-2025 08:38:44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:52</t>
+          <t>08-07-2025 08:47:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8492</v>
+        <v>997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1233,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,53 +1250,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.36032986111111</v>
+        <v>-281.3660011574074</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252085</v>
+        <v>241783</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>28.55</v>
+        <v>43.325</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:52</t>
+          <t>08-07-2025 08:17:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:52</t>
+          <t>08-07-2025 08:47:22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:52</t>
+          <t>08-07-2025 08:47:22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:25</t>
+          <t>08-07-2025 09:30:41</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3426</v>
+        <v>5199</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1305,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,53 +1322,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-21.40376736111111</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251849</v>
+        <v>252997</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>33.38333333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:25</t>
+          <t>08-07-2025 08:29:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:25</t>
+          <t>08-07-2025 09:01:53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:25</t>
+          <t>08-07-2025 09:01:53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:48</t>
+          <t>08-07-2025 09:41:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4006</v>
+        <v>4802</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,77 +1377,70 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-14.43875578703704</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252220</v>
+        <v>252347</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>80.51666666666667</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:48</t>
+          <t>08-07-2025 08:36:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:48</t>
+          <t>08-07-2025 09:20:02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:48</t>
+          <t>08-07-2025 09:20:02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-07-2025 12:09:19</t>
+          <t>08-07-2025 10:52:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9662</v>
+        <v>11074</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1456,11 +1449,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1473,53 +1466,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-23.50647569444444</v>
+        <v>-0.4530034722222222</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252999</v>
+        <v>252146</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>325.8416666666666</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:09:19</t>
+          <t>08-07-2025 08:47:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:28:19</t>
+          <t>08-07-2025 09:23:02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:28:19</t>
+          <t>08-07-2025 09:23:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:10</t>
+          <t>08-07-2025 10:29:40</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>39101</v>
+        <v>7996</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,14 +1521,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1545,11 +1538,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-9.437274305555556</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1557,41 +1550,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252456</v>
+        <v>252652</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>144.4583333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:10</t>
+          <t>08-07-2025 09:28:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:10</t>
+          <t>08-07-2025 10:08:13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:10</t>
+          <t>08-07-2025 10:08:13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-07-2025 12:39:37</t>
+          <t>08-07-2025 13:14:14</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17335</v>
+        <v>22321</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1604,7 +1597,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1617,53 +1610,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5275173611111111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245623</v>
+        <v>252063</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>220.1583333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-07-2025 12:39:37</t>
+          <t>08-07-2025 09:30:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:37</t>
+          <t>08-07-2025 10:05:41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:37</t>
+          <t>08-07-2025 10:05:41</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-07-2025 08:55:47</t>
+          <t>08-07-2025 11:25:38</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26419</v>
+        <v>9593</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1672,14 +1665,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1689,53 +1682,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-167.3720717592593</v>
+        <v>-7.476134259259259</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252157</v>
+        <v>243335</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>396.825</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07-2025 08:55:47</t>
+          <t>08-07-2025 09:41:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:47</t>
+          <t>08-07-2025 10:02:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:47</t>
+          <t>08-07-2025 10:02:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14-07-2025 08:16:36</t>
+          <t>08-07-2025 14:37:56</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>47619</v>
+        <v>33004</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,14 +1737,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1761,53 +1754,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-26.34486689814815</v>
+        <v>-340.6096759259259</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251926</v>
+        <v>252978</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>78.91666666666667</v>
+        <v>23.3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:16:36</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:41:36</t>
+          <t>08-07-2025 10:24:59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:41:36</t>
+          <t>08-07-2025 10:24:59</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14-07-2025 10:00:31</t>
+          <t>08-07-2025 10:48:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9470</v>
+        <v>2796</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1816,14 +1809,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1833,53 +1826,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-5.41703125</v>
+        <v>-22.45019675925926</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252790</v>
+        <v>252087</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>52.5</v>
       </c>
       <c r="D20" t="n">
-        <v>12.10833333333333</v>
+        <v>35.5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:00:31</t>
+          <t>08-07-2025 10:23:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:17:31</t>
+          <t>08-07-2025 11:16:07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:17:31</t>
+          <t>08-07-2025 11:16:07</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:29:38</t>
+          <t>08-07-2025 11:51:37</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1453</v>
+        <v>4260</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,7 +1885,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1905,53 +1898,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-9.494184027777777</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252755</v>
+        <v>243529</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>109.575</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:29:38</t>
+          <t>08-07-2025 10:29:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:46:38</t>
+          <t>08-07-2025 10:48:40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:46:38</t>
+          <t>08-07-2025 10:48:40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14-07-2025 12:36:12</t>
+          <t>08-07-2025 12:58:39</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13149</v>
+        <v>15598</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1960,14 +1953,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1977,53 +1970,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-4.540734953703704</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252476</v>
+        <v>244828</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>72.34166666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:48:17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 11:23:17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 11:23:17</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:50</t>
+          <t>08-07-2025 12:06:38</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8681</v>
+        <v>5203</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2032,14 +2025,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2053,49 +2046,49 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.365862268518518</v>
+        <v>-1.504612268518519</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252364</v>
+        <v>252230</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32.5</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>94.55</v>
+        <v>63.125</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:50</t>
+          <t>08-07-2025 10:52:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 09:19:20</t>
+          <t>08-07-2025 11:34:19</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 09:19:20</t>
+          <t>08-07-2025 11:34:19</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:53</t>
+          <t>08-07-2025 12:37:27</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11346</v>
+        <v>7575</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2104,14 +2097,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2121,53 +2114,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-11.45409143518519</v>
+        <v>-25.52600694444444</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252784</v>
+        <v>250284</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>26.975</v>
+        <v>146.35</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:53</t>
+          <t>08-07-2025 11:16:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:23</t>
+          <t>08-07-2025 11:56:03</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:23</t>
+          <t>08-07-2025 11:56:03</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:22</t>
+          <t>08-07-2025 14:22:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3237</v>
+        <v>17562</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2180,7 +2173,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2193,53 +2186,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-118.5988946759259</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252547</v>
+        <v>251632</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.5</v>
+        <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>81.16666666666667</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:22</t>
+          <t>08-07-2025 11:25:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:52</t>
+          <t>08-07-2025 12:55:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:52</t>
+          <t>08-07-2025 12:55:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:02</t>
+          <t>09-07-2025 14:44:08</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9740</v>
+        <v>70621</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2248,11 +2241,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2265,19 +2258,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-4.575717592592593</v>
+        <v>-2.613987268518518</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251632</v>
+        <v>252345</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2285,33 +2278,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48.5</v>
+        <v>34.5</v>
       </c>
       <c r="D26" t="n">
-        <v>588.5083333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:02</t>
+          <t>08-07-2025 11:51:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:32</t>
+          <t>08-07-2025 12:26:07</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:32</t>
+          <t>08-07-2025 12:26:07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-07-2025 08:26:02</t>
+          <t>08-07-2025 13:09:27</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>70621</v>
+        <v>5199</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2320,11 +2313,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2337,53 +2330,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.351417824074074</v>
+        <v>-0.5482291666666667</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252638</v>
+        <v>252144</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>61.49166666666667</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-07-2025 08:26:02</t>
+          <t>08-07-2025 12:06:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-07-2025 09:14:32</t>
+          <t>08-07-2025 12:41:38</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-07-2025 09:14:32</t>
+          <t>08-07-2025 12:41:38</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:02</t>
+          <t>08-07-2025 13:35:46</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>7379</v>
+        <v>6496</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2392,14 +2385,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2409,11 +2402,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-4.427800925925926</v>
+        <v>-9.566510416666667</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -2421,41 +2414,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251685</v>
+        <v>252636</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>98.75833333333334</v>
+        <v>11.275</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:02</t>
+          <t>08-07-2025 12:37:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:32</t>
+          <t>08-07-2025 13:21:27</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:32</t>
+          <t>08-07-2025 13:21:27</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-07-2025 12:27:17</t>
+          <t>08-07-2025 13:32:43</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>11851</v>
+        <v>1353</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2468,7 +2461,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2481,53 +2474,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251674</v>
+        <v>252201</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46.5</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>147.125</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-07-2025 12:27:17</t>
+          <t>08-07-2025 12:58:39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-07-2025 13:13:47</t>
+          <t>08-07-2025 13:17:39</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-07-2025 13:13:47</t>
+          <t>08-07-2025 13:17:39</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-07-2025 07:40:55</t>
+          <t>08-07-2025 13:51:46</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>17655</v>
+        <v>4093</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2536,14 +2529,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2553,53 +2546,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.320081018518518</v>
+        <v>-18.57761574074074</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>241783</v>
+        <v>252402</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>43.325</v>
+        <v>25.075</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 13:14:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 13:54:14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 13:54:14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>08-07-2025 14:19:18</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5199</v>
+        <v>3009</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2612,7 +2605,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>76</v>
@@ -2625,53 +2618,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-11.59674189814815</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252047</v>
+        <v>252298</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88333333333334</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>08-07-2025 13:32:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-07-2025 14:18:43</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-07-2025 14:18:43</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:12</t>
+          <t>09-07-2025 07:29:29</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8506</v>
+        <v>8492</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2684,7 +2677,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
@@ -2697,53 +2690,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.423061342592593</v>
+        <v>-16.31214699074074</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251798</v>
+        <v>252244</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>123.2916666666667</v>
+        <v>107.575</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:12</t>
+          <t>08-07-2025 13:35:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:39:12</t>
+          <t>08-07-2025 14:05:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:39:12</t>
+          <t>08-07-2025 14:05:46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:30</t>
+          <t>09-07-2025 07:53:21</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14795</v>
+        <v>12909</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2769,53 +2762,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-2.328715277777778</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252713</v>
+        <v>252546</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>907.7666666666667</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:30</t>
+          <t>08-07-2025 13:51:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:30</t>
+          <t>08-07-2025 14:10:46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:30</t>
+          <t>08-07-2025 14:10:46</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-07-2025 12:30:16</t>
+          <t>09-07-2025 07:05:24</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>108932</v>
+        <v>6556</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2824,14 +2817,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2841,11 +2834,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-8.295416666666666</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2853,41 +2846,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252652</v>
+        <v>252476</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>186.0083333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-07-2025 12:30:16</t>
+          <t>08-07-2025 14:19:18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:16</t>
+          <t>08-07-2025 14:59:18</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:16</t>
+          <t>08-07-2025 14:59:18</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-07-2025 08:11:16</t>
+          <t>09-07-2025 08:11:39</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>22321</v>
+        <v>8681</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2913,53 +2906,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-2.341423611111111</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252467</v>
+        <v>252999</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>81.16666666666667</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:11:16</t>
+          <t>08-07-2025 14:22:24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:46:16</t>
+          <t>08-07-2025 14:49:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:46:16</t>
+          <t>08-07-2025 14:49:24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:26</t>
+          <t>09-07-2025 12:15:15</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9740</v>
+        <v>39101</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2968,11 +2961,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2985,53 +2978,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252336</v>
+        <v>252814</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
-        <v>120.275</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:26</t>
+          <t>08-07-2025 14:37:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:26</t>
+          <t>09-07-2025 07:13:56</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:26</t>
+          <t>09-07-2025 07:13:56</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-07-2025 12:32:43</t>
+          <t>09-07-2025 08:04:01</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>14433</v>
+        <v>6010</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3040,14 +3033,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3057,11 +3050,11 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-7.522719907407407</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>2</v>
@@ -3069,41 +3062,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252785</v>
+        <v>251849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>55.75</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07-2025 12:32:43</t>
+          <t>09-07-2025 07:05:24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:43</t>
+          <t>09-07-2025 07:39:24</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:43</t>
+          <t>09-07-2025 07:39:24</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:58:28</t>
+          <t>09-07-2025 08:12:47</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6690</v>
+        <v>4006</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3116,66 +3109,73 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-14.34221064814815</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251495</v>
+        <v>252783</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
-        <v>72.34166666666667</v>
+        <v>11.95</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07-2025 13:58:28</t>
+          <t>09-07-2025 07:29:29</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11-07-2025 14:28:28</t>
+          <t>09-07-2025 08:19:29</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11-07-2025 14:28:28</t>
+          <t>09-07-2025 08:19:29</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14-07-2025 07:40:48</t>
+          <t>09-07-2025 08:31:26</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8681</v>
+        <v>1434</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3201,53 +3201,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-5.320005787037037</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252063</v>
+        <v>252220</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>79.94166666666666</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:53:21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 08:38:21</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 08:38:21</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>09-07-2025 09:58:52</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9593</v>
+        <v>9662</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3256,14 +3256,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3273,19 +3273,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-7.360376157407408</v>
+        <v>-23.41587962962963</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252978</v>
+        <v>245623</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3293,33 +3293,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>23.3</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>09-07-2025 08:04:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:56</t>
+          <t>09-07-2025 08:38:01</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:56</t>
+          <t>09-07-2025 08:38:01</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:14</t>
+          <t>09-07-2025 12:18:10</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2796</v>
+        <v>26419</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3345,11 +3345,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-22.38975115740741</v>
+        <v>-165.5126215277778</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -3357,41 +3357,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>243525</v>
+        <v>252085</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>129.9833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:14</t>
+          <t>09-07-2025 08:11:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:14</t>
+          <t>09-07-2025 08:41:39</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:14</t>
+          <t>09-07-2025 08:41:39</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:13</t>
+          <t>09-07-2025 09:10:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>15598</v>
+        <v>3426</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3400,14 +3400,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3417,53 +3417,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-4.493211805555555</v>
+        <v>-21.38208333333333</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>243524</v>
+        <v>251685</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>66.61666666666666</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:13</t>
+          <t>09-07-2025 08:12:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:13</t>
+          <t>09-07-2025 08:29:47</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:13</t>
+          <t>09-07-2025 08:29:47</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:50</t>
+          <t>09-07-2025 10:08:32</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>7994</v>
+        <v>11851</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3472,14 +3472,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3489,11 +3489,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-4.549890046296296</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3501,41 +3501,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252146</v>
+        <v>252364</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>66.63333333333334</v>
+        <v>94.55</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:50</t>
+          <t>09-07-2025 08:31:26</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:50</t>
+          <t>09-07-2025 09:00:26</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:50</t>
+          <t>09-07-2025 09:00:26</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:28</t>
+          <t>09-07-2025 10:34:59</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7996</v>
+        <v>11346</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,14 +3544,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3561,53 +3561,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-9.609357638888889</v>
+        <v>-12.44096643518519</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245089</v>
+        <v>251231</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>1022.208333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:28</t>
+          <t>09-07-2025 09:10:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:28</t>
+          <t>09-07-2025 09:45:12</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:28</t>
+          <t>09-07-2025 09:45:12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11-07-2025 07:56:41</t>
+          <t>09-07-2025 14:57:30</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>122665</v>
+        <v>37477</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,28 +3616,35 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-6.623269675925926</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3645,7 +3652,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244023</v>
+        <v>252713</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3653,33 +3660,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>8.308333333333334</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 09:58:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>09-07-2025 10:28:52</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>09-07-2025 10:28:52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:18</t>
+          <t>11-07-2025 09:36:38</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>997</v>
+        <v>108932</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3688,11 +3695,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3705,11 +3712,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-281.3286863425926</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -3717,41 +3724,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252230</v>
+        <v>252784</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>63.125</v>
+        <v>26.975</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:18</t>
+          <t>09-07-2025 10:08:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:18</t>
+          <t>09-07-2025 10:33:32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:18</t>
+          <t>09-07-2025 10:33:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:26</t>
+          <t>09-07-2025 11:00:31</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>7575</v>
+        <v>3237</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3760,14 +3767,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3777,53 +3784,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-25.40377314814815</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243529</v>
+        <v>252665</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>129.9833333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:26</t>
+          <t>09-07-2025 10:34:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:26</t>
+          <t>09-07-2025 11:03:59</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:26</t>
+          <t>09-07-2025 11:03:59</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:25</t>
+          <t>09-07-2025 11:52:52</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15598</v>
+        <v>5865</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3832,14 +3839,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3849,53 +3856,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.518344907407408</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252144</v>
+        <v>252237</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>54.13333333333333</v>
+        <v>84.95</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:25</t>
+          <t>09-07-2025 11:00:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:25</t>
+          <t>09-07-2025 11:34:31</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:25</t>
+          <t>09-07-2025 11:34:31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:33</t>
+          <t>09-07-2025 12:59:28</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6496</v>
+        <v>10194</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3904,14 +3911,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3921,53 +3928,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-9.580243055555556</v>
+        <v>-8.541296296296297</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252783</v>
+        <v>245089</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>11.95</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:33</t>
+          <t>09-07-2025 11:52:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:33</t>
+          <t>09-07-2025 12:36:52</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:33</t>
+          <t>09-07-2025 12:36:52</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:30</t>
+          <t>11-07-2025 13:39:04</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1434</v>
+        <v>122665</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3976,14 +3983,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3993,7 +4000,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4005,41 +4012,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252814</v>
+        <v>252686</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>50.08333333333334</v>
+        <v>329.15</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:30</t>
+          <t>09-07-2025 12:15:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:30</t>
+          <t>09-07-2025 12:47:15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:30</t>
+          <t>09-07-2025 12:47:15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:35</t>
+          <t>10-07-2025 10:16:24</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6010</v>
+        <v>39498</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4048,14 +4055,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4065,53 +4072,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251231</v>
+        <v>251919</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>312.3083333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:35</t>
+          <t>09-07-2025 12:18:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:35</t>
+          <t>09-07-2025 12:35:10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:35</t>
+          <t>09-07-2025 12:35:10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:14:53</t>
+          <t>09-07-2025 14:55:13</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>37477</v>
+        <v>16806</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4120,35 +4127,28 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-6.593674768518518</v>
+        <v>-23.62168402777778</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4156,41 +4156,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252549</v>
+        <v>252785</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>92.59166666666667</v>
+        <v>55.75</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:14:53</t>
+          <t>09-07-2025 12:59:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:53</t>
+          <t>09-07-2025 13:33:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:53</t>
+          <t>09-07-2025 13:33:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-07-2025 08:27:29</t>
+          <t>09-07-2025 14:29:13</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>11111</v>
+        <v>6690</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4216,14 +4216,14 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4232,33 +4232,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D53" t="n">
         <v>51.88333333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:27:29</t>
+          <t>09-07-2025 14:29:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:29</t>
+          <t>09-07-2025 14:52:13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:29</t>
+          <t>09-07-2025 14:52:13</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:22</t>
+          <t>10-07-2025 07:44:06</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.409282407407408</v>
+        <v>-2.322291666666667</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4300,41 +4300,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252277</v>
+        <v>252549</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D54" t="n">
-        <v>144.925</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:22</t>
+          <t>09-07-2025 14:44:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:22</t>
+          <t>10-07-2025 08:04:08</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:22</t>
+          <t>10-07-2025 08:04:08</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:44:17</t>
+          <t>10-07-2025 09:36:44</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>17391</v>
+        <v>11111</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4352,68 +4352,61 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-20.53075810185185</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252665</v>
+        <v>252723</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
-        <v>48.875</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 14:55:13</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 07:29:13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 07:29:13</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:52</t>
+          <t>10-07-2025 10:03:11</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5865</v>
+        <v>18475</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4422,14 +4415,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4439,19 +4432,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244828</v>
+        <v>252277</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4462,30 +4455,30 @@
         <v>40</v>
       </c>
       <c r="D56" t="n">
-        <v>43.35833333333333</v>
+        <v>144.925</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:52</t>
+          <t>09-07-2025 14:57:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:52</t>
+          <t>10-07-2025 07:37:30</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:52</t>
+          <t>10-07-2025 07:37:30</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 09:42:14</t>
+          <t>10-07-2025 10:02:26</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5203</v>
+        <v>17391</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4494,70 +4487,77 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.404328703703704</v>
+        <v>-20.41835648148148</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252237</v>
+        <v>252547</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
-        <v>84.95</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 09:42:14</t>
+          <t>10-07-2025 07:44:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 10:07:14</t>
+          <t>10-07-2025 08:05:06</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 10:07:14</t>
+          <t>10-07-2025 08:05:06</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:32:11</t>
+          <t>10-07-2025 09:26:16</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>10194</v>
+        <v>9740</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4566,14 +4566,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4583,14 +4583,1094 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-7.48068287037037</v>
+        <v>-6.39324074074074</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>23</v>
+      </c>
+      <c r="D58" t="n">
+        <v>61.49166666666667</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:26:16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:49:16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:49:16</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:50:45</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>7379</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>06-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>-4.451915509259259</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>35</v>
+      </c>
+      <c r="D59" t="n">
+        <v>144.4583333333333</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:36:44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:11:44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:11:44</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:36:11</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>17335</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>70</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>10-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>-0.5251331018518518</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>252243</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
+      </c>
+      <c r="D60" t="n">
+        <v>96.70833333333333</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:02:26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:37:26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:37:26</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:14:08</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>11605</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>14-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>243524</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>19</v>
+      </c>
+      <c r="D61" t="n">
+        <v>66.61666666666666</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:03:11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:22:11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:22:11</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:28:48</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>7994</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>76</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>-6.478333333333333</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>251798</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>32</v>
+      </c>
+      <c r="D62" t="n">
+        <v>123.2916666666667</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:16:24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:48:24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:48:24</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:51:41</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>14795</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>76</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>15-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>251495</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>45</v>
+      </c>
+      <c r="D63" t="n">
+        <v>72.34166666666667</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11-07-2025 09:36:38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:21:38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:21:38</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:33:58</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>8681</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>09-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>-2.481927083333333</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>252790</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>45</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.10833333333333</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:33:58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:18:58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:18:58</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:31:05</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1453</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>70</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>25-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>252467</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>81.16666666666667</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:31:05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:56:05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:56:05</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:17:15</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>70</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>17-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>251926</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>46</v>
+      </c>
+      <c r="D66" t="n">
+        <v>78.91666666666667</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:39:04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:25:04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:25:04</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:43:59</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>9470</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>70</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>09-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>-5.322216435185185</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>252899</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
+      </c>
+      <c r="D67" t="n">
+        <v>180.5666666666667</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:17:15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:52:15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:52:15</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>14-07-2025 09:52:49</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>21668</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>24-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>27</v>
+      </c>
+      <c r="D68" t="n">
+        <v>486.5916666666666</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:43:59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>14-07-2025 08:10:59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>14-07-2025 08:10:59</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:17:35</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>58391</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>70</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>-11.34554398148148</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>252157</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>55</v>
+      </c>
+      <c r="D69" t="n">
+        <v>396.825</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14-07-2025 09:52:49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>14-07-2025 10:47:49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>14-07-2025 10:47:49</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>15-07-2025 09:24:38</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>47619</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>9</v>
+      </c>
+      <c r="M69" t="n">
+        <v>70</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>18-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>-27.39211226851852</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>252755</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>109.575</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:17:35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:44:35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:44:35</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:34:09</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>13149</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>17-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>252336</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D71" t="n">
+        <v>120.275</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15-07-2025 09:24:38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:09:38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:09:38</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>15-07-2025 12:09:55</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>14433</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>-11.50688657407407</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>31</v>
+      </c>
+      <c r="D72" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:34:09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:05:09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:05:09</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>15-07-2025 12:07:39</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>-11.50531828703704</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252071</v>
+        <v>251790</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>45.73333333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>08-07-2025 11:12:03</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5488</v>
+        <v>28207</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -602,53 +602,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-26.33800925925926</v>
+        <v>-8.466707175925926</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252371</v>
+        <v>244023</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>50.04166666666666</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:12:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 11:48:03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 11:48:03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>08-07-2025 11:56:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6005</v>
+        <v>997</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,14 +657,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-8.358362268518519</v>
+        <v>-281.4974768518518</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -686,41 +686,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251790</v>
+        <v>252298</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>235.0583333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:56:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>08-07-2025 13:47:08</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>28207</v>
+        <v>8492</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
@@ -746,53 +746,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-8.469484953703704</v>
+        <v>-15.57439814814815</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251674</v>
+        <v>251849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56.5</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>147.125</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 13:47:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 14:19:08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 14:19:08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:23:37</t>
+          <t>08-07-2025 14:52:31</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17655</v>
+        <v>4006</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,28 +801,35 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.433072916666667</v>
+        <v>-13.61980324074074</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -830,41 +837,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252152</v>
+        <v>251231</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>27.36666666666667</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:52:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>09-07-2025 07:09:31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>09-07-2025 07:09:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:22</t>
+          <t>09-07-2025 12:21:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3284</v>
+        <v>37477</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,70 +880,77 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-18.34539351851852</v>
+        <v>-6.51515625</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252047</v>
+        <v>252085</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>70.88333333333334</v>
+        <v>28.55</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 12:21:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 12:40:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 12:40:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>09-07-2025 13:09:22</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8506</v>
+        <v>3426</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +959,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,53 +976,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.354085648148148</v>
+        <v>-21.54817708333333</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>243525</v>
+        <v>252665</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>129.9833333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 13:09:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 13:28:22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 13:28:22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>09-07-2025 14:17:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15598</v>
+        <v>5865</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1031,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,53 +1048,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-4.409710648148148</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>243569</v>
+        <v>252237</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>21.675</v>
+        <v>84.95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 14:17:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>10-07-2025 08:16:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2601</v>
+        <v>10194</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1103,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,53 +1120,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-295.3344965277778</v>
+        <v>-9.344583333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252207</v>
+        <v>252087</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>51.55</v>
+        <v>35.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>10-07-2025 08:16:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:40</t>
+          <t>10-07-2025 08:48:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:40</t>
+          <t>10-07-2025 08:48:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:13</t>
+          <t>10-07-2025 09:23:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6186</v>
+        <v>4260</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,14 +1175,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1178,19 +1192,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-12.39460069444444</v>
+        <v>-11.39145833333333</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>250284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1212,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>8.308333333333334</v>
+        <v>146.35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>10-07-2025 09:23:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:44</t>
+          <t>10-07-2025 09:48:42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:44</t>
+          <t>10-07-2025 09:48:42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:02</t>
+          <t>10-07-2025 12:15:03</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>17562</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1237,7 +1251,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1250,53 +1264,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-281.3660011574074</v>
+        <v>-120.5104513888889</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>241783</v>
+        <v>252783</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>43.325</v>
+        <v>11.95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:22</t>
+          <t>10-07-2025 12:15:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:22</t>
+          <t>10-07-2025 12:34:03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:22</t>
+          <t>10-07-2025 12:34:03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 09:30:41</t>
+          <t>10-07-2025 12:46:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5199</v>
+        <v>1434</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1319,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,7 +1336,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1334,41 +1348,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252997</v>
+        <v>252999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>40.01666666666667</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:53</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:53</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:54</t>
+          <t>08-07-2025 13:07:50</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4802</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,14 +1391,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1394,53 +1408,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252347</v>
+        <v>252230</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>92.28333333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:02</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:02</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:19</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>11074</v>
+        <v>7575</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,14 +1463,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1466,53 +1480,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4530034722222222</v>
+        <v>-25.35008680555556</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252146</v>
+        <v>252063</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>66.63333333333334</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:02</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:23:02</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:23:02</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:40</t>
+          <t>08-07-2025 10:03:04</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7996</v>
+        <v>9593</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1538,53 +1552,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-9.437274305555556</v>
+        <v>-7.418796296296296</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252652</v>
+        <v>251798</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>186.0083333333333</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:13</t>
+          <t>08-07-2025 10:03:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:13</t>
+          <t>08-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:13</t>
+          <t>08-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:14</t>
+          <t>08-07-2025 12:23:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22321</v>
+        <v>14795</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,14 +1607,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1610,53 +1624,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252063</v>
+        <v>243529</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>79.94166666666666</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:30:41</t>
+          <t>08-07-2025 12:23:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:41</t>
+          <t>08-07-2025 12:40:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:41</t>
+          <t>08-07-2025 12:40:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:25:38</t>
+          <t>08-07-2025 14:50:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>9593</v>
+        <v>15598</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1682,11 +1696,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-7.476134259259259</v>
+        <v>-4.618292824074074</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1694,41 +1708,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>243335</v>
+        <v>252636</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>275.0333333333334</v>
+        <v>11.275</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:54</t>
+          <t>08-07-2025 14:50:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:54</t>
+          <t>09-07-2025 07:24:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:54</t>
+          <t>09-07-2025 07:24:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:56</t>
+          <t>09-07-2025 07:35:37</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>33004</v>
+        <v>1353</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,14 +1751,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1754,53 +1768,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-340.6096759259259</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252978</v>
+        <v>252364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>23.3</v>
+        <v>94.55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>09-07-2025 07:35:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:59</t>
+          <t>09-07-2025 07:52:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:59</t>
+          <t>09-07-2025 07:52:37</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:17</t>
+          <t>09-07-2025 09:27:10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2796</v>
+        <v>11346</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1809,14 +1823,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1826,53 +1840,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-22.45019675925926</v>
+        <v>-12.39386574074074</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252087</v>
+        <v>252243</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.5</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>35.5</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:23:37</t>
+          <t>09-07-2025 09:27:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:07</t>
+          <t>09-07-2025 10:03:10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:07</t>
+          <t>09-07-2025 10:03:10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:37</t>
+          <t>09-07-2025 11:39:52</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4260</v>
+        <v>11605</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1881,14 +1895,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1898,53 +1912,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-9.494184027777777</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>243529</v>
+        <v>252784</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>129.9833333333333</v>
+        <v>26.975</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:40</t>
+          <t>09-07-2025 11:39:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:40</t>
+          <t>09-07-2025 12:13:52</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:40</t>
+          <t>09-07-2025 12:13:52</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:39</t>
+          <t>09-07-2025 12:40:51</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>15598</v>
+        <v>3237</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1953,14 +1967,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1970,11 +1984,11 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-4.540734953703704</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -1982,41 +1996,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>244828</v>
+        <v>241783</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>43.35833333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:17</t>
+          <t>09-07-2025 12:40:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:17</t>
+          <t>09-07-2025 13:16:51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:17</t>
+          <t>09-07-2025 13:16:51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:38</t>
+          <t>09-07-2025 14:00:10</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5203</v>
+        <v>5199</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,14 +2039,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2042,11 +2056,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.504612268518519</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2054,41 +2068,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252230</v>
+        <v>252277</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>63.125</v>
+        <v>144.925</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:19</t>
+          <t>09-07-2025 14:00:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:19</t>
+          <t>09-07-2025 14:34:10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:19</t>
+          <t>09-07-2025 14:34:10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:27</t>
+          <t>10-07-2025 08:59:06</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7575</v>
+        <v>17391</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2097,28 +2111,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-25.52600694444444</v>
+        <v>-20.374375</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2126,7 +2147,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250284</v>
+        <v>252547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2134,33 +2155,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>146.35</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>10-07-2025 08:59:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:03</t>
+          <t>10-07-2025 09:18:06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:03</t>
+          <t>10-07-2025 09:18:06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:24</t>
+          <t>10-07-2025 10:39:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>17562</v>
+        <v>9740</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2173,7 +2194,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2186,53 +2207,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-118.5988946759259</v>
+        <v>-6.443935185185185</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251632</v>
+        <v>252201</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>588.5083333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:25:38</t>
+          <t>10-07-2025 10:39:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:38</t>
+          <t>10-07-2025 11:13:16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:38</t>
+          <t>10-07-2025 11:13:16</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-07-2025 14:44:08</t>
+          <t>10-07-2025 11:47:22</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>70621</v>
+        <v>4093</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2241,14 +2262,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2258,53 +2279,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.613987268518518</v>
+        <v>-20.49123263888889</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252345</v>
+        <v>252402</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>43.325</v>
+        <v>25.075</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:37</t>
+          <t>10-07-2025 11:47:22</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:07</t>
+          <t>10-07-2025 12:06:22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:07</t>
+          <t>10-07-2025 12:06:22</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:27</t>
+          <t>10-07-2025 12:31:27</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5199</v>
+        <v>3009</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2313,14 +2334,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2330,53 +2351,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.5482291666666667</v>
+        <v>-13.52184027777778</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252144</v>
+        <v>252152</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>54.13333333333333</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:38</t>
+          <t>10-07-2025 12:31:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:38</t>
+          <t>10-07-2025 12:48:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:38</t>
+          <t>10-07-2025 12:48:27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:46</t>
+          <t>10-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6496</v>
+        <v>3284</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2389,7 +2410,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
@@ -2402,53 +2423,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-9.566510416666667</v>
+        <v>-20.55265046296296</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252636</v>
+        <v>252723</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>11.275</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:27</t>
+          <t>10-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:27</t>
+          <t>10-07-2025 13:32:49</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:27</t>
+          <t>10-07-2025 13:32:49</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:43</t>
+          <t>11-07-2025 08:06:46</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1353</v>
+        <v>18475</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2457,14 +2478,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2474,53 +2495,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252201</v>
+        <v>252347</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>34.10833333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:39</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:39</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:39</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:46</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4093</v>
+        <v>11074</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2529,14 +2550,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2546,53 +2567,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-18.57761574074074</v>
+        <v>-0.3783217592592593</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252402</v>
+        <v>252345</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D30" t="n">
-        <v>25.075</v>
+        <v>43.325</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:14</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:14</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:14</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:18</t>
+          <t>08-07-2025 10:20:36</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3009</v>
+        <v>5199</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2601,14 +2622,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2618,53 +2639,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-11.59674189814815</v>
+        <v>-0.4309780092592593</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252298</v>
+        <v>251674</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46</v>
+        <v>52.5</v>
       </c>
       <c r="D31" t="n">
-        <v>70.76666666666667</v>
+        <v>147.125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:43</t>
+          <t>08-07-2025 10:20:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:43</t>
+          <t>08-07-2025 11:13:06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:43</t>
+          <t>08-07-2025 11:13:06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:29:29</t>
+          <t>08-07-2025 13:40:14</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8492</v>
+        <v>17655</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2673,14 +2694,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-16.31214699074074</v>
+        <v>-1.569606481481481</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
@@ -2702,41 +2723,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252244</v>
+        <v>252476</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>52.5</v>
       </c>
       <c r="D32" t="n">
-        <v>107.575</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:46</t>
+          <t>08-07-2025 13:40:14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:46</t>
+          <t>08-07-2025 14:32:44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:46</t>
+          <t>08-07-2025 14:32:44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:21</t>
+          <t>09-07-2025 07:45:04</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12909</v>
+        <v>8681</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2745,70 +2766,70 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>70</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>-2.32296875</v>
+      </c>
+      <c r="S32" t="n">
         <v>4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>07-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>-2.328715277777778</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252546</v>
+        <v>252220</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>54.63333333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:46</t>
+          <t>09-07-2025 07:45:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:46</t>
+          <t>09-07-2025 08:17:34</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:46</t>
+          <t>09-07-2025 08:17:34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:24</t>
+          <t>09-07-2025 09:38:05</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6556</v>
+        <v>9662</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2817,14 +2838,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2834,53 +2855,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-8.295416666666666</v>
+        <v>-23.4014525462963</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252476</v>
+        <v>251685</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>72.34166666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:18</t>
+          <t>09-07-2025 09:38:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:18</t>
+          <t>09-07-2025 10:12:35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:18</t>
+          <t>09-07-2025 10:12:35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:11:39</t>
+          <t>09-07-2025 11:51:21</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8681</v>
+        <v>11851</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2893,7 +2914,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2906,53 +2927,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-2.341423611111111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252999</v>
+        <v>252652</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>36.5</v>
       </c>
       <c r="D35" t="n">
-        <v>325.8416666666666</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:24</t>
+          <t>09-07-2025 11:51:21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:24</t>
+          <t>09-07-2025 12:27:51</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:24</t>
+          <t>09-07-2025 12:27:51</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:15</t>
+          <t>10-07-2025 07:33:51</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>39101</v>
+        <v>22321</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2961,11 +2982,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2978,53 +2999,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252814</v>
+        <v>252549</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>50.08333333333334</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:56</t>
+          <t>10-07-2025 07:33:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:56</t>
+          <t>10-07-2025 08:08:21</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:56</t>
+          <t>10-07-2025 08:08:21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:01</t>
+          <t>10-07-2025 09:40:57</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6010</v>
+        <v>11111</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3033,70 +3054,70 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>20-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>14-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251849</v>
+        <v>252350</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>33.38333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:24</t>
+          <t>10-07-2025 09:40:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:24</t>
+          <t>10-07-2025 10:13:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:24</t>
+          <t>10-07-2025 10:13:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:47</t>
+          <t>10-07-2025 11:05:20</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4006</v>
+        <v>6226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3105,77 +3126,70 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.34221064814815</v>
+        <v>-2.462037037037037</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252783</v>
+        <v>252638</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>11.95</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:29:29</t>
+          <t>10-07-2025 11:05:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:29</t>
+          <t>10-07-2025 11:41:50</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:29</t>
+          <t>10-07-2025 11:41:50</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:31:26</t>
+          <t>10-07-2025 12:43:19</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1434</v>
+        <v>7379</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3188,7 +3202,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3201,53 +3215,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-4.530086805555555</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252220</v>
+        <v>251632</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>80.51666666666667</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:21</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:21</t>
+          <t>08-07-2025 08:15:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:21</t>
+          <t>08-07-2025 08:15:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:52</t>
+          <t>09-07-2025 10:03:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9662</v>
+        <v>70621</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3256,11 +3270,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3273,11 +3287,11 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-23.41587962962963</v>
+        <v>-2.419103009259259</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -3285,7 +3299,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245623</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3293,33 +3307,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>220.1583333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:01</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:01</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:01</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 12:18:10</t>
+          <t>08-07-2025 07:40:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>26419</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3332,10 +3346,10 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3345,11 +3359,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-165.5126215277778</v>
+        <v>-295.3199131944444</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -3357,41 +3371,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252085</v>
+        <v>252371</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>28.55</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:11:39</t>
+          <t>08-07-2025 07:40:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:41:39</t>
+          <t>08-07-2025 07:57:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:41:39</t>
+          <t>08-07-2025 07:57:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 09:10:12</t>
+          <t>08-07-2025 08:47:43</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3426</v>
+        <v>6005</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3400,14 +3414,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3417,53 +3431,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-21.38208333333333</v>
+        <v>-8.366469907407408</v>
       </c>
       <c r="S41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251685</v>
+        <v>252071</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>98.75833333333334</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:47</t>
+          <t>08-07-2025 08:47:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:47</t>
+          <t>08-07-2025 09:04:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:47</t>
+          <t>08-07-2025 09:04:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:08:32</t>
+          <t>08-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>11851</v>
+        <v>5488</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3472,14 +3486,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3489,53 +3503,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-26.41003472222222</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252364</v>
+        <v>243525</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>94.55</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:31:26</t>
+          <t>08-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:26</t>
+          <t>08-07-2025 10:09:27</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:26</t>
+          <t>08-07-2025 10:09:27</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:59</t>
+          <t>08-07-2025 12:19:26</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>11346</v>
+        <v>15598</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,14 +3558,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3561,53 +3575,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-12.44096643518519</v>
+        <v>-4.513495370370371</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251231</v>
+        <v>251919</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>312.3083333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:10:12</t>
+          <t>08-07-2025 12:19:26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:12</t>
+          <t>08-07-2025 12:53:26</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:12</t>
+          <t>08-07-2025 12:53:26</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 14:57:30</t>
+          <t>09-07-2025 07:13:29</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37477</v>
+        <v>16806</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,35 +3630,28 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.623269675925926</v>
+        <v>-23.30103009259259</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3652,41 +3659,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252713</v>
+        <v>245623</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>907.7666666666667</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:52</t>
+          <t>09-07-2025 07:13:29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:28:52</t>
+          <t>09-07-2025 07:30:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:28:52</t>
+          <t>09-07-2025 07:30:29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:38</t>
+          <t>09-07-2025 11:10:38</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>108932</v>
+        <v>26419</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3695,14 +3702,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3712,53 +3719,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-165.4657233796296</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252784</v>
+        <v>252997</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>26.975</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:08:32</t>
+          <t>09-07-2025 11:10:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:33:32</t>
+          <t>09-07-2025 11:29:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:33:32</t>
+          <t>09-07-2025 11:29:38</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:31</t>
+          <t>09-07-2025 12:09:39</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3237</v>
+        <v>4802</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3767,14 +3774,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3784,7 +3791,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3796,41 +3803,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252665</v>
+        <v>252686</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>48.875</v>
+        <v>329.15</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:59</t>
+          <t>09-07-2025 12:09:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:59</t>
+          <t>09-07-2025 12:26:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:59</t>
+          <t>09-07-2025 12:26:39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:52</t>
+          <t>10-07-2025 09:55:48</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5865</v>
+        <v>39498</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3839,14 +3846,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3856,53 +3863,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252237</v>
+        <v>243335</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>84.95</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:31</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:34:31</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:34:31</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:28</t>
+          <t>08-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>10194</v>
+        <v>33004</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3911,14 +3918,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3928,11 +3935,11 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-8.541296296296297</v>
+        <v>-340.5034953703704</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3940,41 +3947,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245089</v>
+        <v>252978</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>1022.208333333333</v>
+        <v>23.3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:52</t>
+          <t>08-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:36:52</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:36:52</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11-07-2025 13:39:04</t>
+          <t>08-07-2025 13:03:20</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>122665</v>
+        <v>2796</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3987,7 +3994,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
@@ -4000,53 +4007,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-22.54398148148148</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252686</v>
+        <v>252144</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>329.15</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:15</t>
+          <t>08-07-2025 13:03:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:47:15</t>
+          <t>08-07-2025 13:38:20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:47:15</t>
+          <t>08-07-2025 13:38:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:24</t>
+          <t>08-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>39498</v>
+        <v>6496</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4055,14 +4062,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4072,53 +4079,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-9.60587962962963</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251919</v>
+        <v>252814</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>140.05</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:18:10</t>
+          <t>08-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:10</t>
+          <t>09-07-2025 07:02:28</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:10</t>
+          <t>09-07-2025 07:02:28</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:13</t>
+          <t>09-07-2025 07:52:33</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>16806</v>
+        <v>6010</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4127,14 +4134,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4144,53 +4151,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-23.62168402777778</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252785</v>
+        <v>252047</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>55.75</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:28</t>
+          <t>09-07-2025 07:52:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:33:28</t>
+          <t>09-07-2025 08:22:33</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:33:28</t>
+          <t>09-07-2025 08:22:33</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:13</t>
+          <t>09-07-2025 09:33:26</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6690</v>
+        <v>8506</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4199,14 +4206,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4216,53 +4223,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-10.39821759259259</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252350</v>
+        <v>244828</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>51.88333333333333</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:13</t>
+          <t>09-07-2025 09:33:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:13</t>
+          <t>09-07-2025 10:08:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:13</t>
+          <t>09-07-2025 10:08:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:06</t>
+          <t>09-07-2025 10:51:47</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6226</v>
+        <v>5203</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4271,14 +4278,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4288,11 +4295,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.322291666666667</v>
+        <v>-2.452633101851852</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4300,41 +4307,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252549</v>
+        <v>252713</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>92.59166666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:44:08</t>
+          <t>09-07-2025 10:51:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:08</t>
+          <t>09-07-2025 11:26:47</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:08</t>
+          <t>09-07-2025 11:26:47</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 09:36:44</t>
+          <t>11-07-2025 10:34:33</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>11111</v>
+        <v>108932</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4343,11 +4350,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4360,53 +4367,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252723</v>
+        <v>252157</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>153.9583333333333</v>
+        <v>396.825</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:13</t>
+          <t>11-07-2025 10:34:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:29:13</t>
+          <t>11-07-2025 11:19:33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:29:13</t>
+          <t>11-07-2025 11:19:33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 10:03:11</t>
+          <t>14-07-2025 09:56:23</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>18475</v>
+        <v>47619</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4415,14 +4422,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4432,53 +4439,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-26.41415509259259</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252277</v>
+        <v>252334</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>144.925</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:57:30</t>
+          <t>14-07-2025 09:56:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:30</t>
+          <t>14-07-2025 10:41:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:30</t>
+          <t>14-07-2025 10:41:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:26</t>
+          <t>15-07-2025 10:47:58</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17391</v>
+        <v>58391</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4491,73 +4498,66 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-20.41835648148148</v>
+        <v>-11.44998263888889</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252547</v>
+        <v>252899</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>81.16666666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:06</t>
+          <t>15-07-2025 10:47:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-07-2025 08:05:06</t>
+          <t>15-07-2025 11:22:58</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-07-2025 08:05:06</t>
+          <t>15-07-2025 11:22:58</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 09:26:16</t>
+          <t>15-07-2025 14:23:32</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9740</v>
+        <v>21668</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4583,53 +4583,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-6.39324074074074</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252638</v>
+        <v>252207</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>61.49166666666667</v>
+        <v>51.55</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:26:16</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:16</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:16</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 10:50:45</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>7379</v>
+        <v>6186</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4638,14 +4638,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4655,53 +4655,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-4.451915509259259</v>
+        <v>-12.35524305555556</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252456</v>
+        <v>252546</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>144.4583333333333</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-07-2025 09:36:44</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-07-2025 10:11:44</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-07-2025 10:11:44</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:11</t>
+          <t>08-07-2025 10:01:11</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>17335</v>
+        <v>6556</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4710,14 +4710,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4727,19 +4727,19 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.5251331018518518</v>
+        <v>-7.417488425925926</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252243</v>
+        <v>243524</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4750,30 +4750,30 @@
         <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>96.70833333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:26</t>
+          <t>08-07-2025 10:01:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:37:26</t>
+          <t>08-07-2025 10:36:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:37:26</t>
+          <t>08-07-2025 10:36:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 12:14:08</t>
+          <t>08-07-2025 11:42:48</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11605</v>
+        <v>7994</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-4.488055555555555</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4811,41 +4811,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243524</v>
+        <v>252146</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>66.61666666666666</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:03:11</t>
+          <t>08-07-2025 11:42:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:22:11</t>
+          <t>08-07-2025 12:17:48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:22:11</t>
+          <t>08-07-2025 12:17:48</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 11:28:48</t>
+          <t>08-07-2025 13:24:26</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4871,53 +4871,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-6.478333333333333</v>
+        <v>-9.558634259259259</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251798</v>
+        <v>252244</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>123.2916666666667</v>
+        <v>107.575</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:24</t>
+          <t>08-07-2025 13:24:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:24</t>
+          <t>08-07-2025 13:54:26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:24</t>
+          <t>08-07-2025 13:54:26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 12:51:41</t>
+          <t>09-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>14795</v>
+        <v>12909</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4943,53 +4943,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-2.32083912037037</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251495</v>
+        <v>252785</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>72.34166666666667</v>
+        <v>55.75</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:38</t>
+          <t>09-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:21:38</t>
+          <t>09-07-2025 08:22:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:21:38</t>
+          <t>09-07-2025 08:22:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11-07-2025 11:33:58</t>
+          <t>09-07-2025 09:17:45</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8681</v>
+        <v>6690</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5015,53 +5015,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.481927083333333</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252790</v>
+        <v>245089</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>12.10833333333333</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07-2025 11:33:58</t>
+          <t>09-07-2025 09:17:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:18:58</t>
+          <t>09-07-2025 09:57:45</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:18:58</t>
+          <t>09-07-2025 09:57:45</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:05</t>
+          <t>11-07-2025 10:59:58</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1453</v>
+        <v>122665</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5070,14 +5070,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5087,53 +5087,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252467</v>
+        <v>252456</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>81.16666666666667</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:05</t>
+          <t>11-07-2025 10:59:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:05</t>
+          <t>11-07-2025 11:34:58</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:05</t>
+          <t>11-07-2025 11:34:58</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:17:15</t>
+          <t>11-07-2025 13:59:25</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9740</v>
+        <v>17335</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5159,53 +5159,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-1.582934027777778</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251926</v>
+        <v>252470</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>78.91666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:39:04</t>
+          <t>11-07-2025 13:59:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11-07-2025 14:25:04</t>
+          <t>11-07-2025 14:29:25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11-07-2025 14:25:04</t>
+          <t>11-07-2025 14:29:25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:43:59</t>
+          <t>14-07-2025 07:31:55</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>9470</v>
+        <v>7500</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5231,11 +5231,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-5.322216435185185</v>
+        <v>-10.31383680555555</v>
       </c>
       <c r="S66" t="n">
         <v>4</v>
@@ -5243,41 +5243,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252899</v>
+        <v>251495</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>180.5666666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:17:15</t>
+          <t>14-07-2025 07:31:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:52:15</t>
+          <t>14-07-2025 08:01:55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:52:15</t>
+          <t>14-07-2025 08:01:55</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:49</t>
+          <t>14-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>21668</v>
+        <v>8681</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5303,53 +5303,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-5.384907407407407</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252334</v>
+        <v>251926</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>486.5916666666666</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14-07-2025 07:43:59</t>
+          <t>14-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:59</t>
+          <t>14-07-2025 09:44:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:59</t>
+          <t>14-07-2025 09:44:16</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15-07-2025 08:17:35</t>
+          <t>14-07-2025 11:03:11</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>58391</v>
+        <v>9470</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5375,53 +5375,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-11.34554398148148</v>
+        <v>-5.460543981481481</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252157</v>
+        <v>252336</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>396.825</v>
+        <v>120.275</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:49</t>
+          <t>14-07-2025 11:03:11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:47:49</t>
+          <t>14-07-2025 11:33:11</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:47:49</t>
+          <t>14-07-2025 11:33:11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:38</t>
+          <t>14-07-2025 13:33:27</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>47619</v>
+        <v>14433</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5447,14 +5447,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-27.39211226851852</v>
+        <v>-10.56490162037037</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5463,33 +5463,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
         <v>109.575</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:17:35</t>
+          <t>14-07-2025 13:33:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:44:35</t>
+          <t>14-07-2025 14:03:27</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:44:35</t>
+          <t>14-07-2025 14:03:27</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:09</t>
+          <t>15-07-2025 07:53:02</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5531,41 +5531,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252336</v>
+        <v>252790</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>120.275</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:38</t>
+          <t>15-07-2025 07:53:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>15-07-2025 10:09:38</t>
+          <t>15-07-2025 08:23:02</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15-07-2025 10:09:38</t>
+          <t>15-07-2025 08:23:02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15-07-2025 12:09:55</t>
+          <t>15-07-2025 08:35:08</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>14433</v>
+        <v>1453</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.50688657407407</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>2</v>
@@ -5603,41 +5603,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252470</v>
+        <v>252467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>62.5</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:09</t>
+          <t>15-07-2025 08:35:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>15-07-2025 11:05:09</t>
+          <t>15-07-2025 09:00:08</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15-07-2025 11:05:09</t>
+          <t>15-07-2025 09:00:08</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 12:07:39</t>
+          <t>15-07-2025 10:21:18</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7500</v>
+        <v>9740</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5663,14 +5663,14 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-11.50531828703704</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252071</v>
+        <v>252244</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>45.73333333333333</v>
+        <v>107.575</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>08-07-2025 09:06:34</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5488</v>
+        <v>12909</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -602,53 +602,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-26.33800925925926</v>
+        <v>-1.379565972222222</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252371</v>
+        <v>251919</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>50.04166666666666</v>
+        <v>140.05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 09:06:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:38:34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:38:34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>08-07-2025 11:58:37</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6005</v>
+        <v>16806</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-8.358362268518519</v>
+        <v>-22.49904513888889</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -686,41 +686,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251790</v>
+        <v>252345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>235.0583333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:58:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:32:37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:32:37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>08-07-2025 13:15:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>28207</v>
+        <v>5199</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-8.469484953703704</v>
+        <v>-0.5527430555555556</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -758,41 +758,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251674</v>
+        <v>251849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56.5</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>147.125</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 13:15:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 13:34:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 13:34:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:23:37</t>
+          <t>08-07-2025 14:08:20</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17655</v>
+        <v>4006</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,28 +801,35 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.433072916666667</v>
+        <v>-13.58912037037037</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -830,41 +837,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252152</v>
+        <v>244023</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>27.36666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:08:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>08-07-2025 14:25:20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>08-07-2025 14:25:20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:22</t>
+          <t>08-07-2025 14:33:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3284</v>
+        <v>997</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +880,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,53 +897,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-18.34539351851852</v>
+        <v>-281.6066956018519</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252047</v>
+        <v>251685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>70.88333333333334</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:33:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 14:58:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 14:58:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>09-07-2025 08:37:24</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8506</v>
+        <v>11851</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +952,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,53 +969,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.354085648148148</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>243525</v>
+        <v>252243</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>129.9833333333333</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 08:37:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 09:11:24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 09:11:24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>09-07-2025 10:48:06</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15598</v>
+        <v>11605</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1021,7 +1028,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
@@ -1034,11 +1041,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-4.409710648148148</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1046,41 +1053,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>243569</v>
+        <v>252201</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>21.675</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 10:48:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:05:06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:05:06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>09-07-2025 11:39:13</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2601</v>
+        <v>4093</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,7 +1096,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1106,11 +1113,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-295.3344965277778</v>
+        <v>-19.48556712962963</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1118,41 +1125,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252207</v>
+        <v>252814</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>51.55</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>09-07-2025 11:39:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:40</t>
+          <t>09-07-2025 11:56:13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:40</t>
+          <t>09-07-2025 11:56:13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:13</t>
+          <t>09-07-2025 12:46:18</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6186</v>
+        <v>6010</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1165,7 +1172,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1178,19 +1185,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-12.39460069444444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>241783</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1205,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>8.308333333333334</v>
+        <v>43.325</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>09-07-2025 12:46:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:44</t>
+          <t>09-07-2025 13:03:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:44</t>
+          <t>09-07-2025 13:03:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:02</t>
+          <t>09-07-2025 13:46:37</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>5199</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1240,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,11 +1257,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-281.3660011574074</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1262,41 +1269,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>241783</v>
+        <v>252997</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>43.325</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:22</t>
+          <t>09-07-2025 13:46:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:22</t>
+          <t>09-07-2025 14:18:37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:22</t>
+          <t>09-07-2025 14:18:37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 09:30:41</t>
+          <t>09-07-2025 14:58:38</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5199</v>
+        <v>4802</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1312,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,7 +1329,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1334,41 +1341,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252997</v>
+        <v>243335</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>40.01666666666667</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:53</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:53</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:54</t>
+          <t>08-07-2025 12:21:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4802</v>
+        <v>33004</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1394,11 +1401,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-340.5146064814815</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1406,7 +1413,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252347</v>
+        <v>250284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1414,33 +1421,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>92.28333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>08-07-2025 12:21:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:02</t>
+          <t>08-07-2025 13:09:02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:02</t>
+          <t>08-07-2025 13:09:02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:19</t>
+          <t>09-07-2025 07:35:23</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>11074</v>
+        <v>17562</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,11 +1456,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1466,53 +1473,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4530034722222222</v>
+        <v>-119.3162384259259</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252146</v>
+        <v>252636</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>66.63333333333334</v>
+        <v>11.275</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:02</t>
+          <t>09-07-2025 07:35:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:23:02</t>
+          <t>09-07-2025 08:10:23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:23:02</t>
+          <t>09-07-2025 08:10:23</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:40</t>
+          <t>09-07-2025 08:21:39</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7996</v>
+        <v>1353</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,14 +1528,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1538,11 +1545,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-9.437274305555556</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1550,41 +1557,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252652</v>
+        <v>252364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>186.0083333333333</v>
+        <v>94.55</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:13</t>
+          <t>09-07-2025 08:21:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:13</t>
+          <t>09-07-2025 08:48:39</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:13</t>
+          <t>09-07-2025 08:48:39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:14</t>
+          <t>09-07-2025 10:23:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22321</v>
+        <v>11346</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1597,7 +1604,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1610,53 +1617,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-12.43278356481481</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252063</v>
+        <v>252999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>79.94166666666666</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:30:41</t>
+          <t>09-07-2025 10:23:12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:41</t>
+          <t>09-07-2025 10:52:12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:41</t>
+          <t>09-07-2025 10:52:12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:25:38</t>
+          <t>10-07-2025 08:18:03</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>9593</v>
+        <v>39101</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,14 +1672,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1682,53 +1689,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-7.476134259259259</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>243335</v>
+        <v>252456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>275.0333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:54</t>
+          <t>10-07-2025 08:18:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:54</t>
+          <t>10-07-2025 08:49:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:54</t>
+          <t>10-07-2025 08:49:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:56</t>
+          <t>10-07-2025 11:13:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>33004</v>
+        <v>17335</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,14 +1744,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1754,53 +1761,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-340.6096759259259</v>
+        <v>-0.4677141203703704</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252978</v>
+        <v>252350</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>23.3</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>10-07-2025 11:13:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:59</t>
+          <t>10-07-2025 11:44:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:59</t>
+          <t>10-07-2025 11:44:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:17</t>
+          <t>10-07-2025 12:36:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2796</v>
+        <v>6226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1809,14 +1816,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1826,53 +1833,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-22.45019675925926</v>
+        <v>-2.525271990740741</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252087</v>
+        <v>252638</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.5</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>35.5</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:23:37</t>
+          <t>10-07-2025 12:36:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:07</t>
+          <t>10-07-2025 13:07:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:07</t>
+          <t>10-07-2025 13:07:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:37</t>
+          <t>10-07-2025 14:08:53</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4260</v>
+        <v>7379</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1885,7 +1892,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1898,53 +1905,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-9.494184027777777</v>
+        <v>-4.589502314814815</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>243529</v>
+        <v>252549</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>129.9833333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:40</t>
+          <t>10-07-2025 14:08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:40</t>
+          <t>10-07-2025 14:37:53</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:40</t>
+          <t>10-07-2025 14:37:53</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:39</t>
+          <t>11-07-2025 08:10:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>15598</v>
+        <v>11111</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1953,14 +1960,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1970,53 +1977,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-4.540734953703704</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>244828</v>
+        <v>252755</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>43.35833333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:17</t>
+          <t>11-07-2025 08:10:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:17</t>
+          <t>11-07-2025 08:37:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:17</t>
+          <t>11-07-2025 08:37:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:38</t>
+          <t>11-07-2025 10:27:03</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5203</v>
+        <v>13149</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,14 +2032,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2042,53 +2049,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.504612268518519</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252230</v>
+        <v>252723</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>63.125</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:19</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:19</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:19</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:27</t>
+          <t>08-07-2025 09:54:57</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7575</v>
+        <v>18475</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2114,19 +2121,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-25.52600694444444</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250284</v>
+        <v>252207</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2134,33 +2141,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>146.35</v>
+        <v>51.55</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>08-07-2025 09:54:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:03</t>
+          <t>08-07-2025 10:09:57</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:03</t>
+          <t>08-07-2025 10:09:57</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:24</t>
+          <t>08-07-2025 11:01:30</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>17562</v>
+        <v>6186</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2169,14 +2176,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2186,53 +2193,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-118.5988946759259</v>
+        <v>-12.45938078703704</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251632</v>
+        <v>245089</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>588.5083333333333</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:25:38</t>
+          <t>08-07-2025 11:01:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:38</t>
+          <t>08-07-2025 11:18:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:38</t>
+          <t>08-07-2025 11:18:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-07-2025 14:44:08</t>
+          <t>10-07-2025 12:20:43</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>70621</v>
+        <v>122665</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2241,14 +2248,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2258,53 +2265,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.613987268518518</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252345</v>
+        <v>243524</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>43.325</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:37</t>
+          <t>10-07-2025 12:20:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:07</t>
+          <t>10-07-2025 12:37:43</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:07</t>
+          <t>10-07-2025 12:37:43</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:27</t>
+          <t>10-07-2025 13:44:20</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5199</v>
+        <v>7994</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2313,14 +2320,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2330,11 +2337,11 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.5482291666666667</v>
+        <v>-6.572453703703704</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2342,41 +2349,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252144</v>
+        <v>251926</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>54.13333333333333</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:38</t>
+          <t>10-07-2025 13:44:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:38</t>
+          <t>10-07-2025 14:16:20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:38</t>
+          <t>10-07-2025 14:16:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:46</t>
+          <t>11-07-2025 07:35:15</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6496</v>
+        <v>9470</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2385,14 +2392,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2402,53 +2409,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-9.566510416666667</v>
+        <v>-2.316145833333333</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252636</v>
+        <v>252476</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>11.275</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:27</t>
+          <t>11-07-2025 07:35:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:27</t>
+          <t>11-07-2025 07:52:15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:27</t>
+          <t>11-07-2025 07:52:15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:43</t>
+          <t>11-07-2025 09:04:35</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1353</v>
+        <v>8681</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2474,53 +2481,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-4.378188657407407</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252201</v>
+        <v>252085</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>34.10833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:39</t>
+          <t>11-07-2025 09:04:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:39</t>
+          <t>11-07-2025 09:21:35</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:39</t>
+          <t>11-07-2025 09:21:35</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:46</t>
+          <t>11-07-2025 09:50:08</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4093</v>
+        <v>3426</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2529,14 +2536,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2546,53 +2553,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-18.57761574074074</v>
+        <v>-23.40982060185185</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252402</v>
+        <v>252467</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>25.075</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:14</t>
+          <t>11-07-2025 09:50:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:14</t>
+          <t>11-07-2025 10:07:08</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:14</t>
+          <t>11-07-2025 10:07:08</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:18</t>
+          <t>11-07-2025 11:28:18</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3009</v>
+        <v>9740</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2601,14 +2608,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2618,53 +2625,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-11.59674189814815</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252298</v>
+        <v>252790</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>70.76666666666667</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:43</t>
+          <t>11-07-2025 11:28:18</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:43</t>
+          <t>11-07-2025 11:43:18</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:43</t>
+          <t>11-07-2025 11:43:18</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:29:29</t>
+          <t>11-07-2025 11:55:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8492</v>
+        <v>1453</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2673,14 +2680,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2690,53 +2697,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-16.31214699074074</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252244</v>
+        <v>252336</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>107.575</v>
+        <v>120.275</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:46</t>
+          <t>11-07-2025 11:55:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:46</t>
+          <t>11-07-2025 12:10:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:46</t>
+          <t>11-07-2025 12:10:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:21</t>
+          <t>11-07-2025 14:10:41</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12909</v>
+        <v>14433</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2745,14 +2752,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2762,53 +2769,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-2.328715277777778</v>
+        <v>-7.590758101851852</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252546</v>
+        <v>252784</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>54.63333333333333</v>
+        <v>26.975</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:46</t>
+          <t>11-07-2025 14:10:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:46</t>
+          <t>11-07-2025 14:27:41</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:46</t>
+          <t>11-07-2025 14:27:41</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:24</t>
+          <t>11-07-2025 14:54:40</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6556</v>
+        <v>3237</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2817,14 +2824,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2834,11 +2841,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-8.295416666666666</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2846,41 +2853,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252476</v>
+        <v>252665</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>72.34166666666667</v>
+        <v>48.875</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:18</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:18</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:18</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:11:39</t>
+          <t>08-07-2025 08:21:22</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8681</v>
+        <v>5865</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2889,11 +2896,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2906,53 +2913,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-2.341423611111111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252999</v>
+        <v>252087</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>325.8416666666666</v>
+        <v>35.5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:24</t>
+          <t>08-07-2025 08:21:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:24</t>
+          <t>08-07-2025 08:53:52</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:24</t>
+          <t>08-07-2025 08:53:52</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:15</t>
+          <t>08-07-2025 09:29:22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>39101</v>
+        <v>4260</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2961,11 +2968,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2978,53 +2985,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-9.395399305555555</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252814</v>
+        <v>252347</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>50.08333333333334</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:56</t>
+          <t>08-07-2025 09:29:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:56</t>
+          <t>08-07-2025 10:01:52</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:56</t>
+          <t>08-07-2025 10:01:52</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:01</t>
+          <t>08-07-2025 11:34:09</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6010</v>
+        <v>11074</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3033,14 +3040,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3050,53 +3057,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-0.4820543981481482</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251849</v>
+        <v>252652</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>33.38333333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:24</t>
+          <t>08-07-2025 11:34:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:24</t>
+          <t>08-07-2025 12:06:39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:24</t>
+          <t>08-07-2025 12:06:39</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:47</t>
+          <t>09-07-2025 07:12:40</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4006</v>
+        <v>22321</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3109,73 +3116,66 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.34221064814815</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252783</v>
+        <v>252713</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>11.95</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:29:29</t>
+          <t>09-07-2025 07:12:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:29</t>
+          <t>09-07-2025 07:47:10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:29</t>
+          <t>09-07-2025 07:47:10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:31:26</t>
+          <t>10-07-2025 14:54:56</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1434</v>
+        <v>108932</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3184,11 +3184,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3217,33 +3217,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D39" t="n">
         <v>80.51666666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:21</t>
+          <t>10-07-2025 14:54:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:21</t>
+          <t>11-07-2025 07:27:26</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:21</t>
+          <t>11-07-2025 07:27:26</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:52</t>
+          <t>11-07-2025 08:47:57</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-23.41587962962963</v>
+        <v>-25.36663194444445</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -3285,41 +3285,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245623</v>
+        <v>251495</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>220.1583333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:01</t>
+          <t>11-07-2025 08:47:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:01</t>
+          <t>11-07-2025 09:20:27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:01</t>
+          <t>11-07-2025 09:20:27</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 12:18:10</t>
+          <t>11-07-2025 10:32:47</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>26419</v>
+        <v>8681</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3328,14 +3328,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3345,53 +3345,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-165.5126215277778</v>
+        <v>-2.439438657407408</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252085</v>
+        <v>252157</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="D41" t="n">
-        <v>28.55</v>
+        <v>396.825</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:11:39</t>
+          <t>11-07-2025 10:32:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:41:39</t>
+          <t>11-07-2025 11:11:17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:41:39</t>
+          <t>11-07-2025 11:11:17</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 09:10:12</t>
+          <t>14-07-2025 09:48:07</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3426</v>
+        <v>47619</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3421,49 +3421,49 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-21.38208333333333</v>
+        <v>-26.40841435185185</v>
       </c>
       <c r="S41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251685</v>
+        <v>252334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>38.5</v>
       </c>
       <c r="D42" t="n">
-        <v>98.75833333333334</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:47</t>
+          <t>14-07-2025 09:48:07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:47</t>
+          <t>14-07-2025 10:26:37</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:47</t>
+          <t>14-07-2025 10:26:37</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:08:32</t>
+          <t>15-07-2025 10:33:12</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>11851</v>
+        <v>58391</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3489,53 +3489,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-11.43972800925926</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252364</v>
+        <v>243529</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>94.55</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:31:26</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:26</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:26</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:59</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>11346</v>
+        <v>15598</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,14 +3544,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3561,53 +3561,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-12.44096643518519</v>
+        <v>-4.409710648148148</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251231</v>
+        <v>243525</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>312.3083333333333</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:10:12</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:12</t>
+          <t>08-07-2025 10:14:59</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:12</t>
+          <t>08-07-2025 10:14:59</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 14:57:30</t>
+          <t>08-07-2025 12:24:58</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37477</v>
+        <v>15598</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,35 +3616,28 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.623269675925926</v>
+        <v>-4.517337962962963</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3652,41 +3645,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252713</v>
+        <v>252152</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>907.7666666666667</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:52</t>
+          <t>08-07-2025 12:24:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:28:52</t>
+          <t>08-07-2025 12:54:58</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:28:52</t>
+          <t>08-07-2025 12:54:58</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:38</t>
+          <t>08-07-2025 13:22:20</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>108932</v>
+        <v>3284</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3695,14 +3688,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3712,53 +3705,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-18.55717592592593</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252784</v>
+        <v>252402</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>26.975</v>
+        <v>25.075</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:08:32</t>
+          <t>08-07-2025 13:22:20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:33:32</t>
+          <t>08-07-2025 13:52:20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:33:32</t>
+          <t>08-07-2025 13:52:20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:31</t>
+          <t>08-07-2025 14:17:24</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3237</v>
+        <v>3009</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3767,14 +3760,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3784,53 +3777,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-11.5954224537037</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252665</v>
+        <v>251632</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D47" t="n">
-        <v>48.875</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:59</t>
+          <t>08-07-2025 14:17:24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:59</t>
+          <t>09-07-2025 07:37:24</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:59</t>
+          <t>09-07-2025 07:37:24</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:52</t>
+          <t>10-07-2025 09:25:55</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5865</v>
+        <v>70621</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3839,11 +3832,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3856,53 +3849,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-3.392997685185185</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252237</v>
+        <v>252783</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>84.95</v>
+        <v>11.95</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:31</t>
+          <t>10-07-2025 09:25:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:34:31</t>
+          <t>10-07-2025 10:30:55</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:34:31</t>
+          <t>10-07-2025 10:30:55</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:28</t>
+          <t>10-07-2025 10:42:52</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>10194</v>
+        <v>1434</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3911,14 +3904,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3928,11 +3921,11 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-8.541296296296297</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3940,41 +3933,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245089</v>
+        <v>252785</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>1022.208333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:52</t>
+          <t>10-07-2025 10:42:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:36:52</t>
+          <t>10-07-2025 11:07:52</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:36:52</t>
+          <t>10-07-2025 11:07:52</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11-07-2025 13:39:04</t>
+          <t>10-07-2025 12:03:37</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>122665</v>
+        <v>6690</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3983,14 +3976,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4000,7 +3993,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4012,41 +4005,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252686</v>
+        <v>251674</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>329.15</v>
+        <v>147.125</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:15</t>
+          <t>10-07-2025 12:03:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:47:15</t>
+          <t>10-07-2025 13:08:37</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:47:15</t>
+          <t>10-07-2025 13:08:37</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:24</t>
+          <t>11-07-2025 07:35:44</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>39498</v>
+        <v>17655</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4055,14 +4048,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M50" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4072,53 +4065,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-4.316487268518519</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251919</v>
+        <v>252547</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>140.05</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:18:10</t>
+          <t>11-07-2025 07:35:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:10</t>
+          <t>11-07-2025 08:45:44</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:10</t>
+          <t>11-07-2025 08:45:44</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:13</t>
+          <t>11-07-2025 10:06:54</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>16806</v>
+        <v>9740</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4127,14 +4120,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4144,11 +4137,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-23.62168402777778</v>
+        <v>-7.42146412037037</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4156,41 +4149,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252785</v>
+        <v>252277</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>55.75</v>
+        <v>144.925</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:28</t>
+          <t>11-07-2025 10:06:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:33:28</t>
+          <t>11-07-2025 10:41:54</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:33:28</t>
+          <t>11-07-2025 10:41:54</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:13</t>
+          <t>11-07-2025 13:06:50</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6690</v>
+        <v>17391</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4203,66 +4196,73 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-21.54641203703704</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252350</v>
+        <v>251798</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>51.88333333333333</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:13</t>
+          <t>11-07-2025 13:06:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:13</t>
+          <t>11-07-2025 13:46:50</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:13</t>
+          <t>11-07-2025 13:46:50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:06</t>
+          <t>14-07-2025 07:50:07</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6226</v>
+        <v>14795</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4271,36 +4271,36 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>76</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>15-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>2</v>
-      </c>
-      <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>08-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R53" s="1" t="n">
-        <v>-2.322291666666667</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252549</v>
+        <v>252899</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4308,33 +4308,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>92.59166666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:44:08</t>
+          <t>14-07-2025 07:50:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:08</t>
+          <t>14-07-2025 08:30:07</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:08</t>
+          <t>14-07-2025 08:30:07</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 09:36:44</t>
+          <t>14-07-2025 11:30:41</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>11111</v>
+        <v>21668</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4360,53 +4360,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252723</v>
+        <v>252470</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>153.9583333333333</v>
+        <v>62.5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:13</t>
+          <t>14-07-2025 11:30:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:29:13</t>
+          <t>14-07-2025 12:00:41</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:29:13</t>
+          <t>14-07-2025 12:00:41</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 10:03:11</t>
+          <t>14-07-2025 13:03:11</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>18475</v>
+        <v>7500</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4415,14 +4415,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4432,53 +4432,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-10.54388310185185</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252277</v>
+        <v>251790</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>144.925</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:57:30</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:30</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:30</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:26</t>
+          <t>08-07-2025 11:14:03</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17391</v>
+        <v>28207</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4487,77 +4487,70 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-20.41835648148148</v>
+        <v>-8.468096064814814</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252547</v>
+        <v>243569</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>81.16666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:06</t>
+          <t>08-07-2025 11:14:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-07-2025 08:05:06</t>
+          <t>08-07-2025 11:33:03</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-07-2025 08:05:06</t>
+          <t>08-07-2025 11:33:03</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 09:26:16</t>
+          <t>08-07-2025 11:54:44</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9740</v>
+        <v>2601</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4566,14 +4559,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4583,53 +4576,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-6.39324074074074</v>
+        <v>-295.4963425925926</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252638</v>
+        <v>252978</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>61.49166666666667</v>
+        <v>23.3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:26:16</t>
+          <t>08-07-2025 11:54:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:16</t>
+          <t>08-07-2025 12:13:44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:16</t>
+          <t>08-07-2025 12:13:44</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 10:50:45</t>
+          <t>08-07-2025 12:37:02</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>7379</v>
+        <v>2796</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4638,14 +4631,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4655,53 +4648,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-4.451915509259259</v>
+        <v>-22.52571759259259</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252456</v>
+        <v>252371</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>144.4583333333333</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-07-2025 09:36:44</t>
+          <t>08-07-2025 12:37:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-07-2025 10:11:44</t>
+          <t>08-07-2025 12:54:02</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-07-2025 10:11:44</t>
+          <t>08-07-2025 12:54:02</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:11</t>
+          <t>08-07-2025 13:44:04</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>17335</v>
+        <v>6005</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4710,14 +4703,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4727,53 +4720,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.5251331018518518</v>
+        <v>-8.572274305555556</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252243</v>
+        <v>252063</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>96.70833333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:26</t>
+          <t>08-07-2025 13:44:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:37:26</t>
+          <t>08-07-2025 14:01:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:37:26</t>
+          <t>08-07-2025 14:01:04</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 12:14:08</t>
+          <t>09-07-2025 07:21:01</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11605</v>
+        <v>9593</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4786,7 +4779,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
@@ -4799,11 +4792,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-8.306261574074075</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4811,7 +4804,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243524</v>
+        <v>252546</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4819,33 +4812,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>66.61666666666666</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:03:11</t>
+          <t>09-07-2025 07:21:01</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:22:11</t>
+          <t>09-07-2025 07:36:01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 10:22:11</t>
+          <t>09-07-2025 07:36:01</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 11:28:48</t>
+          <t>09-07-2025 08:30:39</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7994</v>
+        <v>6556</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4871,11 +4864,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-6.478333333333333</v>
+        <v>-8.354618055555555</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4883,41 +4876,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251798</v>
+        <v>252146</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>123.2916666666667</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:24</t>
+          <t>09-07-2025 08:30:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:24</t>
+          <t>09-07-2025 08:49:39</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:24</t>
+          <t>09-07-2025 08:49:39</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 12:51:41</t>
+          <t>09-07-2025 09:56:17</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>14795</v>
+        <v>7996</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4930,7 +4923,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>76</v>
@@ -4943,53 +4936,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-10.41408564814815</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251495</v>
+        <v>252047</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>72.34166666666667</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:38</t>
+          <t>09-07-2025 09:56:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:21:38</t>
+          <t>09-07-2025 10:11:17</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:21:38</t>
+          <t>09-07-2025 10:11:17</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11-07-2025 11:33:58</t>
+          <t>09-07-2025 11:22:10</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8681</v>
+        <v>8506</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4998,14 +4991,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5015,53 +5008,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.481927083333333</v>
+        <v>-10.47372685185185</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252790</v>
+        <v>245623</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
-        <v>12.10833333333333</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07-2025 11:33:58</t>
+          <t>09-07-2025 11:22:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:18:58</t>
+          <t>09-07-2025 11:54:10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:18:58</t>
+          <t>09-07-2025 11:54:10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:05</t>
+          <t>10-07-2025 07:34:19</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1453</v>
+        <v>26419</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5070,14 +5063,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5087,11 +5080,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-166.3155034722222</v>
       </c>
       <c r="S64" t="n">
         <v>2</v>
@@ -5099,41 +5092,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252467</v>
+        <v>252686</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>81.16666666666667</v>
+        <v>329.15</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:05</t>
+          <t>10-07-2025 07:34:19</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:05</t>
+          <t>10-07-2025 07:51:19</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:05</t>
+          <t>10-07-2025 07:51:19</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:17:15</t>
+          <t>10-07-2025 13:20:28</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9740</v>
+        <v>39498</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5142,14 +5135,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5159,7 +5152,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5171,41 +5164,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251926</v>
+        <v>244828</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>78.91666666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:39:04</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11-07-2025 14:25:04</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11-07-2025 14:25:04</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:43:59</t>
+          <t>08-07-2025 08:18:21</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>9470</v>
+        <v>5203</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5214,14 +5207,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5231,19 +5224,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-5.322216435185185</v>
+        <v>-1.346082175925926</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252899</v>
+        <v>252237</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5251,33 +5244,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>180.5666666666667</v>
+        <v>84.95</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:17:15</t>
+          <t>08-07-2025 08:18:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:52:15</t>
+          <t>08-07-2025 08:43:21</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:52:15</t>
+          <t>08-07-2025 08:43:21</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:49</t>
+          <t>08-07-2025 10:08:18</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>21668</v>
+        <v>10194</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5286,14 +5279,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5303,53 +5296,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-7.422436342592593</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252334</v>
+        <v>252230</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>486.5916666666666</v>
+        <v>63.125</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14-07-2025 07:43:59</t>
+          <t>08-07-2025 10:08:18</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:59</t>
+          <t>08-07-2025 10:43:18</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:59</t>
+          <t>08-07-2025 10:43:18</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15-07-2025 08:17:35</t>
+          <t>08-07-2025 11:46:26</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>58391</v>
+        <v>7575</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5358,14 +5351,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5375,19 +5368,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-11.34554398148148</v>
+        <v>-25.4905787037037</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252157</v>
+        <v>252298</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5395,33 +5388,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>396.825</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:49</t>
+          <t>08-07-2025 11:46:26</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:47:49</t>
+          <t>08-07-2025 12:26:26</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:47:49</t>
+          <t>08-07-2025 12:26:26</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:38</t>
+          <t>08-07-2025 13:37:12</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>47619</v>
+        <v>8492</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5430,14 +5423,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5447,53 +5440,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-27.39211226851852</v>
+        <v>-15.5675</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252755</v>
+        <v>252071</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>109.575</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:17:35</t>
+          <t>08-07-2025 13:37:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:44:35</t>
+          <t>08-07-2025 14:07:12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15-07-2025 08:44:35</t>
+          <t>08-07-2025 14:07:12</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:09</t>
+          <t>08-07-2025 14:52:56</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13149</v>
+        <v>5488</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5502,14 +5495,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5519,11 +5512,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-26.62009259259259</v>
       </c>
       <c r="S70" t="n">
         <v>2</v>
@@ -5531,7 +5524,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252336</v>
+        <v>251231</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5539,33 +5532,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>120.275</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:38</t>
+          <t>08-07-2025 14:52:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>15-07-2025 10:09:38</t>
+          <t>09-07-2025 07:27:56</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15-07-2025 10:09:38</t>
+          <t>09-07-2025 07:27:56</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15-07-2025 12:09:55</t>
+          <t>09-07-2025 12:40:14</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>14433</v>
+        <v>37477</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5574,70 +5567,77 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.50688657407407</v>
+        <v>-6.527945601851852</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252470</v>
+        <v>252144</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>62.5</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:09</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>15-07-2025 11:05:09</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15-07-2025 11:05:09</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 12:07:39</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7500</v>
+        <v>6496</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5646,14 +5646,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5663,14 +5663,14 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-11.50531828703704</v>
+        <v>-9.357037037037037</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252244</v>
+        <v>252285</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>107.575</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:34</t>
+          <t>08-07-2025 08:20:08</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12909</v>
+        <v>5537</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,70 +585,75 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.379565972222222</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251919</v>
+        <v>252286</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>140.05</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:34</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:38:34</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:38:34</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:37</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16806</v>
+        <v>6152</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,70 +662,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>152</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-22.49904513888889</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252345</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>43.325</v>
+        <v>21.675</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:37</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:32:37</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:32:37</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:57</t>
+          <t>08-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5199</v>
+        <v>2601</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +739,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,53 +756,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5527430555555556</v>
+        <v>-295.3213020833333</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251849</v>
+        <v>252347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D5" t="n">
-        <v>33.38333333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:57</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:57</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:57</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 14:08:20</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4006</v>
+        <v>11074</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,77 +811,70 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-13.58912037037037</v>
+        <v>-0.3783217592592593</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>244023</v>
+        <v>252298</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>8.308333333333334</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:08:20</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:25:20</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:25:20</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:33:38</t>
+          <t>08-07-2025 08:55:46</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>997</v>
+        <v>8492</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,14 +883,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -897,53 +900,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-281.6066956018519</v>
+        <v>-15.37206018518519</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251685</v>
+        <v>252063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>98.75833333333334</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:33:38</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:58:38</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:58:38</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:24</t>
+          <t>08-07-2025 08:38:56</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11851</v>
+        <v>9593</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -952,14 +955,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -969,11 +972,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-7.360376157407408</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -981,41 +984,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252243</v>
+        <v>243524</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>96.70833333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:24</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:24</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:24</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:06</t>
+          <t>08-07-2025 08:46:37</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11605</v>
+        <v>7994</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,7 +1031,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
@@ -1041,11 +1044,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-4.365706018518519</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1053,41 +1056,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252201</v>
+        <v>243335</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>34.10833333333333</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:06</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:06</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:06</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:13</t>
+          <t>08-07-2025 12:20:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4093</v>
+        <v>33004</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1096,14 +1099,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1113,53 +1116,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-19.48556712962963</v>
+        <v>-340.513912037037</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252814</v>
+        <v>243529</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>50.08333333333334</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:13</t>
+          <t>08-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:56:13</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:56:13</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 12:46:18</t>
+          <t>08-07-2025 10:11:39</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6010</v>
+        <v>15598</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,7 +1175,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1185,53 +1188,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-4.424762731481482</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>241783</v>
+        <v>243525</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>43.325</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 12:46:18</t>
+          <t>08-07-2025 10:11:39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 13:03:18</t>
+          <t>08-07-2025 10:26:39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 13:03:18</t>
+          <t>08-07-2025 10:26:39</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 13:46:37</t>
+          <t>08-07-2025 12:36:38</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5199</v>
+        <v>15598</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,11 +1260,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-4.525445601851852</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252997</v>
+        <v>252978</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1280,30 +1283,30 @@
         <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>40.01666666666667</v>
+        <v>23.3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 13:46:37</t>
+          <t>08-07-2025 08:20:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 14:18:37</t>
+          <t>08-07-2025 08:52:08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 14:18:37</t>
+          <t>08-07-2025 08:52:08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:38</t>
+          <t>08-07-2025 09:15:26</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4802</v>
+        <v>2796</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1316,10 +1319,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1329,19 +1332,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-22.38572337962963</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243335</v>
+        <v>252243</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1349,33 +1352,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>275.0333333333334</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:08:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:08:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 12:21:02</t>
+          <t>08-07-2025 10:44:58</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>33004</v>
+        <v>11605</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,14 +1387,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1401,11 +1404,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-340.5146064814815</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1413,41 +1416,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250284</v>
+        <v>251919</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>146.35</v>
+        <v>140.05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:21:02</t>
+          <t>08-07-2025 08:38:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:02</t>
+          <t>08-07-2025 09:12:56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:02</t>
+          <t>08-07-2025 09:12:56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-07-2025 07:35:23</t>
+          <t>08-07-2025 11:32:59</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17562</v>
+        <v>16806</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1456,14 +1459,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1473,53 +1476,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-119.3162384259259</v>
+        <v>-22.48124421296296</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252636</v>
+        <v>252402</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>11.275</v>
+        <v>25.075</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-07-2025 07:35:23</t>
+          <t>08-07-2025 08:46:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:23</t>
+          <t>08-07-2025 09:21:37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:23</t>
+          <t>08-07-2025 09:21:37</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-07-2025 08:21:39</t>
+          <t>08-07-2025 09:46:41</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1353</v>
+        <v>3009</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,14 +1531,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1545,11 +1548,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-11.40742476851852</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1557,41 +1560,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252364</v>
+        <v>252144</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>94.55</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-07-2025 08:21:39</t>
+          <t>08-07-2025 08:55:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:39</t>
+          <t>08-07-2025 09:35:46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:39</t>
+          <t>08-07-2025 09:35:46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-07-2025 10:23:12</t>
+          <t>08-07-2025 10:29:54</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11346</v>
+        <v>6496</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1600,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1617,53 +1620,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-12.43278356481481</v>
+        <v>-9.437430555555556</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252999</v>
+        <v>252636</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="n">
-        <v>325.8416666666666</v>
+        <v>11.275</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-07-2025 10:23:12</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:12</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:12</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:03</t>
+          <t>08-07-2025 09:48:33</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>39101</v>
+        <v>1353</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1672,11 +1675,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1701,41 +1704,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252456</v>
+        <v>252047</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>144.4583333333333</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:03</t>
+          <t>08-07-2025 09:15:26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10-07-2025 08:49:03</t>
+          <t>08-07-2025 09:34:26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-07-2025 08:49:03</t>
+          <t>08-07-2025 09:34:26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10-07-2025 11:13:30</t>
+          <t>08-07-2025 10:45:19</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17335</v>
+        <v>8506</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,14 +1747,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1761,11 +1764,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4677141203703704</v>
+        <v>-9.448142361111111</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1773,41 +1776,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252350</v>
+        <v>252146</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>51.88333333333333</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-07-2025 11:13:30</t>
+          <t>08-07-2025 09:46:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10-07-2025 11:44:30</t>
+          <t>08-07-2025 10:21:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10-07-2025 11:44:30</t>
+          <t>08-07-2025 10:21:41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:23</t>
+          <t>08-07-2025 11:28:19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6226</v>
+        <v>7996</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1816,14 +1819,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1833,53 +1836,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.525271990740741</v>
+        <v>-9.478003472222222</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252638</v>
+        <v>251674</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>52.5</v>
       </c>
       <c r="D20" t="n">
-        <v>61.49166666666667</v>
+        <v>147.125</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:23</t>
+          <t>08-07-2025 09:48:33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10-07-2025 13:07:23</t>
+          <t>08-07-2025 10:41:03</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10-07-2025 13:07:23</t>
+          <t>08-07-2025 10:41:03</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 14:08:53</t>
+          <t>08-07-2025 13:08:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7379</v>
+        <v>17655</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1888,11 +1891,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1905,53 +1908,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-4.589502314814815</v>
+        <v>-1.547349537037037</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252549</v>
+        <v>251790</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>92.59166666666667</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:08:53</t>
+          <t>08-07-2025 10:29:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:37:53</t>
+          <t>08-07-2025 11:04:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:37:53</t>
+          <t>08-07-2025 11:04:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:28</t>
+          <t>08-07-2025 14:59:57</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>11111</v>
+        <v>28207</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1960,14 +1963,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1977,19 +1980,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-8.624971064814815</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252755</v>
+        <v>241783</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2000,30 +2003,30 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>109.575</v>
+        <v>43.325</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:28</t>
+          <t>08-07-2025 10:44:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11-07-2025 08:37:28</t>
+          <t>08-07-2025 11:11:58</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11-07-2025 08:37:28</t>
+          <t>08-07-2025 11:11:58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11-07-2025 10:27:03</t>
+          <t>08-07-2025 11:55:18</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13149</v>
+        <v>5199</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2032,14 +2035,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2049,53 +2052,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252723</v>
+        <v>252345</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>153.9583333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:55:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:39:18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 12:39:18</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 09:54:57</t>
+          <t>08-07-2025 13:22:37</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>18475</v>
+        <v>5199</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2104,14 +2107,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2121,11 +2124,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-0.5573784722222223</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2133,41 +2136,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252207</v>
+        <v>252237</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>51.55</v>
+        <v>84.95</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 09:54:57</t>
+          <t>08-07-2025 10:45:19</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:57</t>
+          <t>08-07-2025 11:17:19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:57</t>
+          <t>08-07-2025 11:17:19</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:01:30</t>
+          <t>08-07-2025 12:42:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6186</v>
+        <v>10194</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2176,14 +2179,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2193,11 +2196,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-12.45938078703704</v>
+        <v>-7.529357638888889</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2205,41 +2208,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>245089</v>
+        <v>252997</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>1022.208333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:01:30</t>
+          <t>08-07-2025 11:28:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:30</t>
+          <t>08-07-2025 12:03:19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:30</t>
+          <t>08-07-2025 12:03:19</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10-07-2025 12:20:43</t>
+          <t>08-07-2025 12:43:20</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>122665</v>
+        <v>4802</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2255,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2265,7 +2268,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2277,41 +2280,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243524</v>
+        <v>252230</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>66.61666666666666</v>
+        <v>63.125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:20:43</t>
+          <t>08-07-2025 11:32:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:37:43</t>
+          <t>08-07-2025 12:06:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:37:43</t>
+          <t>08-07-2025 12:06:59</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-07-2025 13:44:20</t>
+          <t>08-07-2025 13:10:07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7994</v>
+        <v>7575</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2337,53 +2340,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-6.572453703703704</v>
+        <v>-25.54869212962963</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251926</v>
+        <v>252201</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>78.91666666666667</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-07-2025 13:44:20</t>
+          <t>08-07-2025 12:20:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-07-2025 14:16:20</t>
+          <t>08-07-2025 12:55:02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-07-2025 14:16:20</t>
+          <t>08-07-2025 12:55:02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:15</t>
+          <t>08-07-2025 13:29:08</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>9470</v>
+        <v>4093</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2392,14 +2395,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2409,19 +2412,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.316145833333333</v>
+        <v>-18.56190393518519</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252476</v>
+        <v>251798</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2432,30 +2435,30 @@
         <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>72.34166666666667</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:15</t>
+          <t>08-07-2025 12:36:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11-07-2025 07:52:15</t>
+          <t>08-07-2025 12:53:38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11-07-2025 07:52:15</t>
+          <t>08-07-2025 12:53:38</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11-07-2025 09:04:35</t>
+          <t>08-07-2025 14:56:56</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8681</v>
+        <v>14795</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2464,14 +2467,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2481,53 +2484,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-4.378188657407407</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252085</v>
+        <v>252087</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>28.55</v>
+        <v>35.5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07-2025 09:04:35</t>
+          <t>08-07-2025 12:42:16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11-07-2025 09:21:35</t>
+          <t>08-07-2025 13:14:16</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11-07-2025 09:21:35</t>
+          <t>08-07-2025 13:14:16</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-07-2025 09:50:08</t>
+          <t>08-07-2025 13:49:46</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3426</v>
+        <v>4260</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2540,7 +2543,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2553,11 +2556,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-23.40982060185185</v>
+        <v>-9.576232638888889</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2565,41 +2568,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252467</v>
+        <v>252152</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>81.16666666666667</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07-2025 09:50:08</t>
+          <t>08-07-2025 12:43:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:08</t>
+          <t>08-07-2025 13:28:20</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:08</t>
+          <t>08-07-2025 13:28:20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11-07-2025 11:28:18</t>
+          <t>08-07-2025 13:55:42</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9740</v>
+        <v>3284</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2608,14 +2611,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2625,53 +2628,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-18.58035300925926</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252790</v>
+        <v>251632</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>12.10833333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07-2025 11:28:18</t>
+          <t>08-07-2025 13:08:11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11-07-2025 11:43:18</t>
+          <t>08-07-2025 13:38:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11-07-2025 11:43:18</t>
+          <t>08-07-2025 13:38:41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11-07-2025 11:55:25</t>
+          <t>10-07-2025 07:27:11</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1453</v>
+        <v>70621</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2680,11 +2683,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2697,53 +2700,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-3.310549768518519</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252336</v>
+        <v>252546</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>120.275</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07-2025 11:55:25</t>
+          <t>08-07-2025 13:10:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11-07-2025 12:10:25</t>
+          <t>08-07-2025 13:29:07</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11-07-2025 12:10:25</t>
+          <t>08-07-2025 13:29:07</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11-07-2025 14:10:41</t>
+          <t>08-07-2025 14:23:45</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14433</v>
+        <v>6556</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2752,14 +2755,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2769,53 +2772,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-7.590758101851852</v>
+        <v>-7.599826388888889</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252784</v>
+        <v>252371</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
-        <v>26.975</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07-2025 14:10:41</t>
+          <t>08-07-2025 13:22:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11-07-2025 14:27:41</t>
+          <t>08-07-2025 14:04:37</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11-07-2025 14:27:41</t>
+          <t>08-07-2025 14:04:37</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11-07-2025 14:54:40</t>
+          <t>08-07-2025 14:54:40</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3237</v>
+        <v>6005</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2824,14 +2827,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2841,11 +2844,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-8.621296296296297</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2853,41 +2856,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252665</v>
+        <v>252723</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>48.875</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 13:29:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 14:04:08</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 14:04:08</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-07-2025 08:21:22</t>
+          <t>09-07-2025 08:38:06</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5865</v>
+        <v>18475</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2896,14 +2899,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2913,53 +2916,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252087</v>
+        <v>252686</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>35.5</v>
+        <v>329.15</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 08:21:22</t>
+          <t>08-07-2025 13:49:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:52</t>
+          <t>08-07-2025 14:23:46</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:52</t>
+          <t>08-07-2025 14:23:46</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 09:29:22</t>
+          <t>09-07-2025 11:52:55</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4260</v>
+        <v>39498</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2968,14 +2971,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2985,53 +2988,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-9.395399305555555</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252347</v>
+        <v>244828</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>92.28333333333333</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:29:22</t>
+          <t>08-07-2025 13:55:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:52</t>
+          <t>08-07-2025 14:40:42</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:52</t>
+          <t>08-07-2025 14:40:42</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:09</t>
+          <t>09-07-2025 07:24:04</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11074</v>
+        <v>5203</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3040,14 +3043,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3057,11 +3060,11 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.4820543981481482</v>
+        <v>-2.30837962962963</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3069,41 +3072,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252652</v>
+        <v>245089</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>186.0083333333333</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:09</t>
+          <t>08-07-2025 14:23:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:39</t>
+          <t>08-07-2025 14:40:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:39</t>
+          <t>08-07-2025 14:40:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:40</t>
+          <t>11-07-2025 07:42:57</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>22321</v>
+        <v>122665</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3112,14 +3115,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3141,41 +3144,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252713</v>
+        <v>252476</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>907.7666666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:40</t>
+          <t>08-07-2025 14:54:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:10</t>
+          <t>09-07-2025 07:36:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:10</t>
+          <t>09-07-2025 07:36:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-07-2025 14:54:56</t>
+          <t>09-07-2025 08:49:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>108932</v>
+        <v>8681</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3184,11 +3187,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3201,53 +3204,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-2.367366898148148</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252220</v>
+        <v>252665</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>80.51666666666667</v>
+        <v>48.875</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-07-2025 14:54:56</t>
+          <t>08-07-2025 14:56:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:26</t>
+          <t>09-07-2025 07:30:56</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:26</t>
+          <t>09-07-2025 07:30:56</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11-07-2025 08:47:57</t>
+          <t>09-07-2025 08:19:48</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9662</v>
+        <v>5865</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3256,11 +3259,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3273,53 +3276,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-25.36663194444445</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251495</v>
+        <v>252364</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>72.34166666666667</v>
+        <v>94.55</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07-2025 08:47:57</t>
+          <t>08-07-2025 14:59:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-07-2025 09:20:27</t>
+          <t>09-07-2025 07:39:57</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-07-2025 09:20:27</t>
+          <t>09-07-2025 07:39:57</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:47</t>
+          <t>09-07-2025 09:14:30</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8681</v>
+        <v>11346</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3332,7 +3335,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3345,11 +3348,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-2.439438657407408</v>
+        <v>-12.38507523148148</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3357,41 +3360,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252157</v>
+        <v>252220</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38.5</v>
+        <v>45</v>
       </c>
       <c r="D41" t="n">
-        <v>396.825</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:47</t>
+          <t>09-07-2025 07:24:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11-07-2025 11:11:17</t>
+          <t>09-07-2025 08:09:04</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11-07-2025 11:11:17</t>
+          <t>09-07-2025 08:09:04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14-07-2025 09:48:07</t>
+          <t>09-07-2025 09:29:35</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>47619</v>
+        <v>9662</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3404,7 +3407,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3417,53 +3420,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-26.40841435185185</v>
+        <v>-23.39554398148148</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252334</v>
+        <v>251685</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.5</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5916666666666</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14-07-2025 09:48:07</t>
+          <t>09-07-2025 08:19:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14-07-2025 10:26:37</t>
+          <t>09-07-2025 08:42:48</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14-07-2025 10:26:37</t>
+          <t>09-07-2025 08:42:48</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15-07-2025 10:33:12</t>
+          <t>09-07-2025 10:21:34</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>58391</v>
+        <v>11851</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3476,7 +3479,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3489,53 +3492,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-11.43972800925926</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>243529</v>
+        <v>245623</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>129.9833333333333</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 08:38:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 09:13:06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 09:13:06</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>09-07-2025 12:53:15</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15598</v>
+        <v>26419</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,14 +3547,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3561,53 +3564,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.409710648148148</v>
+        <v>-165.5369849537037</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>243525</v>
+        <v>252785</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>129.9833333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:59</t>
+          <t>09-07-2025 08:49:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-07-2025 10:14:59</t>
+          <t>09-07-2025 09:20:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-07-2025 10:14:59</t>
+          <t>09-07-2025 09:20:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:58</t>
+          <t>09-07-2025 10:15:45</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15598</v>
+        <v>6690</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,14 +3619,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3633,11 +3636,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.517337962962963</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3645,7 +3648,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252152</v>
+        <v>252713</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3656,30 +3659,30 @@
         <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>27.36666666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:58</t>
+          <t>09-07-2025 09:14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 12:54:58</t>
+          <t>09-07-2025 09:44:30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 12:54:58</t>
+          <t>09-07-2025 09:44:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:20</t>
+          <t>11-07-2025 08:52:16</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3284</v>
+        <v>108932</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3688,14 +3691,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3705,53 +3708,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-18.55717592592593</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252402</v>
+        <v>252284</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>25.075</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:20</t>
+          <t>09-07-2025 09:29:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:20</t>
+          <t>09-07-2025 10:09:35</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:20</t>
+          <t>09-07-2025 10:09:35</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 14:17:24</t>
+          <t>09-07-2025 11:00:51</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3009</v>
+        <v>6152</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3760,70 +3763,75 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-11.5954224537037</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251632</v>
+        <v>251231</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>588.5083333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 14:17:24</t>
+          <t>09-07-2025 10:15:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 07:37:24</t>
+          <t>09-07-2025 10:50:45</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 07:37:24</t>
+          <t>09-07-2025 10:50:45</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-07-2025 09:25:55</t>
+          <t>10-07-2025 08:03:04</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>70621</v>
+        <v>37477</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3832,70 +3840,77 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-3.392997685185185</v>
+        <v>-7.335462962962963</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252783</v>
+        <v>252784</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>11.95</v>
+        <v>26.975</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-07-2025 09:25:55</t>
+          <t>09-07-2025 10:21:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:30:55</t>
+          <t>09-07-2025 10:46:34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:30:55</t>
+          <t>09-07-2025 10:46:34</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:42:52</t>
+          <t>09-07-2025 11:13:32</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1434</v>
+        <v>3237</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3933,41 +3948,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252785</v>
+        <v>252999</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>55.75</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-07-2025 10:42:52</t>
+          <t>09-07-2025 11:00:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10-07-2025 11:07:52</t>
+          <t>09-07-2025 11:35:51</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-07-2025 11:07:52</t>
+          <t>09-07-2025 11:35:51</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-07-2025 12:03:37</t>
+          <t>10-07-2025 09:01:41</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6690</v>
+        <v>39101</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3976,11 +3991,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -3993,53 +4008,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251674</v>
+        <v>252783</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>147.125</v>
+        <v>11.95</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-07-2025 12:03:37</t>
+          <t>09-07-2025 11:13:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:37</t>
+          <t>09-07-2025 11:28:32</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:37</t>
+          <t>09-07-2025 11:28:32</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:44</t>
+          <t>09-07-2025 11:40:29</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>17655</v>
+        <v>1434</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4048,11 +4063,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4065,53 +4080,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-4.316487268518519</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252547</v>
+        <v>250284</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>81.16666666666667</v>
+        <v>146.35</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:44</t>
+          <t>09-07-2025 11:40:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11-07-2025 08:45:44</t>
+          <t>09-07-2025 11:59:29</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11-07-2025 08:45:44</t>
+          <t>09-07-2025 11:59:29</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11-07-2025 10:06:54</t>
+          <t>09-07-2025 14:25:50</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9740</v>
+        <v>17562</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4124,7 +4139,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4137,53 +4152,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-7.42146412037037</v>
+        <v>-119.6012789351852</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252277</v>
+        <v>251849</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>144.925</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07-2025 10:06:54</t>
+          <t>09-07-2025 11:52:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11-07-2025 10:41:54</t>
+          <t>09-07-2025 12:26:55</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11-07-2025 10:41:54</t>
+          <t>09-07-2025 12:26:55</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-07-2025 13:06:50</t>
+          <t>09-07-2025 13:00:18</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>17391</v>
+        <v>4006</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4196,14 +4211,14 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>40024 (esterno)</t>
+          <t>40042 (esterno)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4212,57 +4227,57 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>40024</v>
+        <v>40042</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-21.54641203703704</v>
+        <v>-14.54188078703704</v>
       </c>
       <c r="S52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251798</v>
+        <v>252207</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>123.2916666666667</v>
+        <v>51.55</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07-2025 13:06:50</t>
+          <t>09-07-2025 12:53:15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11-07-2025 13:46:50</t>
+          <t>09-07-2025 13:28:15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11-07-2025 13:46:50</t>
+          <t>09-07-2025 13:28:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14-07-2025 07:50:07</t>
+          <t>09-07-2025 14:19:48</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14795</v>
+        <v>6186</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4275,7 +4290,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
@@ -4288,53 +4303,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-13.59708912037037</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252899</v>
+        <v>252814</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>180.5666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14-07-2025 07:50:07</t>
+          <t>09-07-2025 13:00:18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>14-07-2025 08:30:07</t>
+          <t>09-07-2025 13:32:18</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14-07-2025 08:30:07</t>
+          <t>09-07-2025 13:32:18</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14-07-2025 11:30:41</t>
+          <t>09-07-2025 14:22:23</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>21668</v>
+        <v>6010</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4343,14 +4358,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4360,7 +4375,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4372,41 +4387,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252470</v>
+        <v>252277</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>62.5</v>
+        <v>144.925</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14-07-2025 11:30:41</t>
+          <t>09-07-2025 14:19:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>14-07-2025 12:00:41</t>
+          <t>09-07-2025 14:59:48</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14-07-2025 12:00:41</t>
+          <t>09-07-2025 14:59:48</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14-07-2025 13:03:11</t>
+          <t>10-07-2025 09:24:44</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7500</v>
+        <v>17391</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4419,66 +4434,73 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-10.54388310185185</v>
+        <v>-20.39217592592593</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251790</v>
+        <v>252638</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
-        <v>235.0583333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 14:22:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 14:54:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 14:54:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 11:14:03</t>
+          <t>10-07-2025 07:55:53</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>28207</v>
+        <v>7379</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4487,14 +4509,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4504,53 +4526,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-8.468096064814814</v>
+        <v>-4.330474537037037</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243569</v>
+        <v>252456</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
-        <v>21.675</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:14:03</t>
+          <t>09-07-2025 14:25:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:33:03</t>
+          <t>09-07-2025 14:46:50</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:33:03</t>
+          <t>09-07-2025 14:46:50</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:54:44</t>
+          <t>10-07-2025 09:11:18</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2601</v>
+        <v>17335</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4559,14 +4581,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4576,53 +4598,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-295.4963425925926</v>
+        <v>-0.3828472222222222</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252978</v>
+        <v>252549</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>52.5</v>
       </c>
       <c r="D58" t="n">
-        <v>23.3</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 11:54:44</t>
+          <t>10-07-2025 07:27:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 12:13:44</t>
+          <t>10-07-2025 08:19:41</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 12:13:44</t>
+          <t>10-07-2025 08:19:41</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:02</t>
+          <t>10-07-2025 09:52:17</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2796</v>
+        <v>11111</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4631,14 +4653,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4648,53 +4670,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-22.52571759259259</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252371</v>
+        <v>252085</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>50.04166666666666</v>
+        <v>28.55</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:02</t>
+          <t>10-07-2025 07:55:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 12:54:02</t>
+          <t>10-07-2025 08:12:53</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 12:54:02</t>
+          <t>10-07-2025 08:12:53</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:04</t>
+          <t>10-07-2025 08:41:26</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6005</v>
+        <v>3426</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4703,14 +4725,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4720,53 +4742,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-8.572274305555556</v>
+        <v>-22.36210648148148</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252063</v>
+        <v>252244</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
-        <v>79.94166666666666</v>
+        <v>107.575</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:04</t>
+          <t>10-07-2025 08:03:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:04</t>
+          <t>10-07-2025 08:47:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:04</t>
+          <t>10-07-2025 08:47:04</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:01</t>
+          <t>10-07-2025 10:34:38</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>9593</v>
+        <v>12909</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4779,7 +4801,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
@@ -4792,11 +4814,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-8.306261574074075</v>
+        <v>-3.44072337962963</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4804,41 +4826,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252546</v>
+        <v>252350</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>54.63333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:01</t>
+          <t>10-07-2025 08:41:26</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 07:36:01</t>
+          <t>10-07-2025 09:00:26</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 07:36:01</t>
+          <t>10-07-2025 09:00:26</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 08:30:39</t>
+          <t>10-07-2025 09:52:19</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6556</v>
+        <v>6226</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4847,14 +4869,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4864,11 +4886,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-8.354618055555555</v>
+        <v>-2.411331018518518</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4876,41 +4898,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252146</v>
+        <v>244023</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>66.63333333333334</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 08:30:39</t>
+          <t>10-07-2025 09:01:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:39</t>
+          <t>10-07-2025 09:46:41</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:39</t>
+          <t>10-07-2025 09:46:41</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>09-07-2025 09:56:17</t>
+          <t>10-07-2025 09:55:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7996</v>
+        <v>997</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4919,14 +4941,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4936,53 +4958,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-10.41408564814815</v>
+        <v>-283.4131944444445</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252047</v>
+        <v>252652</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>70.88333333333334</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-07-2025 09:56:17</t>
+          <t>10-07-2025 09:11:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-07-2025 10:11:17</t>
+          <t>10-07-2025 09:30:18</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-07-2025 10:11:17</t>
+          <t>10-07-2025 09:30:18</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09-07-2025 11:22:10</t>
+          <t>10-07-2025 12:36:18</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8506</v>
+        <v>22321</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4991,14 +5013,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5008,53 +5030,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-10.47372685185185</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>245623</v>
+        <v>252071</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>220.1583333333333</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-07-2025 11:22:10</t>
+          <t>10-07-2025 09:24:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:10</t>
+          <t>10-07-2025 10:04:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:10</t>
+          <t>10-07-2025 10:04:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 07:34:19</t>
+          <t>10-07-2025 10:50:28</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>26419</v>
+        <v>5488</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5063,14 +5085,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5080,11 +5102,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-166.3155034722222</v>
+        <v>-28.45171296296296</v>
       </c>
       <c r="S64" t="n">
         <v>2</v>
@@ -5092,41 +5114,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252686</v>
+        <v>252547</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D65" t="n">
-        <v>329.15</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 07:34:19</t>
+          <t>10-07-2025 09:52:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 07:51:19</t>
+          <t>10-07-2025 10:26:47</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 07:51:19</t>
+          <t>10-07-2025 10:26:47</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 13:20:28</t>
+          <t>10-07-2025 11:47:57</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>39498</v>
+        <v>9740</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5135,14 +5157,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5152,11 +5174,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-6.491631944444444</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5164,41 +5186,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>244828</v>
+        <v>252755</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>43.35833333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-07-2025 08:52:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>11-07-2025 09:22:16</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>11-07-2025 09:22:16</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:21</t>
+          <t>11-07-2025 11:11:51</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5203</v>
+        <v>13149</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5207,14 +5229,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5224,53 +5246,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-1.346082175925926</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252237</v>
+        <v>252336</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>84.95</v>
+        <v>120.275</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:21</t>
+          <t>11-07-2025 11:11:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:21</t>
+          <t>11-07-2025 11:41:51</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:21</t>
+          <t>11-07-2025 11:41:51</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:18</t>
+          <t>11-07-2025 13:42:07</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>10194</v>
+        <v>14433</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5279,14 +5301,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5296,53 +5318,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-7.422436342592593</v>
+        <v>-7.570920138888889</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252230</v>
+        <v>252790</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>63.125</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:18</t>
+          <t>11-07-2025 13:42:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:18</t>
+          <t>11-07-2025 14:07:07</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:18</t>
+          <t>11-07-2025 14:07:07</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:26</t>
+          <t>11-07-2025 14:19:14</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7575</v>
+        <v>1453</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5351,14 +5373,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5368,53 +5390,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-25.4905787037037</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252298</v>
+        <v>252157</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>70.76666666666667</v>
+        <v>396.825</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:26</t>
+          <t>11-07-2025 14:19:14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:26</t>
+          <t>14-07-2025 07:04:14</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:26</t>
+          <t>14-07-2025 07:04:14</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:12</t>
+          <t>14-07-2025 13:41:03</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8492</v>
+        <v>47619</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5423,14 +5445,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5440,53 +5462,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-15.5675</v>
+        <v>-26.57017939814815</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252071</v>
+        <v>252467</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>45.73333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:12</t>
+          <t>14-07-2025 13:41:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:12</t>
+          <t>14-07-2025 14:26:03</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:12</t>
+          <t>14-07-2025 14:26:03</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:56</t>
+          <t>15-07-2025 07:47:13</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5488</v>
+        <v>9740</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5495,14 +5517,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5512,53 +5534,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-26.62009259259259</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251231</v>
+        <v>251495</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>312.3083333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:56</t>
+          <t>15-07-2025 07:47:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:56</t>
+          <t>15-07-2025 08:32:13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:56</t>
+          <t>15-07-2025 08:32:13</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>09-07-2025 12:40:14</t>
+          <t>15-07-2025 09:44:34</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>37477</v>
+        <v>8681</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5567,77 +5589,70 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-6.527945601851852</v>
+        <v>-6.405949074074074</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252144</v>
+        <v>252470</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>54.13333333333333</v>
+        <v>62.5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>15-07-2025 09:44:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>15-07-2025 10:14:34</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>15-07-2025 10:14:34</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-07-2025 08:34:08</t>
+          <t>15-07-2025 11:17:04</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6496</v>
+        <v>7500</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5646,31 +5661,247 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>-11.47018518518519</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>486.5916666666666</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:17:04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:47:04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:47:04</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>16-07-2025 11:53:39</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>58391</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>70</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>-12.49559606481482</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>251926</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
+        <v>78.91666666666667</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>16-07-2025 11:53:39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>16-07-2025 12:23:39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>16-07-2025 12:23:39</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>16-07-2025 13:42:34</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>9470</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>70</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>09-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>-7.571232638888889</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>252899</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="n">
+        <v>180.5666666666667</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>16-07-2025 13:42:34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>16-07-2025 14:12:34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>16-07-2025 14:12:34</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>17-07-2025 09:13:08</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>21668</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
         <v>3</v>
       </c>
-      <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>29-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R72" s="1" t="n">
-        <v>-9.357037037037037</v>
-      </c>
-      <c r="S72" t="n">
-        <v>7</v>
+      <c r="M75" t="n">
+        <v>70</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252285</v>
+        <v>252286</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>46.14166666666667</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:20:08</t>
+          <t>08-07-2025 08:10:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5537</v>
+        <v>6152</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
         <v>40032</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252286</v>
+        <v>252285</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>51.26666666666667</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -649,11 +649,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:37:16</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6152</v>
+        <v>5537</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>40032</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>252087</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>21.675</v>
+        <v>35.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -716,21 +716,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:36:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 07:36:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:40</t>
+          <t>08-07-2025 08:11:30</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2601</v>
+        <v>4260</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -756,19 +756,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-295.3213020833333</v>
+        <v>-9.341319444444444</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252347</v>
+        <v>250284</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32.5</v>
+        <v>44.5</v>
       </c>
       <c r="D5" t="n">
-        <v>92.28333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 07:44:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 07:44:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>08-07-2025 10:10:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11074</v>
+        <v>17562</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -811,11 +811,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -828,19 +828,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3783217592592593</v>
+        <v>-118.4242013888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252298</v>
+        <v>252230</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>70.76666666666667</v>
+        <v>63.125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -860,21 +860,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:46</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8492</v>
+        <v>7575</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -900,19 +900,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-15.37206018518519</v>
+        <v>-25.36328125</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252063</v>
+        <v>252402</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>79.94166666666666</v>
+        <v>25.075</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>08-07-2025 07:44:04</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9593</v>
+        <v>3009</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -972,19 +972,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-7.360376157407408</v>
+        <v>-11.32227430555556</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>243524</v>
+        <v>252047</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>66.61666666666666</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:37</t>
+          <t>08-07-2025 08:50:53</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7994</v>
+        <v>8506</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-4.365706018518519</v>
+        <v>-9.368668981481482</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>243335</v>
+        <v>252146</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>275.0333333333334</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1076,21 +1076,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:02</t>
+          <t>08-07-2025 08:46:38</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>33004</v>
+        <v>7996</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1116,53 +1116,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-340.513912037037</v>
+        <v>-9.365717592592592</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>243529</v>
+        <v>252144</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>129.9833333333333</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:40</t>
+          <t>08-07-2025 07:44:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>08-07-2025 08:03:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>08-07-2025 08:03:04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:39</t>
+          <t>08-07-2025 08:57:12</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15598</v>
+        <v>6496</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1188,53 +1188,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.424762731481482</v>
+        <v>-9.373061342592592</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>243525</v>
+        <v>252636</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>129.9833333333333</v>
+        <v>11.275</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:39</t>
+          <t>08-07-2025 08:10:16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:39</t>
+          <t>08-07-2025 08:42:16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:39</t>
+          <t>08-07-2025 08:42:16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:38</t>
+          <t>08-07-2025 08:53:32</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15598</v>
+        <v>1353</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1243,14 +1243,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1260,53 +1260,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-4.525445601851852</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252978</v>
+        <v>252152</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:20:08</t>
+          <t>08-07-2025 08:11:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:08</t>
+          <t>08-07-2025 08:43:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:08</t>
+          <t>08-07-2025 08:43:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:26</t>
+          <t>08-07-2025 09:10:52</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2796</v>
+        <v>3284</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,11 +1315,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
@@ -1332,19 +1332,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-22.38572337962963</v>
+        <v>-18.3825462962963</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252243</v>
+        <v>252298</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1352,33 +1352,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>96.70833333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:37:16</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:08:16</t>
+          <t>08-07-2025 09:16:08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:08:16</t>
+          <t>08-07-2025 09:16:08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 10:44:58</t>
+          <t>08-07-2025 10:26:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11605</v>
+        <v>8492</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
@@ -1404,53 +1404,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.43535300925926</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251919</v>
+        <v>251632</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>140.05</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:56</t>
+          <t>08-07-2025 10:13:07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:56</t>
+          <t>08-07-2025 10:13:07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 11:32:59</t>
+          <t>09-07-2025 12:01:38</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16806</v>
+        <v>70621</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1476,53 +1476,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-22.48124421296296</v>
+        <v>-2.501134259259259</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252402</v>
+        <v>243569</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>25.075</v>
+        <v>21.675</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:37</t>
+          <t>08-07-2025 08:46:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:37</t>
+          <t>08-07-2025 09:21:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:37</t>
+          <t>08-07-2025 09:21:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:41</t>
+          <t>08-07-2025 09:43:18</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3009</v>
+        <v>2601</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,11 +1531,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
@@ -1548,53 +1548,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-11.40742476851852</v>
+        <v>-295.4050752314815</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252144</v>
+        <v>252071</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>54.13333333333333</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:46</t>
+          <t>08-07-2025 08:50:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:35:46</t>
+          <t>08-07-2025 09:25:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:35:46</t>
+          <t>08-07-2025 09:25:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:54</t>
+          <t>08-07-2025 10:11:37</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6496</v>
+        <v>5488</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
@@ -1620,53 +1620,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-9.437430555555556</v>
+        <v>-26.4247337962963</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252636</v>
+        <v>252978</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>11.275</v>
+        <v>23.3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>08-07-2025 08:53:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>08-07-2025 09:27:32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>08-07-2025 09:27:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:33</t>
+          <t>08-07-2025 09:50:50</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1353</v>
+        <v>2796</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1675,14 +1675,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1692,53 +1692,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-22.41030671296296</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252047</v>
+        <v>252201</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>70.88333333333334</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:26</t>
+          <t>08-07-2025 08:57:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:26</t>
+          <t>08-07-2025 09:16:12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:26</t>
+          <t>08-07-2025 09:16:12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:45:19</t>
+          <t>08-07-2025 09:50:19</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8506</v>
+        <v>4093</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1764,53 +1764,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-9.448142361111111</v>
+        <v>-18.40994212962963</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252146</v>
+        <v>251798</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>66.63333333333334</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:41</t>
+          <t>08-07-2025 09:10:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:21:41</t>
+          <t>08-07-2025 09:31:52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:21:41</t>
+          <t>08-07-2025 09:31:52</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:19</t>
+          <t>08-07-2025 11:35:09</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7996</v>
+        <v>14795</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>76</v>
@@ -1836,53 +1836,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-9.478003472222222</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251674</v>
+        <v>243335</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>147.125</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:33</t>
+          <t>08-07-2025 09:43:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:41:03</t>
+          <t>08-07-2025 10:18:18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:41:03</t>
+          <t>08-07-2025 10:18:18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:11</t>
+          <t>08-07-2025 14:53:20</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>17655</v>
+        <v>33004</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1908,53 +1908,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.547349537037037</v>
+        <v>-340.6203761574074</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251790</v>
+        <v>251919</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>235.0583333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:29:54</t>
+          <t>08-07-2025 09:50:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:54</t>
+          <t>08-07-2025 10:24:19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:54</t>
+          <t>08-07-2025 10:24:19</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:57</t>
+          <t>08-07-2025 12:44:22</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>28207</v>
+        <v>16806</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1963,14 +1963,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-8.624971064814815</v>
+        <v>-22.53081018518519</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -1992,41 +1992,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>241783</v>
+        <v>244023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>43.325</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:44:58</t>
+          <t>08-07-2025 09:50:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:11:58</t>
+          <t>08-07-2025 10:26:50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:11:58</t>
+          <t>08-07-2025 10:26:50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:18</t>
+          <t>08-07-2025 10:35:09</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5199</v>
+        <v>997</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2035,14 +2035,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-281.4410763888889</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2064,41 +2064,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252345</v>
+        <v>251674</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>42.5</v>
       </c>
       <c r="D23" t="n">
-        <v>43.325</v>
+        <v>147.125</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:18</t>
+          <t>08-07-2025 10:10:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:18</t>
+          <t>08-07-2025 10:53:21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:18</t>
+          <t>08-07-2025 10:53:21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:37</t>
+          <t>08-07-2025 13:20:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5199</v>
+        <v>17655</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2107,11 +2107,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2124,53 +2124,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5573784722222223</v>
+        <v>-1.555885416666667</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252237</v>
+        <v>252207</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>84.95</v>
+        <v>51.55</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:45:19</t>
+          <t>08-07-2025 10:11:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:17:19</t>
+          <t>08-07-2025 10:46:37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:17:19</t>
+          <t>08-07-2025 10:46:37</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:16</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10194</v>
+        <v>6186</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2179,14 +2179,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-7.529357638888889</v>
+        <v>-12.48483796296296</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2208,41 +2208,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252997</v>
+        <v>252371</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>40.01666666666667</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:19</t>
+          <t>08-07-2025 10:26:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:03:19</t>
+          <t>08-07-2025 10:55:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:03:19</t>
+          <t>08-07-2025 10:55:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:43:20</t>
+          <t>08-07-2025 11:45:57</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4802</v>
+        <v>6005</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-8.490243055555556</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2280,41 +2280,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252230</v>
+        <v>251790</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
-        <v>63.125</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:32:59</t>
+          <t>08-07-2025 10:35:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:59</t>
+          <t>08-07-2025 11:11:09</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:59</t>
+          <t>08-07-2025 11:11:09</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:07</t>
+          <t>09-07-2025 07:06:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7575</v>
+        <v>28207</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2340,53 +2340,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-25.54869212962963</v>
+        <v>-9.29597800925926</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252201</v>
+        <v>252546</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>34.10833333333333</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:02</t>
+          <t>08-07-2025 11:35:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:02</t>
+          <t>08-07-2025 11:52:09</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:02</t>
+          <t>08-07-2025 11:52:09</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:08</t>
+          <t>08-07-2025 12:46:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4093</v>
+        <v>6556</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2412,53 +2412,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-18.56190393518519</v>
+        <v>-7.532494212962963</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251798</v>
+        <v>252237</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>123.2916666666667</v>
+        <v>84.95</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:38</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:53:38</t>
+          <t>08-07-2025 12:13:10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:53:38</t>
+          <t>08-07-2025 12:13:10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 14:56:56</t>
+          <t>08-07-2025 13:38:07</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>14795</v>
+        <v>10194</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2467,14 +2467,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2484,53 +2484,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-7.568136574074074</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252087</v>
+        <v>252063</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>35.5</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:16</t>
+          <t>08-07-2025 11:45:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:16</t>
+          <t>08-07-2025 12:12:57</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:14:16</t>
+          <t>08-07-2025 12:12:57</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:46</t>
+          <t>08-07-2025 13:32:53</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4260</v>
+        <v>9593</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2556,53 +2556,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-9.576232638888889</v>
+        <v>-7.564508101851852</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252152</v>
+        <v>243525</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>27.36666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 12:43:20</t>
+          <t>08-07-2025 12:44:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:20</t>
+          <t>08-07-2025 13:18:22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:20</t>
+          <t>08-07-2025 13:18:22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:42</t>
+          <t>09-07-2025 07:28:21</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3284</v>
+        <v>15598</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>76</v>
@@ -2628,53 +2628,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-18.58035300925926</v>
+        <v>-5.311354166666667</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251632</v>
+        <v>243529</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>588.5083333333333</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:11</t>
+          <t>08-07-2025 12:46:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:41</t>
+          <t>08-07-2025 13:05:47</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:41</t>
+          <t>08-07-2025 13:05:47</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:11</t>
+          <t>09-07-2025 07:15:46</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>70621</v>
+        <v>15598</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2683,14 +2683,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2700,53 +2700,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-3.310549768518519</v>
+        <v>-5.302621527777778</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252546</v>
+        <v>252347</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>54.5</v>
       </c>
       <c r="D32" t="n">
-        <v>54.63333333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:07</t>
+          <t>08-07-2025 13:20:28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:07</t>
+          <t>08-07-2025 14:14:58</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:07</t>
+          <t>08-07-2025 14:14:58</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:45</t>
+          <t>09-07-2025 07:47:15</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6556</v>
+        <v>11074</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,14 +2755,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2772,11 +2772,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-7.599826388888889</v>
+        <v>-1.324484953703704</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252371</v>
+        <v>243524</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2792,33 +2792,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
-        <v>50.04166666666666</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:37</t>
+          <t>08-07-2025 13:32:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:37</t>
+          <t>08-07-2025 14:01:53</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:37</t>
+          <t>08-07-2025 14:01:53</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:40</t>
+          <t>09-07-2025 07:08:30</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6005</v>
+        <v>7994</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2827,11 +2827,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>76</v>
@@ -2844,11 +2844,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-8.621296296296297</v>
+        <v>-5.297575231481481</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2856,41 +2856,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252723</v>
+        <v>252244</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>153.9583333333333</v>
+        <v>107.575</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:08</t>
+          <t>08-07-2025 13:38:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:08</t>
+          <t>08-07-2025 14:23:07</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:08</t>
+          <t>08-07-2025 14:23:07</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:06</t>
+          <t>09-07-2025 08:10:41</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>18475</v>
+        <v>12909</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>76</v>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-2.340758101851852</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -2928,41 +2928,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252686</v>
+        <v>252085</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>329.15</v>
+        <v>28.55</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:46</t>
+          <t>08-07-2025 14:53:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:46</t>
+          <t>09-07-2025 07:38:20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:46</t>
+          <t>09-07-2025 07:38:20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:55</t>
+          <t>09-07-2025 08:06:53</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>39498</v>
+        <v>3426</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2971,14 +2971,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2988,53 +2988,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-21.33811921296296</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244828</v>
+        <v>252999</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>43.35833333333333</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:42</t>
+          <t>09-07-2025 07:06:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:42</t>
+          <t>09-07-2025 07:38:12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:42</t>
+          <t>09-07-2025 07:38:12</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:24:04</t>
+          <t>09-07-2025 13:04:03</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5203</v>
+        <v>39101</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3060,53 +3060,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-2.30837962962963</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245089</v>
+        <v>252665</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>1022.208333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:45</t>
+          <t>09-07-2025 07:08:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:45</t>
+          <t>09-07-2025 07:50:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:45</t>
+          <t>09-07-2025 07:50:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-07-2025 07:42:57</t>
+          <t>09-07-2025 08:39:23</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>122665</v>
+        <v>5865</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3115,14 +3115,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3132,53 +3132,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252476</v>
+        <v>252220</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
-        <v>72.34166666666667</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:40</t>
+          <t>09-07-2025 07:15:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:36:40</t>
+          <t>09-07-2025 07:47:46</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:36:40</t>
+          <t>09-07-2025 07:47:46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:00</t>
+          <t>09-07-2025 09:08:17</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3204,11 +3204,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2.367366898148148</v>
+        <v>-23.38075810185185</v>
       </c>
       <c r="S38" t="n">
         <v>4</v>
@@ -3216,41 +3216,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252665</v>
+        <v>245623</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>48.875</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-07-2025 14:56:56</t>
+          <t>09-07-2025 07:28:21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:30:56</t>
+          <t>09-07-2025 08:00:21</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:30:56</t>
+          <t>09-07-2025 08:00:21</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:48</t>
+          <t>09-07-2025 11:40:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5865</v>
+        <v>26419</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3259,14 +3259,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
         <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3276,53 +3276,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-165.4864641203704</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252364</v>
+        <v>251849</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>36.5</v>
       </c>
       <c r="D40" t="n">
-        <v>94.55</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:57</t>
+          <t>09-07-2025 07:47:15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:57</t>
+          <t>09-07-2025 08:23:45</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:57</t>
+          <t>09-07-2025 08:23:45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:30</t>
+          <t>09-07-2025 08:57:08</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>11346</v>
+        <v>4006</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3335,24 +3335,31 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-12.38507523148148</v>
+        <v>-14.3730150462963</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3360,41 +3367,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252220</v>
+        <v>252364</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>80.51666666666667</v>
+        <v>94.55</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 07:24:04</t>
+          <t>09-07-2025 08:06:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:09:04</t>
+          <t>09-07-2025 08:46:53</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:09:04</t>
+          <t>09-07-2025 08:46:53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:35</t>
+          <t>09-07-2025 10:21:26</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9662</v>
+        <v>11346</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3420,11 +3427,11 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-23.39554398148148</v>
+        <v>-12.43155671296296</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
@@ -3432,41 +3439,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251685</v>
+        <v>252284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>98.75833333333334</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:48</t>
+          <t>09-07-2025 08:10:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:42:48</t>
+          <t>09-07-2025 08:55:41</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:42:48</t>
+          <t>09-07-2025 08:55:41</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>09-07-2025 09:46:57</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>11851</v>
+        <v>6152</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3479,66 +3486,71 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>245623</v>
+        <v>252476</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>220.1583333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:06</t>
+          <t>09-07-2025 08:39:23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:13:06</t>
+          <t>09-07-2025 09:06:23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:13:06</t>
+          <t>09-07-2025 09:06:23</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 12:53:15</t>
+          <t>09-07-2025 10:18:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>26419</v>
+        <v>8681</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3547,14 +3559,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3564,53 +3576,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-165.5369849537037</v>
+        <v>-2.429670138888889</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252785</v>
+        <v>251231</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>32.5</v>
       </c>
       <c r="D44" t="n">
-        <v>55.75</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:00</t>
+          <t>09-07-2025 08:57:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:20:00</t>
+          <t>09-07-2025 09:29:38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:20:00</t>
+          <t>09-07-2025 09:29:38</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:15:45</t>
+          <t>09-07-2025 14:41:57</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6690</v>
+        <v>37477</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3619,7 +3631,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3628,19 +3640,26 @@
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-6.612465277777778</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3648,41 +3667,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252713</v>
+        <v>252814</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>907.7666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:30</t>
+          <t>09-07-2025 09:08:17</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:30</t>
+          <t>09-07-2025 09:44:17</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:30</t>
+          <t>09-07-2025 09:44:17</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11-07-2025 08:52:16</t>
+          <t>09-07-2025 10:34:22</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>108932</v>
+        <v>6010</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3691,14 +3710,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3708,19 +3727,19 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252284</v>
+        <v>244828</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3728,33 +3747,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>51.26666666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:35</t>
+          <t>09-07-2025 09:46:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:09:35</t>
+          <t>09-07-2025 10:31:57</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:09:35</t>
+          <t>09-07-2025 10:31:57</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:51</t>
+          <t>09-07-2025 11:15:19</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6152</v>
+        <v>5203</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3763,41 +3782,36 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="N46" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-2.468969907407407</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251231</v>
+        <v>252345</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3805,33 +3819,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>312.3083333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:15:45</t>
+          <t>09-07-2025 10:18:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:50:45</t>
+          <t>09-07-2025 10:47:43</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:50:45</t>
+          <t>09-07-2025 10:47:43</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:04</t>
+          <t>09-07-2025 11:31:03</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>37477</v>
+        <v>5199</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3840,35 +3854,28 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-7.335462962962963</v>
+        <v>-1.479895833333333</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
@@ -3876,41 +3883,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252784</v>
+        <v>252243</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>26.975</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>09-07-2025 10:21:26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:46:34</t>
+          <t>09-07-2025 11:06:26</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:46:34</t>
+          <t>09-07-2025 11:06:26</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:13:32</t>
+          <t>09-07-2025 12:43:09</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3237</v>
+        <v>11605</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3919,14 +3926,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3936,7 +3943,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3948,41 +3955,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252999</v>
+        <v>252997</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>325.8416666666666</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:51</t>
+          <t>09-07-2025 10:34:22</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:51</t>
+          <t>09-07-2025 11:10:22</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:51</t>
+          <t>09-07-2025 11:10:22</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-07-2025 09:01:41</t>
+          <t>09-07-2025 11:50:23</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>39101</v>
+        <v>4802</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3991,14 +3998,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4008,53 +4015,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252783</v>
+        <v>251685</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>11.95</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:13:32</t>
+          <t>09-07-2025 11:15:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:28:32</t>
+          <t>09-07-2025 11:55:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:28:32</t>
+          <t>09-07-2025 11:55:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:29</t>
+          <t>09-07-2025 13:34:04</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1434</v>
+        <v>11851</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4080,7 +4087,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4092,41 +4099,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250284</v>
+        <v>252652</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>146.35</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:29</t>
+          <t>09-07-2025 11:31:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:59:29</t>
+          <t>09-07-2025 12:00:03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:59:29</t>
+          <t>09-07-2025 12:00:03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:50</t>
+          <t>10-07-2025 07:06:03</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17562</v>
+        <v>22321</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4139,7 +4146,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4152,53 +4159,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-119.6012789351852</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251849</v>
+        <v>252686</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>33.38333333333333</v>
+        <v>329.15</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:55</t>
+          <t>09-07-2025 11:40:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:55</t>
+          <t>09-07-2025 11:57:30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:55</t>
+          <t>09-07-2025 11:57:30</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:18</t>
+          <t>10-07-2025 09:26:39</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4006</v>
+        <v>39498</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4207,77 +4214,70 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-14.54188078703704</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252207</v>
+        <v>252785</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
-        <v>51.55</v>
+        <v>55.75</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:53:15</t>
+          <t>09-07-2025 11:50:23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 13:28:15</t>
+          <t>09-07-2025 12:24:23</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 13:28:15</t>
+          <t>09-07-2025 12:24:23</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:19:48</t>
+          <t>09-07-2025 13:20:08</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6186</v>
+        <v>6690</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4286,14 +4286,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4303,11 +4303,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-13.59708912037037</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4315,41 +4315,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252814</v>
+        <v>252713</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>50.08333333333334</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:18</t>
+          <t>09-07-2025 12:01:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:18</t>
+          <t>09-07-2025 13:11:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:18</t>
+          <t>09-07-2025 13:11:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:23</t>
+          <t>11-07-2025 12:19:24</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6010</v>
+        <v>108932</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4358,14 +4358,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4375,19 +4375,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252277</v>
+        <v>252784</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4398,30 +4398,30 @@
         <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>144.925</v>
+        <v>26.975</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:19:48</t>
+          <t>09-07-2025 12:43:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:48</t>
+          <t>09-07-2025 13:23:09</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:48</t>
+          <t>09-07-2025 13:23:09</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 09:24:44</t>
+          <t>09-07-2025 13:50:07</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>17391</v>
+        <v>3237</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4434,39 +4434,32 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-20.39217592592593</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252638</v>
+        <v>252783</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4474,33 +4467,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>61.49166666666667</v>
+        <v>11.95</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:23</t>
+          <t>09-07-2025 13:04:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:23</t>
+          <t>09-07-2025 13:27:03</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:23</t>
+          <t>09-07-2025 13:27:03</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:55:53</t>
+          <t>09-07-2025 13:39:00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7379</v>
+        <v>1434</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4513,7 +4506,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4526,19 +4519,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-4.330474537037037</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252456</v>
+        <v>252723</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4546,33 +4539,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>144.4583333333333</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:50</t>
+          <t>09-07-2025 13:20:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:50</t>
+          <t>09-07-2025 13:56:08</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:50</t>
+          <t>09-07-2025 13:56:08</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:18</t>
+          <t>10-07-2025 08:30:06</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>17335</v>
+        <v>18475</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4581,14 +4574,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4598,53 +4591,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.3828472222222222</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252549</v>
+        <v>241783</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>52.5</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>92.59166666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:11</t>
+          <t>09-07-2025 13:34:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:41</t>
+          <t>09-07-2025 14:19:04</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:41</t>
+          <t>09-07-2025 14:19:04</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:17</t>
+          <t>10-07-2025 07:02:24</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>11111</v>
+        <v>5199</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4653,14 +4646,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4670,19 +4663,19 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252085</v>
+        <v>245089</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4690,33 +4683,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>28.55</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-07-2025 07:55:53</t>
+          <t>09-07-2025 13:39:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-07-2025 08:12:53</t>
+          <t>09-07-2025 14:13:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-07-2025 08:12:53</t>
+          <t>09-07-2025 14:13:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-07-2025 08:41:26</t>
+          <t>14-07-2025 07:15:12</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3426</v>
+        <v>122665</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4725,14 +4718,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4742,53 +4735,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-22.36210648148148</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252244</v>
+        <v>252277</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>36.5</v>
       </c>
       <c r="D60" t="n">
-        <v>107.575</v>
+        <v>144.925</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:04</t>
+          <t>09-07-2025 14:41:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 08:47:04</t>
+          <t>10-07-2025 07:18:27</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 08:47:04</t>
+          <t>10-07-2025 07:18:27</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 10:34:38</t>
+          <t>10-07-2025 09:43:22</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12909</v>
+        <v>17391</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4797,70 +4790,77 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-3.44072337962963</v>
+        <v>-20.40512152777778</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252350</v>
+        <v>252638</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>51.88333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 08:41:26</t>
+          <t>10-07-2025 07:02:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:00:26</t>
+          <t>10-07-2025 07:42:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:00:26</t>
+          <t>10-07-2025 07:42:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:19</t>
+          <t>10-07-2025 08:43:53</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6226</v>
+        <v>7379</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4886,53 +4886,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-2.411331018518518</v>
+        <v>-4.363813657407407</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>244023</v>
+        <v>252456</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>8.308333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:01:41</t>
+          <t>10-07-2025 07:06:03</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:46:41</t>
+          <t>10-07-2025 07:35:03</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:46:41</t>
+          <t>10-07-2025 07:35:03</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:55:00</t>
+          <t>10-07-2025 09:59:31</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>997</v>
+        <v>17335</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4958,19 +4958,19 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-283.4131944444445</v>
+        <v>-0.4163310185185185</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252652</v>
+        <v>252549</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4978,33 +4978,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>186.0083333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:18</t>
+          <t>10-07-2025 08:30:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:30:18</t>
+          <t>10-07-2025 09:04:06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:30:18</t>
+          <t>10-07-2025 09:04:06</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:18</t>
+          <t>10-07-2025 10:36:41</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>22321</v>
+        <v>11111</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5030,53 +5030,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252071</v>
+        <v>252547</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>45.73333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:24:44</t>
+          <t>10-07-2025 08:43:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:04:44</t>
+          <t>10-07-2025 09:28:53</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:04:44</t>
+          <t>10-07-2025 09:28:53</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:50:28</t>
+          <t>10-07-2025 10:50:03</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5488</v>
+        <v>9740</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5085,14 +5085,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
         <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5102,19 +5102,19 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-28.45171296296296</v>
+        <v>-6.451429398148148</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252547</v>
+        <v>252350</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5122,33 +5122,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D65" t="n">
-        <v>81.16666666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:17</t>
+          <t>10-07-2025 09:43:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:26:47</t>
+          <t>10-07-2025 10:15:52</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:26:47</t>
+          <t>10-07-2025 10:15:52</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:47:57</t>
+          <t>10-07-2025 11:07:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9740</v>
+        <v>6226</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5174,11 +5174,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-6.491631944444444</v>
+        <v>-2.463721064814815</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252755</v>
+        <v>252157</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5194,33 +5194,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>109.575</v>
+        <v>396.825</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07-2025 08:52:16</t>
+          <t>11-07-2025 12:19:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11-07-2025 09:22:16</t>
+          <t>11-07-2025 13:04:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11-07-2025 09:22:16</t>
+          <t>11-07-2025 13:04:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11-07-2025 11:11:51</t>
+          <t>14-07-2025 11:41:13</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>13149</v>
+        <v>47619</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5246,53 +5246,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-26.48696180555556</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252336</v>
+        <v>252470</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
-        <v>120.275</v>
+        <v>62.5</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07-2025 11:11:51</t>
+          <t>14-07-2025 07:15:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11-07-2025 11:41:51</t>
+          <t>14-07-2025 07:51:12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11-07-2025 11:41:51</t>
+          <t>14-07-2025 07:51:12</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>11-07-2025 13:42:07</t>
+          <t>14-07-2025 08:53:42</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>14433</v>
+        <v>7500</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5322,49 +5322,49 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-7.570920138888889</v>
+        <v>-10.37063078703704</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252790</v>
+        <v>251926</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>12.10833333333333</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07-2025 13:42:07</t>
+          <t>14-07-2025 08:53:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11-07-2025 14:07:07</t>
+          <t>14-07-2025 09:14:42</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11-07-2025 14:07:07</t>
+          <t>14-07-2025 09:14:42</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11-07-2025 14:19:14</t>
+          <t>14-07-2025 10:33:37</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1453</v>
+        <v>9470</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5390,53 +5390,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-5.440017361111111</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252157</v>
+        <v>251495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>396.825</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-07-2025 14:19:14</t>
+          <t>14-07-2025 10:33:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14-07-2025 07:04:14</t>
+          <t>14-07-2025 10:50:37</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14-07-2025 07:04:14</t>
+          <t>14-07-2025 10:50:37</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14-07-2025 13:41:03</t>
+          <t>14-07-2025 12:02:58</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>47619</v>
+        <v>8681</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5462,19 +5462,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-26.57017939814815</v>
+        <v>-5.502060185185186</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252467</v>
+        <v>252334</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5485,30 +5485,30 @@
         <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>81.16666666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14-07-2025 13:41:03</t>
+          <t>14-07-2025 11:41:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>14-07-2025 14:26:03</t>
+          <t>14-07-2025 12:26:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14-07-2025 14:26:03</t>
+          <t>14-07-2025 12:26:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15-07-2025 07:47:13</t>
+          <t>15-07-2025 12:32:49</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>9740</v>
+        <v>58391</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5534,53 +5534,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-11.52278935185185</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251495</v>
+        <v>252336</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>72.34166666666667</v>
+        <v>120.275</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15-07-2025 07:47:13</t>
+          <t>14-07-2025 12:02:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:13</t>
+          <t>14-07-2025 12:25:58</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:13</t>
+          <t>14-07-2025 12:25:58</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15-07-2025 09:44:34</t>
+          <t>14-07-2025 14:26:14</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8681</v>
+        <v>14433</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5606,53 +5606,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-6.405949074074074</v>
+        <v>-10.60155671296296</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252470</v>
+        <v>252755</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>62.5</v>
+        <v>109.575</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15-07-2025 09:44:34</t>
+          <t>14-07-2025 14:26:14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:14:34</t>
+          <t>14-07-2025 14:43:14</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:14:34</t>
+          <t>14-07-2025 14:43:14</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 11:17:04</t>
+          <t>15-07-2025 08:32:49</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7500</v>
+        <v>13149</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5678,53 +5678,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-11.47018518518519</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252334</v>
+        <v>252899</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>486.5916666666666</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15-07-2025 11:17:04</t>
+          <t>15-07-2025 08:32:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:04</t>
+          <t>15-07-2025 08:49:49</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:04</t>
+          <t>15-07-2025 08:49:49</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>16-07-2025 11:53:39</t>
+          <t>15-07-2025 11:50:23</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>58391</v>
+        <v>21668</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5750,11 +5750,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-12.49559606481482</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -5762,41 +5762,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251926</v>
+        <v>252790</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>78.91666666666667</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>16-07-2025 11:53:39</t>
+          <t>15-07-2025 11:50:23</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>16-07-2025 12:23:39</t>
+          <t>15-07-2025 12:09:23</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16-07-2025 12:23:39</t>
+          <t>15-07-2025 12:09:23</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16-07-2025 13:42:34</t>
+          <t>15-07-2025 12:21:29</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>9470</v>
+        <v>1453</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5822,53 +5822,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-7.571232638888889</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252899</v>
+        <v>252467</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>180.5666666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>16-07-2025 13:42:34</t>
+          <t>15-07-2025 12:21:29</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>16-07-2025 14:12:34</t>
+          <t>15-07-2025 12:36:29</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16-07-2025 14:12:34</t>
+          <t>15-07-2025 12:36:29</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17-07-2025 09:13:08</t>
+          <t>15-07-2025 13:57:39</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>21668</v>
+        <v>9740</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5894,14 +5894,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252286</v>
+        <v>252285</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>51.26666666666667</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:16</t>
+          <t>08-07-2025 08:20:08</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6152</v>
+        <v>5537</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
         <v>40032</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252285</v>
+        <v>252286</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>46.14166666666667</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -649,11 +649,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5537</v>
+        <v>6152</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
         <v>40032</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252087</v>
+        <v>252636</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>35.5</v>
+        <v>11.275</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -726,11 +726,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:11:30</t>
+          <t>08-07-2025 07:47:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4260</v>
+        <v>1353</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -756,19 +756,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.341319444444444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250284</v>
+        <v>244023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44.5</v>
+        <v>40.5</v>
       </c>
       <c r="D5" t="n">
-        <v>146.35</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:30</t>
+          <t>08-07-2025 07:40:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:30</t>
+          <t>08-07-2025 07:40:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:10:51</t>
+          <t>08-07-2025 07:48:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17562</v>
+        <v>997</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -828,19 +828,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-118.4242013888889</v>
+        <v>-281.3255613425926</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252230</v>
+        <v>252723</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>63.125</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -870,11 +870,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:07</t>
+          <t>08-07-2025 10:13:57</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7575</v>
+        <v>18475</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -900,19 +900,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-25.36328125</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252402</v>
+        <v>252146</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>25.075</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:04</t>
+          <t>08-07-2025 08:25:38</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3009</v>
+        <v>7996</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -972,11 +972,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-11.32227430555556</v>
+        <v>-9.351134259259259</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252047</v>
+        <v>252230</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>70.88333333333334</v>
+        <v>63.125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8506</v>
+        <v>7575</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-9.368668981481482</v>
+        <v>-25.36328125</v>
       </c>
       <c r="S8" t="n">
         <v>7</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252146</v>
+        <v>252237</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>66.63333333333334</v>
+        <v>84.95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1076,21 +1076,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:38</t>
+          <t>08-07-2025 09:09:57</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7996</v>
+        <v>10194</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1116,53 +1116,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-9.365717592592592</v>
+        <v>-7.381909722222222</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252144</v>
+        <v>252047</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>54.13333333333333</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:04</t>
+          <t>08-07-2025 07:47:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:03:04</t>
+          <t>08-07-2025 08:21:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:03:04</t>
+          <t>08-07-2025 08:21:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:12</t>
+          <t>08-07-2025 09:32:09</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6496</v>
+        <v>8506</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-9.373061342592592</v>
+        <v>-9.397332175925927</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
@@ -1200,41 +1200,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252636</v>
+        <v>252345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11.275</v>
+        <v>43.325</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:16</t>
+          <t>08-07-2025 07:48:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:42:16</t>
+          <t>08-07-2025 08:25:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:42:16</t>
+          <t>08-07-2025 08:25:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:32</t>
+          <t>08-07-2025 09:08:38</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1353</v>
+        <v>5199</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1260,53 +1260,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.3809953703703703</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252152</v>
+        <v>243335</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>27.36666666666667</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:11:30</t>
+          <t>08-07-2025 08:20:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:30</t>
+          <t>08-07-2025 08:56:08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:30</t>
+          <t>08-07-2025 08:56:08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 09:10:52</t>
+          <t>08-07-2025 13:31:10</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3284</v>
+        <v>33004</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,14 +1315,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1332,53 +1332,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-18.3825462962963</v>
+        <v>-340.5633159722222</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252298</v>
+        <v>251790</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>70.76666666666667</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-07-2025 08:25:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:08</t>
+          <t>08-07-2025 08:44:38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:08</t>
+          <t>08-07-2025 08:44:38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:54</t>
+          <t>08-07-2025 12:39:41</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8492</v>
+        <v>28207</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
@@ -1404,53 +1404,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-15.43535300925926</v>
+        <v>-8.527563657407407</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251632</v>
+        <v>252298</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>588.5083333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:07</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:13:07</t>
+          <t>08-07-2025 09:06:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:13:07</t>
+          <t>08-07-2025 09:06:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:38</t>
+          <t>08-07-2025 10:17:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>70621</v>
+        <v>8492</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1476,11 +1476,11 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.501134259259259</v>
+        <v>-15.42849537037037</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -1488,41 +1488,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>243569</v>
+        <v>252347</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>21.675</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:38</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:38</t>
+          <t>08-07-2025 09:18:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:38</t>
+          <t>08-07-2025 09:18:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:18</t>
+          <t>08-07-2025 10:50:24</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2601</v>
+        <v>11074</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,14 +1531,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1548,53 +1548,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-295.4050752314815</v>
+        <v>-0.4516724537037037</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252071</v>
+        <v>251674</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>52.5</v>
       </c>
       <c r="D16" t="n">
-        <v>45.73333333333333</v>
+        <v>147.125</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>08-07-2025 09:08:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>08-07-2025 10:01:08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>08-07-2025 10:01:08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:37</t>
+          <t>08-07-2025 12:28:15</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5488</v>
+        <v>17655</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1620,53 +1620,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-26.4247337962963</v>
+        <v>-1.519623842592593</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252978</v>
+        <v>243524</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>23.3</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:32</t>
+          <t>08-07-2025 09:09:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:27:32</t>
+          <t>08-07-2025 09:44:57</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:27:32</t>
+          <t>08-07-2025 09:44:57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:50</t>
+          <t>08-07-2025 10:51:34</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2796</v>
+        <v>7994</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1692,53 +1692,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-22.41030671296296</v>
+        <v>-4.452476851851852</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252201</v>
+        <v>243529</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>34.10833333333333</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:12</t>
+          <t>08-07-2025 09:32:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:12</t>
+          <t>08-07-2025 09:51:09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:12</t>
+          <t>08-07-2025 09:51:09</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:19</t>
+          <t>08-07-2025 12:01:08</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4093</v>
+        <v>15598</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1764,53 +1764,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-18.40994212962963</v>
+        <v>-4.500792824074074</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251798</v>
+        <v>243525</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>123.2916666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:10:52</t>
+          <t>08-07-2025 10:13:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:31:52</t>
+          <t>08-07-2025 10:48:57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:31:52</t>
+          <t>08-07-2025 10:48:57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:09</t>
+          <t>08-07-2025 12:58:56</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>14795</v>
+        <v>15598</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>76</v>
@@ -1836,53 +1836,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-4.540931712962963</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>243335</v>
+        <v>252402</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>275.0333333333334</v>
+        <v>25.075</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:18</t>
+          <t>08-07-2025 10:17:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:18</t>
+          <t>08-07-2025 10:44:02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:18</t>
+          <t>08-07-2025 10:44:02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:20</t>
+          <t>08-07-2025 11:09:06</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>33004</v>
+        <v>3009</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1908,53 +1908,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-340.6203761574074</v>
+        <v>-11.46465856481482</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251919</v>
+        <v>252071</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>140.05</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:19</t>
+          <t>08-07-2025 10:50:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:19</t>
+          <t>08-07-2025 11:35:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:24:19</t>
+          <t>08-07-2025 11:35:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:44:22</t>
+          <t>08-07-2025 12:21:08</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>16806</v>
+        <v>5488</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1963,14 +1963,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1980,53 +1980,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-22.53081018518519</v>
+        <v>-26.51468171296296</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>244023</v>
+        <v>252244</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>8.308333333333334</v>
+        <v>107.575</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:50</t>
+          <t>08-07-2025 10:51:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:50</t>
+          <t>08-07-2025 11:21:34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:50</t>
+          <t>08-07-2025 11:21:34</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:09</t>
+          <t>08-07-2025 13:09:08</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>997</v>
+        <v>12909</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2035,14 +2035,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-281.4410763888889</v>
+        <v>-1.548015046296296</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2064,41 +2064,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251674</v>
+        <v>252686</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>147.125</v>
+        <v>329.15</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:10:51</t>
+          <t>08-07-2025 11:09:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:21</t>
+          <t>08-07-2025 11:53:06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:21</t>
+          <t>08-07-2025 11:53:06</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 13:20:28</t>
+          <t>09-07-2025 09:22:15</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17655</v>
+        <v>39498</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2124,53 +2124,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.555885416666667</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252207</v>
+        <v>252997</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>51.55</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:37</t>
+          <t>08-07-2025 12:01:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:46:37</t>
+          <t>08-07-2025 12:33:08</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:46:37</t>
+          <t>08-07-2025 12:33:08</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>08-07-2025 13:13:09</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6186</v>
+        <v>4802</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2179,14 +2179,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-12.48483796296296</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2208,41 +2208,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252371</v>
+        <v>252144</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>50.04166666666666</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:54</t>
+          <t>08-07-2025 12:21:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 10:55:54</t>
+          <t>08-07-2025 12:56:08</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 10:55:54</t>
+          <t>08-07-2025 12:56:08</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:45:57</t>
+          <t>08-07-2025 13:50:16</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6005</v>
+        <v>6496</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2251,11 +2251,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-8.490243055555556</v>
+        <v>-9.576579861111112</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251790</v>
+        <v>252087</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36</v>
+        <v>52.5</v>
       </c>
       <c r="D26" t="n">
-        <v>235.0583333333333</v>
+        <v>35.5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:09</t>
+          <t>08-07-2025 12:28:15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:11:09</t>
+          <t>08-07-2025 13:20:45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:11:09</t>
+          <t>08-07-2025 13:20:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:12</t>
+          <t>08-07-2025 13:56:15</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>28207</v>
+        <v>4260</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2323,14 +2323,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2340,53 +2340,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-9.29597800925926</v>
+        <v>-9.580734953703704</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252546</v>
+        <v>252978</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>54.63333333333333</v>
+        <v>23.3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:09</t>
+          <t>08-07-2025 12:39:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 11:52:09</t>
+          <t>08-07-2025 12:58:41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 11:52:09</t>
+          <t>08-07-2025 12:58:41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:47</t>
+          <t>08-07-2025 13:21:59</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6556</v>
+        <v>2796</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2412,53 +2412,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.532494212962963</v>
+        <v>-22.55693865740741</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252237</v>
+        <v>251798</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>84.95</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>08-07-2025 12:58:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:13:10</t>
+          <t>08-07-2025 13:28:56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:13:10</t>
+          <t>08-07-2025 13:28:56</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:07</t>
+          <t>09-07-2025 07:32:14</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10194</v>
+        <v>14795</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2467,14 +2467,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2484,53 +2484,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.568136574074074</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252063</v>
+        <v>251919</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>79.94166666666666</v>
+        <v>140.05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 11:45:57</t>
+          <t>08-07-2025 13:09:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 12:12:57</t>
+          <t>08-07-2025 13:44:08</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 12:12:57</t>
+          <t>08-07-2025 13:44:08</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:53</t>
+          <t>09-07-2025 08:04:11</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9593</v>
+        <v>16806</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2556,11 +2556,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-7.564508101851852</v>
+        <v>-23.33624421296296</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2568,41 +2568,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>243525</v>
+        <v>252201</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>129.9833333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 12:44:22</t>
+          <t>08-07-2025 13:13:09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:18:22</t>
+          <t>08-07-2025 13:45:09</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:18:22</t>
+          <t>08-07-2025 13:45:09</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:21</t>
+          <t>08-07-2025 14:19:16</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>15598</v>
+        <v>4093</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2628,53 +2628,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-5.311354166666667</v>
+        <v>-18.59671296296296</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>243529</v>
+        <v>252063</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>129.9833333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:47</t>
+          <t>08-07-2025 13:21:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:47</t>
+          <t>08-07-2025 13:40:59</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:47</t>
+          <t>08-07-2025 13:40:59</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:15:46</t>
+          <t>09-07-2025 07:00:56</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>15598</v>
+        <v>9593</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-5.302621527777778</v>
+        <v>-8.292314814814814</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -2712,41 +2712,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252347</v>
+        <v>241783</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>54.5</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
-        <v>92.28333333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:20:28</t>
+          <t>08-07-2025 13:31:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:14:58</t>
+          <t>08-07-2025 14:03:10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:14:58</t>
+          <t>08-07-2025 14:03:10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:15</t>
+          <t>08-07-2025 14:46:30</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11074</v>
+        <v>5199</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,14 +2755,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2772,11 +2772,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.324484953703704</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -2784,41 +2784,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>243524</v>
+        <v>250284</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>66.61666666666666</v>
+        <v>146.35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:53</t>
+          <t>08-07-2025 13:50:16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:53</t>
+          <t>08-07-2025 14:45:16</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:53</t>
+          <t>08-07-2025 14:45:16</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:30</t>
+          <t>09-07-2025 09:11:37</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>7994</v>
+        <v>17562</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2827,14 +2827,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2844,53 +2844,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-5.297575231481481</v>
+        <v>-119.3830729166667</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252244</v>
+        <v>251632</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="D34" t="n">
-        <v>107.575</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:07</t>
+          <t>08-07-2025 13:56:15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:07</t>
+          <t>08-07-2025 14:48:45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:07</t>
+          <t>08-07-2025 14:48:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:41</t>
+          <t>10-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12909</v>
+        <v>70621</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2899,70 +2899,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L34" t="n">
+        <v>14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>-3.359212962962963</v>
+      </c>
+      <c r="S34" t="n">
         <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>76</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>07-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>-2.340758101851852</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252085</v>
+        <v>251849</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>28.55</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:20</t>
+          <t>08-07-2025 14:19:16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-07-2025 14:53:16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-07-2025 14:53:16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:53</t>
+          <t>09-07-2025 07:26:39</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3426</v>
+        <v>4006</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2975,32 +2975,39 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-21.33811921296296</v>
+        <v>-14.31017361111111</v>
       </c>
       <c r="S35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252999</v>
+        <v>251685</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3008,33 +3015,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
-        <v>325.8416666666666</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:12</t>
+          <t>08-07-2025 14:46:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:12</t>
+          <t>09-07-2025 07:22:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:12</t>
+          <t>09-07-2025 07:22:30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 13:04:03</t>
+          <t>09-07-2025 09:01:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>39101</v>
+        <v>11851</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3043,11 +3050,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3060,53 +3067,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252665</v>
+        <v>252814</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>48.875</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:30</t>
+          <t>09-07-2025 07:00:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:30</t>
+          <t>09-07-2025 07:17:56</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:30</t>
+          <t>09-07-2025 07:17:56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:23</t>
+          <t>09-07-2025 08:08:01</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5865</v>
+        <v>6010</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3115,36 +3122,36 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>76</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>14-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>02-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252220</v>
+        <v>252476</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3152,33 +3159,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>80.51666666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:15:46</t>
+          <t>09-07-2025 07:26:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:46</t>
+          <t>09-07-2025 07:45:39</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:46</t>
+          <t>09-07-2025 07:45:39</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:17</t>
+          <t>09-07-2025 08:57:59</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>9662</v>
+        <v>8681</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3191,7 +3198,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3204,11 +3211,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-23.38075810185185</v>
+        <v>-2.373605324074074</v>
       </c>
       <c r="S38" t="n">
         <v>4</v>
@@ -3216,41 +3223,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245623</v>
+        <v>252783</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>220.1583333333333</v>
+        <v>11.95</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:21</t>
+          <t>09-07-2025 07:32:14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:00:21</t>
+          <t>09-07-2025 08:17:14</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:00:21</t>
+          <t>09-07-2025 08:17:14</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:30</t>
+          <t>09-07-2025 08:29:11</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>26419</v>
+        <v>1434</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3259,14 +3266,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3276,53 +3283,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-165.4864641203704</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251849</v>
+        <v>252284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>33.38333333333333</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:15</t>
+          <t>09-07-2025 08:04:11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:45</t>
+          <t>09-07-2025 08:39:11</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:45</t>
+          <t>09-07-2025 08:39:11</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:57:08</t>
+          <t>09-07-2025 09:30:27</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4006</v>
+        <v>6152</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3335,15 +3342,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
+      <c r="N40" t="n">
+        <v>40032</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3351,15 +3356,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>40042</v>
+        <v>40032</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-14.3730150462963</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3367,41 +3372,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252364</v>
+        <v>245089</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
-        <v>94.55</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:53</t>
+          <t>09-07-2025 08:08:01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:46:53</t>
+          <t>09-07-2025 08:29:01</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:46:53</t>
+          <t>09-07-2025 08:29:01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:26</t>
+          <t>11-07-2025 09:31:13</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11346</v>
+        <v>122665</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3410,14 +3415,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3427,53 +3432,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-12.43155671296296</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252284</v>
+        <v>252784</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>51.26666666666667</v>
+        <v>26.975</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:41</t>
+          <t>09-07-2025 08:29:11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:55:41</t>
+          <t>09-07-2025 08:54:11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:55:41</t>
+          <t>09-07-2025 08:54:11</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 09:46:57</t>
+          <t>09-07-2025 09:21:09</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6152</v>
+        <v>3237</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3486,71 +3491,66 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252476</v>
+        <v>252220</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>72.34166666666667</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:23</t>
+          <t>09-07-2025 08:57:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:06:23</t>
+          <t>09-07-2025 09:14:59</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:06:23</t>
+          <t>09-07-2025 09:14:59</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:18:43</t>
+          <t>09-07-2025 10:35:30</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3576,11 +3576,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.429670138888889</v>
+        <v>-23.44132523148148</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3588,41 +3588,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251231</v>
+        <v>252785</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>312.3083333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 08:57:08</t>
+          <t>09-07-2025 09:01:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:38</t>
+          <t>09-07-2025 09:26:15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:38</t>
+          <t>09-07-2025 09:26:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:57</t>
+          <t>09-07-2025 10:22:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37477</v>
+        <v>6690</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3640,26 +3640,19 @@
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.612465277777778</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3667,41 +3660,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252814</v>
+        <v>252999</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>50.08333333333334</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:17</t>
+          <t>09-07-2025 09:11:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:17</t>
+          <t>09-07-2025 10:06:37</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:17</t>
+          <t>09-07-2025 10:06:37</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:22</t>
+          <t>10-07-2025 07:32:28</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6010</v>
+        <v>39101</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3710,14 +3703,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3727,53 +3720,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>244828</v>
+        <v>252085</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>43.35833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 09:46:57</t>
+          <t>09-07-2025 09:21:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:57</t>
+          <t>09-07-2025 09:56:09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:57</t>
+          <t>09-07-2025 09:56:09</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:19</t>
+          <t>09-07-2025 10:24:42</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5203</v>
+        <v>3426</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3782,14 +3775,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3799,19 +3792,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-2.468969907407407</v>
+        <v>-21.43382523148148</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252345</v>
+        <v>245623</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3819,33 +3812,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>43.325</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:18:43</t>
+          <t>09-07-2025 09:22:15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:43</t>
+          <t>09-07-2025 09:49:15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:43</t>
+          <t>09-07-2025 09:49:15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:03</t>
+          <t>09-07-2025 13:29:25</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5199</v>
+        <v>26419</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3854,14 +3847,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3871,19 +3864,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-1.479895833333333</v>
+        <v>-165.5620949074074</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252243</v>
+        <v>251231</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3891,33 +3884,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
-        <v>96.70833333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:26</t>
+          <t>09-07-2025 09:30:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:06:26</t>
+          <t>09-07-2025 10:05:27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 11:06:26</t>
+          <t>09-07-2025 10:05:27</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:43:09</t>
+          <t>10-07-2025 07:17:46</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>11605</v>
+        <v>37477</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3926,28 +3919,35 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-7.304004629629629</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3955,41 +3955,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252997</v>
+        <v>244828</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>40.01666666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 10:34:22</t>
+          <t>09-07-2025 10:22:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:10:22</t>
+          <t>09-07-2025 10:56:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:10:22</t>
+          <t>09-07-2025 10:56:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:50:23</t>
+          <t>09-07-2025 11:39:22</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4802</v>
+        <v>5203</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3998,14 +3998,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4015,11 +4015,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-2.485671296296296</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4027,41 +4027,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251685</v>
+        <v>252364</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>98.75833333333334</v>
+        <v>94.55</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:19</t>
+          <t>09-07-2025 10:24:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:19</t>
+          <t>09-07-2025 11:04:42</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:19</t>
+          <t>09-07-2025 11:04:42</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 13:34:04</t>
+          <t>09-07-2025 12:39:15</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>11851</v>
+        <v>11346</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4087,53 +4087,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-12.52726273148148</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252652</v>
+        <v>243569</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>186.0083333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:03</t>
+          <t>09-07-2025 10:35:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:00:03</t>
+          <t>09-07-2025 11:07:30</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 12:00:03</t>
+          <t>09-07-2025 11:07:30</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10-07-2025 07:06:03</t>
+          <t>09-07-2025 11:29:11</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>22321</v>
+        <v>2601</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4142,14 +4142,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4159,53 +4159,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-296.478599537037</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252686</v>
+        <v>252546</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>329.15</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:30</t>
+          <t>09-07-2025 11:29:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:57:30</t>
+          <t>09-07-2025 11:48:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:57:30</t>
+          <t>09-07-2025 11:48:11</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-07-2025 09:26:39</t>
+          <t>09-07-2025 12:42:49</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>39498</v>
+        <v>6556</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4214,14 +4214,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4231,11 +4231,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-8.529733796296297</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4243,41 +4243,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252785</v>
+        <v>252152</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53" t="n">
-        <v>55.75</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 11:50:23</t>
+          <t>09-07-2025 11:39:22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:24:23</t>
+          <t>09-07-2025 12:15:22</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:24:23</t>
+          <t>09-07-2025 12:15:22</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 13:20:08</t>
+          <t>09-07-2025 12:42:44</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6690</v>
+        <v>3284</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4286,14 +4286,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4303,14 +4303,14 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-19.52967592592593</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4323,29 +4323,29 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>907.7666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:38</t>
+          <t>09-07-2025 12:39:15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:11:38</t>
+          <t>09-07-2025 13:09:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:11:38</t>
+          <t>09-07-2025 13:09:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-07-2025 12:19:24</t>
+          <t>11-07-2025 12:17:01</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4387,41 +4387,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252784</v>
+        <v>252371</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>26.975</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 12:43:09</t>
+          <t>09-07-2025 12:42:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:23:09</t>
+          <t>09-07-2025 13:03:44</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:23:09</t>
+          <t>09-07-2025 13:03:44</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:50:07</t>
+          <t>09-07-2025 13:53:46</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3237</v>
+        <v>6005</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4430,14 +4430,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4447,11 +4447,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-9.579010416666666</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4459,41 +4459,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252783</v>
+        <v>252243</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>11.95</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 13:04:03</t>
+          <t>09-07-2025 12:42:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-07-2025 13:27:03</t>
+          <t>09-07-2025 12:59:49</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-07-2025 13:27:03</t>
+          <t>09-07-2025 12:59:49</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:00</t>
+          <t>09-07-2025 14:36:31</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1434</v>
+        <v>11605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4502,14 +4502,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4531,41 +4531,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252723</v>
+        <v>252665</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>153.9583333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 13:20:08</t>
+          <t>09-07-2025 13:29:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:08</t>
+          <t>09-07-2025 14:11:25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:08</t>
+          <t>09-07-2025 14:11:25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 08:30:06</t>
+          <t>10-07-2025 07:00:17</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>18475</v>
+        <v>5865</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4574,14 +4574,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4591,53 +4591,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>241783</v>
+        <v>252207</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>43.325</v>
+        <v>51.55</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 13:34:04</t>
+          <t>09-07-2025 13:53:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:19:04</t>
+          <t>09-07-2025 14:10:46</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:19:04</t>
+          <t>09-07-2025 14:10:46</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 07:02:24</t>
+          <t>10-07-2025 07:02:19</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5199</v>
+        <v>6186</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4663,11 +4663,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-14.29328125</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4675,41 +4675,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245089</v>
+        <v>252456</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
-        <v>1022.208333333333</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:00</t>
+          <t>09-07-2025 14:36:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:00</t>
+          <t>10-07-2025 07:08:31</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:00</t>
+          <t>10-07-2025 07:08:31</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>14-07-2025 07:15:12</t>
+          <t>10-07-2025 09:32:59</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>122665</v>
+        <v>17335</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.3979050925925926</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -4751,33 +4751,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36.5</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>144.925</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:57</t>
+          <t>10-07-2025 07:00:17</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:18:27</t>
+          <t>10-07-2025 07:27:17</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:18:27</t>
+          <t>10-07-2025 07:27:17</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 09:43:22</t>
+          <t>10-07-2025 09:52:13</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-20.40512152777778</v>
+        <v>-20.41126157407408</v>
       </c>
       <c r="S60" t="n">
         <v>7</v>
@@ -4826,41 +4826,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252638</v>
+        <v>252549</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
-        <v>61.49166666666667</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:02:24</t>
+          <t>10-07-2025 07:02:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:42:24</t>
+          <t>10-07-2025 07:36:19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:42:24</t>
+          <t>10-07-2025 07:36:19</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 08:43:53</t>
+          <t>10-07-2025 09:08:55</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7379</v>
+        <v>11111</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4886,53 +4886,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-4.363813657407407</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252456</v>
+        <v>252547</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>144.4583333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:06:03</t>
+          <t>10-07-2025 07:17:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:35:03</t>
+          <t>10-07-2025 07:47:46</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:35:03</t>
+          <t>10-07-2025 07:47:46</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:59:31</t>
+          <t>10-07-2025 09:08:56</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>17335</v>
+        <v>9740</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4958,53 +4958,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.4163310185185185</v>
+        <v>-6.381203703703703</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252549</v>
+        <v>252350</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>92.59166666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:30:06</t>
+          <t>10-07-2025 07:32:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:06</t>
+          <t>10-07-2025 08:02:28</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:06</t>
+          <t>10-07-2025 08:02:28</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 10:36:41</t>
+          <t>10-07-2025 08:54:21</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>11111</v>
+        <v>6226</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5013,11 +5013,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5030,53 +5030,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-2.371076388888889</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252547</v>
+        <v>252652</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="D64" t="n">
-        <v>81.16666666666667</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-07-2025 08:43:53</t>
+          <t>10-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:28:53</t>
+          <t>10-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:28:53</t>
+          <t>10-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:50:03</t>
+          <t>10-07-2025 12:35:46</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>9740</v>
+        <v>22321</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-6.451429398148148</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5114,41 +5114,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252350</v>
+        <v>252638</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>51.88333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:43:22</t>
+          <t>10-07-2025 08:54:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:52</t>
+          <t>10-07-2025 09:34:21</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:52</t>
+          <t>10-07-2025 09:34:21</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:07:45</t>
+          <t>10-07-2025 10:35:50</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6226</v>
+        <v>7379</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5174,19 +5174,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-2.463721064814815</v>
+        <v>-4.441556712962963</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252157</v>
+        <v>251495</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5197,30 +5197,30 @@
         <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>396.825</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07-2025 12:19:24</t>
+          <t>11-07-2025 12:17:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:04:24</t>
+          <t>11-07-2025 13:02:01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:04:24</t>
+          <t>11-07-2025 13:02:01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14-07-2025 11:41:13</t>
+          <t>11-07-2025 14:14:22</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>47619</v>
+        <v>8681</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5246,53 +5246,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-26.48696180555556</v>
+        <v>-2.593310185185185</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252470</v>
+        <v>252790</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>62.5</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14-07-2025 07:15:12</t>
+          <t>11-07-2025 14:14:22</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>14-07-2025 07:51:12</t>
+          <t>11-07-2025 14:59:22</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14-07-2025 07:51:12</t>
+          <t>11-07-2025 14:59:22</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14-07-2025 08:53:42</t>
+          <t>14-07-2025 07:11:28</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>7500</v>
+        <v>1453</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5318,53 +5318,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-10.37063078703704</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251926</v>
+        <v>252467</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>78.91666666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:53:42</t>
+          <t>14-07-2025 07:11:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14-07-2025 09:14:42</t>
+          <t>14-07-2025 07:36:28</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14-07-2025 09:14:42</t>
+          <t>14-07-2025 07:36:28</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14-07-2025 10:33:37</t>
+          <t>14-07-2025 08:57:38</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>9470</v>
+        <v>9740</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5390,53 +5390,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5.440017361111111</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251495</v>
+        <v>252755</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>72.34166666666667</v>
+        <v>109.575</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:33:37</t>
+          <t>14-07-2025 08:57:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:50:37</t>
+          <t>14-07-2025 09:27:38</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14-07-2025 10:50:37</t>
+          <t>14-07-2025 09:27:38</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14-07-2025 12:02:58</t>
+          <t>14-07-2025 11:17:13</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8681</v>
+        <v>13149</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5462,19 +5462,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.502060185185186</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252334</v>
+        <v>252336</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5482,33 +5482,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>486.5916666666666</v>
+        <v>120.275</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14-07-2025 11:41:13</t>
+          <t>14-07-2025 11:17:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>14-07-2025 12:26:13</t>
+          <t>14-07-2025 11:47:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14-07-2025 12:26:13</t>
+          <t>14-07-2025 11:47:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15-07-2025 12:32:49</t>
+          <t>14-07-2025 13:47:29</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>58391</v>
+        <v>14433</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-11.52278935185185</v>
+        <v>-10.57464699074074</v>
       </c>
       <c r="S70" t="n">
         <v>2</v>
@@ -5546,41 +5546,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252336</v>
+        <v>252470</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>120.275</v>
+        <v>62.5</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14-07-2025 12:02:58</t>
+          <t>14-07-2025 13:47:29</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14-07-2025 12:25:58</t>
+          <t>14-07-2025 14:17:29</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14-07-2025 12:25:58</t>
+          <t>14-07-2025 14:17:29</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14-07-2025 14:26:14</t>
+          <t>15-07-2025 07:19:59</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>14433</v>
+        <v>7500</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5610,49 +5610,49 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-10.60155671296296</v>
+        <v>-11.30554976851852</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252755</v>
+        <v>252157</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>109.575</v>
+        <v>396.825</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14-07-2025 14:26:14</t>
+          <t>15-07-2025 07:19:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:14</t>
+          <t>15-07-2025 08:09:59</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:14</t>
+          <t>15-07-2025 08:09:59</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:49</t>
+          <t>15-07-2025 14:46:49</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>13149</v>
+        <v>47619</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5678,53 +5678,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-27.61584490740741</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252899</v>
+        <v>252334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>180.5666666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:49</t>
+          <t>15-07-2025 14:46:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15-07-2025 08:49:49</t>
+          <t>16-07-2025 07:31:49</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15-07-2025 08:49:49</t>
+          <t>16-07-2025 07:31:49</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15-07-2025 11:50:23</t>
+          <t>17-07-2025 07:38:24</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>21668</v>
+        <v>58391</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5750,11 +5750,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-13.31833912037037</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -5762,41 +5762,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252790</v>
+        <v>251926</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>12.10833333333333</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15-07-2025 11:50:23</t>
+          <t>17-07-2025 07:38:24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>15-07-2025 12:09:23</t>
+          <t>17-07-2025 08:08:24</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15-07-2025 12:09:23</t>
+          <t>17-07-2025 08:08:24</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>15-07-2025 12:21:29</t>
+          <t>17-07-2025 09:27:19</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1453</v>
+        <v>9470</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5822,53 +5822,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-8.393975694444444</v>
       </c>
       <c r="S74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252467</v>
+        <v>252899</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>81.16666666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>15-07-2025 12:21:29</t>
+          <t>17-07-2025 09:27:19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>15-07-2025 12:36:29</t>
+          <t>17-07-2025 09:57:19</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15-07-2025 12:36:29</t>
+          <t>17-07-2025 09:57:19</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15-07-2025 13:57:39</t>
+          <t>17-07-2025 12:57:53</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>9740</v>
+        <v>21668</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5894,14 +5894,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252285</v>
+        <v>252286</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>46.14166666666667</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:20:08</t>
+          <t>08-07-2025 08:10:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5537</v>
+        <v>6152</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
         <v>40032</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252286</v>
+        <v>252285</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>51.26666666666667</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -649,11 +649,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:37:16</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6152</v>
+        <v>5537</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>40032</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252636</v>
+        <v>243335</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>11.275</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -716,21 +716,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:36:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:36:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:47:16</t>
+          <t>08-07-2025 12:09:02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1353</v>
+        <v>33004</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -756,19 +756,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-340.5062731481481</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244023</v>
+        <v>252345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D5" t="n">
-        <v>8.308333333333334</v>
+        <v>43.325</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:30</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:30</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:48:48</t>
+          <t>08-07-2025 08:17:49</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>997</v>
+        <v>5199</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -828,11 +828,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-281.3255613425926</v>
+        <v>-0.3457118055555555</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252723</v>
+        <v>251798</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>153.9583333333333</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -860,21 +860,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:13:57</t>
+          <t>08-07-2025 09:53:17</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18475</v>
+        <v>14795</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -900,19 +900,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252146</v>
+        <v>252047</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>66.63333333333334</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:38</t>
+          <t>08-07-2025 08:29:53</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>7996</v>
+        <v>8506</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.351134259259259</v>
+        <v>-9.354085648148148</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252230</v>
+        <v>252063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>63.125</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:07</t>
+          <t>08-07-2025 08:59:56</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7575</v>
+        <v>9593</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-25.36328125</v>
+        <v>-7.374959490740741</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252237</v>
+        <v>252347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>84.95</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1076,21 +1076,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:57</t>
+          <t>08-07-2025 09:02:17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10194</v>
+        <v>11074</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-7.381909722222222</v>
+        <v>-0.3765856481481482</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1128,41 +1128,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252047</v>
+        <v>252152</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>70.88333333333334</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 07:47:16</t>
+          <t>08-07-2025 08:10:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:21:16</t>
+          <t>08-07-2025 08:31:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:21:16</t>
+          <t>08-07-2025 08:31:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 09:32:09</t>
+          <t>08-07-2025 08:58:38</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8506</v>
+        <v>3284</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1188,19 +1188,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-9.397332175925927</v>
+        <v>-18.37405092592592</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252345</v>
+        <v>250284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1208,33 +1208,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>43.325</v>
+        <v>146.35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 07:48:48</t>
+          <t>08-07-2025 08:17:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:18</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:18</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 09:08:38</t>
+          <t>08-07-2025 11:24:40</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5199</v>
+        <v>17562</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1260,53 +1260,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3809953703703703</v>
+        <v>-118.47546875</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>243335</v>
+        <v>252978</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>275.0333333333334</v>
+        <v>23.3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:20:08</t>
+          <t>08-07-2025 08:29:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:56:08</t>
+          <t>08-07-2025 08:48:53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:56:08</t>
+          <t>08-07-2025 08:48:53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:10</t>
+          <t>08-07-2025 09:12:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>33004</v>
+        <v>2796</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1332,53 +1332,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-340.5633159722222</v>
+        <v>-22.38346064814815</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251790</v>
+        <v>252071</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>235.0583333333333</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:38</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:44:38</t>
+          <t>08-07-2025 09:14:08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:44:38</t>
+          <t>08-07-2025 09:14:08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:41</t>
+          <t>08-07-2025 09:59:52</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>28207</v>
+        <v>5488</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
@@ -1404,53 +1404,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-8.527563657407407</v>
+        <v>-26.41657986111111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252298</v>
+        <v>252237</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>70.76666666666667</v>
+        <v>84.95</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:37:16</t>
+          <t>08-07-2025 08:58:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:16</t>
+          <t>08-07-2025 09:34:38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:16</t>
+          <t>08-07-2025 09:34:38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:17:02</t>
+          <t>08-07-2025 10:59:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8492</v>
+        <v>10194</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1476,19 +1476,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-15.42849537037037</v>
+        <v>-7.458043981481482</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252347</v>
+        <v>243524</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1499,30 +1499,30 @@
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>92.28333333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:43:07</t>
+          <t>08-07-2025 08:59:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:18:07</t>
+          <t>08-07-2025 09:34:56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:18:07</t>
+          <t>08-07-2025 09:34:56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 10:50:24</t>
+          <t>08-07-2025 10:41:33</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>11074</v>
+        <v>7994</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,14 +1531,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1548,11 +1548,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4516724537037037</v>
+        <v>-4.44552662037037</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1560,41 +1560,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251674</v>
+        <v>251790</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>147.125</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:08:38</t>
+          <t>08-07-2025 09:02:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:08</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:08</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 12:28:15</t>
+          <t>08-07-2025 13:32:20</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17655</v>
+        <v>28207</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1620,53 +1620,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.519623842592593</v>
+        <v>-8.564126157407408</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>243524</v>
+        <v>252230</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>66.61666666666666</v>
+        <v>63.125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:57</t>
+          <t>08-07-2025 09:12:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:57</t>
+          <t>08-07-2025 09:31:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:57</t>
+          <t>08-07-2025 09:31:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:51:34</t>
+          <t>08-07-2025 10:34:18</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7994</v>
+        <v>7575</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1692,53 +1692,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-4.452476851851852</v>
+        <v>-25.44049189814815</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>243529</v>
+        <v>252087</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>129.9833333333333</v>
+        <v>35.5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:32:09</t>
+          <t>08-07-2025 09:53:17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:51:09</t>
+          <t>08-07-2025 10:33:17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:51:09</t>
+          <t>08-07-2025 10:33:17</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:08</t>
+          <t>08-07-2025 11:08:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15598</v>
+        <v>4260</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1747,14 +1747,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1764,53 +1764,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-4.500792824074074</v>
+        <v>-9.464438657407408</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>243525</v>
+        <v>252371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>129.9833333333333</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:13:57</t>
+          <t>08-07-2025 09:59:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:57</t>
+          <t>08-07-2025 10:26:52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:48:57</t>
+          <t>08-07-2025 10:26:52</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:56</t>
+          <t>08-07-2025 11:16:55</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15598</v>
+        <v>6005</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1819,11 +1819,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>76</v>
@@ -1836,11 +1836,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-4.540931712962963</v>
+        <v>-8.470081018518519</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1848,41 +1848,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252402</v>
+        <v>252244</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>25.075</v>
+        <v>107.575</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:17:02</t>
+          <t>08-07-2025 10:34:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:44:02</t>
+          <t>08-07-2025 10:51:18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:44:02</t>
+          <t>08-07-2025 10:51:18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:09:06</t>
+          <t>08-07-2025 12:38:53</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3009</v>
+        <v>12909</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>76</v>
@@ -1908,19 +1908,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-11.46465856481482</v>
+        <v>-1.527002314814815</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252071</v>
+        <v>252997</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1928,33 +1928,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>45.73333333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:50:24</t>
+          <t>08-07-2025 10:41:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:24</t>
+          <t>08-07-2025 11:16:33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:24</t>
+          <t>08-07-2025 11:16:33</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:21:08</t>
+          <t>08-07-2025 11:56:34</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5488</v>
+        <v>4802</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1963,14 +1963,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1980,53 +1980,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-26.51468171296296</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252244</v>
+        <v>252243</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>107.575</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:51:34</t>
+          <t>08-07-2025 10:59:35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:21:34</t>
+          <t>08-07-2025 11:35:35</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:21:34</t>
+          <t>08-07-2025 11:35:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:08</t>
+          <t>08-07-2025 13:12:17</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12909</v>
+        <v>11605</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.548015046296296</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2064,41 +2064,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252686</v>
+        <v>251632</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D23" t="n">
-        <v>329.15</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:09:06</t>
+          <t>08-07-2025 11:08:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:06</t>
+          <t>08-07-2025 12:28:47</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:06</t>
+          <t>08-07-2025 12:28:47</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-07-2025 09:22:15</t>
+          <t>09-07-2025 14:17:18</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>39498</v>
+        <v>70621</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2124,53 +2124,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-2.595347222222222</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252997</v>
+        <v>251919</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>40.01666666666667</v>
+        <v>140.05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:08</t>
+          <t>08-07-2025 11:16:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 12:33:08</t>
+          <t>08-07-2025 11:58:55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 12:33:08</t>
+          <t>08-07-2025 11:58:55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 13:13:09</t>
+          <t>08-07-2025 14:18:58</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4802</v>
+        <v>16806</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>152</v>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-22.59650462962963</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2208,41 +2208,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252144</v>
+        <v>251674</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="D25" t="n">
-        <v>54.13333333333333</v>
+        <v>147.125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:21:08</t>
+          <t>08-07-2025 11:24:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>08-07-2025 12:07:10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>08-07-2025 12:07:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 13:50:16</t>
+          <t>08-07-2025 14:34:18</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6496</v>
+        <v>17655</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2251,14 +2251,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-9.576579861111112</v>
+        <v>-1.607152777777778</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252087</v>
+        <v>252723</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>35.5</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:28:15</t>
+          <t>08-07-2025 11:56:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:20:45</t>
+          <t>08-07-2025 12:31:34</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:20:45</t>
+          <t>08-07-2025 12:31:34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:15</t>
+          <t>09-07-2025 07:05:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4260</v>
+        <v>18475</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2323,14 +2323,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2340,53 +2340,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-9.580734953703704</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252978</v>
+        <v>243529</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>23.3</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:41</t>
+          <t>08-07-2025 12:09:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:41</t>
+          <t>08-07-2025 12:41:02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:41</t>
+          <t>08-07-2025 12:41:02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:59</t>
+          <t>08-07-2025 14:51:01</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2796</v>
+        <v>15598</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2412,53 +2412,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-22.55693865740741</v>
+        <v>-4.618761574074074</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251798</v>
+        <v>243569</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>123.2916666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:56</t>
+          <t>08-07-2025 12:38:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:56</t>
+          <t>08-07-2025 12:55:53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:56</t>
+          <t>08-07-2025 12:55:53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:14</t>
+          <t>08-07-2025 13:17:33</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>14795</v>
+        <v>2601</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>76</v>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-295.5538599537037</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2496,41 +2496,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251919</v>
+        <v>252652</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>140.05</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:08</t>
+          <t>08-07-2025 13:12:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:08</t>
+          <t>08-07-2025 13:44:17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:08</t>
+          <t>08-07-2025 13:44:17</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:11</t>
+          <t>09-07-2025 08:50:18</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16806</v>
+        <v>22321</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2556,11 +2556,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-23.33624421296296</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2568,41 +2568,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252201</v>
+        <v>252546</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>34.10833333333333</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:13:09</t>
+          <t>08-07-2025 13:17:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:09</t>
+          <t>08-07-2025 13:36:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:09</t>
+          <t>08-07-2025 13:36:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:16</t>
+          <t>08-07-2025 14:31:11</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4093</v>
+        <v>6556</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2628,53 +2628,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-18.59671296296296</v>
+        <v>-7.604994212962963</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252063</v>
+        <v>252298</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>79.94166666666666</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:59</t>
+          <t>08-07-2025 13:32:20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:59</t>
+          <t>08-07-2025 14:12:20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:59</t>
+          <t>08-07-2025 14:12:20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:56</t>
+          <t>09-07-2025 07:23:06</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9593</v>
+        <v>8492</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
@@ -2700,53 +2700,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-8.292314814814814</v>
+        <v>-16.30771412037037</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>241783</v>
+        <v>252665</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>43.325</v>
+        <v>48.875</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:10</t>
+          <t>08-07-2025 14:18:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:03:10</t>
+          <t>09-07-2025 07:00:58</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:03:10</t>
+          <t>09-07-2025 07:00:58</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:30</t>
+          <t>09-07-2025 07:49:50</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5199</v>
+        <v>5865</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,14 +2755,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2772,53 +2772,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250284</v>
+        <v>245089</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>146.35</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:50:16</t>
+          <t>08-07-2025 14:31:11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:45:16</t>
+          <t>08-07-2025 14:48:11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:45:16</t>
+          <t>08-07-2025 14:48:11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:37</t>
+          <t>11-07-2025 07:50:24</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17562</v>
+        <v>122665</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2827,14 +2827,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-119.3830729166667</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251632</v>
+        <v>252999</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2864,33 +2864,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52.5</v>
+        <v>54.5</v>
       </c>
       <c r="D34" t="n">
-        <v>588.5083333333333</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:15</t>
+          <t>08-07-2025 14:34:18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:48:45</t>
+          <t>09-07-2025 07:28:48</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:48:45</t>
+          <t>09-07-2025 07:28:48</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:37:16</t>
+          <t>09-07-2025 12:54:38</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>70621</v>
+        <v>39101</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2916,19 +2916,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-3.359212962962963</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251849</v>
+        <v>251231</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2936,33 +2936,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
-        <v>33.38333333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:19:16</t>
+          <t>08-07-2025 14:51:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:16</t>
+          <t>09-07-2025 07:27:01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:16</t>
+          <t>09-07-2025 07:27:01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:39</t>
+          <t>09-07-2025 12:39:19</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4006</v>
+        <v>37477</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2971,18 +2971,18 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>40042 (esterno)</t>
+          <t>40034 (esterno)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2991,18 +2991,18 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>40042</v>
+        <v>40034</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-14.31017361111111</v>
+        <v>-6.527309027777778</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3011,33 +3011,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
         <v>98.75833333333334</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:30</t>
+          <t>09-07-2025 07:05:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:30</t>
+          <t>09-07-2025 07:50:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:30</t>
+          <t>09-07-2025 07:50:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:01:15</t>
+          <t>09-07-2025 09:29:17</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3079,41 +3079,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252814</v>
+        <v>252284</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>50.08333333333334</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:56</t>
+          <t>09-07-2025 07:23:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:17:56</t>
+          <t>09-07-2025 08:03:06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:17:56</t>
+          <t>09-07-2025 08:03:06</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:01</t>
+          <t>09-07-2025 08:54:22</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6010</v>
+        <v>6152</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3122,70 +3122,75 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252476</v>
+        <v>252784</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>72.34166666666667</v>
+        <v>26.975</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:39</t>
+          <t>09-07-2025 07:49:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:39</t>
+          <t>09-07-2025 08:22:50</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:39</t>
+          <t>09-07-2025 08:22:50</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:57:59</t>
+          <t>09-07-2025 08:49:49</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8681</v>
+        <v>3237</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3198,7 +3203,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3211,53 +3216,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2.373605324074074</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252783</v>
+        <v>245623</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>11.95</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:14</t>
+          <t>09-07-2025 08:49:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:17:14</t>
+          <t>09-07-2025 09:37:49</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:17:14</t>
+          <t>09-07-2025 09:37:49</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:11</t>
+          <t>09-07-2025 13:17:58</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1434</v>
+        <v>26419</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3266,14 +3271,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3283,53 +3288,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-165.5541493055556</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252284</v>
+        <v>252085</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>51.26666666666667</v>
+        <v>28.55</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:11</t>
+          <t>09-07-2025 08:50:18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:11</t>
+          <t>09-07-2025 09:07:18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:11</t>
+          <t>09-07-2025 09:07:18</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 09:30:27</t>
+          <t>09-07-2025 09:35:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6152</v>
+        <v>3426</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3347,66 +3352,61 @@
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-21.39989583333333</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245089</v>
+        <v>241783</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>1022.208333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:01</t>
+          <t>09-07-2025 08:54:22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:01</t>
+          <t>09-07-2025 09:29:22</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:01</t>
+          <t>09-07-2025 09:29:22</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11-07-2025 09:31:13</t>
+          <t>09-07-2025 10:12:42</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>122665</v>
+        <v>5199</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>76</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3444,41 +3444,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252784</v>
+        <v>252207</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>26.975</v>
+        <v>51.55</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:11</t>
+          <t>09-07-2025 09:29:17</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:11</t>
+          <t>09-07-2025 10:14:17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:11</t>
+          <t>09-07-2025 10:14:17</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 09:21:09</t>
+          <t>09-07-2025 11:05:50</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3237</v>
+        <v>6186</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3487,14 +3487,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3504,11 +3504,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-13.4623900462963</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3516,41 +3516,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252220</v>
+        <v>252814</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
-        <v>80.51666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:57:59</t>
+          <t>09-07-2025 09:35:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:59</t>
+          <t>09-07-2025 10:11:51</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:59</t>
+          <t>09-07-2025 10:11:51</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:35:30</t>
+          <t>09-07-2025 11:01:56</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9662</v>
+        <v>6010</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3559,14 +3559,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
         <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3576,53 +3576,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-23.44132523148148</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252785</v>
+        <v>252783</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>55.75</v>
+        <v>11.95</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:01:15</t>
+          <t>09-07-2025 10:12:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:26:15</t>
+          <t>09-07-2025 10:57:42</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 09:26:15</t>
+          <t>09-07-2025 10:57:42</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:22:00</t>
+          <t>09-07-2025 11:09:39</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6690</v>
+        <v>1434</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3660,41 +3660,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252999</v>
+        <v>243525</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>325.8416666666666</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:37</t>
+          <t>09-07-2025 11:01:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:06:37</t>
+          <t>09-07-2025 11:18:56</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 10:06:37</t>
+          <t>09-07-2025 11:18:56</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>10-07-2025 07:32:28</t>
+          <t>09-07-2025 13:28:55</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>39101</v>
+        <v>15598</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3703,14 +3703,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3720,53 +3720,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-5.561747685185185</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252085</v>
+        <v>252201</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>28.55</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 09:21:09</t>
+          <t>09-07-2025 11:05:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 09:56:09</t>
+          <t>09-07-2025 11:40:50</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 09:56:09</t>
+          <t>09-07-2025 11:40:50</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 10:24:42</t>
+          <t>09-07-2025 12:14:57</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3426</v>
+        <v>4093</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3775,14 +3775,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3792,53 +3792,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-21.43382523148148</v>
+        <v>-19.51038194444444</v>
       </c>
       <c r="S46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>245623</v>
+        <v>252476</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>220.1583333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 09:22:15</t>
+          <t>09-07-2025 11:09:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 09:49:15</t>
+          <t>09-07-2025 11:49:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 09:49:15</t>
+          <t>09-07-2025 11:49:39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-07-2025 13:29:25</t>
+          <t>09-07-2025 13:01:59</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>26419</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3847,14 +3847,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3864,53 +3864,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-165.5620949074074</v>
+        <v>-2.543049768518518</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251231</v>
+        <v>252785</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>312.3083333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 09:30:27</t>
+          <t>09-07-2025 12:14:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:27</t>
+          <t>09-07-2025 12:59:57</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:27</t>
+          <t>09-07-2025 12:59:57</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 07:17:46</t>
+          <t>09-07-2025 13:55:42</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>37477</v>
+        <v>6690</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3928,26 +3928,19 @@
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-7.304004629629629</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3955,41 +3948,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244828</v>
+        <v>252364</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>43.35833333333333</v>
+        <v>94.55</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 10:22:00</t>
+          <t>09-07-2025 12:39:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:00</t>
+          <t>09-07-2025 12:58:19</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:00</t>
+          <t>09-07-2025 12:58:19</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:22</t>
+          <t>09-07-2025 14:32:52</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5203</v>
+        <v>11346</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3998,14 +3991,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4015,53 +4008,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-2.485671296296296</v>
+        <v>-12.60616319444444</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252364</v>
+        <v>251849</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>36.5</v>
       </c>
       <c r="D50" t="n">
-        <v>94.55</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 10:24:42</t>
+          <t>09-07-2025 12:54:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:04:42</t>
+          <t>09-07-2025 13:31:08</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:04:42</t>
+          <t>09-07-2025 13:31:08</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:39:15</t>
+          <t>09-07-2025 14:04:31</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>11346</v>
+        <v>4006</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4074,24 +4067,31 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-12.52726273148148</v>
+        <v>-14.58647569444445</v>
       </c>
       <c r="S50" t="n">
         <v>4</v>
@@ -4099,41 +4099,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>243569</v>
+        <v>244828</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>21.675</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 10:35:30</t>
+          <t>09-07-2025 13:01:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:07:30</t>
+          <t>09-07-2025 13:36:59</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:07:30</t>
+          <t>09-07-2025 13:36:59</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 11:29:11</t>
+          <t>09-07-2025 14:20:21</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2601</v>
+        <v>5203</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4142,14 +4142,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4159,53 +4159,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-296.478599537037</v>
+        <v>-2.597465277777778</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252546</v>
+        <v>252686</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>54.63333333333333</v>
+        <v>329.15</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:29:11</t>
+          <t>09-07-2025 13:17:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:11</t>
+          <t>09-07-2025 13:44:58</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:11</t>
+          <t>09-07-2025 13:44:58</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 12:42:49</t>
+          <t>10-07-2025 11:14:07</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6556</v>
+        <v>39498</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4214,14 +4214,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4231,11 +4231,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.529733796296297</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252152</v>
+        <v>244023</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4254,30 +4254,30 @@
         <v>36</v>
       </c>
       <c r="D53" t="n">
-        <v>27.36666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:22</t>
+          <t>09-07-2025 13:28:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:22</t>
+          <t>09-07-2025 14:04:55</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:22</t>
+          <t>09-07-2025 14:04:55</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:42:44</t>
+          <t>09-07-2025 14:13:13</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3284</v>
+        <v>997</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4286,14 +4286,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4303,53 +4303,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-19.52967592592593</v>
+        <v>-282.5925173611111</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252713</v>
+        <v>252144</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D54" t="n">
-        <v>907.7666666666667</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 12:39:15</t>
+          <t>09-07-2025 13:55:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:09:15</t>
+          <t>09-07-2025 14:40:42</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:09:15</t>
+          <t>09-07-2025 14:40:42</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-07-2025 12:17:01</t>
+          <t>10-07-2025 07:34:50</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>108932</v>
+        <v>6496</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4358,14 +4358,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4375,53 +4375,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-11.31585648148148</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252371</v>
+        <v>252456</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>38.5</v>
       </c>
       <c r="D55" t="n">
-        <v>50.04166666666666</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 12:42:44</t>
+          <t>09-07-2025 14:04:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:03:44</t>
+          <t>09-07-2025 14:43:01</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:03:44</t>
+          <t>09-07-2025 14:43:01</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-07-2025 13:53:46</t>
+          <t>10-07-2025 09:07:29</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6005</v>
+        <v>17335</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4430,14 +4430,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4447,53 +4447,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-9.579010416666666</v>
+        <v>-0.3801967592592593</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252243</v>
+        <v>252350</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>96.70833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 12:42:49</t>
+          <t>09-07-2025 14:13:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:49</t>
+          <t>09-07-2025 14:36:13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:49</t>
+          <t>09-07-2025 14:36:13</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:36:31</t>
+          <t>10-07-2025 07:28:06</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>11605</v>
+        <v>6226</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4502,14 +4502,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4519,11 +4519,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-2.311186342592593</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4531,41 +4531,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252665</v>
+        <v>252549</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D57" t="n">
-        <v>48.875</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 13:29:25</t>
+          <t>09-07-2025 14:17:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:25</t>
+          <t>10-07-2025 07:37:18</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:25</t>
+          <t>10-07-2025 07:37:18</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 07:00:17</t>
+          <t>10-07-2025 09:09:53</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5865</v>
+        <v>11111</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4591,53 +4591,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252207</v>
+        <v>252277</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>51.55</v>
+        <v>144.925</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 13:53:46</t>
+          <t>09-07-2025 14:20:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:10:46</t>
+          <t>09-07-2025 14:55:21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:10:46</t>
+          <t>09-07-2025 14:55:21</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 07:02:19</t>
+          <t>10-07-2025 09:20:16</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6186</v>
+        <v>17391</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4646,36 +4646,43 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-14.29328125</v>
+        <v>-20.38907986111111</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252456</v>
+        <v>252547</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4683,33 +4690,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>144.4583333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:36:31</t>
+          <t>09-07-2025 14:32:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:31</t>
+          <t>09-07-2025 14:49:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:31</t>
+          <t>09-07-2025 14:49:52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-07-2025 09:32:59</t>
+          <t>10-07-2025 08:11:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>17335</v>
+        <v>9740</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4735,53 +4742,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.3979050925925926</v>
+        <v>-6.341001157407407</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252277</v>
+        <v>252636</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>144.925</v>
+        <v>11.275</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:00:17</t>
+          <t>10-07-2025 07:28:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:17</t>
+          <t>10-07-2025 07:45:06</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:17</t>
+          <t>10-07-2025 07:45:06</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:13</t>
+          <t>10-07-2025 07:56:23</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>17391</v>
+        <v>1353</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4799,26 +4806,19 @@
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-20.41126157407408</v>
+        <v>-0.3308217592592593</v>
       </c>
       <c r="S60" t="n">
         <v>7</v>
@@ -4826,41 +4826,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252549</v>
+        <v>252402</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>92.59166666666667</v>
+        <v>25.075</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:02:19</t>
+          <t>10-07-2025 07:34:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:36:19</t>
+          <t>10-07-2025 08:09:50</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:36:19</t>
+          <t>10-07-2025 08:09:50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:55</t>
+          <t>10-07-2025 08:34:54</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>11111</v>
+        <v>3009</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4869,14 +4869,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4886,53 +4886,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-13.35757523148148</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252547</v>
+        <v>252146</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
-        <v>81.16666666666667</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:17:46</t>
+          <t>10-07-2025 07:56:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:47:46</t>
+          <t>10-07-2025 08:30:23</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:47:46</t>
+          <t>10-07-2025 08:30:23</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:56</t>
+          <t>10-07-2025 09:37:01</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>9740</v>
+        <v>7996</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4941,14 +4941,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4958,53 +4958,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-6.381203703703703</v>
+        <v>-11.40070601851852</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252350</v>
+        <v>252638</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>51.88333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 07:32:28</t>
+          <t>10-07-2025 08:11:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:02:28</t>
+          <t>10-07-2025 08:34:02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:02:28</t>
+          <t>10-07-2025 08:34:02</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:54:21</t>
+          <t>10-07-2025 09:35:32</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6226</v>
+        <v>7379</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5013,11 +5013,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5030,53 +5030,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.371076388888889</v>
+        <v>-4.399675925925925</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252652</v>
+        <v>252713</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>186.0083333333333</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-07-2025 08:37:16</t>
+          <t>10-07-2025 08:34:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:29:46</t>
+          <t>10-07-2025 09:24:54</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:29:46</t>
+          <t>10-07-2025 09:24:54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 12:35:46</t>
+          <t>14-07-2025 08:32:40</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>22321</v>
+        <v>108932</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5085,11 +5085,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5114,41 +5114,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252638</v>
+        <v>252220</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D65" t="n">
-        <v>61.49166666666667</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 08:54:21</t>
+          <t>10-07-2025 09:07:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:21</t>
+          <t>10-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:21</t>
+          <t>10-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:35:50</t>
+          <t>10-07-2025 11:00:30</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7379</v>
+        <v>9662</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5174,53 +5174,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.441556712962963</v>
+        <v>-24.45868055555556</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251495</v>
+        <v>252334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>72.34166666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07-2025 12:17:01</t>
+          <t>14-07-2025 08:32:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:01</t>
+          <t>14-07-2025 09:17:40</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:01</t>
+          <t>14-07-2025 09:17:40</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11-07-2025 14:14:22</t>
+          <t>15-07-2025 09:24:16</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8681</v>
+        <v>58391</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5246,14 +5246,14 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.593310185185185</v>
+        <v>-11.39185185185185</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5262,33 +5262,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
         <v>12.10833333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:14:22</t>
+          <t>15-07-2025 09:24:16</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:59:22</t>
+          <t>15-07-2025 09:49:16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11-07-2025 14:59:22</t>
+          <t>15-07-2025 09:49:16</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14-07-2025 07:11:28</t>
+          <t>15-07-2025 10:01:22</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5330,41 +5330,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252467</v>
+        <v>252470</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>81.16666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14-07-2025 07:11:28</t>
+          <t>15-07-2025 10:01:22</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14-07-2025 07:36:28</t>
+          <t>15-07-2025 10:31:22</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14-07-2025 07:36:28</t>
+          <t>15-07-2025 10:31:22</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14-07-2025 08:57:38</t>
+          <t>15-07-2025 11:33:52</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>9740</v>
+        <v>7500</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5390,53 +5390,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-11.48185763888889</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252755</v>
+        <v>252336</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>109.575</v>
+        <v>120.275</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14-07-2025 08:57:38</t>
+          <t>15-07-2025 11:33:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14-07-2025 09:27:38</t>
+          <t>15-07-2025 12:03:52</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14-07-2025 09:27:38</t>
+          <t>15-07-2025 12:03:52</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14-07-2025 11:17:13</t>
+          <t>15-07-2025 14:04:09</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13149</v>
+        <v>14433</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5462,11 +5462,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-11.58621527777778</v>
       </c>
       <c r="S69" t="n">
         <v>2</v>
@@ -5474,41 +5474,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252336</v>
+        <v>252899</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>120.275</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14-07-2025 11:17:13</t>
+          <t>15-07-2025 14:04:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>14-07-2025 11:47:13</t>
+          <t>15-07-2025 14:39:09</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14-07-2025 11:47:13</t>
+          <t>15-07-2025 14:39:09</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14-07-2025 13:47:29</t>
+          <t>16-07-2025 09:39:43</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>14433</v>
+        <v>21668</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5534,11 +5534,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-10.57464699074074</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>2</v>
@@ -5546,41 +5546,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252470</v>
+        <v>251495</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>62.5</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14-07-2025 13:47:29</t>
+          <t>16-07-2025 09:39:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14-07-2025 14:17:29</t>
+          <t>16-07-2025 10:14:43</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14-07-2025 14:17:29</t>
+          <t>16-07-2025 10:14:43</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15-07-2025 07:19:59</t>
+          <t>16-07-2025 11:27:03</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7500</v>
+        <v>8681</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5606,11 +5606,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.30554976851852</v>
+        <v>-7.477123842592593</v>
       </c>
       <c r="S71" t="n">
         <v>4</v>
@@ -5618,41 +5618,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252157</v>
+        <v>251926</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>396.825</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15-07-2025 07:19:59</t>
+          <t>16-07-2025 11:27:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>15-07-2025 08:09:59</t>
+          <t>16-07-2025 11:57:03</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15-07-2025 08:09:59</t>
+          <t>16-07-2025 11:57:03</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 14:46:49</t>
+          <t>16-07-2025 13:15:58</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>47619</v>
+        <v>9470</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5678,53 +5678,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-27.61584490740741</v>
+        <v>-7.552760416666667</v>
       </c>
       <c r="S72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252334</v>
+        <v>252467</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>486.5916666666666</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15-07-2025 14:46:49</t>
+          <t>16-07-2025 13:15:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>16-07-2025 07:31:49</t>
+          <t>16-07-2025 13:45:58</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16-07-2025 07:31:49</t>
+          <t>16-07-2025 13:45:58</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>17-07-2025 07:38:24</t>
+          <t>17-07-2025 07:07:08</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>58391</v>
+        <v>9740</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5750,53 +5750,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-13.31833912037037</v>
+        <v>-0.2966261574074074</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251926</v>
+        <v>252755</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>78.91666666666667</v>
+        <v>109.575</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>17-07-2025 07:38:24</t>
+          <t>17-07-2025 07:07:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>17-07-2025 08:08:24</t>
+          <t>17-07-2025 07:37:08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17-07-2025 08:08:24</t>
+          <t>17-07-2025 07:37:08</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17-07-2025 09:27:19</t>
+          <t>17-07-2025 09:26:43</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>9470</v>
+        <v>13149</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5822,53 +5822,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-8.393975694444444</v>
+        <v>-0.3935532407407407</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252899</v>
+        <v>252157</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>180.5666666666667</v>
+        <v>396.825</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>17-07-2025 09:27:19</t>
+          <t>17-07-2025 09:26:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>17-07-2025 09:57:19</t>
+          <t>17-07-2025 10:16:43</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17-07-2025 09:57:19</t>
+          <t>17-07-2025 10:16:43</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17-07-2025 12:57:53</t>
+          <t>18-07-2025 08:53:32</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>21668</v>
+        <v>47619</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5894,14 +5894,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-30.3705150462963</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252286</v>
+        <v>253318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,33 +550,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>51.26666666666667</v>
+        <v>51.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:16</t>
+          <t>08-09-2025 08:08:33</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6152</v>
+        <v>6186</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,75 +585,70 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3392708333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252285</v>
+        <v>253317</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>46.14166666666667</v>
+        <v>102.775</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 08:08:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-09-2025 08:23:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-09-2025 08:23:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-09-2025 10:06:19</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5537</v>
+        <v>12333</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -662,75 +657,70 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4210590277777778</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243335</v>
+        <v>253527</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>275.0333333333334</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 10:06:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-09-2025 10:40:19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-09-2025 10:40:19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:09:02</t>
+          <t>08-09-2025 11:47:48</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>33004</v>
+        <v>8098</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -739,14 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -756,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-340.5062731481481</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -768,41 +758,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252345</v>
+        <v>252995</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>43.325</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 11:47:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-09-2025 12:21:48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-09-2025 12:21:48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>08-09-2025 13:30:07</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5199</v>
+        <v>8198</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -811,14 +801,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -828,53 +818,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3457118055555555</v>
+        <v>-7.562586805555555</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251798</v>
+        <v>252569</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>123.2916666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 13:30:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>08-09-2025 13:49:07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>08-09-2025 13:49:07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:17</t>
+          <t>08-09-2025 13:58:42</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>14795</v>
+        <v>1150</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -887,7 +877,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -900,53 +890,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-7.582436342592593</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252047</v>
+        <v>252906</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>70.88333333333334</v>
+        <v>34.725</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 13:58:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-09-2025 14:15:42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-09-2025 14:15:42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>08-09-2025 14:50:26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8506</v>
+        <v>4167</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -959,7 +949,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -972,53 +962,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.354085648148148</v>
+        <v>-14.61835648148148</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252063</v>
+        <v>253140</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>79.94166666666666</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 14:50:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-09-2025 07:07:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-09-2025 07:07:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:56</t>
+          <t>09-09-2025 08:03:16</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9593</v>
+        <v>6700</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1044,11 +1034,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-7.374959490740741</v>
+        <v>-14.33560185185185</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1056,41 +1046,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252347</v>
+        <v>235572</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
-        <v>92.28333333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:17</t>
+          <t>08-09-2025 09:06:59</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11074</v>
+        <v>9958</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,11 +1089,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1116,53 +1106,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3765856481481482</v>
+        <v>-672.379849537037</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252152</v>
+        <v>253278</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>27.36666666666667</v>
+        <v>28.425</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:16</t>
+          <t>08-09-2025 09:06:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:16</t>
+          <t>08-09-2025 09:33:59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:16</t>
+          <t>08-09-2025 09:33:59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:38</t>
+          <t>08-09-2025 10:02:24</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3284</v>
+        <v>3411</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1171,14 +1161,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1188,53 +1178,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-18.37405092592592</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250284</v>
+        <v>253072</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>146.35</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>08-09-2025 10:02:24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-09-2025 10:27:24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-09-2025 10:27:24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-07-2025 11:24:40</t>
+          <t>08-09-2025 10:56:32</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17562</v>
+        <v>3496</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1247,7 +1237,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1260,53 +1250,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-118.47546875</v>
+        <v>-21.45593171296296</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252978</v>
+        <v>252216</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:53</t>
+          <t>08-09-2025 10:56:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:48:53</t>
+          <t>08-09-2025 11:29:32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-07-2025 08:48:53</t>
+          <t>08-09-2025 11:29:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:11</t>
+          <t>08-09-2025 13:51:21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2796</v>
+        <v>17017</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,14 +1305,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>40299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1332,19 +1325,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-22.38346064814815</v>
+        <v>-0.5773263888888889</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252071</v>
+        <v>253721</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1352,33 +1345,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>45.73333333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-09-2025 13:51:21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:14:08</t>
+          <t>08-09-2025 14:30:21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:14:08</t>
+          <t>08-09-2025 14:30:21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:52</t>
+          <t>09-09-2025 07:09:44</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5488</v>
+        <v>4727</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1387,14 +1380,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1404,53 +1397,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-26.41657986111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252237</v>
+        <v>253359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>84.95</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:38</t>
+          <t>09-09-2025 07:09:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:38</t>
+          <t>09-09-2025 07:38:44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:38</t>
+          <t>09-09-2025 07:38:44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:35</t>
+          <t>09-09-2025 09:52:45</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>10194</v>
+        <v>16082</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,14 +1452,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1476,11 +1469,11 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-7.458043981481482</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1488,41 +1481,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>243524</v>
+        <v>253271</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>66.61666666666666</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:56</t>
+          <t>09-09-2025 09:52:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:56</t>
+          <t>09-09-2025 10:23:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:56</t>
+          <t>09-09-2025 10:23:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 10:41:33</t>
+          <t>09-09-2025 11:06:23</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7994</v>
+        <v>5116</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,14 +1524,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1548,53 +1541,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.44552662037037</v>
+        <v>-4.462771990740741</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251790</v>
+        <v>253259</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>235.0583333333333</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:17</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:20</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>28207</v>
+        <v>8308</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,70 +1596,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-8.564126157407408</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252230</v>
+        <v>252939</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>63.125</v>
+        <v>89.8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:11</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:31:11</t>
+          <t>05-09-2025 08:43:14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:31:11</t>
+          <t>05-09-2025 08:43:14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 10:34:18</t>
+          <t>05-09-2025 10:13:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7575</v>
+        <v>10776</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1675,14 +1673,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1692,11 +1690,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-25.44049189814815</v>
+        <v>-14.42571759259259</v>
       </c>
       <c r="S17" t="n">
         <v>7</v>
@@ -1704,41 +1702,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252087</v>
+        <v>253314</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>35.5</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:17</t>
+          <t>05-09-2025 10:13:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:33:17</t>
+          <t>05-09-2025 10:45:02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:33:17</t>
+          <t>05-09-2025 10:45:02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 11:08:47</t>
+          <t>05-09-2025 11:28:26</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4260</v>
+        <v>5209</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1747,70 +1745,75 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-9.464438657407408</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252371</v>
+        <v>252702</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>50.04166666666666</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:52</t>
+          <t>05-09-2025 11:28:26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:52</t>
+          <t>05-09-2025 12:00:26</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:52</t>
+          <t>05-09-2025 12:00:26</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:55</t>
+          <t>05-09-2025 12:58:49</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6005</v>
+        <v>7006</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1823,66 +1826,71 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N19" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-8.470081018518519</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252244</v>
+        <v>253362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>107.575</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:34:18</t>
+          <t>05-09-2025 12:58:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:51:18</t>
+          <t>05-09-2025 13:13:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 10:51:18</t>
+          <t>05-09-2025 13:13:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:53</t>
+          <t>05-09-2025 14:12:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12909</v>
+        <v>7006</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,70 +1899,75 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N20" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.527002314814815</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252997</v>
+        <v>253016</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>40.01666666666667</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 10:41:33</t>
+          <t>05-09-2025 14:12:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:33</t>
+          <t>05-09-2025 14:29:12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:33</t>
+          <t>05-09-2025 14:29:12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:34</t>
+          <t>08-09-2025 07:42:35</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4802</v>
+        <v>8806</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1967,66 +1980,71 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>152</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.321244212962963</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252243</v>
+        <v>253591</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>96.70833333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:35</t>
+          <t>08-09-2025 07:42:35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:35</t>
+          <t>08-09-2025 08:14:35</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:35</t>
+          <t>08-09-2025 08:14:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 13:12:17</t>
+          <t>08-09-2025 08:32:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>11605</v>
+        <v>2090</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2035,70 +2053,75 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-0.3555613425925926</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251632</v>
+        <v>253710</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>588.5083333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 11:08:47</t>
+          <t>08-09-2025 08:32:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:28:47</t>
+          <t>08-09-2025 09:06:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 12:28:47</t>
+          <t>08-09-2025 09:06:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:18</t>
+          <t>08-09-2025 09:07:37</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>70621</v>
+        <v>194</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2107,11 +2130,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2124,11 +2147,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.595347222222222</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -2136,41 +2159,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251919</v>
+        <v>252833</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>140.05</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:55</t>
+          <t>08-09-2025 09:07:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:55</t>
+          <t>08-09-2025 09:26:37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:55</t>
+          <t>08-09-2025 09:26:37</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:58</t>
+          <t>08-09-2025 10:41:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16806</v>
+        <v>8974</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2179,14 +2202,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2196,53 +2219,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-22.59650462962963</v>
+        <v>-13.4454224537037</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251674</v>
+        <v>253268</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42.5</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>147.125</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:24:40</t>
+          <t>08-09-2025 10:41:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:07:10</t>
+          <t>08-09-2025 10:58:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:07:10</t>
+          <t>08-09-2025 10:58:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:18</t>
+          <t>08-09-2025 12:16:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17655</v>
+        <v>9427</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2251,11 +2274,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2268,11 +2291,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.607152777777778</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -2280,41 +2303,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252723</v>
+        <v>253267</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>153.9583333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:34</t>
+          <t>08-09-2025 12:16:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:31:34</t>
+          <t>08-09-2025 12:31:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:31:34</t>
+          <t>08-09-2025 12:31:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:32</t>
+          <t>09-09-2025 07:16:20</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>18475</v>
+        <v>19724</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2323,14 +2346,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2340,19 +2363,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>243529</v>
+        <v>253260</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2360,33 +2383,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" t="n">
-        <v>129.9833333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:09:02</t>
+          <t>09-09-2025 07:16:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:02</t>
+          <t>09-09-2025 07:37:20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:02</t>
+          <t>09-09-2025 07:37:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:51:01</t>
+          <t>09-09-2025 09:26:44</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15598</v>
+        <v>13129</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2395,14 +2418,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2412,53 +2435,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-4.618761574074074</v>
+        <v>-15.39357060185185</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>243569</v>
+        <v>253361</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>21.675</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:53</t>
+          <t>09-09-2025 09:26:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:53</t>
+          <t>09-09-2025 09:45:44</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:53</t>
+          <t>09-09-2025 09:45:44</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:33</t>
+          <t>09-09-2025 11:02:27</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2601</v>
+        <v>9205</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2467,14 +2490,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2484,53 +2507,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-295.5538599537037</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252652</v>
+        <v>253372</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>186.0083333333333</v>
+        <v>103.775</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:12:17</t>
+          <t>09-09-2025 11:02:27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:17</t>
+          <t>09-09-2025 11:17:27</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:44:17</t>
+          <t>09-09-2025 11:17:27</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:18</t>
+          <t>09-09-2025 13:01:13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>22321</v>
+        <v>12453</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2539,11 +2562,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2556,7 +2579,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2568,41 +2591,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252546</v>
+        <v>253375</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>54.63333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:17:33</t>
+          <t>09-09-2025 13:01:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:33</t>
+          <t>09-09-2025 13:16:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:33</t>
+          <t>09-09-2025 13:16:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:11</t>
+          <t>09-09-2025 14:08:06</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6556</v>
+        <v>6226</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2611,14 +2634,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2628,11 +2651,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-7.604994212962963</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2640,41 +2663,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252298</v>
+        <v>253374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>70.76666666666667</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:32:20</t>
+          <t>09-09-2025 14:08:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:12:20</t>
+          <t>09-09-2025 14:27:06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:12:20</t>
+          <t>09-09-2025 14:27:06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:06</t>
+          <t>10-09-2025 07:26:43</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8492</v>
+        <v>7153</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2683,14 +2706,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2700,53 +2723,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-16.30771412037037</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252665</v>
+        <v>253370</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>48.875</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:18:58</t>
+          <t>10-09-2025 07:26:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:58</t>
+          <t>10-09-2025 07:45:43</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:58</t>
+          <t>10-09-2025 07:45:43</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:49:50</t>
+          <t>10-09-2025 11:13:15</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5865</v>
+        <v>24905</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2772,53 +2795,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>245089</v>
+        <v>253401</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>1022.208333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:11</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:48:11</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:48:11</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11-07-2025 07:50:24</t>
+          <t>09-09-2025 07:57:19</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>122665</v>
+        <v>2738</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2827,14 +2850,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2844,19 +2867,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252999</v>
+        <v>252883</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2864,33 +2887,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54.5</v>
+        <v>48.5</v>
       </c>
       <c r="D34" t="n">
-        <v>325.8416666666666</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:18</t>
+          <t>09-09-2025 07:57:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:48</t>
+          <t>09-09-2025 08:45:49</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:48</t>
+          <t>09-09-2025 08:45:49</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 12:54:38</t>
+          <t>09-09-2025 12:53:07</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>39101</v>
+        <v>29677</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2899,11 +2922,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2916,53 +2939,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-11.53689236111111</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251231</v>
+        <v>253095</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>50.5</v>
       </c>
       <c r="D35" t="n">
-        <v>312.3083333333333</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:51:01</t>
+          <t>09-09-2025 12:53:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:01</t>
+          <t>09-09-2025 13:43:37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:01</t>
+          <t>09-09-2025 13:43:37</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 12:39:19</t>
+          <t>09-09-2025 14:59:56</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>37477</v>
+        <v>9158</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2975,73 +2998,66 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-6.527309027777778</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251685</v>
+        <v>253524</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>98.75833333333334</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:05:32</t>
+          <t>09-09-2025 14:59:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:32</t>
+          <t>10-09-2025 07:32:26</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:32</t>
+          <t>10-09-2025 07:32:26</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:17</t>
+          <t>10-09-2025 08:31:12</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11851</v>
+        <v>7051</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3054,7 +3070,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3067,7 +3083,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3079,41 +3095,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252284</v>
+        <v>253247</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>51.26666666666667</v>
+        <v>109.575</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:06</t>
+          <t>10-09-2025 08:31:12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:03:06</t>
+          <t>10-09-2025 09:03:42</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:03:06</t>
+          <t>10-09-2025 09:03:42</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:22</t>
+          <t>10-09-2025 10:53:16</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6152</v>
+        <v>13149</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3131,66 +3147,61 @@
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-0.4536631944444444</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252784</v>
+        <v>253245</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>26.975</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:49:50</t>
+          <t>10-09-2025 10:53:16</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:50</t>
+          <t>10-09-2025 11:29:46</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:50</t>
+          <t>10-09-2025 11:29:46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:49</t>
+          <t>10-09-2025 14:00:36</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3237</v>
+        <v>18100</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3203,7 +3214,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3216,53 +3227,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-0.583755787037037</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245623</v>
+        <v>253436</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>220.1583333333333</v>
+        <v>18.85</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:49</t>
+          <t>10-09-2025 14:00:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 09:37:49</t>
+          <t>10-09-2025 14:35:06</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 09:37:49</t>
+          <t>10-09-2025 14:35:06</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:58</t>
+          <t>10-09-2025 14:53:57</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>26419</v>
+        <v>2262</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3271,14 +3282,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3288,53 +3299,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-165.5541493055556</v>
+        <v>-0.6208043981481481</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252085</v>
+        <v>253261</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D40" t="n">
-        <v>28.55</v>
+        <v>18.85</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:18</t>
+          <t>10-09-2025 14:53:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:18</t>
+          <t>11-09-2025 07:24:27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:18</t>
+          <t>11-09-2025 07:24:27</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 09:35:51</t>
+          <t>11-09-2025 07:43:18</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3426</v>
+        <v>2262</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3347,7 +3358,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3360,53 +3371,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-21.39989583333333</v>
+        <v>-17.32174189814815</v>
       </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>241783</v>
+        <v>244743</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="D41" t="n">
-        <v>43.325</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:22</t>
+          <t>11-09-2025 07:43:18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:22</t>
+          <t>11-09-2025 08:19:48</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:22</t>
+          <t>11-09-2025 08:19:48</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 10:12:42</t>
+          <t>11-09-2025 08:49:09</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5199</v>
+        <v>3521</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3415,14 +3426,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3432,53 +3443,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-17.36746527777778</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252207</v>
+        <v>253455</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D42" t="n">
-        <v>51.55</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 09:29:17</t>
+          <t>11-09-2025 08:49:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:17</t>
+          <t>11-09-2025 09:21:39</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:17</t>
+          <t>11-09-2025 09:21:39</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:50</t>
+          <t>11-09-2025 10:17:12</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6186</v>
+        <v>6667</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3487,14 +3498,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3504,53 +3515,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-13.4623900462963</v>
+        <v>-3.428616898148148</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252814</v>
+        <v>253522</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50.08333333333334</v>
+        <v>198.625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:35:51</t>
+          <t>11-09-2025 10:17:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:11:51</t>
+          <t>11-09-2025 10:49:42</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:11:51</t>
+          <t>11-09-2025 10:49:42</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 11:01:56</t>
+          <t>11-09-2025 14:08:20</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6010</v>
+        <v>23835</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3559,14 +3570,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3576,53 +3587,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252783</v>
+        <v>253528</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>45</v>
+        <v>30.5</v>
       </c>
       <c r="D44" t="n">
-        <v>11.95</v>
+        <v>119.175</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:12:42</t>
+          <t>11-09-2025 14:08:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:42</t>
+          <t>11-09-2025 14:38:50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:42</t>
+          <t>11-09-2025 14:38:50</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 11:09:39</t>
+          <t>12-09-2025 08:38:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1434</v>
+        <v>14301</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3635,7 +3646,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3648,7 +3659,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3660,41 +3671,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>243525</v>
+        <v>252741</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D45" t="n">
-        <v>129.9833333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 11:01:56</t>
+          <t>12-09-2025 08:38:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 11:18:56</t>
+          <t>12-09-2025 09:12:30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 11:18:56</t>
+          <t>12-09-2025 09:12:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:28:55</t>
+          <t>12-09-2025 10:14:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>15598</v>
+        <v>7379</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3703,14 +3714,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3720,53 +3731,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-5.561747685185185</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252201</v>
+        <v>253295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D46" t="n">
-        <v>34.10833333333333</v>
+        <v>230.075</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:50</t>
+          <t>12-09-2025 10:14:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:50</t>
+          <t>12-09-2025 10:52:30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:50</t>
+          <t>12-09-2025 10:52:30</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 12:14:57</t>
+          <t>12-09-2025 14:42:34</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>4093</v>
+        <v>27609</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3775,28 +3786,33 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40274</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-19.51038194444444</v>
+        <v>-0.6128993055555556</v>
       </c>
       <c r="S46" t="n">
         <v>2</v>
@@ -3804,41 +3820,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252476</v>
+        <v>250284</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>36.5</v>
       </c>
       <c r="D47" t="n">
-        <v>72.34166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:09:39</t>
+          <t>12-09-2025 14:42:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:49:39</t>
+          <t>15-09-2025 07:19:04</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-07-2025 11:49:39</t>
+          <t>15-09-2025 07:19:04</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-07-2025 13:01:59</t>
+          <t>15-09-2025 09:45:25</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>17562</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3851,11 +3867,14 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
+      <c r="N47" t="n">
+        <v>40299</v>
+      </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
@@ -3864,53 +3883,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-2.543049768518518</v>
+        <v>-7.406545138888889</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252785</v>
+        <v>253525</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="D48" t="n">
-        <v>55.75</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:14:57</t>
+          <t>15-09-2025 09:45:25</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:57</t>
+          <t>15-09-2025 10:27:55</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-07-2025 12:59:57</t>
+          <t>15-09-2025 10:27:55</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 13:55:42</t>
+          <t>15-09-2025 12:00:04</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6690</v>
+        <v>11057</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3919,11 +3938,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3936,53 +3955,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252364</v>
+        <v>253367</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D49" t="n">
-        <v>94.55</v>
+        <v>135.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:39:19</t>
+          <t>15-09-2025 12:00:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:58:19</t>
+          <t>15-09-2025 12:30:34</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 12:58:19</t>
+          <t>15-09-2025 12:30:34</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-07-2025 14:32:52</t>
+          <t>15-09-2025 14:46:16</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>11346</v>
+        <v>16284</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3991,11 +4010,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4008,19 +4027,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-12.60616319444444</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251849</v>
+        <v>253392</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4028,33 +4047,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D50" t="n">
-        <v>33.38333333333333</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:54:38</t>
+          <t>15-09-2025 14:46:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 13:31:08</t>
+          <t>16-09-2025 07:18:46</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 13:31:08</t>
+          <t>16-09-2025 07:18:46</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 14:04:31</t>
+          <t>16-09-2025 09:28:09</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4006</v>
+        <v>15526</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4063,77 +4082,70 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-14.58647569444445</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>244828</v>
+        <v>253393</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D51" t="n">
-        <v>43.35833333333333</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 13:01:59</t>
+          <t>16-09-2025 09:28:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 13:36:59</t>
+          <t>16-09-2025 09:58:39</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 13:36:59</t>
+          <t>16-09-2025 09:58:39</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:20:21</t>
+          <t>16-09-2025 11:16:17</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5203</v>
+        <v>9316</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4159,11 +4171,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-2.597465277777778</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4171,41 +4183,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252686</v>
+        <v>253549</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>36.5</v>
       </c>
       <c r="D52" t="n">
-        <v>329.15</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:58</t>
+          <t>16-09-2025 11:16:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:44:58</t>
+          <t>16-09-2025 11:52:47</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:44:58</t>
+          <t>16-09-2025 11:52:47</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-07-2025 11:14:07</t>
+          <t>16-09-2025 14:36:27</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>39498</v>
+        <v>19640</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4231,53 +4243,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>244023</v>
+        <v>252582</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>8.308333333333334</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 13:28:55</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:04:55</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:04:55</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:13</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>997</v>
+        <v>5530</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4286,28 +4298,33 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>40290</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-282.5925173611111</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4315,41 +4332,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252144</v>
+        <v>252843</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>54.13333333333333</v>
+        <v>19.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:55:42</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:40:42</t>
+          <t>04-09-2025 14:31:05</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:40:42</t>
+          <t>04-09-2025 14:31:05</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 07:34:50</t>
+          <t>04-09-2025 14:50:17</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6496</v>
+        <v>2304</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4362,7 +4379,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M54" t="n">
         <v>76</v>
@@ -4375,53 +4392,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-11.31585648148148</v>
+        <v>-36.61825231481482</v>
       </c>
       <c r="S54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252456</v>
+        <v>252679</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38.5</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>144.4583333333333</v>
+        <v>60</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:04:31</t>
+          <t>04-09-2025 14:50:17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:43:01</t>
+          <t>05-09-2025 07:35:17</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:43:01</t>
+          <t>05-09-2025 07:35:17</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 09:07:29</t>
+          <t>05-09-2025 08:35:17</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>17335</v>
+        <v>7200</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4430,70 +4447,75 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N55" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.3801967592592593</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252350</v>
+        <v>252682</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>51.88333333333333</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:13</t>
+          <t>05-09-2025 08:35:17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:36:13</t>
+          <t>05-09-2025 09:05:17</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-07-2025 14:36:13</t>
+          <t>05-09-2025 09:05:17</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-07-2025 07:28:06</t>
+          <t>05-09-2025 10:28:41</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6226</v>
+        <v>10009</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4502,36 +4524,41 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-2.311186342592593</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252549</v>
+        <v>252685</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4539,33 +4566,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>92.59166666666667</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:18</t>
+          <t>05-09-2025 10:28:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:18</t>
+          <t>05-09-2025 11:08:41</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:18</t>
+          <t>05-09-2025 11:08:41</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-07-2025 09:09:53</t>
+          <t>05-09-2025 12:23:15</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>11111</v>
+        <v>8948</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4574,24 +4601,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4603,41 +4635,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252277</v>
+        <v>252002</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D58" t="n">
-        <v>144.925</v>
+        <v>55.675</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:20:21</t>
+          <t>05-09-2025 12:23:15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:21</t>
+          <t>05-09-2025 13:13:15</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 14:55:21</t>
+          <t>05-09-2025 13:13:15</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:16</t>
+          <t>05-09-2025 14:08:56</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>17391</v>
+        <v>6681</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4650,14 +4682,14 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>40024 (esterno)</t>
+          <t>40307 (esterno)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4666,57 +4698,57 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>40024</v>
+        <v>40307</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-20.38907986111111</v>
+        <v>-11.58953703703704</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252547</v>
+        <v>250891</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>81.16666666666667</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:32:52</t>
+          <t>05-09-2025 14:08:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:49:52</t>
+          <t>05-09-2025 14:38:56</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-07-2025 14:49:52</t>
+          <t>05-09-2025 14:38:56</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-07-2025 08:11:02</t>
+          <t>08-09-2025 07:56:25</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>9740</v>
+        <v>9299</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4734,6 +4766,9 @@
       <c r="M59" t="n">
         <v>70</v>
       </c>
+      <c r="N59" t="n">
+        <v>40299</v>
+      </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
@@ -4742,53 +4777,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-6.341001157407407</v>
+        <v>-0.3308506944444444</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252636</v>
+        <v>253208</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>11.275</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:28:06</t>
+          <t>08-09-2025 07:56:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:45:06</t>
+          <t>08-09-2025 09:01:25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:45:06</t>
+          <t>08-09-2025 09:01:25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 07:56:23</t>
+          <t>08-09-2025 10:45:41</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1353</v>
+        <v>12511</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4797,11 +4832,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4814,53 +4849,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.3308217592592593</v>
+        <v>-3.448391203703704</v>
       </c>
       <c r="S60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252402</v>
+        <v>253210</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>25.075</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 07:34:50</t>
+          <t>08-09-2025 10:45:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:50</t>
+          <t>08-09-2025 11:10:41</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:50</t>
+          <t>08-09-2025 11:10:41</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 08:34:54</t>
+          <t>08-09-2025 12:44:50</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3009</v>
+        <v>11299</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4869,14 +4904,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4886,53 +4921,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-13.35757523148148</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252146</v>
+        <v>252601</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>66.63333333333334</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:56:23</t>
+          <t>08-09-2025 12:44:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-07-2025 08:30:23</t>
+          <t>08-09-2025 13:14:50</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 08:30:23</t>
+          <t>08-09-2025 13:14:50</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 09:37:01</t>
+          <t>08-09-2025 14:06:03</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7996</v>
+        <v>6145</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4941,14 +4976,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4958,11 +4993,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-11.40070601851852</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>7</v>
@@ -4970,41 +5005,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252638</v>
+        <v>253223</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>61.49166666666667</v>
+        <v>16.4</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:11:02</t>
+          <t>08-09-2025 14:06:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:34:02</t>
+          <t>08-09-2025 14:36:03</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:34:02</t>
+          <t>08-09-2025 14:36:03</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:35:32</t>
+          <t>08-09-2025 14:52:27</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>7379</v>
+        <v>1968</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5013,11 +5048,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5030,11 +5065,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-4.399675925925925</v>
+        <v>-7.619756944444444</v>
       </c>
       <c r="S63" t="n">
         <v>7</v>
@@ -5042,41 +5077,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252713</v>
+        <v>253246</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>907.7666666666667</v>
+        <v>194.25</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-07-2025 08:34:54</t>
+          <t>08-09-2025 14:52:27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:24:54</t>
+          <t>09-09-2025 08:02:27</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:24:54</t>
+          <t>09-09-2025 08:02:27</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14-07-2025 08:32:40</t>
+          <t>09-09-2025 11:16:42</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>108932</v>
+        <v>23310</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5085,11 +5120,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5102,53 +5137,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252220</v>
+        <v>253100</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>80.51666666666667</v>
+        <v>47.35</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:07:29</t>
+          <t>09-09-2025 11:16:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:39:59</t>
+          <t>09-09-2025 11:41:42</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:39:59</t>
+          <t>09-09-2025 11:41:42</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:00:30</t>
+          <t>09-09-2025 12:29:03</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9662</v>
+        <v>5682</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5174,11 +5209,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-24.45868055555556</v>
+        <v>-1.520173611111111</v>
       </c>
       <c r="S65" t="n">
         <v>4</v>
@@ -5186,41 +5221,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252334</v>
+        <v>253036</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>486.5916666666666</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14-07-2025 08:32:40</t>
+          <t>09-09-2025 12:29:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14-07-2025 09:17:40</t>
+          <t>09-09-2025 13:09:03</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14-07-2025 09:17:40</t>
+          <t>09-09-2025 13:09:03</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:16</t>
+          <t>09-09-2025 14:27:47</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58391</v>
+        <v>9448</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5229,14 +5264,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N66" t="n">
+        <v>40299</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5246,53 +5284,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-11.39185185185185</v>
+        <v>-1.602627314814815</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252790</v>
+        <v>253425</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>12.10833333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15-07-2025 09:24:16</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>15-07-2025 09:49:16</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15-07-2025 09:49:16</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15-07-2025 10:01:22</t>
+          <t>08-09-2025 09:45:21</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1453</v>
+        <v>17562</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5301,14 +5339,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5318,11 +5356,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-10.40649305555556</v>
       </c>
       <c r="S67" t="n">
         <v>2</v>
@@ -5330,41 +5368,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252470</v>
+        <v>243569</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>62.5</v>
+        <v>21.675</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15-07-2025 10:01:22</t>
+          <t>08-09-2025 09:45:21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>15-07-2025 10:31:22</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15-07-2025 10:31:22</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15-07-2025 11:33:52</t>
+          <t>08-09-2025 10:26:01</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7500</v>
+        <v>2601</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5373,14 +5411,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5390,53 +5428,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-11.48185763888889</v>
+        <v>-357.4347395833333</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252336</v>
+        <v>252827</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>120.275</v>
+        <v>410</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15-07-2025 11:33:52</t>
+          <t>08-09-2025 10:26:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15-07-2025 12:03:52</t>
+          <t>08-09-2025 10:43:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15-07-2025 12:03:52</t>
+          <t>08-09-2025 10:43:01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15-07-2025 14:04:09</t>
+          <t>09-09-2025 09:33:01</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>14433</v>
+        <v>49200</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5445,14 +5483,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5462,53 +5500,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-11.58621527777778</v>
+        <v>-5.397934027777778</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252899</v>
+        <v>253249</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>180.5666666666667</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15-07-2025 14:04:09</t>
+          <t>09-09-2025 09:33:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15-07-2025 14:39:09</t>
+          <t>09-09-2025 09:50:01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15-07-2025 14:39:09</t>
+          <t>09-09-2025 09:50:01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>16-07-2025 09:39:43</t>
+          <t>09-09-2025 10:47:47</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>21668</v>
+        <v>6931</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5517,14 +5555,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5534,53 +5572,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251495</v>
+        <v>253706</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>72.34166666666667</v>
+        <v>311</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>16-07-2025 09:39:43</t>
+          <t>09-09-2025 10:47:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>16-07-2025 10:14:43</t>
+          <t>09-09-2025 11:12:47</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16-07-2025 10:14:43</t>
+          <t>09-09-2025 11:12:47</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16-07-2025 11:27:03</t>
+          <t>10-09-2025 08:23:47</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8681</v>
+        <v>37320</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5589,14 +5627,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5606,19 +5644,19 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-7.477123842592593</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251926</v>
+        <v>253687</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5626,33 +5664,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>78.91666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16-07-2025 11:27:03</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>16-07-2025 11:57:03</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16-07-2025 11:57:03</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16-07-2025 13:15:58</t>
+          <t>09-09-2025 08:24:14</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>9470</v>
+        <v>5308</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5665,7 +5703,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5678,19 +5716,19 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-7.552760416666667</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252467</v>
+        <v>253659</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5698,33 +5736,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>81.16666666666667</v>
+        <v>323.75</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>16-07-2025 13:15:58</t>
+          <t>09-09-2025 08:24:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>16-07-2025 13:45:58</t>
+          <t>09-09-2025 08:49:14</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16-07-2025 13:45:58</t>
+          <t>09-09-2025 08:49:14</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>17-07-2025 07:07:08</t>
+          <t>09-09-2025 14:12:59</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>9740</v>
+        <v>38850</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5750,11 +5788,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.2966261574074074</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5762,7 +5800,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252755</v>
+        <v>253686</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5770,33 +5808,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>109.575</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>17-07-2025 07:07:08</t>
+          <t>09-09-2025 14:12:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>17-07-2025 07:37:08</t>
+          <t>09-09-2025 14:37:59</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17-07-2025 07:37:08</t>
+          <t>09-09-2025 14:37:59</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17-07-2025 09:26:43</t>
+          <t>10-09-2025 07:22:13</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>13149</v>
+        <v>5308</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5809,7 +5847,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5822,19 +5860,19 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-0.3935532407407407</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252157</v>
+        <v>252815</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5842,65 +5880,1446 @@
         </is>
       </c>
       <c r="C75" t="n">
+        <v>45</v>
+      </c>
+      <c r="D75" t="n">
+        <v>242.9416666666667</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:22:13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:07:13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:07:13</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:10:09</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>29153</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>8</v>
+      </c>
+      <c r="M75" t="n">
+        <v>76</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>-5.507054398148148</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>40</v>
+      </c>
+      <c r="D76" t="n">
+        <v>117.0833333333333</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:10:09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:50:09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:50:09</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:47:14</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>14050</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>-0.6161400462962963</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>45</v>
+      </c>
+      <c r="D77" t="n">
+        <v>184.825</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:47:14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>11-09-2025 07:32:14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>11-09-2025 07:32:14</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:37:04</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>22179</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>-1.442407407407407</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:37:04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:02:04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:02:04</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:11:56</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>22784</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>26-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253368</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>30</v>
+      </c>
+      <c r="D79" t="n">
+        <v>103.775</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:11:56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:41:56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:41:56</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:25:42</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>12453</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>107.7666666666667</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:25:42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:50:42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:50:42</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:38:28</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>12932</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253377</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>127.7166666666667</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:38:28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:03:28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:03:28</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:11:11</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>15326</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" t="n">
+        <v>179.6083333333333</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:11:11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:36:11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:36:11</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:35:48</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>21553</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>45</v>
+      </c>
+      <c r="D83" t="n">
+        <v>173.4166666666667</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:35:48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:20:48</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:20:48</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:14:13</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>20810</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>76</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>09-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>-6.509872685185186</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>50</v>
       </c>
-      <c r="D75" t="n">
-        <v>396.825</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>17-07-2025 09:26:43</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>17-07-2025 10:16:43</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>17-07-2025 10:16:43</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>18-07-2025 08:53:32</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>47619</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="D84" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:14:13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:04:13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:04:13</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:56:01</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>35016</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>9</v>
-      </c>
-      <c r="M75" t="n">
+      <c r="L84" t="n">
+        <v>5</v>
+      </c>
+      <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>18-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R75" s="1" t="n">
-        <v>-30.3705150462963</v>
-      </c>
-      <c r="S75" t="n">
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>16-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>-0.413900462962963</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>30</v>
+      </c>
+      <c r="D85" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:56:01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:26:01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:26:01</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:12:31</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>19980</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>-6.550358796296297</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>35</v>
+      </c>
+      <c r="D86" t="n">
+        <v>68.08333333333333</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:12:31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:47:31</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:47:31</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:55:36</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>8170</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>-11.62194444444444</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>115.925</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:55:36</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:25:36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:25:36</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:21:31</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>13911</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>76</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>55</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.308333333333334</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:55:00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:55:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:03:18</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>997</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>6</v>
+      </c>
+      <c r="M88" t="n">
+        <v>70</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>30-09-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>-340.335630787037</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>253313</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>40</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100.0083333333333</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:03:18</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:18</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:23:19</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>12001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>76</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>-0.4328587962962963</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>40</v>
+      </c>
+      <c r="D90" t="n">
+        <v>365.975</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:23:19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:03:19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:03:19</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:09:17</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>43917</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>70</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>40279</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>02-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>-6.381452546296297</v>
+      </c>
+      <c r="S90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>253409</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>35</v>
+      </c>
+      <c r="D91" t="n">
+        <v>27.18333333333333</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:09:17</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:44:17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:44:17</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:11:28</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>3262</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>76</v>
+      </c>
+      <c r="N91" t="n">
+        <v>40299</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>29-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>-0.4246354166666667</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>25</v>
+      </c>
+      <c r="D92" t="n">
+        <v>199.0833333333333</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:11:28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:36:28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:36:28</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:55:33</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>23890</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>76</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>20-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>-19.58024884259259</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253284</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>30</v>
+      </c>
+      <c r="D93" t="n">
+        <v>56.99166666666667</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:55:33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:25:33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:25:33</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:22:33</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>6839</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
+      <c r="M93" t="n">
+        <v>76</v>
+      </c>
+      <c r="N93" t="n">
+        <v>40299</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>28-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>-1.307326388888889</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17.075</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2049</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>-0.3035243055555555</v>
+      </c>
+      <c r="S94" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253318</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>51.55</v>
+        <v>21.675</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:33</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6186</v>
+        <v>2601</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3392708333333334</v>
+        <v>-357.3185243055556</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253317</v>
+        <v>252569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>102.775</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:33</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:33</t>
+          <t>08-09-2025 07:57:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:33</t>
+          <t>08-09-2025 07:57:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:06:19</t>
+          <t>08-09-2025 08:07:15</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12333</v>
+        <v>1150</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -674,11 +674,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4210590277777778</v>
+        <v>-7.338373842592593</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253527</v>
+        <v>253140</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>67.48333333333333</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:06:19</t>
+          <t>08-09-2025 08:07:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:40:19</t>
+          <t>08-09-2025 08:26:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:40:19</t>
+          <t>08-09-2025 08:26:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:47:48</t>
+          <t>08-09-2025 09:22:05</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8098</v>
+        <v>6700</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-13.39034143518519</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252995</v>
+        <v>252827</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>68.31666666666666</v>
+        <v>410</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:47:48</t>
+          <t>08-09-2025 09:22:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:21:48</t>
+          <t>08-09-2025 09:39:05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:21:48</t>
+          <t>08-09-2025 09:39:05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:07</t>
+          <t>09-09-2025 08:29:05</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8198</v>
+        <v>49200</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,11 +801,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
@@ -818,19 +818,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-7.562586805555555</v>
+        <v>-5.35353587962963</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252569</v>
+        <v>250891</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +838,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>9.583333333333334</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:07</t>
+          <t>09-09-2025 08:29:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:49:07</t>
+          <t>09-09-2025 09:05:05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:49:07</t>
+          <t>09-09-2025 09:05:05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:58:42</t>
+          <t>09-09-2025 10:22:35</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1150</v>
+        <v>9299</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +873,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40299</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,19 +893,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.582436342592593</v>
+        <v>-1.432349537037037</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252906</v>
+        <v>252939</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +913,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>34.725</v>
+        <v>89.8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:58:42</t>
+          <t>09-09-2025 10:22:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:15:42</t>
+          <t>09-09-2025 10:41:35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:15:42</t>
+          <t>09-09-2025 10:41:35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:50:26</t>
+          <t>09-09-2025 12:11:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4167</v>
+        <v>10776</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +948,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,19 +965,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-14.61835648148148</v>
+        <v>-18.50790509259259</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253140</v>
+        <v>252833</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +985,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>55.83333333333334</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:50:26</t>
+          <t>09-09-2025 12:11:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:07:26</t>
+          <t>09-09-2025 12:30:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:07:26</t>
+          <t>09-09-2025 12:30:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 13:45:10</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6700</v>
+        <v>8974</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1020,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1038,49 +1041,49 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-14.33560185185185</v>
+        <v>-14.57303240740741</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>235572</v>
+        <v>252216</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>82.98333333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 13:45:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:00</t>
+          <t>09-09-2025 14:14:10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:00</t>
+          <t>09-09-2025 14:14:10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:59</t>
+          <t>10-09-2025 08:35:58</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9958</v>
+        <v>17017</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1093,11 +1096,14 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
+      <c r="N9" t="n">
+        <v>40299</v>
+      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
@@ -1106,53 +1112,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-672.379849537037</v>
+        <v>-2.358315972222222</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253278</v>
+        <v>253095</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>28.425</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:59</t>
+          <t>10-09-2025 08:35:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:33:59</t>
+          <t>10-09-2025 09:06:58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:33:59</t>
+          <t>10-09-2025 09:06:58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-09-2025 10:02:24</t>
+          <t>10-09-2025 10:23:17</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3411</v>
+        <v>9158</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,11 +1167,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1185,12 +1191,12 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253072</v>
+        <v>252843</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1204,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>29.13333333333333</v>
+        <v>19.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:02:24</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:24</t>
+          <t>08-09-2025 07:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:24</t>
+          <t>08-09-2025 07:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:32</t>
+          <t>08-09-2025 07:56:12</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3496</v>
+        <v>2304</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1239,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,11 +1256,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-21.45593171296296</v>
+        <v>-40.33069444444445</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1262,7 +1268,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252216</v>
+        <v>244023</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1270,33 +1276,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>141.8083333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:32</t>
+          <t>08-09-2025 07:56:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:32</t>
+          <t>08-09-2025 08:42:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:32</t>
+          <t>08-09-2025 08:42:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:21</t>
+          <t>08-09-2025 08:50:30</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>17017</v>
+        <v>997</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1309,14 +1315,11 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>40299</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -1325,19 +1328,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5773263888888889</v>
+        <v>-343.3684085648148</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253721</v>
+        <v>253072</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1345,33 +1348,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>39.39166666666667</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:21</t>
+          <t>08-09-2025 08:50:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:30:21</t>
+          <t>08-09-2025 09:25:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:30:21</t>
+          <t>08-09-2025 09:25:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:44</t>
+          <t>08-09-2025 09:54:38</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4727</v>
+        <v>3496</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,7 +1387,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1397,19 +1400,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-21.41294560185185</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253359</v>
+        <v>250284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1420,30 +1423,30 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>134.0166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:44</t>
+          <t>08-09-2025 09:54:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:44</t>
+          <t>08-09-2025 10:23:38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:44</t>
+          <t>08-09-2025 10:23:38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:52:45</t>
+          <t>08-09-2025 12:49:59</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16082</v>
+        <v>17562</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1456,11 +1459,14 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
+      <c r="N14" t="n">
+        <v>40299</v>
+      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
@@ -1469,19 +1475,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5347164351851852</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253271</v>
+        <v>253659</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1492,30 +1498,30 @@
         <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>42.63333333333333</v>
+        <v>323.75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-09-2025 09:52:45</t>
+          <t>08-09-2025 12:49:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:23:45</t>
+          <t>08-09-2025 13:20:59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:23:45</t>
+          <t>08-09-2025 13:20:59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:06:23</t>
+          <t>09-09-2025 10:44:44</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5116</v>
+        <v>38850</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,7 +1534,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1541,53 +1547,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.462771990740741</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253259</v>
+        <v>253710</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>69.23333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 10:44:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>09-09-2025 11:13:44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>09-09-2025 11:13:44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>09-09-2025 11:15:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8308</v>
+        <v>194</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1596,75 +1602,70 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252939</v>
+        <v>253278</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>89.8</v>
+        <v>28.425</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>09-09-2025 11:15:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:14</t>
+          <t>09-09-2025 11:46:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:14</t>
+          <t>09-09-2025 11:46:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>05-09-2025 10:13:02</t>
+          <t>09-09-2025 12:14:47</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10776</v>
+        <v>3411</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1677,7 +1678,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1690,53 +1691,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-14.42571759259259</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253314</v>
+        <v>235572</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>43.40833333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>05-09-2025 10:13:02</t>
+          <t>09-09-2025 12:14:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 10:45:02</t>
+          <t>09-09-2025 12:41:47</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 10:45:02</t>
+          <t>09-09-2025 12:41:47</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 11:28:26</t>
+          <t>09-09-2025 14:04:46</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5209</v>
+        <v>9958</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1745,33 +1746,28 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-673.5866435185185</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -1779,41 +1775,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252702</v>
+        <v>253100</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>58.38333333333333</v>
+        <v>47.35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>05-09-2025 11:28:26</t>
+          <t>09-09-2025 14:04:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:00:26</t>
+          <t>09-09-2025 14:31:46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:00:26</t>
+          <t>09-09-2025 14:31:46</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:58:49</t>
+          <t>10-09-2025 07:19:07</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7006</v>
+        <v>5682</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1822,75 +1818,70 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>152</v>
-      </c>
-      <c r="N19" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.30494212962963</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253362</v>
+        <v>253246</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>58.38333333333333</v>
+        <v>194.25</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>05-09-2025 12:58:49</t>
+          <t>10-09-2025 07:19:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 13:13:49</t>
+          <t>10-09-2025 07:44:07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 13:13:49</t>
+          <t>10-09-2025 07:44:07</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 14:12:12</t>
+          <t>10-09-2025 10:58:22</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7006</v>
+        <v>23310</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1899,33 +1890,28 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>152</v>
-      </c>
-      <c r="N20" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.4571990740740741</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -1933,41 +1919,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253016</v>
+        <v>253271</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>73.38333333333334</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>05-09-2025 14:12:12</t>
+          <t>10-09-2025 10:58:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 14:29:12</t>
+          <t>10-09-2025 11:27:22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 14:29:12</t>
+          <t>10-09-2025 11:27:22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:35</t>
+          <t>10-09-2025 12:10:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8806</v>
+        <v>5116</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1976,33 +1962,28 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>152</v>
-      </c>
-      <c r="N21" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.321244212962963</v>
+        <v>-5.506944444444445</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
@@ -2010,7 +1991,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253591</v>
+        <v>253425</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2018,33 +1999,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>17.41666666666667</v>
+        <v>146.35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:35</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-09-2025 08:14:35</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-09-2025 08:14:35</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-09-2025 08:32:00</t>
+          <t>05-09-2025 10:00:21</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2090</v>
+        <v>17562</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2053,41 +2034,36 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
-      <c r="N22" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.3555613425925926</v>
+        <v>-7.416909722222222</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253710</v>
+        <v>253317</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2095,33 +2071,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>1.616666666666667</v>
+        <v>102.775</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-09-2025 08:32:00</t>
+          <t>05-09-2025 10:00:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:00</t>
+          <t>05-09-2025 10:19:21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:00</t>
+          <t>05-09-2025 10:19:21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-09-2025 09:07:37</t>
+          <t>05-09-2025 12:02:07</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>194</v>
+        <v>12333</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2130,14 +2106,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2147,19 +2123,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252833</v>
+        <v>253374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2167,33 +2143,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>74.78333333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-09-2025 09:07:37</t>
+          <t>05-09-2025 12:02:07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 09:26:37</t>
+          <t>05-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 09:26:37</t>
+          <t>05-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 10:41:24</t>
+          <t>05-09-2025 13:33:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8974</v>
+        <v>7153</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2206,7 +2182,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2219,14 +2195,14 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-13.4454224537037</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2239,29 +2215,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
         <v>78.55833333333334</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-09-2025 10:41:24</t>
+          <t>05-09-2025 13:33:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 10:58:24</t>
+          <t>05-09-2025 13:54:44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 10:58:24</t>
+          <t>05-09-2025 13:54:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 12:16:58</t>
+          <t>08-09-2025 07:13:17</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2318,22 +2294,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-09-2025 12:16:58</t>
+          <t>08-09-2025 07:13:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 12:31:58</t>
+          <t>08-09-2025 07:28:17</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 12:31:58</t>
+          <t>08-09-2025 07:28:17</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 07:16:20</t>
+          <t>08-09-2025 10:12:39</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2375,7 +2351,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253260</v>
+        <v>252906</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2383,33 +2359,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>109.4083333333333</v>
+        <v>34.725</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:16:20</t>
+          <t>08-09-2025 10:12:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:37:20</t>
+          <t>08-09-2025 10:48:39</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:37:20</t>
+          <t>08-09-2025 10:48:39</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-09-2025 09:26:44</t>
+          <t>08-09-2025 11:23:23</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>13129</v>
+        <v>4167</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2418,14 +2394,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2439,15 +2415,15 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-15.39357060185185</v>
+        <v>-14.47457175925926</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253361</v>
+        <v>252995</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2455,33 +2431,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>76.70833333333333</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:26:44</t>
+          <t>08-09-2025 11:23:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:44</t>
+          <t>08-09-2025 11:40:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:44</t>
+          <t>08-09-2025 11:40:23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-09-2025 11:02:27</t>
+          <t>08-09-2025 12:48:42</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9205</v>
+        <v>8198</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2490,14 +2466,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2507,19 +2483,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-7.533819444444444</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253372</v>
+        <v>253259</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2527,33 +2503,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>103.775</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:02:27</t>
+          <t>08-09-2025 12:48:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:17:27</t>
+          <t>08-09-2025 13:20:42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:17:27</t>
+          <t>08-09-2025 13:20:42</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:13</t>
+          <t>08-09-2025 14:29:56</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12453</v>
+        <v>8308</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2571,27 +2547,32 @@
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-0.6041203703703704</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253375</v>
+        <v>253527</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2599,33 +2580,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>51.88333333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:13</t>
+          <t>08-09-2025 14:29:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 13:16:13</t>
+          <t>08-09-2025 14:46:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 13:16:13</t>
+          <t>08-09-2025 14:46:56</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 14:08:06</t>
+          <t>09-09-2025 07:54:25</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6226</v>
+        <v>8098</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2634,11 +2615,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2651,7 +2632,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
@@ -2663,7 +2644,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253374</v>
+        <v>253524</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2671,33 +2652,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>59.60833333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-09-2025 14:08:06</t>
+          <t>09-09-2025 07:54:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 14:27:06</t>
+          <t>09-09-2025 08:09:25</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 14:27:06</t>
+          <t>09-09-2025 08:09:25</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-09-2025 07:26:43</t>
+          <t>09-09-2025 09:08:10</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>7153</v>
+        <v>7051</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2710,7 +2691,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2723,7 +2704,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2735,7 +2716,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253370</v>
+        <v>252664</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2743,33 +2724,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>207.5416666666667</v>
+        <v>365.975</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-09-2025 07:26:43</t>
+          <t>09-09-2025 09:08:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:43</t>
+          <t>09-09-2025 09:25:10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:43</t>
+          <t>09-09-2025 09:25:10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 11:13:15</t>
+          <t>10-09-2025 07:31:09</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>24905</v>
+        <v>43917</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2787,61 +2768,68 @@
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-8.313298611111112</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253401</v>
+        <v>253359</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>22.81666666666667</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>10-09-2025 07:31:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 07:48:09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 07:48:09</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:19</t>
+          <t>10-09-2025 10:02:10</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2738</v>
+        <v>16082</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2867,53 +2855,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252883</v>
+        <v>253401</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.5</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>247.3083333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:19</t>
+          <t>10-09-2025 10:02:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:49</t>
+          <t>10-09-2025 10:21:10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:49</t>
+          <t>10-09-2025 10:21:10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:07</t>
+          <t>10-09-2025 10:43:59</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>29677</v>
+        <v>2738</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2922,11 +2910,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2939,53 +2927,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-11.53689236111111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253095</v>
+        <v>253247</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50.5</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>76.31666666666666</v>
+        <v>109.575</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:07</t>
+          <t>10-09-2025 10:43:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:37</t>
+          <t>10-09-2025 11:00:59</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:37</t>
+          <t>10-09-2025 11:00:59</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-09-2025 14:59:56</t>
+          <t>10-09-2025 12:50:33</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9158</v>
+        <v>13149</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2994,11 +2982,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3011,53 +2999,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-0.5351099537037037</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253524</v>
+        <v>253245</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>58.75833333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:59:56</t>
+          <t>10-09-2025 12:50:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:26</t>
+          <t>10-09-2025 13:11:33</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:26</t>
+          <t>10-09-2025 13:11:33</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:12</t>
+          <t>11-09-2025 07:42:23</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7051</v>
+        <v>18100</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3070,7 +3058,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3083,53 +3071,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-1.321105324074074</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253247</v>
+        <v>253436</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>109.575</v>
+        <v>18.85</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:12</t>
+          <t>11-09-2025 07:42:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10-09-2025 09:03:42</t>
+          <t>11-09-2025 08:01:23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10-09-2025 09:03:42</t>
+          <t>11-09-2025 08:01:23</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-09-2025 10:53:16</t>
+          <t>11-09-2025 08:20:14</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13149</v>
+        <v>2262</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3142,7 +3130,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3159,15 +3147,15 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.4536631944444444</v>
+        <v>-1.347390046296296</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253245</v>
+        <v>253721</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3175,33 +3163,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>150.8333333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-09-2025 10:53:16</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10-09-2025 11:29:46</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10-09-2025 11:29:46</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:36</t>
+          <t>09-09-2025 08:13:53</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>18100</v>
+        <v>4727</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3214,7 +3202,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3227,53 +3215,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.583755787037037</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253436</v>
+        <v>252002</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>18.85</v>
+        <v>55.675</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:36</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:35:06</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:35:06</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:53:57</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2262</v>
+        <v>6681</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3286,66 +3274,73 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.6208043981481481</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253261</v>
+        <v>253409</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>18.85</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-09-2025 14:53:57</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-09-2025 07:24:27</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-09-2025 07:24:27</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-09-2025 07:43:18</t>
+          <t>04-09-2025 14:57:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2262</v>
+        <v>3262</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3354,14 +3349,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N40" t="n">
+        <v>40299</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3371,53 +3369,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-17.32174189814815</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244743</v>
+        <v>252883</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36.5</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>29.34166666666667</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-09-2025 07:43:18</t>
+          <t>04-09-2025 14:57:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11-09-2025 08:19:48</t>
+          <t>05-09-2025 08:17:51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11-09-2025 08:19:48</t>
+          <t>05-09-2025 08:17:51</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:09</t>
+          <t>05-09-2025 12:25:10</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3521</v>
+        <v>29677</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3426,11 +3424,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3443,53 +3441,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-17.36746527777778</v>
+        <v>-7.517476851851852</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253455</v>
+        <v>252582</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>55.55833333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:09</t>
+          <t>05-09-2025 12:25:10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>11-09-2025 09:21:39</t>
+          <t>05-09-2025 13:45:10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11-09-2025 09:21:39</t>
+          <t>05-09-2025 13:45:10</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11-09-2025 10:17:12</t>
+          <t>05-09-2025 14:31:15</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6667</v>
+        <v>5530</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3498,70 +3496,75 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>40290</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-3.428616898148148</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253522</v>
+        <v>253314</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>198.625</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09-2025 10:17:12</t>
+          <t>05-09-2025 14:31:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>11-09-2025 10:49:42</t>
+          <t>08-09-2025 07:01:15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11-09-2025 10:49:42</t>
+          <t>08-09-2025 07:01:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11-09-2025 14:08:20</t>
+          <t>08-09-2025 07:44:39</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>23835</v>
+        <v>5209</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3570,70 +3573,75 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N43" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-0.3226793981481482</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253528</v>
+        <v>253036</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>119.175</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09-2025 14:08:20</t>
+          <t>08-09-2025 07:44:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:50</t>
+          <t>08-09-2025 08:14:39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:50</t>
+          <t>08-09-2025 08:14:39</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>12-09-2025 08:38:00</t>
+          <t>08-09-2025 09:33:23</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>14301</v>
+        <v>9448</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3642,14 +3650,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N44" t="n">
+        <v>40299</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3659,53 +3670,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-0.3981886574074074</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252741</v>
+        <v>252685</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>61.49166666666667</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-09-2025 08:38:00</t>
+          <t>08-09-2025 09:33:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>12-09-2025 09:12:30</t>
+          <t>08-09-2025 10:03:23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12-09-2025 09:12:30</t>
+          <t>08-09-2025 10:03:23</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>12-09-2025 10:14:00</t>
+          <t>08-09-2025 11:17:57</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7379</v>
+        <v>8948</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3714,70 +3725,75 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-0.4708043981481482</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253295</v>
+        <v>253249</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>230.075</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-09-2025 10:14:00</t>
+          <t>08-09-2025 11:17:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12-09-2025 10:52:30</t>
+          <t>08-09-2025 11:47:57</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12-09-2025 10:52:30</t>
+          <t>08-09-2025 11:47:57</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12-09-2025 14:42:34</t>
+          <t>08-09-2025 12:45:43</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>27609</v>
+        <v>6931</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3786,75 +3802,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="N46" t="n">
-        <v>40274</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.6128993055555556</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>250284</v>
+        <v>253208</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36.5</v>
+        <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>146.35</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12-09-2025 14:42:34</t>
+          <t>08-09-2025 12:45:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15-09-2025 07:19:04</t>
+          <t>08-09-2025 14:10:43</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15-09-2025 07:19:04</t>
+          <t>08-09-2025 14:10:43</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15-09-2025 09:45:25</t>
+          <t>09-09-2025 07:54:58</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>17562</v>
+        <v>12511</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3863,18 +3874,15 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="n">
-        <v>40299</v>
-      </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
@@ -3883,53 +3891,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-7.406545138888889</v>
+        <v>-4.32984375</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253525</v>
+        <v>253210</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>42.5</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>92.14166666666667</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15-09-2025 09:45:25</t>
+          <t>09-09-2025 07:54:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15-09-2025 10:27:55</t>
+          <t>09-09-2025 08:19:58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15-09-2025 10:27:55</t>
+          <t>09-09-2025 08:19:58</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15-09-2025 12:00:04</t>
+          <t>09-09-2025 09:54:08</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>11057</v>
+        <v>11299</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3938,11 +3946,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3955,53 +3963,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253367</v>
+        <v>252601</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>135.7</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15-09-2025 12:00:04</t>
+          <t>09-09-2025 09:54:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15-09-2025 12:30:34</t>
+          <t>09-09-2025 10:24:08</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15-09-2025 12:30:34</t>
+          <t>09-09-2025 10:24:08</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15-09-2025 14:46:16</t>
+          <t>09-09-2025 11:15:20</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>16284</v>
+        <v>6145</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4010,11 +4018,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4027,53 +4035,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253392</v>
+        <v>253223</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>129.3833333333333</v>
+        <v>16.4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15-09-2025 14:46:16</t>
+          <t>09-09-2025 11:15:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>16-09-2025 07:18:46</t>
+          <t>09-09-2025 11:45:20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16-09-2025 07:18:46</t>
+          <t>09-09-2025 11:45:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16-09-2025 09:28:09</t>
+          <t>09-09-2025 12:01:44</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>15526</v>
+        <v>1968</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4082,11 +4090,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4099,53 +4107,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-8.501209490740742</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253393</v>
+        <v>252682</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30.5</v>
+        <v>80</v>
       </c>
       <c r="D51" t="n">
-        <v>77.63333333333334</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>16-09-2025 09:28:09</t>
+          <t>09-09-2025 12:01:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>16-09-2025 09:58:39</t>
+          <t>09-09-2025 13:21:44</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16-09-2025 09:58:39</t>
+          <t>09-09-2025 13:21:44</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16-09-2025 11:16:17</t>
+          <t>09-09-2025 14:45:09</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9316</v>
+        <v>10009</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4154,70 +4162,75 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-1.6146875</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253549</v>
+        <v>253318</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>163.6666666666667</v>
+        <v>51.55</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>16-09-2025 11:16:17</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>16-09-2025 11:52:47</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16-09-2025 11:52:47</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>16-09-2025 14:36:27</t>
+          <t>08-09-2025 08:10:33</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>19640</v>
+        <v>6186</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4226,14 +4239,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4243,53 +4256,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-0.3406597222222222</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252582</v>
+        <v>253284</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>46.08333333333334</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>08-09-2025 08:10:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>08-09-2025 08:27:33</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>08-09-2025 08:27:33</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>04-09-2025 13:36:05</t>
+          <t>08-09-2025 09:24:32</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5530</v>
+        <v>6839</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4302,29 +4315,27 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
       <c r="N53" t="n">
-        <v>40290</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40299</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.3920428240740741</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4332,41 +4343,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252843</v>
+        <v>253194</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>19.2</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>04-09-2025 13:36:05</t>
+          <t>08-09-2025 09:24:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>04-09-2025 14:31:05</t>
+          <t>08-09-2025 09:41:32</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04-09-2025 14:31:05</t>
+          <t>08-09-2025 09:41:32</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>04-09-2025 14:50:17</t>
+          <t>08-09-2025 13:00:37</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2304</v>
+        <v>23890</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4379,7 +4390,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>76</v>
@@ -4392,53 +4403,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-36.61825231481482</v>
+        <v>-19.54210069444444</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252679</v>
+        <v>253313</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>60</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:50:17</t>
+          <t>08-09-2025 13:00:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:17</t>
+          <t>08-09-2025 13:17:37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:17</t>
+          <t>08-09-2025 13:17:37</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>05-09-2025 08:35:17</t>
+          <t>08-09-2025 14:57:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7200</v>
+        <v>12001</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4451,71 +4462,66 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>76</v>
       </c>
-      <c r="N55" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-3.623356481481482</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252682</v>
+        <v>252815</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>83.40833333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>05-09-2025 08:35:17</t>
+          <t>08-09-2025 14:57:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>05-09-2025 09:05:17</t>
+          <t>09-09-2025 07:20:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05-09-2025 09:05:17</t>
+          <t>09-09-2025 07:20:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:41</t>
+          <t>09-09-2025 11:23:34</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>10009</v>
+        <v>29153</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4528,29 +4534,24 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M56" t="n">
         <v>76</v>
       </c>
-      <c r="N56" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-4.474704861111111</v>
       </c>
       <c r="S56" t="n">
         <v>4</v>
@@ -4558,41 +4559,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252685</v>
+        <v>253706</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>74.56666666666666</v>
+        <v>311</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:41</t>
+          <t>09-09-2025 11:23:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>05-09-2025 11:08:41</t>
+          <t>09-09-2025 11:52:34</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05-09-2025 11:08:41</t>
+          <t>09-09-2025 11:52:34</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>05-09-2025 12:23:15</t>
+          <t>10-09-2025 09:03:34</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8948</v>
+        <v>37320</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4601,75 +4602,70 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
       </c>
-      <c r="N57" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252002</v>
+        <v>253602</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D58" t="n">
-        <v>55.675</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>05-09-2025 12:23:15</t>
+          <t>10-09-2025 09:03:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>05-09-2025 13:13:15</t>
+          <t>10-09-2025 09:24:34</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-09-2025 13:13:15</t>
+          <t>10-09-2025 09:24:34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05-09-2025 14:08:56</t>
+          <t>10-09-2025 11:21:39</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6681</v>
+        <v>14050</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4678,77 +4674,70 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-11.58953703703704</v>
+        <v>-0.4733738425925926</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250891</v>
+        <v>253260</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>77.49166666666666</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>05-09-2025 14:08:56</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>05-09-2025 14:38:56</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05-09-2025 14:38:56</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:25</t>
+          <t>09-09-2025 09:24:24</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>9299</v>
+        <v>13129</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4761,14 +4750,11 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>40299</v>
-      </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
@@ -4777,53 +4763,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.3308506944444444</v>
+        <v>-15.39195023148148</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253208</v>
+        <v>253332</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>104.2583333333333</v>
+        <v>184.825</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:25</t>
+          <t>09-09-2025 09:24:24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:25</t>
+          <t>09-09-2025 09:59:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:25</t>
+          <t>09-09-2025 09:59:24</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08-09-2025 10:45:41</t>
+          <t>09-09-2025 13:04:14</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12511</v>
+        <v>22179</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4832,11 +4818,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4849,53 +4835,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-3.448391203703704</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253210</v>
+        <v>253372</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>94.15833333333333</v>
+        <v>103.775</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-09-2025 10:45:41</t>
+          <t>09-09-2025 13:04:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-09-2025 11:10:41</t>
+          <t>09-09-2025 13:34:14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08-09-2025 11:10:41</t>
+          <t>09-09-2025 13:34:14</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:50</t>
+          <t>10-09-2025 07:18:00</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>11299</v>
+        <v>12453</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4904,11 +4890,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4921,53 +4907,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252601</v>
+        <v>253375</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>51.20833333333334</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:50</t>
+          <t>10-09-2025 07:18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-09-2025 13:14:50</t>
+          <t>10-09-2025 07:43:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-09-2025 13:14:50</t>
+          <t>10-09-2025 07:43:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:03</t>
+          <t>10-09-2025 08:34:53</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6145</v>
+        <v>6226</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4976,11 +4962,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4993,53 +4979,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253223</v>
+        <v>253361</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>16.4</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:03</t>
+          <t>10-09-2025 08:34:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:36:03</t>
+          <t>10-09-2025 08:59:53</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:36:03</t>
+          <t>10-09-2025 08:59:53</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:52:27</t>
+          <t>10-09-2025 10:16:36</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1968</v>
+        <v>9205</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,11 +5034,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5065,53 +5051,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-7.619756944444444</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253246</v>
+        <v>253370</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>194.25</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-09-2025 14:52:27</t>
+          <t>10-09-2025 10:16:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-09-2025 08:02:27</t>
+          <t>10-09-2025 10:41:36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-09-2025 08:02:27</t>
+          <t>10-09-2025 10:41:36</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:42</t>
+          <t>10-09-2025 14:09:08</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>23310</v>
+        <v>24905</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5120,11 +5106,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5137,53 +5123,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253100</v>
+        <v>253376</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>47.35</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:42</t>
+          <t>10-09-2025 14:09:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-09-2025 11:41:42</t>
+          <t>10-09-2025 14:34:08</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-09-2025 11:41:42</t>
+          <t>10-09-2025 14:34:08</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:03</t>
+          <t>11-09-2025 09:33:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5682</v>
+        <v>21553</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5192,11 +5178,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5209,53 +5195,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-1.520173611111111</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253036</v>
+        <v>253377</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>78.73333333333333</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:03</t>
+          <t>11-09-2025 09:33:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-09-2025 13:09:03</t>
+          <t>11-09-2025 09:58:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-09-2025 13:09:03</t>
+          <t>11-09-2025 09:58:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-09-2025 14:27:47</t>
+          <t>11-09-2025 12:06:28</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>9448</v>
+        <v>15326</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5264,17 +5250,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
-      </c>
-      <c r="N66" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5284,53 +5267,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-1.602627314814815</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253425</v>
+        <v>253368</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>146.35</v>
+        <v>103.775</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>11-09-2025 12:06:28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>11-09-2025 12:31:28</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>11-09-2025 12:31:28</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:21</t>
+          <t>11-09-2025 14:15:14</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>17562</v>
+        <v>12453</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5339,14 +5322,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5356,53 +5339,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-10.40649305555556</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>243569</v>
+        <v>253367</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>21.675</v>
+        <v>135.7</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:21</t>
+          <t>11-09-2025 14:15:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>11-09-2025 14:40:14</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>11-09-2025 14:40:14</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:01</t>
+          <t>12-09-2025 08:55:56</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2601</v>
+        <v>16284</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5411,14 +5394,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5428,53 +5411,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-357.4347395833333</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252827</v>
+        <v>253261</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>410</v>
+        <v>18.85</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:01</t>
+          <t>12-09-2025 08:55:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-09-2025 10:43:01</t>
+          <t>12-09-2025 09:40:56</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-09-2025 10:43:01</t>
+          <t>12-09-2025 09:40:56</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:01</t>
+          <t>12-09-2025 09:59:47</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>49200</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5483,14 +5466,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5500,53 +5483,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.397934027777778</v>
+        <v>-18.41652199074074</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253249</v>
+        <v>252741</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>57.75833333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:01</t>
+          <t>12-09-2025 09:59:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:01</t>
+          <t>12-09-2025 10:29:47</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:01</t>
+          <t>12-09-2025 10:29:47</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-09-2025 10:47:47</t>
+          <t>12-09-2025 11:31:17</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6931</v>
+        <v>7379</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5555,14 +5538,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5572,53 +5555,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253706</v>
+        <v>253455</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>311</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-09-2025 10:47:47</t>
+          <t>12-09-2025 11:31:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>09-09-2025 11:12:47</t>
+          <t>12-09-2025 12:01:17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09-09-2025 11:12:47</t>
+          <t>12-09-2025 12:01:17</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10-09-2025 08:23:47</t>
+          <t>12-09-2025 12:56:50</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>37320</v>
+        <v>6667</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5627,14 +5610,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5644,19 +5627,19 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-4.53947337962963</v>
       </c>
       <c r="S71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253687</v>
+        <v>252529</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5664,33 +5647,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>44.23333333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>12-09-2025 12:56:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>12-09-2025 13:31:50</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>12-09-2025 13:31:50</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-09-2025 08:24:14</t>
+          <t>12-09-2025 14:39:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5308</v>
+        <v>8170</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5699,14 +5682,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5716,19 +5699,19 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-7.611059027777777</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253659</v>
+        <v>252274</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5736,33 +5719,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>323.75</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-09-2025 08:24:14</t>
+          <t>12-09-2025 14:39:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:14</t>
+          <t>15-09-2025 07:14:55</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:14</t>
+          <t>15-09-2025 07:14:55</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-09-2025 14:12:59</t>
+          <t>15-09-2025 10:08:20</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>38850</v>
+        <v>20810</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5771,14 +5754,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>5</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5788,19 +5771,19 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-6.42245949074074</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253686</v>
+        <v>253668</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5808,33 +5791,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>44.23333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-09-2025 14:12:59</t>
+          <t>15-09-2025 10:08:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>09-09-2025 14:37:59</t>
+          <t>15-09-2025 10:53:20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09-09-2025 14:37:59</t>
+          <t>15-09-2025 10:53:20</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:13</t>
+          <t>15-09-2025 14:03:12</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5308</v>
+        <v>22784</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5843,11 +5826,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5860,19 +5843,19 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252815</v>
+        <v>253525</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5880,33 +5863,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>242.9416666666667</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:13</t>
+          <t>15-09-2025 14:03:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:13</t>
+          <t>15-09-2025 14:33:12</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:13</t>
+          <t>15-09-2025 14:33:12</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10-09-2025 12:10:09</t>
+          <t>16-09-2025 08:05:21</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>29153</v>
+        <v>11057</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5915,14 +5898,14 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -5932,19 +5915,19 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-5.507054398148148</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253602</v>
+        <v>253371</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5952,33 +5935,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>117.0833333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09-2025 12:10:09</t>
+          <t>16-09-2025 08:05:21</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10-09-2025 12:50:09</t>
+          <t>16-09-2025 08:30:21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10-09-2025 12:50:09</t>
+          <t>16-09-2025 08:30:21</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10-09-2025 14:47:14</t>
+          <t>16-09-2025 10:18:07</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>14050</v>
+        <v>12932</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5987,14 +5970,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6004,19 +5987,19 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-0.6161400462962963</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253332</v>
+        <v>244743</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6024,33 +6007,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
-        <v>184.825</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09-2025 14:47:14</t>
+          <t>16-09-2025 10:18:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>11-09-2025 07:32:14</t>
+          <t>16-09-2025 10:48:07</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11-09-2025 07:32:14</t>
+          <t>16-09-2025 10:48:07</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:04</t>
+          <t>16-09-2025 11:17:27</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>22179</v>
+        <v>3521</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6059,11 +6042,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6076,11 +6059,11 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-1.442407407407407</v>
+        <v>-22.47045717592593</v>
       </c>
       <c r="S77" t="n">
         <v>7</v>
@@ -6088,7 +6071,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253668</v>
+        <v>253549</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6096,33 +6079,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>189.8666666666667</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:04</t>
+          <t>16-09-2025 11:17:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>11-09-2025 11:02:04</t>
+          <t>16-09-2025 11:57:27</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11-09-2025 11:02:04</t>
+          <t>16-09-2025 11:57:27</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>11-09-2025 14:11:56</t>
+          <t>16-09-2025 14:41:07</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>22784</v>
+        <v>19640</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6131,11 +6114,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6148,19 +6131,19 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253368</v>
+        <v>253295</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6171,30 +6154,30 @@
         <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>103.775</v>
+        <v>230.075</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09-2025 14:11:56</t>
+          <t>16-09-2025 14:41:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11-09-2025 14:41:56</t>
+          <t>17-09-2025 07:11:07</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11-09-2025 14:41:56</t>
+          <t>17-09-2025 07:11:07</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>12-09-2025 08:25:42</t>
+          <t>17-09-2025 11:01:12</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>12453</v>
+        <v>27609</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6203,36 +6186,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
+      <c r="N79" t="n">
+        <v>40274</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-5.459166666666667</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253371</v>
+        <v>253244</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6240,33 +6228,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>107.7666666666667</v>
+        <v>166.5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>12-09-2025 08:25:42</t>
+          <t>17-09-2025 11:01:12</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>12-09-2025 08:50:42</t>
+          <t>17-09-2025 11:31:12</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12-09-2025 08:50:42</t>
+          <t>17-09-2025 11:31:12</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12-09-2025 10:38:28</t>
+          <t>17-09-2025 14:17:42</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>12932</v>
+        <v>19980</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6275,11 +6263,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6292,19 +6280,19 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-7.595625</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253377</v>
+        <v>253472</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6312,33 +6300,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>127.7166666666667</v>
+        <v>291.8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>12-09-2025 10:38:28</t>
+          <t>17-09-2025 14:17:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>12-09-2025 11:03:28</t>
+          <t>17-09-2025 14:47:42</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12-09-2025 11:03:28</t>
+          <t>17-09-2025 14:47:42</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>12-09-2025 13:11:11</t>
+          <t>18-09-2025 11:39:30</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15326</v>
+        <v>35016</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6347,11 +6335,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6364,11 +6352,11 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-2.485763888888889</v>
       </c>
       <c r="S81" t="n">
         <v>1</v>
@@ -6376,7 +6364,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253376</v>
+        <v>253392</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6384,33 +6372,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>179.6083333333333</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>12-09-2025 13:11:11</t>
+          <t>18-09-2025 11:39:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>12-09-2025 13:36:11</t>
+          <t>18-09-2025 12:14:30</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12-09-2025 13:36:11</t>
+          <t>18-09-2025 12:14:30</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>15-09-2025 08:35:48</t>
+          <t>18-09-2025 14:23:53</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>21553</v>
+        <v>15526</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6419,11 +6407,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6436,7 +6424,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6448,7 +6436,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>252274</v>
+        <v>253393</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6456,33 +6444,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>173.4166666666667</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15-09-2025 08:35:48</t>
+          <t>18-09-2025 14:23:53</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>15-09-2025 09:20:48</t>
+          <t>18-09-2025 14:48:53</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15-09-2025 09:20:48</t>
+          <t>18-09-2025 14:48:53</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>15-09-2025 12:14:13</t>
+          <t>19-09-2025 08:06:31</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>20810</v>
+        <v>9316</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6491,14 +6479,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6508,19 +6496,19 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-6.509872685185186</v>
+        <v>-0.3378587962962963</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253472</v>
+        <v>253522</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6528,33 +6516,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>291.8</v>
+        <v>198.625</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>15-09-2025 12:14:13</t>
+          <t>19-09-2025 08:06:31</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>15-09-2025 13:04:13</t>
+          <t>19-09-2025 08:41:31</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15-09-2025 13:04:13</t>
+          <t>19-09-2025 08:41:31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16-09-2025 09:56:01</t>
+          <t>19-09-2025 12:00:08</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>35016</v>
+        <v>23835</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6567,7 +6555,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6580,11 +6568,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-0.413900462962963</v>
+        <v>-7.500098379629629</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -6592,7 +6580,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>253244</v>
+        <v>253528</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6600,33 +6588,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>166.5</v>
+        <v>119.175</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>16-09-2025 09:56:01</t>
+          <t>19-09-2025 12:00:08</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16-09-2025 10:26:01</t>
+          <t>19-09-2025 12:25:08</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16-09-2025 10:26:01</t>
+          <t>19-09-2025 12:25:08</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16-09-2025 13:12:31</t>
+          <t>19-09-2025 14:24:19</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>19980</v>
+        <v>14301</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6639,7 +6627,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6652,19 +6640,19 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-6.550358796296297</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>252529</v>
+        <v>252397</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6675,30 +6663,30 @@
         <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>68.08333333333333</v>
+        <v>115.925</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>16-09-2025 13:12:31</t>
+          <t>19-09-2025 14:24:19</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>16-09-2025 13:47:31</t>
+          <t>19-09-2025 14:59:19</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16-09-2025 13:47:31</t>
+          <t>19-09-2025 14:59:19</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16-09-2025 14:55:36</t>
+          <t>22-09-2025 08:55:14</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>8170</v>
+        <v>13911</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6711,7 +6699,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>76</v>
@@ -6724,11 +6712,11 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-11.62194444444444</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>2</v>
@@ -6736,41 +6724,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>252397</v>
+        <v>253016</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>115.925</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16-09-2025 14:55:36</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>17-09-2025 07:25:36</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>17-09-2025 07:25:36</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>17-09-2025 09:21:31</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>13911</v>
+        <v>8806</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6779,24 +6767,29 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -6808,7 +6801,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>244023</v>
+        <v>253591</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6816,33 +6809,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
-        <v>8.308333333333334</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:55:00</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:55:00</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>05-09-2025 08:03:18</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>997</v>
+        <v>2090</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6851,36 +6844,41 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
-        <v>-340.335630787037</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253313</v>
+        <v>252679</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6888,33 +6886,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>100.0083333333333</v>
+        <v>60</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>05-09-2025 08:03:18</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:18</t>
+          <t>05-09-2025 10:10:48</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:18</t>
+          <t>05-09-2025 10:10:48</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>05-09-2025 10:23:19</t>
+          <t>05-09-2025 11:10:48</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>12001</v>
+        <v>7200</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6927,32 +6925,37 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
         <v>76</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
+      <c r="N89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>-0.4328587962962963</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>252664</v>
+        <v>253362</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6963,30 +6966,30 @@
         <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>365.975</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>05-09-2025 10:23:19</t>
+          <t>05-09-2025 11:10:48</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>05-09-2025 11:03:19</t>
+          <t>05-09-2025 11:50:48</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05-09-2025 11:03:19</t>
+          <t>05-09-2025 11:50:48</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>08-09-2025 09:09:17</t>
+          <t>05-09-2025 12:49:11</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>43917</v>
+        <v>7006</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -6995,43 +6998,41 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>152</v>
+      </c>
+      <c r="N90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
         <v>2</v>
-      </c>
-      <c r="M90" t="n">
-        <v>70</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>40279</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>02-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>-6.381452546296297</v>
-      </c>
-      <c r="S90" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253409</v>
+        <v>252702</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7039,33 +7040,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>27.18333333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-09-2025 09:09:17</t>
+          <t>05-09-2025 12:49:11</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-09-2025 09:44:17</t>
+          <t>05-09-2025 13:14:11</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08-09-2025 09:44:17</t>
+          <t>05-09-2025 13:14:11</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>08-09-2025 10:11:28</t>
+          <t>05-09-2025 14:12:34</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3262</v>
+        <v>7006</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7074,39 +7075,41 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L91" t="n">
         <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N91" t="n">
-        <v>40299</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R91" s="1" t="n">
-        <v>-0.4246354166666667</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253194</v>
+        <v>253687</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7114,33 +7117,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D92" t="n">
-        <v>199.0833333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-09-2025 10:11:28</t>
+          <t>05-09-2025 14:12:34</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:28</t>
+          <t>05-09-2025 14:52:34</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:28</t>
+          <t>05-09-2025 14:52:34</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>08-09-2025 13:55:33</t>
+          <t>08-09-2025 07:36:48</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>23890</v>
+        <v>5308</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -7149,14 +7152,14 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M92" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -7166,11 +7169,11 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R92" s="1" t="n">
-        <v>-19.58024884259259</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>1</v>
@@ -7178,7 +7181,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253284</v>
+        <v>253686</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7186,33 +7189,33 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>56.99166666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-09-2025 13:55:33</t>
+          <t>08-09-2025 07:36:48</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-09-2025 14:25:33</t>
+          <t>08-09-2025 08:01:48</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08-09-2025 14:25:33</t>
+          <t>08-09-2025 08:01:48</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>09-09-2025 07:22:33</t>
+          <t>08-09-2025 08:46:02</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>6839</v>
+        <v>5308</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -7221,17 +7224,14 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>76</v>
-      </c>
-      <c r="N93" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -7241,11 +7241,11 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R93" s="1" t="n">
-        <v>-1.307326388888889</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253194</v>
+        <v>252569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>199.0833333333333</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,11 +577,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:05</t>
+          <t>08-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>23890</v>
+        <v>1150</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -607,11 +607,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-19.44172453703704</v>
+        <v>-7.310127314814815</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>243569</v>
+        <v>252995</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +628,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>21.675</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:05</t>
+          <t>08-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:55:05</t>
+          <t>08-09-2025 07:45:35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:55:05</t>
+          <t>08-09-2025 07:45:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:45</t>
+          <t>08-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2601</v>
+        <v>8198</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,19 +684,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-357.4699710648148</v>
+        <v>-7.370763888888889</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>244023</v>
+        <v>253361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>8.308333333333334</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:45</t>
+          <t>08-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:52:45</t>
+          <t>08-09-2025 09:25:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:52:45</t>
+          <t>08-09-2025 09:25:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:04</t>
+          <t>08-09-2025 10:42:36</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>997</v>
+        <v>9205</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,11 +744,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
@@ -761,11 +761,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-343.5007407407408</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253710</v>
+        <v>252216</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -786,33 +786,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>1.616666666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:04</t>
+          <t>08-09-2025 10:42:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:04</t>
+          <t>08-09-2025 11:13:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:04</t>
+          <t>08-09-2025 11:13:36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:41</t>
+          <t>08-09-2025 13:35:25</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>194</v>
+        <v>17017</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-14.56626157407407</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252833</v>
+        <v>250284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>74.78333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:41</t>
+          <t>08-09-2025 13:35:25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:41</t>
+          <t>08-09-2025 13:54:25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:41</t>
+          <t>08-09-2025 13:54:25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:57:28</t>
+          <t>09-09-2025 08:20:46</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8974</v>
+        <v>17562</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
@@ -915,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-13.58157407407407</v>
+        <v>-181.3477546296296</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252939</v>
+        <v>244023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>89.8</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:57:28</t>
+          <t>09-09-2025 08:20:46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:28</t>
+          <t>09-09-2025 08:39:46</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:28</t>
+          <t>09-09-2025 08:39:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:16</t>
+          <t>09-09-2025 08:48:04</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10776</v>
+        <v>997</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -992,19 +992,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-18.3237962962963</v>
+        <v>-344.36671875</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253100</v>
+        <v>252939</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1017,33 +1017,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>47.35</v>
+        <v>89.8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:16</t>
+          <t>09-09-2025 08:48:04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 09:09:04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 09:09:04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:37</t>
+          <t>09-09-2025 10:38:52</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5682</v>
+        <v>10776</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>70</v>
@@ -1069,19 +1069,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.368483796296296</v>
+        <v>-18.44366319444444</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250891</v>
+        <v>253359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1090,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>77.49166666666666</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:37</t>
+          <t>09-09-2025 10:38:52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:37</t>
+          <t>09-09-2025 10:57:52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:37</t>
+          <t>09-09-2025 10:57:52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:25:06</t>
+          <t>09-09-2025 13:11:53</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9299</v>
+        <v>16082</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-27.43410300925926</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253268</v>
+        <v>253267</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1174,30 +1174,30 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>78.55833333333334</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:25:06</t>
+          <t>09-09-2025 13:11:53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:42:06</t>
+          <t>09-09-2025 13:28:53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:42:06</t>
+          <t>09-09-2025 13:28:53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:40</t>
+          <t>10-09-2025 08:13:15</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>9427</v>
+        <v>19724</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253267</v>
+        <v>253268</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1251,30 +1251,30 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>164.3666666666667</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:40</t>
+          <t>10-09-2025 08:13:15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:40</t>
+          <t>10-09-2025 08:28:15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:40</t>
+          <t>10-09-2025 08:28:15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 07:00:02</t>
+          <t>10-09-2025 09:46:49</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>19724</v>
+        <v>9427</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1332,22 +1332,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:00:02</t>
+          <t>10-09-2025 09:46:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:17:02</t>
+          <t>10-09-2025 10:03:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:17:02</t>
+          <t>10-09-2025 10:03:49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:47</t>
+          <t>10-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253246</v>
+        <v>253527</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,37 +1398,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>194.25</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:47</t>
+          <t>10-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:32:47</t>
+          <t>10-09-2025 11:17:34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:32:47</t>
+          <t>10-09-2025 11:17:34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:47:02</t>
+          <t>10-09-2025 12:25:03</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23310</v>
+        <v>8098</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1454,19 +1454,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4910011574074074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253375</v>
+        <v>253602</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1475,37 +1475,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>51.88333333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 11:47:02</t>
+          <t>10-09-2025 12:25:03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:02</t>
+          <t>10-09-2025 12:59:03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:02</t>
+          <t>10-09-2025 12:59:03</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:57:55</t>
+          <t>10-09-2025 14:56:08</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6226</v>
+        <v>14050</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.6223206018518519</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253361</v>
+        <v>252827</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>76.70833333333333</v>
+        <v>410</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10-09-2025 12:57:55</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10-09-2025 13:12:55</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-09-2025 13:12:55</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:38</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>9205</v>
+        <v>49200</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,14 +1591,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1608,23 +1608,23 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-4.595138888888889</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253372</v>
+        <v>253100</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1633,33 +1633,33 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>103.775</v>
+        <v>47.35</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:38</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:44:38</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:44:38</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-09-2025 08:28:24</t>
+          <t>05-09-2025 08:04:21</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12453</v>
+        <v>5682</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1685,58 +1685,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253370</v>
+        <v>253710</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>207.5416666666667</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:28:24</t>
+          <t>05-09-2025 08:04:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:43:24</t>
+          <t>05-09-2025 08:21:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:43:24</t>
+          <t>05-09-2025 08:21:21</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-09-2025 12:10:57</t>
+          <t>05-09-2025 08:22:58</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>24905</v>
+        <v>194</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1762,58 +1762,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253368</v>
+        <v>250891</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>103.775</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:10:57</t>
+          <t>05-09-2025 08:22:58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:25:57</t>
+          <t>05-09-2025 08:41:58</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:25:57</t>
+          <t>05-09-2025 08:41:58</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-09-2025 14:09:43</t>
+          <t>05-09-2025 09:59:27</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12453</v>
+        <v>9299</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,15 +1822,18 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
       </c>
+      <c r="O18" t="n">
+        <v>40299</v>
+      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
@@ -1839,14 +1842,14 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1855,7 +1858,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1864,29 +1867,29 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
         <v>27.18333333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>05-09-2025 09:59:27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>05-09-2025 10:33:27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>05-09-2025 10:33:27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>05-09-2025 11:00:38</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1908,6 +1911,9 @@
       <c r="N19" t="n">
         <v>76</v>
       </c>
+      <c r="O19" t="n">
+        <v>40299</v>
+      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
@@ -1920,7 +1926,7 @@
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-10.33068287037037</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1928,46 +1934,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252569</v>
+        <v>252664</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>9.583333333333334</v>
+        <v>365.975</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>05-09-2025 11:00:38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:11</t>
+          <t>05-09-2025 11:32:38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:11</t>
+          <t>05-09-2025 11:32:38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:46</t>
+          <t>08-09-2025 09:38:37</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1150</v>
+        <v>43917</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1976,75 +1982,82 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-7.357476851851852</v>
+        <v>-6.40181712962963</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252827</v>
+        <v>252906</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>410</v>
+        <v>34.725</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:46</t>
+          <t>08-09-2025 09:38:37</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>08-09-2025 10:12:37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>08-09-2025 10:12:37</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>09-09-2025 07:51:46</t>
+          <t>08-09-2025 10:47:20</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>49200</v>
+        <v>4167</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2053,11 +2066,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>76</v>
@@ -2070,23 +2083,23 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-5.327615740740741</v>
+        <v>-14.44954282407407</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252995</v>
+        <v>252833</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2095,33 +2108,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>68.31666666666666</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-09-2025 07:51:46</t>
+          <t>08-09-2025 10:47:20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:46</t>
+          <t>08-09-2025 11:19:20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:46</t>
+          <t>08-09-2025 11:19:20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:05</t>
+          <t>08-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>8198</v>
+        <v>8974</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2130,14 +2143,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2147,58 +2160,58 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-8.39380787037037</v>
+        <v>-13.52369791666667</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253271</v>
+        <v>253278</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>42.63333333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:05</t>
+          <t>08-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:13:05</t>
+          <t>08-09-2025 12:55:07</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:13:05</t>
+          <t>08-09-2025 12:55:07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:43</t>
+          <t>08-09-2025 13:23:33</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5116</v>
+        <v>3411</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2224,11 +2237,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-4.455358796296296</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
@@ -2236,46 +2249,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253527</v>
+        <v>253072</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>67.48333333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:43</t>
+          <t>08-09-2025 13:23:33</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09-09-2025 11:26:43</t>
+          <t>08-09-2025 13:38:33</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09-09-2025 11:26:43</t>
+          <t>08-09-2025 13:38:33</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:12</t>
+          <t>08-09-2025 14:07:41</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>8098</v>
+        <v>3496</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2288,7 +2301,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
@@ -2301,23 +2314,23 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-21.58866898148148</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253095</v>
+        <v>253260</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2326,33 +2339,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>76.31666666666666</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:12</t>
+          <t>08-09-2025 14:07:41</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:12</t>
+          <t>08-09-2025 14:26:41</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:12</t>
+          <t>08-09-2025 14:26:41</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09-09-2025 14:17:31</t>
+          <t>09-09-2025 08:16:05</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>9158</v>
+        <v>13129</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2361,11 +2374,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
@@ -2378,11 +2391,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-15.34450810185185</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2390,46 +2403,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253721</v>
+        <v>253659</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>39.39166666666667</v>
+        <v>323.75</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:17:31</t>
+          <t>09-09-2025 08:16:05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:31</t>
+          <t>09-09-2025 08:33:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:31</t>
+          <t>09-09-2025 08:33:05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:54</t>
+          <t>09-09-2025 13:56:50</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4727</v>
+        <v>38850</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2442,7 +2455,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
@@ -2455,7 +2468,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -2467,46 +2480,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253359</v>
+        <v>253687</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>134.0166666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:54</t>
+          <t>09-09-2025 13:56:50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:54</t>
+          <t>09-09-2025 14:11:50</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:54</t>
+          <t>09-09-2025 14:11:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:55</t>
+          <t>09-09-2025 14:56:04</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>16082</v>
+        <v>5308</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2519,7 +2532,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
@@ -2532,7 +2545,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -2544,46 +2557,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253332</v>
+        <v>253686</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>184.825</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:55</t>
+          <t>09-09-2025 14:56:04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:55</t>
+          <t>10-09-2025 07:11:04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:55</t>
+          <t>10-09-2025 07:11:04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10-09-2025 13:38:45</t>
+          <t>10-09-2025 07:55:18</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>22179</v>
+        <v>5308</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2592,11 +2605,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
@@ -2609,23 +2622,23 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.5685763888888888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253245</v>
+        <v>253401</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2634,33 +2647,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
-        <v>150.8333333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-09-2025 13:38:45</t>
+          <t>10-09-2025 07:55:18</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:45</t>
+          <t>10-09-2025 08:14:18</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:45</t>
+          <t>10-09-2025 08:14:18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-09-2025 08:38:35</t>
+          <t>10-09-2025 08:37:07</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>18100</v>
+        <v>2738</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2673,7 +2686,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2686,19 +2699,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-1.360127314814815</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253259</v>
+        <v>253245</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2707,37 +2720,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>69.23333333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>10-09-2025 08:37:07</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>10-09-2025 08:54:07</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>10-09-2025 08:54:07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>10-09-2025 11:24:57</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>8308</v>
+        <v>18100</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2746,41 +2759,36 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-0.4756655092592593</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253313</v>
+        <v>253368</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2789,37 +2797,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>100.0083333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>10-09-2025 11:24:57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:00:14</t>
+          <t>10-09-2025 11:43:57</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:00:14</t>
+          <t>10-09-2025 11:43:57</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05-09-2025 10:40:14</t>
+          <t>10-09-2025 13:27:44</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>12001</v>
+        <v>12453</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2828,14 +2836,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2845,11 +2853,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.4446122685185185</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -2857,7 +2865,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252843</v>
+        <v>253370</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2866,37 +2874,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>19.2</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>05-09-2025 10:40:14</t>
+          <t>10-09-2025 13:27:44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:05:14</t>
+          <t>10-09-2025 13:42:44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:05:14</t>
+          <t>10-09-2025 13:42:44</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:24:26</t>
+          <t>11-09-2025 09:10:16</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>2304</v>
+        <v>24905</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2905,14 +2913,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2922,19 +2930,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-37.47530671296296</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253591</v>
+        <v>253377</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2943,37 +2951,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>17.41666666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:24:26</t>
+          <t>11-09-2025 09:10:16</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:26</t>
+          <t>11-09-2025 09:25:16</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:26</t>
+          <t>11-09-2025 09:25:16</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:51</t>
+          <t>11-09-2025 11:32:59</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2090</v>
+        <v>15326</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2982,41 +2990,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>76</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253374</v>
+        <v>253455</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3025,37 +3028,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>59.60833333333333</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:51</t>
+          <t>11-09-2025 11:32:59</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:51</t>
+          <t>11-09-2025 11:51:59</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:51</t>
+          <t>11-09-2025 11:51:59</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:28</t>
+          <t>11-09-2025 12:47:33</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>7153</v>
+        <v>6667</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3081,19 +3084,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-3.533020833333333</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252664</v>
+        <v>253261</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3102,37 +3105,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>365.975</v>
+        <v>18.85</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:28</t>
+          <t>11-09-2025 12:47:33</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:28</t>
+          <t>11-09-2025 13:06:33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:28</t>
+          <t>11-09-2025 13:06:33</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:26</t>
+          <t>11-09-2025 13:25:24</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>43917</v>
+        <v>2262</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3141,35 +3144,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-6.503778935185185</v>
+        <v>-17.55930555555556</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3177,7 +3173,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253706</v>
+        <v>253436</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3186,37 +3182,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>311</v>
+        <v>18.85</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:26</t>
+          <t>11-09-2025 13:25:24</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:26</t>
+          <t>11-09-2025 13:40:24</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:26</t>
+          <t>11-09-2025 13:40:24</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:26</t>
+          <t>11-09-2025 13:59:15</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>37320</v>
+        <v>2262</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3225,14 +3221,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3242,11 +3238,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-1.5828125</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3254,7 +3250,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253284</v>
+        <v>252741</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3263,37 +3259,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>56.99166666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:26</t>
+          <t>11-09-2025 13:59:15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-09-2025 10:21:26</t>
+          <t>11-09-2025 14:16:15</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-09-2025 10:21:26</t>
+          <t>11-09-2025 14:16:15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-09-2025 11:18:26</t>
+          <t>12-09-2025 07:17:44</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>6839</v>
+        <v>7379</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3302,14 +3298,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3319,19 +3315,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-12.47113425925926</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253687</v>
+        <v>252274</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3340,37 +3336,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E38" t="n">
-        <v>44.23333333333333</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:18:26</t>
+          <t>12-09-2025 07:17:44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:26</t>
+          <t>12-09-2025 07:55:44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:26</t>
+          <t>12-09-2025 07:55:44</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:40</t>
+          <t>12-09-2025 10:49:09</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>5308</v>
+        <v>20810</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3379,14 +3375,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3396,19 +3392,19 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-3.450804398148148</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253686</v>
+        <v>244743</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3417,37 +3413,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E39" t="n">
-        <v>44.23333333333333</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:40</t>
+          <t>12-09-2025 10:49:09</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-09-2025 12:49:40</t>
+          <t>12-09-2025 11:23:09</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-09-2025 12:49:40</t>
+          <t>12-09-2025 11:23:09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09-09-2025 13:33:54</t>
+          <t>12-09-2025 11:52:30</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>5308</v>
+        <v>3521</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3460,7 +3456,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3473,58 +3469,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-18.49479166666667</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252883</v>
+        <v>253295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>52.5</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>247.3083333333333</v>
+        <v>230.075</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>12-09-2025 11:52:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:30</t>
+          <t>12-09-2025 12:11:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:30</t>
+          <t>12-09-2025 12:11:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>09-09-2025 11:59:48</t>
+          <t>15-09-2025 08:01:34</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>29677</v>
+        <v>27609</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3533,20 +3529,25 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="O40" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3554,54 +3555,54 @@
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-11.49986689814815</v>
+        <v>-3.334427083333333</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253140</v>
+        <v>253706</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E41" t="n">
-        <v>55.83333333333334</v>
+        <v>311</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>15-09-2025 08:01:34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>15-09-2025 08:37:34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>15-09-2025 08:37:34</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>04-09-2025 13:45:50</t>
+          <t>15-09-2025 13:48:34</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6700</v>
+        <v>37320</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3610,11 +3611,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N41" t="n">
         <v>76</v>
@@ -3627,58 +3628,58 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-9.57349537037037</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253036</v>
+        <v>253095</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>78.73333333333333</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>04-09-2025 13:45:50</t>
+          <t>15-09-2025 13:48:34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:20:50</t>
+          <t>15-09-2025 14:30:34</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:20:50</t>
+          <t>15-09-2025 14:30:34</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-09-2025 07:39:34</t>
+          <t>16-09-2025 07:46:53</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>9448</v>
+        <v>9158</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3687,14 +3688,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3704,11 +3705,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-14.31914351851852</v>
+        <v>-4.324230324074074</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3716,46 +3717,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253314</v>
+        <v>253375</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>43.40833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>05-09-2025 07:39:34</t>
+          <t>16-09-2025 07:46:53</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05-09-2025 08:09:34</t>
+          <t>16-09-2025 08:03:53</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>05-09-2025 08:09:34</t>
+          <t>16-09-2025 08:03:53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:58</t>
+          <t>16-09-2025 08:55:46</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>5209</v>
+        <v>6226</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3764,80 +3765,75 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>76</v>
-      </c>
-      <c r="O43" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252582</v>
+        <v>253244</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>46.08333333333334</v>
+        <v>166.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:58</t>
+          <t>16-09-2025 08:55:46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05-09-2025 09:22:58</t>
+          <t>16-09-2025 09:14:46</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-09-2025 09:22:58</t>
+          <t>16-09-2025 09:14:46</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-09-2025 10:09:03</t>
+          <t>16-09-2025 12:01:16</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>5530</v>
+        <v>19980</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3846,80 +3842,75 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-6.500885416666667</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252682</v>
+        <v>253525</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>83.40833333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>05-09-2025 10:09:03</t>
+          <t>16-09-2025 12:01:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05-09-2025 10:39:03</t>
+          <t>16-09-2025 12:20:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>05-09-2025 10:39:03</t>
+          <t>16-09-2025 12:20:16</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-09-2025 12:02:28</t>
+          <t>16-09-2025 13:52:25</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>10009</v>
+        <v>11057</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3928,80 +3919,75 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>76</v>
-      </c>
-      <c r="O45" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252679</v>
+        <v>253371</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>60</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-09-2025 12:02:28</t>
+          <t>16-09-2025 13:52:25</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-09-2025 12:32:28</t>
+          <t>16-09-2025 14:07:25</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-09-2025 12:32:28</t>
+          <t>16-09-2025 14:07:25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-09-2025 13:32:28</t>
+          <t>17-09-2025 07:55:11</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>7200</v>
+        <v>12932</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4010,80 +3996,75 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>76</v>
-      </c>
-      <c r="O46" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252002</v>
+        <v>253367</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>55.675</v>
+        <v>135.7</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>05-09-2025 13:32:28</t>
+          <t>17-09-2025 07:55:11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:12:28</t>
+          <t>17-09-2025 08:10:11</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:12:28</t>
+          <t>17-09-2025 08:10:11</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08-09-2025 07:08:08</t>
+          <t>17-09-2025 10:25:53</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6681</v>
+        <v>16284</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4092,82 +4073,75 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P47" t="n">
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-14.29732060185185</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253223</v>
+        <v>253376</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>16.4</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-09-2025 07:08:08</t>
+          <t>17-09-2025 10:25:53</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-09-2025 08:18:08</t>
+          <t>17-09-2025 10:40:53</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-09-2025 08:18:08</t>
+          <t>17-09-2025 10:40:53</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:32</t>
+          <t>17-09-2025 13:40:29</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1968</v>
+        <v>21553</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4176,11 +4150,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
@@ -4193,58 +4167,58 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-7.357320601851852</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252601</v>
+        <v>253472</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
-        <v>51.20833333333334</v>
+        <v>291.8</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:32</t>
+          <t>17-09-2025 13:40:29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-09-2025 09:04:32</t>
+          <t>17-09-2025 14:01:29</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-09-2025 09:04:32</t>
+          <t>17-09-2025 14:01:29</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:45</t>
+          <t>18-09-2025 10:53:17</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>6145</v>
+        <v>35016</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4253,11 +4227,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4270,58 +4244,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-2.453674768518519</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253072</v>
+        <v>253549</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>29.13333333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:45</t>
+          <t>18-09-2025 10:53:17</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:45</t>
+          <t>18-09-2025 11:10:17</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:45</t>
+          <t>18-09-2025 11:10:17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:53</t>
+          <t>18-09-2025 13:53:57</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>3496</v>
+        <v>19640</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4347,11 +4321,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-21.47908564814815</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>2</v>
@@ -4359,46 +4333,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253278</v>
+        <v>253522</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>28.425</v>
+        <v>198.625</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:53</t>
+          <t>18-09-2025 13:53:57</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-09-2025 11:54:53</t>
+          <t>18-09-2025 14:14:57</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-09-2025 11:54:53</t>
+          <t>18-09-2025 14:14:57</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:18</t>
+          <t>19-09-2025 09:33:35</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3411</v>
+        <v>23835</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4411,7 +4385,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
@@ -4428,54 +4402,54 @@
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-7.398321759259259</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253210</v>
+        <v>253528</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>94.15833333333333</v>
+        <v>119.175</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:18</t>
+          <t>19-09-2025 09:33:35</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:18</t>
+          <t>19-09-2025 09:48:35</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:18</t>
+          <t>19-09-2025 09:48:35</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:57:28</t>
+          <t>19-09-2025 11:47:45</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>11299</v>
+        <v>14301</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4484,11 +4458,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4501,58 +4475,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253208</v>
+        <v>253668</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>104.2583333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 14:57:28</t>
+          <t>19-09-2025 11:47:45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:22:28</t>
+          <t>19-09-2025 12:04:45</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:22:28</t>
+          <t>19-09-2025 12:04:45</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>09-09-2025 09:06:43</t>
+          <t>22-09-2025 07:14:37</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>12511</v>
+        <v>22784</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4561,11 +4535,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4578,58 +4552,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-4.379670138888889</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253260</v>
+        <v>252397</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E54" t="n">
-        <v>109.4083333333333</v>
+        <v>115.925</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-09-2025 09:06:43</t>
+          <t>22-09-2025 07:14:37</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-09-2025 10:16:43</t>
+          <t>22-09-2025 07:48:37</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-09-2025 10:16:43</t>
+          <t>22-09-2025 07:48:37</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09-09-2025 12:06:08</t>
+          <t>22-09-2025 09:44:33</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>13129</v>
+        <v>13911</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4638,14 +4612,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4655,58 +4629,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-15.50425925925926</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253249</v>
+        <v>253721</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="E55" t="n">
-        <v>57.75833333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 12:06:08</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 12:46:08</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 12:46:08</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:53</t>
+          <t>09-09-2025 08:13:53</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6931</v>
+        <v>4727</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4715,14 +4689,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4732,7 +4706,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
@@ -4744,7 +4718,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253317</v>
+        <v>252002</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4753,37 +4727,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>102.775</v>
+        <v>55.675</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:53</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-09-2025 14:08:53</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-09-2025 14:08:53</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:40</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>12333</v>
+        <v>6681</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4792,36 +4766,43 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
-        <v>76</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-2.327546296296296</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253318</v>
+        <v>252685</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4834,33 +4815,33 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E57" t="n">
-        <v>51.55</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:40</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:40</t>
+          <t>04-09-2025 14:40:40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:40</t>
+          <t>04-09-2025 14:40:40</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10-09-2025 09:08:13</t>
+          <t>05-09-2025 07:55:14</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>6186</v>
+        <v>8948</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4873,32 +4854,37 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
         <v>76</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="O57" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-2.380706018518519</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253602</v>
+        <v>252679</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4907,37 +4893,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>117.0833333333333</v>
+        <v>60</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-09-2025 09:08:13</t>
+          <t>05-09-2025 07:55:14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:13</t>
+          <t>05-09-2025 08:25:14</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:13</t>
+          <t>05-09-2025 08:25:14</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10-09-2025 11:40:18</t>
+          <t>05-09-2025 09:25:14</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>14050</v>
+        <v>7200</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4955,27 +4941,32 @@
       <c r="N58" t="n">
         <v>76</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
+      <c r="O58" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.4863194444444445</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253247</v>
+        <v>252682</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4984,37 +4975,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>109.575</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10-09-2025 11:40:18</t>
+          <t>05-09-2025 09:25:14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10-09-2025 12:20:18</t>
+          <t>05-09-2025 09:55:14</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10-09-2025 12:20:18</t>
+          <t>05-09-2025 09:55:14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10-09-2025 14:09:52</t>
+          <t>05-09-2025 11:18:39</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>13149</v>
+        <v>10009</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5023,36 +5014,41 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="n">
-        <v>70</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O59" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5901909722222223</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253401</v>
+        <v>252582</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5061,37 +5057,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>22.81666666666667</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10-09-2025 14:09:52</t>
+          <t>05-09-2025 11:18:39</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-09-2025 14:39:52</t>
+          <t>05-09-2025 11:48:39</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-09-2025 14:39:52</t>
+          <t>05-09-2025 11:48:39</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11-09-2025 07:02:41</t>
+          <t>05-09-2025 12:34:44</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2738</v>
+        <v>5530</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5100,75 +5096,80 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>70</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252906</v>
+        <v>253284</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>34.725</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>05-09-2025 12:34:44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>05-09-2025 13:04:44</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>05-09-2025 13:04:44</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:43</t>
+          <t>05-09-2025 14:01:43</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>4167</v>
+        <v>6839</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5194,58 +5195,58 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-14.32758680555555</v>
+        <v>-8.58453125</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253425</v>
+        <v>253314</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>146.35</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:43</t>
+          <t>05-09-2025 14:01:43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:43</t>
+          <t>05-09-2025 14:41:43</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:43</t>
+          <t>05-09-2025 14:41:43</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:04</t>
+          <t>08-09-2025 07:25:08</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>17562</v>
+        <v>5209</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5258,71 +5259,76 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="n">
         <v>76</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
+      <c r="O62" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-10.44102430555555</v>
+        <v>-0.3091203703703704</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252815</v>
+        <v>253036</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>242.9416666666667</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:04</t>
+          <t>08-09-2025 07:25:08</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:04</t>
+          <t>08-09-2025 07:55:08</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:04</t>
+          <t>08-09-2025 07:55:08</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:59:01</t>
+          <t>08-09-2025 09:13:52</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>29153</v>
+        <v>9448</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5331,11 +5337,11 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
         <v>76</v>
@@ -5348,58 +5354,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-3.62431712962963</v>
+        <v>-17.38462962962963</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253659</v>
+        <v>252815</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>323.75</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>08-09-2025 09:13:52</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>08-09-2025 10:03:52</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>08-09-2025 10:03:52</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>09-09-2025 13:03:45</t>
+          <t>08-09-2025 14:06:48</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>38850</v>
+        <v>29153</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5408,14 +5414,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5425,58 +5431,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-3.588061342592593</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253016</v>
+        <v>253208</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E65" t="n">
-        <v>73.38333333333334</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-09-2025 14:06:48</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>09-09-2025 07:06:48</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>09-09-2025 07:06:48</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>09-09-2025 08:51:04</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>8806</v>
+        <v>12511</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5485,45 +5491,40 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N65" t="n">
-        <v>152</v>
-      </c>
-      <c r="O65" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-4.368796296296297</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253362</v>
+        <v>253210</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5532,33 +5533,33 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>58.38333333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>09-09-2025 08:51:04</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>09-09-2025 09:16:04</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>09-09-2025 09:16:04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>09-09-2025 10:50:13</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>7006</v>
+        <v>11299</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5567,80 +5568,75 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N66" t="n">
-        <v>152</v>
-      </c>
-      <c r="O66" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252702</v>
+        <v>253271</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E67" t="n">
-        <v>58.38333333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>09-09-2025 10:50:13</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>09-09-2025 11:50:13</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>09-09-2025 11:50:13</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>09-09-2025 12:32:51</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>7006</v>
+        <v>5116</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5649,33 +5645,28 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N67" t="n">
-        <v>152</v>
-      </c>
-      <c r="O67" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-4.522818287037037</v>
       </c>
       <c r="T67" t="n">
         <v>2</v>
@@ -5683,46 +5674,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>235572</v>
+        <v>253223</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E68" t="n">
-        <v>82.98333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>09-09-2025 12:32:51</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05-09-2025 12:15:09</t>
+          <t>09-09-2025 13:32:51</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>05-09-2025 12:15:09</t>
+          <t>09-09-2025 13:32:51</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-09-2025 13:38:08</t>
+          <t>09-09-2025 13:49:15</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>9958</v>
+        <v>1968</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5731,11 +5722,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5748,58 +5739,58 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-669.5681481481481</v>
+        <v>-8.575873842592593</v>
       </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>250284</v>
+        <v>252601</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>146.35</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>05-09-2025 13:38:08</t>
+          <t>09-09-2025 13:49:15</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05-09-2025 14:18:08</t>
+          <t>09-09-2025 14:19:15</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>05-09-2025 14:18:08</t>
+          <t>09-09-2025 14:19:15</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:29</t>
+          <t>10-09-2025 07:10:28</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>17562</v>
+        <v>6145</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5808,11 +5799,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
@@ -5825,11 +5816,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-180.364224537037</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5837,46 +5828,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252216</v>
+        <v>252883</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>35</v>
       </c>
       <c r="E70" t="n">
-        <v>141.8083333333333</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:29</t>
+          <t>10-09-2025 07:10:28</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-09-2025 09:19:29</t>
+          <t>10-09-2025 07:45:28</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-09-2025 09:19:29</t>
+          <t>10-09-2025 07:45:28</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>08-09-2025 11:41:17</t>
+          <t>10-09-2025 11:52:46</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>17017</v>
+        <v>29677</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5885,18 +5876,15 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>40299</v>
-      </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
@@ -5905,23 +5893,23 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-0.4870081018518518</v>
+        <v>-12.49498263888889</v>
       </c>
       <c r="T70" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252685</v>
+        <v>253313</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5930,33 +5918,33 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E71" t="n">
-        <v>74.56666666666666</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 11:41:17</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:17</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:17</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 13:55:51</t>
+          <t>08-09-2025 08:57:00</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>8948</v>
+        <v>12001</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5974,103 +5962,1663 @@
       <c r="N71" t="n">
         <v>76</v>
       </c>
-      <c r="O71" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P71" t="n">
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.5804571759259259</v>
+        <v>-3.372922453703704</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>26-09-2024 14:00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>17</v>
+      </c>
+      <c r="E72" t="n">
+        <v>21.675</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:57:00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:14:00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:14:00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:35:41</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>2601</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="n">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>16-09-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>-357.3997800925926</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:35:41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:54:41</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:54:41</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:46:14</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>6186</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>76</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>-0.4487731481481482</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>102.775</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:46:14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:01:14</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:01:14</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:44:00</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>12333</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>76</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>-0.5305613425925926</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>28-08-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" t="n">
+        <v>57.75833333333333</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:44:00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:56:46</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>6931</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>11-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>27</v>
+      </c>
+      <c r="E76" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:56:46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:23:46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:23:46</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:42:58</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>2304</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>9</v>
+      </c>
+      <c r="N76" t="n">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>30-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-40.61317129629629</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>253140</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>27</v>
+      </c>
+      <c r="E77" t="n">
+        <v>55.83333333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:42:58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:09:58</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:09:58</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:05:48</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>6700</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>26-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>-14.33736111111111</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>253425</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>35</v>
+      </c>
+      <c r="E78" t="n">
+        <v>146.35</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:01:21</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>17562</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>29-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>-11.41760416666667</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>27-08-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>199.0833333333333</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:01:21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:36:21</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:36:21</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:55:26</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>23890</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>76</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>20-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-20.58016203703704</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>35</v>
+      </c>
+      <c r="E80" t="n">
+        <v>109.575</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:55:26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:20:00</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>13149</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>-0.3472280092592593</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253372</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" t="n">
+        <v>103.775</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:20:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:55:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:55:00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:38:47</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>12453</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>30</v>
+      </c>
+      <c r="E82" t="n">
+        <v>184.825</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:38:47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:08:47</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:08:47</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:13:36</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>22179</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-0.5927835648148149</v>
+      </c>
+      <c r="T82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>253246</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>35</v>
+      </c>
+      <c r="E83" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:13:36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:48:36</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:48:36</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:02:51</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>23310</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-1.41865162037037</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>35</v>
+      </c>
+      <c r="E84" t="n">
+        <v>68.08333333333333</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:02:51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:37:51</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:37:51</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:45:56</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>8170</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-6.490237268518518</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>02-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" t="n">
+        <v>73.38333333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>8806</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>152</v>
+      </c>
+      <c r="O85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>14-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>30</v>
+      </c>
+      <c r="E86" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:13:23</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:13:23</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:11:46</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>152</v>
+      </c>
+      <c r="O86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>25</v>
+      </c>
+      <c r="E87" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:11:46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:35:09</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>152</v>
+      </c>
+      <c r="O87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>35</v>
+      </c>
+      <c r="E88" t="n">
+        <v>69.23333333333333</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:35:09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:10:09</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:10:09</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:19:23</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>8308</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>70</v>
+      </c>
+      <c r="O88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>35</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:19:23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:54:23</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:54:23</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:11:48</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>2090</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>76</v>
+      </c>
+      <c r="O89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>40</v>
+      </c>
+      <c r="E90" t="n">
+        <v>82.98333333333333</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:11:48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:51:48</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:51:48</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:14:47</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>9958</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>06-11-2023 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>-672.343599537037</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>253374</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>30</v>
+      </c>
+      <c r="E91" t="n">
+        <v>59.60833333333333</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:14:47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:44:47</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:44:47</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:44:23</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>7153</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
         <v>252980</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>03-09-2025 14:00:00</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>17.075</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>08-09-2025 07:17:04</t>
         </is>
       </c>
-      <c r="J72" t="n">
+      <c r="J92" t="n">
         <v>2049</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>08-09-2025 00:00:00</t>
         </is>
       </c>
-      <c r="S72" s="1" t="n">
+      <c r="S92" s="1" t="n">
         <v>-0.3035243055555555</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T92" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252569</v>
+        <v>253318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.583333333333334</v>
+        <v>51.55</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,11 +577,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 08:08:33</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1150</v>
+        <v>6186</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -607,11 +607,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-7.310127314814815</v>
+        <v>-0.3392708333333334</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252995</v>
+        <v>252569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -635,30 +635,30 @@
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>68.31666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 08:08:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 08:27:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 08:27:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:54</t>
+          <t>08-09-2025 08:37:08</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8198</v>
+        <v>1150</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-7.370763888888889</v>
+        <v>-7.359120370370371</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253361</v>
+        <v>253140</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>76.70833333333333</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:54</t>
+          <t>08-09-2025 08:37:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:25:54</t>
+          <t>08-09-2025 08:56:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:25:54</t>
+          <t>08-09-2025 08:56:08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:36</t>
+          <t>08-09-2025 09:51:58</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>9205</v>
+        <v>6700</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,14 +744,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -761,11 +761,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-13.41108796296296</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252216</v>
+        <v>244023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +782,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>141.8083333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:36</t>
+          <t>08-09-2025 09:51:58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:13:36</t>
+          <t>08-09-2025 10:27:58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:13:36</t>
+          <t>08-09-2025 10:27:58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:35:25</t>
+          <t>08-09-2025 10:36:16</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>17017</v>
+        <v>997</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-14.56626157407407</v>
+        <v>-343.4418576388889</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250284</v>
+        <v>253194</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>146.35</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:35:25</t>
+          <t>08-09-2025 10:36:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:54:25</t>
+          <t>08-09-2025 11:12:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:54:25</t>
+          <t>08-09-2025 11:12:16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 08:20:46</t>
+          <t>08-09-2025 14:31:21</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>17562</v>
+        <v>23890</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -898,14 +898,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -915,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-181.3477546296296</v>
+        <v>-19.6051099537037</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>244023</v>
+        <v>252216</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>8.308333333333334</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:20:46</t>
+          <t>08-09-2025 14:31:21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:39:46</t>
+          <t>09-09-2025 07:15:21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:39:46</t>
+          <t>09-09-2025 07:15:21</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:04</t>
+          <t>09-09-2025 09:37:10</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>997</v>
+        <v>17017</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -992,19 +992,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-344.36671875</v>
+        <v>-15.40081018518518</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252939</v>
+        <v>253100</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1017,33 +1017,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>89.8</v>
+        <v>47.35</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:04</t>
+          <t>09-09-2025 09:37:10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:04</t>
+          <t>09-09-2025 10:04:10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:04</t>
+          <t>09-09-2025 10:04:10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:52</t>
+          <t>09-09-2025 10:51:31</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10776</v>
+        <v>5682</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>70</v>
@@ -1069,19 +1069,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-18.44366319444444</v>
+        <v>-1.45244212962963</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253359</v>
+        <v>253095</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1097,30 +1097,30 @@
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>134.0166666666667</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:52</t>
+          <t>09-09-2025 10:51:31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:52</t>
+          <t>09-09-2025 11:10:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:52</t>
+          <t>09-09-2025 11:10:31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 13:11:53</t>
+          <t>09-09-2025 12:26:50</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>16082</v>
+        <v>9158</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,11 +1129,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253267</v>
+        <v>252906</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1167,37 +1167,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>164.3666666666667</v>
+        <v>34.725</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:11:53</t>
+          <t>09-09-2025 12:26:50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:53</t>
+          <t>09-09-2025 13:00:50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:53</t>
+          <t>09-09-2025 13:00:50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-09-2025 08:13:15</t>
+          <t>09-09-2025 13:35:33</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>19724</v>
+        <v>4167</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1223,14 +1223,14 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-15.5663599537037</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1248,29 +1248,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
         <v>78.55833333333334</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:13:15</t>
+          <t>09-09-2025 13:35:33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:28:15</t>
+          <t>09-09-2025 14:11:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:28:15</t>
+          <t>09-09-2025 14:11:33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 09:46:49</t>
+          <t>10-09-2025 07:30:07</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1332,22 +1332,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 09:46:49</t>
+          <t>10-09-2025 07:30:07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 10:03:49</t>
+          <t>10-09-2025 07:47:07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 10:03:49</t>
+          <t>10-09-2025 07:47:07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:02:34</t>
+          <t>10-09-2025 08:45:52</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:02:34</t>
+          <t>10-09-2025 08:45:52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:17:34</t>
+          <t>10-09-2025 09:00:52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:17:34</t>
+          <t>10-09-2025 09:00:52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 12:25:03</t>
+          <t>10-09-2025 10:08:21</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1466,7 +1466,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253602</v>
+        <v>253374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1475,37 +1475,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>117.0833333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:25:03</t>
+          <t>10-09-2025 10:08:21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:59:03</t>
+          <t>10-09-2025 10:25:21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:59:03</t>
+          <t>10-09-2025 10:25:21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-09-2025 14:56:08</t>
+          <t>10-09-2025 11:24:58</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>14050</v>
+        <v>7153</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.6223206018518519</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252827</v>
+        <v>253425</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1552,14 +1552,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>410</v>
+        <v>146.35</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1568,21 +1568,21 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:00</t>
+          <t>08-09-2025 09:55:21</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>49200</v>
+        <v>17562</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>76</v>
@@ -1608,58 +1608,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-4.595138888888889</v>
+        <v>-10.4134375</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253100</v>
+        <v>252843</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>47.35</v>
+        <v>19.2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-09-2025 09:55:21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>08-09-2025 10:28:21</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>08-09-2025 10:28:21</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:21</t>
+          <t>08-09-2025 10:47:33</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>5682</v>
+        <v>2304</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1685,58 +1685,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-40.4496875</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253710</v>
+        <v>252939</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>1.616666666666667</v>
+        <v>89.8</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:21</t>
+          <t>08-09-2025 10:47:33</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:21:21</t>
+          <t>08-09-2025 11:39:33</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:21:21</t>
+          <t>08-09-2025 11:39:33</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05-09-2025 08:22:58</t>
+          <t>08-09-2025 13:09:21</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>194</v>
+        <v>10776</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1762,58 +1762,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-17.54815972222222</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250891</v>
+        <v>252815</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>77.49166666666666</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 08:22:58</t>
+          <t>08-09-2025 13:09:21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 08:41:58</t>
+          <t>08-09-2025 13:59:21</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 08:41:58</t>
+          <t>08-09-2025 13:59:21</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-09-2025 09:59:27</t>
+          <t>09-09-2025 10:02:17</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>9299</v>
+        <v>29153</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,17 +1822,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
-      </c>
-      <c r="O18" t="n">
-        <v>40299</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1842,11 +1839,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-4.418258101851852</v>
       </c>
       <c r="T18" t="n">
         <v>4</v>
@@ -1854,46 +1851,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253409</v>
+        <v>253359</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>27.18333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 09:59:27</t>
+          <t>09-09-2025 10:02:17</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 10:33:27</t>
+          <t>09-09-2025 10:52:17</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 10:33:27</t>
+          <t>09-09-2025 10:52:17</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 11:00:38</t>
+          <t>09-09-2025 13:06:18</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3262</v>
+        <v>16082</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1902,17 +1899,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>76</v>
-      </c>
-      <c r="O19" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1922,7 +1916,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -1934,7 +1928,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252664</v>
+        <v>252685</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1943,37 +1937,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>365.975</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 11:00:38</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 11:32:38</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 11:32:38</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-09-2025 09:38:37</t>
+          <t>05-09-2025 08:46:34</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>43917</v>
+        <v>8948</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1982,19 +1976,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>70</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40295</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2002,23 +1994,23 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>40279</v>
+        <v>40295</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-6.40181712962963</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252906</v>
+        <v>253016</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2027,37 +2019,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>34.725</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-09-2025 09:38:37</t>
+          <t>05-09-2025 08:46:34</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-09-2025 10:12:37</t>
+          <t>05-09-2025 09:20:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 10:12:37</t>
+          <t>05-09-2025 09:20:34</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:20</t>
+          <t>05-09-2025 10:33:57</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>4167</v>
+        <v>8806</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2066,28 +2058,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>76</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O21" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-14.44954282407407</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252833</v>
+        <v>252702</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2108,33 +2105,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>74.78333333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:20</t>
+          <t>05-09-2025 10:33:57</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-09-2025 11:19:20</t>
+          <t>05-09-2025 10:50:57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-09-2025 11:19:20</t>
+          <t>05-09-2025 10:50:57</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08-09-2025 12:34:07</t>
+          <t>05-09-2025 11:49:20</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>8974</v>
+        <v>7006</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2143,36 +2140,41 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O22" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-13.52369791666667</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253278</v>
+        <v>253362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2181,37 +2183,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>28.425</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-09-2025 12:34:07</t>
+          <t>05-09-2025 11:49:20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:07</t>
+          <t>05-09-2025 12:04:20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:07</t>
+          <t>05-09-2025 12:04:20</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:33</t>
+          <t>05-09-2025 13:02:43</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3411</v>
+        <v>7006</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2220,24 +2222,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O23" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -2249,7 +2256,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253072</v>
+        <v>253591</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2262,33 +2269,33 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>29.13333333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:33</t>
+          <t>05-09-2025 13:02:43</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:33</t>
+          <t>05-09-2025 13:36:43</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:33</t>
+          <t>05-09-2025 13:36:43</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-09-2025 14:07:41</t>
+          <t>05-09-2025 13:54:08</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>3496</v>
+        <v>2090</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2297,36 +2304,41 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O24" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-21.58866898148148</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253260</v>
+        <v>252995</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2335,37 +2347,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>109.4083333333333</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:07:41</t>
+          <t>05-09-2025 13:54:08</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:41</t>
+          <t>05-09-2025 14:13:08</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:41</t>
+          <t>05-09-2025 14:13:08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09-09-2025 08:16:05</t>
+          <t>08-09-2025 07:21:27</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>13129</v>
+        <v>8198</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2374,14 +2386,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2391,11 +2403,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-15.34450810185185</v>
+        <v>-7.3065625</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2403,7 +2415,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253659</v>
+        <v>253259</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2412,37 +2424,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>323.75</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-09-2025 08:16:05</t>
+          <t>08-09-2025 07:21:27</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:05</t>
+          <t>08-09-2025 07:53:27</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:05</t>
+          <t>08-09-2025 07:53:27</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09-09-2025 13:56:50</t>
+          <t>08-09-2025 09:02:41</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>38850</v>
+        <v>8308</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2451,36 +2463,41 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
+      <c r="O26" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-0.3768634259259259</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253687</v>
+        <v>253267</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2489,37 +2506,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>44.23333333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-09-2025 13:56:50</t>
+          <t>08-09-2025 09:02:41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:50</t>
+          <t>08-09-2025 09:21:41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:50</t>
+          <t>08-09-2025 09:21:41</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09-09-2025 14:56:04</t>
+          <t>08-09-2025 12:06:03</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>5308</v>
+        <v>19724</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2532,7 +2549,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
@@ -2545,19 +2562,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253686</v>
+        <v>253706</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2566,37 +2583,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>44.23333333333333</v>
+        <v>311</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 14:56:04</t>
+          <t>08-09-2025 12:06:03</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-09-2025 07:11:04</t>
+          <t>08-09-2025 12:44:03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-09-2025 07:11:04</t>
+          <t>08-09-2025 12:44:03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10-09-2025 07:55:18</t>
+          <t>09-09-2025 09:55:03</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>5308</v>
+        <v>37320</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2605,14 +2622,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2622,19 +2639,19 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253401</v>
+        <v>253284</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2643,37 +2660,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>22.81666666666667</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-09-2025 07:55:18</t>
+          <t>09-09-2025 09:55:03</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-09-2025 08:14:18</t>
+          <t>09-09-2025 10:18:03</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10-09-2025 08:14:18</t>
+          <t>09-09-2025 10:18:03</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10-09-2025 08:37:07</t>
+          <t>09-09-2025 11:15:02</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2738</v>
+        <v>6839</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2682,14 +2699,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2699,19 +2716,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-12.46877893518518</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253245</v>
+        <v>253313</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2720,37 +2737,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>150.8333333333333</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10-09-2025 08:37:07</t>
+          <t>09-09-2025 11:15:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10-09-2025 08:54:07</t>
+          <t>09-09-2025 11:30:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10-09-2025 08:54:07</t>
+          <t>09-09-2025 11:30:02</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:57</t>
+          <t>09-09-2025 13:10:03</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>18100</v>
+        <v>12001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2759,14 +2776,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2776,19 +2793,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.4756655092592593</v>
+        <v>-4.548645833333333</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253368</v>
+        <v>252827</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2797,37 +2814,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>103.775</v>
+        <v>410</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:57</t>
+          <t>09-09-2025 13:10:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-09-2025 11:43:57</t>
+          <t>09-09-2025 13:29:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-09-2025 11:43:57</t>
+          <t>09-09-2025 13:29:03</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-09-2025 13:27:44</t>
+          <t>10-09-2025 12:19:03</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>12453</v>
+        <v>49200</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2836,14 +2853,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2853,19 +2870,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-6.513229166666667</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253370</v>
+        <v>253710</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2874,37 +2891,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E32" t="n">
-        <v>207.5416666666667</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 13:27:44</t>
+          <t>10-09-2025 12:19:03</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:44</t>
+          <t>10-09-2025 12:51:03</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:44</t>
+          <t>10-09-2025 12:51:03</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11-09-2025 09:10:16</t>
+          <t>10-09-2025 12:52:40</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>24905</v>
+        <v>194</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2913,11 +2930,11 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
@@ -2930,19 +2947,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5365740740740741</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253377</v>
+        <v>253247</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2951,37 +2968,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>127.7166666666667</v>
+        <v>109.575</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11-09-2025 09:10:16</t>
+          <t>10-09-2025 12:52:40</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11-09-2025 09:25:16</t>
+          <t>10-09-2025 13:09:40</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11-09-2025 09:25:16</t>
+          <t>10-09-2025 13:09:40</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11-09-2025 11:32:59</t>
+          <t>10-09-2025 14:59:14</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>15326</v>
+        <v>13149</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2990,11 +3007,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3007,58 +3024,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-0.6244733796296297</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253455</v>
+        <v>253401</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="E34" t="n">
-        <v>55.55833333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11-09-2025 11:32:59</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11-09-2025 11:51:59</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-09-2025 11:51:59</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11-09-2025 12:47:33</t>
+          <t>09-09-2025 07:57:19</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>6667</v>
+        <v>2738</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3071,7 +3088,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3084,58 +3101,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-3.533020833333333</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253261</v>
+        <v>253659</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="E35" t="n">
-        <v>18.85</v>
+        <v>323.75</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-09-2025 12:47:33</t>
+          <t>09-09-2025 07:57:19</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-09-2025 13:06:33</t>
+          <t>09-09-2025 08:31:49</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-09-2025 13:06:33</t>
+          <t>09-09-2025 08:31:49</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11-09-2025 13:25:24</t>
+          <t>09-09-2025 13:55:34</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2262</v>
+        <v>38850</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3148,7 +3165,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
@@ -3161,58 +3178,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-17.55930555555556</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253436</v>
+        <v>253687</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="E36" t="n">
-        <v>18.85</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-09-2025 13:25:24</t>
+          <t>09-09-2025 13:55:34</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-09-2025 13:40:24</t>
+          <t>09-09-2025 14:26:04</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-09-2025 13:40:24</t>
+          <t>09-09-2025 14:26:04</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11-09-2025 13:59:15</t>
+          <t>10-09-2025 07:10:18</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2262</v>
+        <v>5308</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3225,7 +3242,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3238,58 +3255,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-1.5828125</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252741</v>
+        <v>253686</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="E37" t="n">
-        <v>61.49166666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11-09-2025 13:59:15</t>
+          <t>10-09-2025 07:10:18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:16:15</t>
+          <t>10-09-2025 07:40:48</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:16:15</t>
+          <t>10-09-2025 07:40:48</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12-09-2025 07:17:44</t>
+          <t>10-09-2025 08:25:02</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>7379</v>
+        <v>5308</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3315,23 +3332,23 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252274</v>
+        <v>253295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3340,33 +3357,33 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>38</v>
+        <v>30.5</v>
       </c>
       <c r="E38" t="n">
-        <v>173.4166666666667</v>
+        <v>230.075</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12-09-2025 07:17:44</t>
+          <t>10-09-2025 08:25:02</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12-09-2025 07:55:44</t>
+          <t>10-09-2025 08:55:32</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12-09-2025 07:55:44</t>
+          <t>10-09-2025 08:55:32</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12-09-2025 10:49:09</t>
+          <t>10-09-2025 12:45:36</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>20810</v>
+        <v>27609</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3375,28 +3392,33 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>76</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-3.450804398148148</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>2</v>
@@ -3404,46 +3426,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>244743</v>
+        <v>253370</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>34</v>
+        <v>36.5</v>
       </c>
       <c r="E39" t="n">
-        <v>29.34166666666667</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12-09-2025 10:49:09</t>
+          <t>10-09-2025 12:45:36</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:23:09</t>
+          <t>10-09-2025 13:22:06</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:23:09</t>
+          <t>10-09-2025 13:22:06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:52:30</t>
+          <t>11-09-2025 08:49:39</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3521</v>
+        <v>24905</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3452,11 +3474,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3469,58 +3491,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-18.49479166666667</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253295</v>
+        <v>253371</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="E40" t="n">
-        <v>230.075</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12-09-2025 11:52:30</t>
+          <t>11-09-2025 08:49:39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12-09-2025 12:11:30</t>
+          <t>11-09-2025 09:20:09</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12-09-2025 12:11:30</t>
+          <t>11-09-2025 09:20:09</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15-09-2025 08:01:34</t>
+          <t>11-09-2025 11:07:55</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>27609</v>
+        <v>12932</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3529,80 +3551,75 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-3.334427083333333</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253706</v>
+        <v>253376</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>30.5</v>
       </c>
       <c r="E41" t="n">
-        <v>311</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15-09-2025 08:01:34</t>
+          <t>11-09-2025 11:07:55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15-09-2025 08:37:34</t>
+          <t>11-09-2025 11:38:25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15-09-2025 08:37:34</t>
+          <t>11-09-2025 11:38:25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>15-09-2025 13:48:34</t>
+          <t>11-09-2025 14:38:01</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>37320</v>
+        <v>21553</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3611,14 +3628,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3628,58 +3645,58 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253095</v>
+        <v>253668</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>32.5</v>
       </c>
       <c r="E42" t="n">
-        <v>76.31666666666666</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15-09-2025 13:48:34</t>
+          <t>11-09-2025 14:38:01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15-09-2025 14:30:34</t>
+          <t>12-09-2025 07:10:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15-09-2025 14:30:34</t>
+          <t>12-09-2025 07:10:31</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16-09-2025 07:46:53</t>
+          <t>12-09-2025 10:20:23</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>9158</v>
+        <v>22784</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3705,11 +3722,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-4.324230324074074</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3717,46 +3734,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253375</v>
+        <v>252741</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="E43" t="n">
-        <v>51.88333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16-09-2025 07:46:53</t>
+          <t>12-09-2025 10:20:23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16-09-2025 08:03:53</t>
+          <t>12-09-2025 10:56:53</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16-09-2025 08:03:53</t>
+          <t>12-09-2025 10:56:53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16-09-2025 08:55:46</t>
+          <t>12-09-2025 11:58:23</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6226</v>
+        <v>7379</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3765,11 +3782,11 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
         <v>70</v>
@@ -3782,58 +3799,58 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253244</v>
+        <v>253368</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="E44" t="n">
-        <v>166.5</v>
+        <v>103.775</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16-09-2025 08:55:46</t>
+          <t>12-09-2025 11:58:23</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16-09-2025 09:14:46</t>
+          <t>12-09-2025 12:34:53</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16-09-2025 09:14:46</t>
+          <t>12-09-2025 12:34:53</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16-09-2025 12:01:16</t>
+          <t>12-09-2025 14:18:39</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>19980</v>
+        <v>12453</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3842,11 +3859,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>70</v>
@@ -3859,58 +3876,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-6.500885416666667</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253525</v>
+        <v>253392</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="E45" t="n">
-        <v>92.14166666666667</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16-09-2025 12:01:16</t>
+          <t>12-09-2025 14:18:39</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16-09-2025 12:20:16</t>
+          <t>12-09-2025 14:51:09</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16-09-2025 12:20:16</t>
+          <t>12-09-2025 14:51:09</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16-09-2025 13:52:25</t>
+          <t>15-09-2025 09:00:32</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>11057</v>
+        <v>15526</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3919,11 +3936,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
         <v>70</v>
@@ -3936,58 +3953,58 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253371</v>
+        <v>253549</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="E46" t="n">
-        <v>107.7666666666667</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16-09-2025 13:52:25</t>
+          <t>15-09-2025 09:00:32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16-09-2025 14:07:25</t>
+          <t>15-09-2025 09:37:02</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16-09-2025 14:07:25</t>
+          <t>15-09-2025 09:37:02</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>17-09-2025 07:55:11</t>
+          <t>15-09-2025 12:20:42</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>12932</v>
+        <v>19640</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3996,11 +4013,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N46" t="n">
         <v>70</v>
@@ -4020,51 +4037,51 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253367</v>
+        <v>253393</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="E47" t="n">
-        <v>135.7</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>17-09-2025 07:55:11</t>
+          <t>15-09-2025 12:20:42</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17-09-2025 08:10:11</t>
+          <t>15-09-2025 12:57:12</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17-09-2025 08:10:11</t>
+          <t>15-09-2025 12:57:12</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>17-09-2025 10:25:53</t>
+          <t>15-09-2025 14:14:50</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>16284</v>
+        <v>9316</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4073,11 +4090,11 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
         <v>70</v>
@@ -4090,7 +4107,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
@@ -4102,46 +4119,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253376</v>
+        <v>253525</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="E48" t="n">
-        <v>179.6083333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17-09-2025 10:25:53</t>
+          <t>15-09-2025 14:14:50</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17-09-2025 10:40:53</t>
+          <t>15-09-2025 14:47:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17-09-2025 10:40:53</t>
+          <t>15-09-2025 14:47:20</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17-09-2025 13:40:29</t>
+          <t>16-09-2025 08:19:29</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>21553</v>
+        <v>11057</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4167,58 +4184,58 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253472</v>
+        <v>253377</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="E49" t="n">
-        <v>291.8</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17-09-2025 13:40:29</t>
+          <t>16-09-2025 08:19:29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17-09-2025 14:01:29</t>
+          <t>16-09-2025 08:49:59</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17-09-2025 14:01:29</t>
+          <t>16-09-2025 08:49:59</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>18-09-2025 10:53:17</t>
+          <t>16-09-2025 10:57:42</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>35016</v>
+        <v>15326</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4227,11 +4244,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4244,11 +4261,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-2.453674768518519</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4256,46 +4273,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253549</v>
+        <v>253367</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="E50" t="n">
-        <v>163.6666666666667</v>
+        <v>135.7</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>18-09-2025 10:53:17</t>
+          <t>16-09-2025 10:57:42</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18-09-2025 11:10:17</t>
+          <t>16-09-2025 11:28:12</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>18-09-2025 11:10:17</t>
+          <t>16-09-2025 11:28:12</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>18-09-2025 13:53:57</t>
+          <t>16-09-2025 13:43:54</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>19640</v>
+        <v>16284</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4304,11 +4321,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4328,51 +4345,51 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253522</v>
+        <v>252002</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E51" t="n">
-        <v>198.625</v>
+        <v>55.675</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>18-09-2025 13:53:57</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18-09-2025 14:14:57</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>18-09-2025 14:14:57</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>19-09-2025 09:33:35</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>23835</v>
+        <v>6681</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4385,71 +4402,78 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-7.398321759259259</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253528</v>
+        <v>252883</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E52" t="n">
-        <v>119.175</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>19-09-2025 09:33:35</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19-09-2025 09:48:35</t>
+          <t>04-09-2025 14:55:40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19-09-2025 09:48:35</t>
+          <t>04-09-2025 14:55:40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>19-09-2025 11:47:45</t>
+          <t>05-09-2025 11:02:59</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>14301</v>
+        <v>29677</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4458,11 +4482,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4475,11 +4499,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-7.460405092592593</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4487,46 +4511,46 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253668</v>
+        <v>253314</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E53" t="n">
-        <v>189.8666666666667</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>19-09-2025 11:47:45</t>
+          <t>05-09-2025 11:02:59</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19-09-2025 12:04:45</t>
+          <t>05-09-2025 12:17:59</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19-09-2025 12:04:45</t>
+          <t>05-09-2025 12:17:59</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>22-09-2025 07:14:37</t>
+          <t>05-09-2025 13:01:23</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>22784</v>
+        <v>5209</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4535,75 +4559,80 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>70</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O53" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252397</v>
+        <v>253249</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E54" t="n">
-        <v>115.925</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>22-09-2025 07:14:37</t>
+          <t>05-09-2025 13:01:23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22-09-2025 07:48:37</t>
+          <t>05-09-2025 13:31:23</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>22-09-2025 07:48:37</t>
+          <t>05-09-2025 13:31:23</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>22-09-2025 09:44:33</t>
+          <t>05-09-2025 14:29:09</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>13911</v>
+        <v>6931</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4616,7 +4645,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
         <v>76</v>
@@ -4629,58 +4658,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253721</v>
+        <v>252682</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>39.39166666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>05-09-2025 14:29:09</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 14:59:09</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 14:59:09</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:13:53</t>
+          <t>08-09-2025 08:22:33</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4727</v>
+        <v>10009</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4689,36 +4718,41 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O55" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-0.3489988425925926</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252002</v>
+        <v>252679</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4727,37 +4761,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>55.675</v>
+        <v>60</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>08-09-2025 08:22:33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>08-09-2025 08:52:33</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>08-09-2025 08:52:33</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 09:52:33</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>6681</v>
+        <v>7200</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4766,19 +4800,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O56" t="n">
+        <v>40295</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4786,15 +4818,15 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>40307</v>
+        <v>40295</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>-0.4114988425925926</v>
       </c>
       <c r="T56" t="n">
         <v>4</v>
@@ -4802,7 +4834,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252685</v>
+        <v>252582</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4815,33 +4847,33 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E57" t="n">
-        <v>74.56666666666666</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 09:52:33</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:40:40</t>
+          <t>08-09-2025 10:27:33</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:40:40</t>
+          <t>08-09-2025 10:27:33</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>05-09-2025 07:55:14</t>
+          <t>08-09-2025 11:13:38</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>8948</v>
+        <v>5530</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4854,13 +4886,13 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
         <v>76</v>
       </c>
       <c r="O57" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4868,23 +4900,23 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-0.4678067129629629</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252679</v>
+        <v>250891</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4893,37 +4925,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E58" t="n">
-        <v>60</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:55:14</t>
+          <t>08-09-2025 11:13:38</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-09-2025 08:25:14</t>
+          <t>08-09-2025 11:58:38</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05-09-2025 08:25:14</t>
+          <t>08-09-2025 11:58:38</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05-09-2025 09:25:14</t>
+          <t>08-09-2025 13:16:08</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>7200</v>
+        <v>9299</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4932,33 +4964,31 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40299</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-0.5528703703703703</v>
       </c>
       <c r="T58" t="n">
         <v>4</v>
@@ -4966,7 +4996,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252682</v>
+        <v>253036</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4979,33 +5009,33 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>83.40833333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:25:14</t>
+          <t>08-09-2025 13:16:08</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:55:14</t>
+          <t>08-09-2025 14:01:08</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:55:14</t>
+          <t>08-09-2025 14:01:08</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05-09-2025 11:18:39</t>
+          <t>09-09-2025 07:19:52</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10009</v>
+        <v>9448</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5014,41 +5044,36 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>76</v>
       </c>
-      <c r="O59" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P59" t="n">
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-18.30546296296296</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252582</v>
+        <v>252601</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5057,37 +5082,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E60" t="n">
-        <v>46.08333333333334</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:18:39</t>
+          <t>09-09-2025 07:19:52</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:48:39</t>
+          <t>09-09-2025 08:49:52</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:48:39</t>
+          <t>09-09-2025 08:49:52</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
+          <t>09-09-2025 09:41:04</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>5530</v>
+        <v>6145</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5096,41 +5121,36 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253284</v>
+        <v>253208</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5139,37 +5159,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>56.99166666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
+          <t>09-09-2025 09:41:04</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05-09-2025 13:04:44</t>
+          <t>09-09-2025 10:11:04</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>05-09-2025 13:04:44</t>
+          <t>09-09-2025 10:11:04</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>05-09-2025 14:01:43</t>
+          <t>09-09-2025 11:55:20</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>6839</v>
+        <v>12511</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5178,14 +5198,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5195,19 +5215,19 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-8.58453125</v>
+        <v>-4.496759259259259</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253314</v>
+        <v>253210</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5216,37 +5236,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E62" t="n">
-        <v>43.40833333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:01:43</t>
+          <t>09-09-2025 11:55:20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:41:43</t>
+          <t>09-09-2025 12:20:20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:41:43</t>
+          <t>09-09-2025 12:20:20</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>08-09-2025 07:25:08</t>
+          <t>09-09-2025 13:54:29</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>5209</v>
+        <v>11299</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5255,41 +5275,36 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N62" t="n">
-        <v>76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.3091203703703704</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253036</v>
+        <v>253260</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5298,37 +5313,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E63" t="n">
-        <v>78.73333333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-09-2025 07:25:08</t>
+          <t>09-09-2025 13:54:29</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-09-2025 07:55:08</t>
+          <t>10-09-2025 07:04:29</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-09-2025 07:55:08</t>
+          <t>10-09-2025 07:04:29</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-09-2025 09:13:52</t>
+          <t>10-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>9448</v>
+        <v>13129</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5337,14 +5352,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5354,11 +5369,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-17.38462962962963</v>
+        <v>-16.37076388888889</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5366,7 +5381,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252815</v>
+        <v>253072</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5375,37 +5390,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E64" t="n">
-        <v>242.9416666666667</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-09-2025 09:13:52</t>
+          <t>10-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:52</t>
+          <t>10-09-2025 09:28:54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:52</t>
+          <t>10-09-2025 09:28:54</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:48</t>
+          <t>10-09-2025 09:58:02</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>29153</v>
+        <v>3496</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5414,14 +5429,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5431,19 +5446,19 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-3.588061342592593</v>
+        <v>-23.41530092592593</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253208</v>
+        <v>253245</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5452,37 +5467,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E65" t="n">
-        <v>104.2583333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:48</t>
+          <t>10-09-2025 09:58:02</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-09-2025 07:06:48</t>
+          <t>10-09-2025 10:33:02</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-09-2025 07:06:48</t>
+          <t>10-09-2025 10:33:02</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09-09-2025 08:51:04</t>
+          <t>10-09-2025 13:03:52</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>12511</v>
+        <v>18100</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5491,11 +5506,11 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
@@ -5508,19 +5523,19 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-4.368796296296297</v>
+        <v>-0.5443518518518519</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253210</v>
+        <v>253223</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5533,33 +5548,33 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E66" t="n">
-        <v>94.15833333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-09-2025 08:51:04</t>
+          <t>10-09-2025 13:03:52</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:04</t>
+          <t>10-09-2025 14:13:52</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:04</t>
+          <t>10-09-2025 14:13:52</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:13</t>
+          <t>10-09-2025 14:30:16</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>11299</v>
+        <v>1968</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5585,19 +5600,19 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-9.604351851851852</v>
       </c>
       <c r="T66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253271</v>
+        <v>253436</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5606,37 +5621,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>60</v>
       </c>
       <c r="E67" t="n">
-        <v>42.63333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:13</t>
+          <t>10-09-2025 14:30:16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:13</t>
+          <t>11-09-2025 07:30:16</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:13</t>
+          <t>11-09-2025 07:30:16</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:51</t>
+          <t>11-09-2025 07:49:07</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>5116</v>
+        <v>2262</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5662,19 +5677,19 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-4.522818287037037</v>
+        <v>-1.325775462962963</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253223</v>
+        <v>253261</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5683,37 +5698,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>16.4</v>
+        <v>18.85</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:51</t>
+          <t>11-09-2025 07:49:07</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09-09-2025 13:32:51</t>
+          <t>11-09-2025 08:14:07</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>09-09-2025 13:32:51</t>
+          <t>11-09-2025 08:14:07</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>09-09-2025 13:49:15</t>
+          <t>11-09-2025 08:32:58</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1968</v>
+        <v>2262</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5722,11 +5737,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5739,11 +5754,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-8.575873842592593</v>
+        <v>-17.35622685185185</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5751,7 +5766,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252601</v>
+        <v>253455</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5760,37 +5775,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>51.20833333333334</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09-09-2025 13:49:15</t>
+          <t>11-09-2025 08:32:58</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09-09-2025 14:19:15</t>
+          <t>11-09-2025 09:07:58</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>09-09-2025 14:19:15</t>
+          <t>11-09-2025 09:07:58</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10-09-2025 07:10:28</t>
+          <t>11-09-2025 10:03:31</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>6145</v>
+        <v>6667</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5799,11 +5814,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
@@ -5816,19 +5831,19 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-3.419114583333333</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252883</v>
+        <v>252529</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5837,37 +5852,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>247.3083333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:10:28</t>
+          <t>11-09-2025 10:03:31</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:28</t>
+          <t>11-09-2025 10:43:31</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:28</t>
+          <t>11-09-2025 10:43:31</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10-09-2025 11:52:46</t>
+          <t>11-09-2025 11:51:36</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>29677</v>
+        <v>8170</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5876,14 +5891,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5893,58 +5908,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-12.49498263888889</v>
+        <v>-6.494172453703704</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253313</v>
+        <v>253602</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0083333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>11-09-2025 11:51:36</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>11-09-2025 12:26:36</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>11-09-2025 12:26:36</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:57:00</t>
+          <t>11-09-2025 14:23:41</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>12001</v>
+        <v>14050</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5957,7 +5972,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
         <v>76</v>
@@ -5970,58 +5985,58 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-3.372922453703704</v>
+        <v>-1.59978587962963</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>243569</v>
+        <v>244743</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
-        <v>21.675</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:57:00</t>
+          <t>11-09-2025 14:23:41</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:00</t>
+          <t>12-09-2025 07:08:41</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:00</t>
+          <t>12-09-2025 07:08:41</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:41</t>
+          <t>12-09-2025 07:38:02</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2601</v>
+        <v>3521</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6030,14 +6045,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6047,58 +6062,58 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-357.3997800925926</v>
+        <v>-18.3180787037037</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253318</v>
+        <v>253522</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>51.55</v>
+        <v>198.625</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:41</t>
+          <t>12-09-2025 07:38:02</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:54:41</t>
+          <t>12-09-2025 08:13:02</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:54:41</t>
+          <t>12-09-2025 08:13:02</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:46:14</t>
+          <t>12-09-2025 11:31:39</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>6186</v>
+        <v>23835</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6107,14 +6122,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6124,11 +6139,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.4487731481481482</v>
+        <v>-0.4803182870370371</v>
       </c>
       <c r="T73" t="n">
         <v>1</v>
@@ -6136,46 +6151,46 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253317</v>
+        <v>253528</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>102.775</v>
+        <v>119.175</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 10:46:14</t>
+          <t>12-09-2025 11:31:39</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:01:14</t>
+          <t>12-09-2025 11:56:39</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:01:14</t>
+          <t>12-09-2025 11:56:39</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:00</t>
+          <t>12-09-2025 13:55:50</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>12333</v>
+        <v>14301</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6184,14 +6199,14 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6201,11 +6216,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-0.5305613425925926</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
         <v>1</v>
@@ -6213,46 +6228,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253249</v>
+        <v>252274</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E75" t="n">
-        <v>57.75833333333333</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:00</t>
+          <t>12-09-2025 13:55:50</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:59:00</t>
+          <t>12-09-2025 14:40:50</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:59:00</t>
+          <t>12-09-2025 14:40:50</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>08-09-2025 13:56:46</t>
+          <t>15-09-2025 09:34:15</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>6931</v>
+        <v>20810</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6265,7 +6280,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N75" t="n">
         <v>76</v>
@@ -6278,58 +6293,58 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-6.398784722222222</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>252843</v>
+        <v>253244</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E76" t="n">
-        <v>19.2</v>
+        <v>166.5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-09-2025 13:56:46</t>
+          <t>15-09-2025 09:34:15</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08-09-2025 14:23:46</t>
+          <t>15-09-2025 10:14:15</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>08-09-2025 14:23:46</t>
+          <t>15-09-2025 10:14:15</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:58</t>
+          <t>15-09-2025 13:00:45</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2304</v>
+        <v>19980</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6338,14 +6353,14 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6355,11 +6370,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-40.61317129629629</v>
+        <v>-5.5421875</v>
       </c>
       <c r="T76" t="n">
         <v>2</v>
@@ -6367,46 +6382,46 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253140</v>
+        <v>252397</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>55.83333333333334</v>
+        <v>115.925</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:58</t>
+          <t>15-09-2025 13:00:45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:58</t>
+          <t>15-09-2025 13:50:45</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:58</t>
+          <t>15-09-2025 13:50:45</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>09-09-2025 08:05:48</t>
+          <t>16-09-2025 07:46:40</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>6700</v>
+        <v>13911</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6419,7 +6434,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
         <v>76</v>
@@ -6432,58 +6447,58 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-14.33736111111111</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253425</v>
+        <v>253472</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>146.35</v>
+        <v>291.8</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>16-09-2025 07:46:40</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>16-09-2025 08:26:40</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>16-09-2025 08:26:40</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>09-09-2025 10:01:21</t>
+          <t>16-09-2025 13:18:28</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>17562</v>
+        <v>35016</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6492,14 +6507,14 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -6509,58 +6524,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-11.41760416666667</v>
+        <v>-0.5544965277777778</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253194</v>
+        <v>253317</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>199.0833333333333</v>
+        <v>102.775</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>09-09-2025 10:01:21</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:21</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:21</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>09-09-2025 13:55:26</t>
+          <t>08-09-2025 09:01:46</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>23890</v>
+        <v>12333</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6586,11 +6601,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-20.58016203703704</v>
+        <v>-0.3762326388888889</v>
       </c>
       <c r="T79" t="n">
         <v>1</v>
@@ -6598,7 +6613,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253247</v>
+        <v>253271</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6607,37 +6622,37 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E80" t="n">
-        <v>109.575</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>09-09-2025 13:55:26</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09-09-2025 14:30:26</t>
+          <t>09-09-2025 07:45:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>09-09-2025 14:30:26</t>
+          <t>09-09-2025 07:45:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10-09-2025 08:20:00</t>
+          <t>09-09-2025 08:27:38</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>13149</v>
+        <v>5116</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6650,7 +6665,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N80" t="n">
         <v>70</v>
@@ -6663,11 +6678,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-0.3472280092592593</v>
+        <v>-4.352523148148149</v>
       </c>
       <c r="T80" t="n">
         <v>2</v>
@@ -6675,7 +6690,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253372</v>
+        <v>253246</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6684,37 +6699,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>35</v>
       </c>
       <c r="E81" t="n">
-        <v>103.775</v>
+        <v>194.25</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10-09-2025 08:20:00</t>
+          <t>09-09-2025 08:27:38</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:00</t>
+          <t>09-09-2025 09:02:38</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:00</t>
+          <t>09-09-2025 09:02:38</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>10-09-2025 10:38:47</t>
+          <t>09-09-2025 12:16:53</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>12453</v>
+        <v>23310</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6723,11 +6738,11 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
         <v>70</v>
@@ -6740,14 +6755,14 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -6765,29 +6780,29 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E82" t="n">
         <v>184.825</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10-09-2025 10:38:47</t>
+          <t>09-09-2025 12:16:53</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10-09-2025 11:08:47</t>
+          <t>09-09-2025 12:51:53</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10-09-2025 11:08:47</t>
+          <t>09-09-2025 12:51:53</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10-09-2025 14:13:36</t>
+          <t>10-09-2025 07:56:42</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -6821,7 +6836,7 @@
         </is>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-0.5927835648148149</v>
+        <v>-0.3310474537037037</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6829,7 +6844,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253246</v>
+        <v>253721</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6838,37 +6853,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>194.25</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10-09-2025 14:13:36</t>
+          <t>10-09-2025 07:56:42</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10-09-2025 14:48:36</t>
+          <t>10-09-2025 08:26:42</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10-09-2025 14:48:36</t>
+          <t>10-09-2025 08:26:42</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>11-09-2025 10:02:51</t>
+          <t>10-09-2025 09:06:06</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>23310</v>
+        <v>4727</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6881,7 +6896,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
         <v>70</v>
@@ -6894,58 +6909,58 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-1.41865162037037</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>252529</v>
+        <v>253409</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
-        <v>68.08333333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>11-09-2025 10:02:51</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:51</t>
+          <t>05-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:51</t>
+          <t>05-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>11-09-2025 11:45:56</t>
+          <t>05-09-2025 08:07:11</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>8170</v>
+        <v>3262</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6963,6 +6978,9 @@
       <c r="N84" t="n">
         <v>76</v>
       </c>
+      <c r="O84" t="n">
+        <v>40299</v>
+      </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
@@ -6971,19 +6989,19 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-6.490237268518518</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>253016</v>
+        <v>243569</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6992,37 +7010,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>73.38333333333334</v>
+        <v>21.675</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:07:11</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>05-09-2025 08:42:11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>05-09-2025 08:42:11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>05-09-2025 09:03:51</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>8806</v>
+        <v>2601</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7035,29 +7053,24 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>152</v>
-      </c>
-      <c r="O85" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
-        <v>0</v>
+        <v>-354.3776793981481</v>
       </c>
       <c r="T85" t="n">
         <v>2</v>
@@ -7065,7 +7078,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>252702</v>
+        <v>252664</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -7074,37 +7087,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E86" t="n">
-        <v>58.38333333333333</v>
+        <v>365.975</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>05-09-2025 09:03:51</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>05-09-2025 09:38:51</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>05-09-2025 09:38:51</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>08-09-2025 07:44:50</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>7006</v>
+        <v>43917</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7113,17 +7126,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>152</v>
-      </c>
-      <c r="O86" t="n">
-        <v>40295</v>
+        <v>70</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -7131,23 +7146,23 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>40295</v>
+        <v>40279</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-6.322800925925926</v>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253362</v>
+        <v>250284</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7156,37 +7171,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E87" t="n">
-        <v>58.38333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:46</t>
+          <t>08-09-2025 07:44:50</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>08-09-2025 08:39:50</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>08-09-2025 08:39:50</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>08-09-2025 11:06:11</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>7006</v>
+        <v>17562</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7195,41 +7210,36 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N87" t="n">
-        <v>152</v>
-      </c>
-      <c r="O87" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-180.4626273148148</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253259</v>
+        <v>235572</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7238,37 +7248,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E88" t="n">
-        <v>69.23333333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>05-09-2025 11:35:09</t>
+          <t>08-09-2025 11:06:11</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05-09-2025 12:10:09</t>
+          <t>08-09-2025 11:46:11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>05-09-2025 12:10:09</t>
+          <t>08-09-2025 11:46:11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:23</t>
+          <t>08-09-2025 13:09:10</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>8308</v>
+        <v>9958</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7277,41 +7287,36 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N88" t="n">
         <v>70</v>
       </c>
-      <c r="O88" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P88" t="n">
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>0</v>
+        <v>-672.5480324074074</v>
       </c>
       <c r="T88" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253591</v>
+        <v>252833</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7327,30 +7332,30 @@
         <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>17.41666666666667</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:23</t>
+          <t>08-09-2025 13:09:10</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05-09-2025 13:54:23</t>
+          <t>08-09-2025 13:44:10</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>05-09-2025 13:54:23</t>
+          <t>08-09-2025 13:44:10</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>05-09-2025 14:11:48</t>
+          <t>08-09-2025 14:58:57</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2090</v>
+        <v>8974</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7359,33 +7364,28 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>76</v>
-      </c>
-      <c r="O89" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>0</v>
+        <v>-13.62427083333333</v>
       </c>
       <c r="T89" t="n">
         <v>4</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>235572</v>
+        <v>253278</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7402,37 +7402,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>40</v>
       </c>
       <c r="E90" t="n">
-        <v>82.98333333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>05-09-2025 14:11:48</t>
+          <t>08-09-2025 14:58:57</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05-09-2025 14:51:48</t>
+          <t>09-09-2025 07:38:57</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>05-09-2025 14:51:48</t>
+          <t>09-09-2025 07:38:57</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>08-09-2025 08:14:47</t>
+          <t>09-09-2025 08:07:22</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>9958</v>
+        <v>3411</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N90" t="n">
         <v>70</v>
@@ -7458,19 +7458,19 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
-        <v>-672.343599537037</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253374</v>
+        <v>253361</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7479,37 +7479,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E91" t="n">
-        <v>59.60833333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-09-2025 08:14:47</t>
+          <t>09-09-2025 08:07:22</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:47</t>
+          <t>09-09-2025 08:52:22</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:47</t>
+          <t>09-09-2025 08:52:22</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>08-09-2025 09:44:23</t>
+          <t>09-09-2025 10:09:05</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>7153</v>
+        <v>9205</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7518,11 +7518,11 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91" t="n">
         <v>70</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
@@ -7547,78 +7547,232 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>25</v>
+      </c>
+      <c r="E92" t="n">
+        <v>51.88333333333333</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:09:05</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:34:05</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:34:05</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:25:58</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>6226</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253372</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>103.775</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:25:58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:50:58</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:50:58</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:34:44</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>12453</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
         <v>252980</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>03-09-2025 14:00:00</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>17.075</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>08-09-2025 07:17:04</t>
         </is>
       </c>
-      <c r="J92" t="n">
+      <c r="J94" t="n">
         <v>2049</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>08-09-2025 00:00:00</t>
         </is>
       </c>
-      <c r="S92" s="1" t="n">
+      <c r="S94" s="1" t="n">
         <v>-0.3035243055555555</v>
       </c>
-      <c r="T92" t="n">
+      <c r="T94" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253318</v>
+        <v>250284</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>51.55</v>
+        <v>146.35</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -567,21 +567,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 07:38:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 07:38:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:33</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6186</v>
+        <v>17562</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -590,14 +590,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -607,19 +607,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.3392708333333334</v>
+        <v>-180.4196875</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252569</v>
+        <v>253100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +628,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>9.583333333333334</v>
+        <v>47.35</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:33</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:27:33</t>
+          <t>08-09-2025 10:27:21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:27:33</t>
+          <t>08-09-2025 10:27:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:37:08</t>
+          <t>08-09-2025 11:14:42</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1150</v>
+        <v>5682</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -667,14 +667,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -684,19 +684,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-7.359120370370371</v>
+        <v>-0.4685416666666667</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253140</v>
+        <v>253710</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>55.83333333333334</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:37:08</t>
+          <t>08-09-2025 11:14:42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:56:08</t>
+          <t>08-09-2025 11:31:42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:56:08</t>
+          <t>08-09-2025 11:31:42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:58</t>
+          <t>08-09-2025 11:33:19</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>6700</v>
+        <v>194</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,14 +744,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-13.41108796296296</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244023</v>
+        <v>252216</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +782,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>8.308333333333334</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:58</t>
+          <t>08-09-2025 11:33:19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:58</t>
+          <t>08-09-2025 12:02:19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:58</t>
+          <t>08-09-2025 12:02:19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:16</t>
+          <t>08-09-2025 14:24:07</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>997</v>
+        <v>17017</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-343.4418576388889</v>
+        <v>-14.60008680555556</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253194</v>
+        <v>252939</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>199.0833333333333</v>
+        <v>89.8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:16</t>
+          <t>08-09-2025 14:24:07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:12:16</t>
+          <t>08-09-2025 14:53:07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:12:16</t>
+          <t>08-09-2025 14:53:07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:31:21</t>
+          <t>09-09-2025 08:22:55</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>23890</v>
+        <v>10776</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -898,14 +898,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -915,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-19.6051099537037</v>
+        <v>-18.34925347222222</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252216</v>
+        <v>235572</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -940,33 +940,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>141.8083333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:31:21</t>
+          <t>09-09-2025 08:22:55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:15:21</t>
+          <t>09-09-2025 08:41:55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:15:21</t>
+          <t>09-09-2025 08:41:55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:10</t>
+          <t>09-09-2025 10:04:54</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>17017</v>
+        <v>9958</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -992,19 +992,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-15.40081018518518</v>
+        <v>-673.4200752314815</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253100</v>
+        <v>253194</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1013,37 +1013,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>47.35</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:10</t>
+          <t>09-09-2025 10:04:54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:10</t>
+          <t>09-09-2025 10:38:54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:10</t>
+          <t>09-09-2025 10:38:54</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:31</t>
+          <t>09-09-2025 13:57:59</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5682</v>
+        <v>23890</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1069,19 +1069,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.45244212962963</v>
+        <v>-20.58193865740741</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253095</v>
+        <v>253409</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1090,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>76.31666666666666</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:31</t>
+          <t>09-09-2025 13:57:59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:10:31</t>
+          <t>09-09-2025 14:12:59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:10:31</t>
+          <t>09-09-2025 14:12:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:50</t>
+          <t>09-09-2025 14:40:10</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9158</v>
+        <v>3262</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-11.61123263888889</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252906</v>
+        <v>252995</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1167,37 +1167,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>34.725</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:50</t>
+          <t>09-09-2025 14:40:10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:00:50</t>
+          <t>09-09-2025 14:59:10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:00:50</t>
+          <t>09-09-2025 14:59:10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:35:33</t>
+          <t>10-09-2025 08:07:29</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4167</v>
+        <v>8198</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
         <v>76</v>
@@ -1223,19 +1223,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-15.5663599537037</v>
+        <v>-9.33853587962963</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253268</v>
+        <v>252569</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>78.55833333333334</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 13:35:33</t>
+          <t>10-09-2025 08:07:29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:33</t>
+          <t>10-09-2025 08:26:29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:33</t>
+          <t>10-09-2025 08:26:29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 07:30:07</t>
+          <t>10-09-2025 08:36:04</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9427</v>
+        <v>1150</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-9.358385416666666</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253524</v>
+        <v>253602</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1321,37 +1321,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>58.75833333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:30:07</t>
+          <t>10-09-2025 08:36:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:47:07</t>
+          <t>10-09-2025 08:55:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:47:07</t>
+          <t>10-09-2025 08:55:04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:45:52</t>
+          <t>10-09-2025 10:52:09</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7051</v>
+        <v>14050</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1377,19 +1377,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4528877314814815</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253527</v>
+        <v>253247</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,37 +1398,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>67.48333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:45:52</t>
+          <t>10-09-2025 10:52:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 09:00:52</t>
+          <t>10-09-2025 11:24:09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 09:00:52</t>
+          <t>10-09-2025 11:24:09</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 10:08:21</t>
+          <t>10-09-2025 13:13:44</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>8098</v>
+        <v>13149</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1454,19 +1454,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-0.5512037037037038</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253374</v>
+        <v>253368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1475,37 +1475,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>59.60833333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 10:08:21</t>
+          <t>10-09-2025 13:13:44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 10:25:21</t>
+          <t>10-09-2025 13:32:44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 10:25:21</t>
+          <t>10-09-2025 13:32:44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:58</t>
+          <t>11-09-2025 07:16:30</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>7153</v>
+        <v>12453</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
@@ -1543,46 +1543,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253425</v>
+        <v>253376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>146.35</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>11-09-2025 07:16:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>11-09-2025 07:31:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>11-09-2025 07:31:30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:21</t>
+          <t>11-09-2025 10:31:07</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>17562</v>
+        <v>21553</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,14 +1591,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1608,58 +1608,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-10.4134375</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252843</v>
+        <v>253370</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>19.2</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:21</t>
+          <t>11-09-2025 10:31:07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 10:28:21</t>
+          <t>11-09-2025 10:46:07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 10:28:21</t>
+          <t>11-09-2025 10:46:07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:33</t>
+          <t>11-09-2025 14:13:39</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2304</v>
+        <v>24905</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1685,58 +1685,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-40.4496875</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252939</v>
+        <v>253377</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>89.8</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:33</t>
+          <t>11-09-2025 14:13:39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 11:39:33</t>
+          <t>11-09-2025 14:28:39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-09-2025 11:39:33</t>
+          <t>11-09-2025 14:28:39</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:21</t>
+          <t>12-09-2025 08:36:22</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10776</v>
+        <v>15326</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1762,58 +1762,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-17.54815972222222</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252815</v>
+        <v>253295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>242.9416666666667</v>
+        <v>230.075</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:21</t>
+          <t>12-09-2025 08:36:22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:21</t>
+          <t>12-09-2025 08:57:22</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:21</t>
+          <t>12-09-2025 08:57:22</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09-09-2025 10:02:17</t>
+          <t>12-09-2025 12:47:27</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>29153</v>
+        <v>27609</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,75 +1822,80 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-4.418258101851852</v>
+        <v>-0.5329513888888889</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253359</v>
+        <v>253374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>134.0166666666667</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-09-2025 10:02:17</t>
+          <t>12-09-2025 12:47:27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-09-2025 10:52:17</t>
+          <t>12-09-2025 13:04:27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-09-2025 10:52:17</t>
+          <t>12-09-2025 13:04:27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09-09-2025 13:06:18</t>
+          <t>12-09-2025 14:04:03</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>16082</v>
+        <v>7153</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1903,7 +1908,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>70</v>
@@ -1916,7 +1921,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -1928,46 +1933,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252685</v>
+        <v>253436</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>74.56666666666666</v>
+        <v>18.85</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>12-09-2025 14:04:03</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>12-09-2025 14:23:03</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>12-09-2025 14:23:03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:46:34</t>
+          <t>12-09-2025 14:41:54</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>8948</v>
+        <v>2262</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1976,80 +1981,75 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
-      </c>
-      <c r="O20" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-2.612436342592593</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253016</v>
+        <v>253095</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E21" t="n">
-        <v>73.38333333333334</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 08:46:34</t>
+          <t>12-09-2025 14:41:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:34</t>
+          <t>15-09-2025 07:04:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:34</t>
+          <t>15-09-2025 07:04:54</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:33:57</t>
+          <t>15-09-2025 08:21:13</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>8806</v>
+        <v>9158</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2058,80 +2058,75 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>152</v>
-      </c>
-      <c r="O21" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-3.348072916666667</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252702</v>
+        <v>253706</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>58.38333333333333</v>
+        <v>311</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:33:57</t>
+          <t>15-09-2025 08:21:13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:50:57</t>
+          <t>15-09-2025 09:03:13</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:50:57</t>
+          <t>15-09-2025 09:03:13</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:20</t>
+          <t>15-09-2025 14:14:13</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7006</v>
+        <v>37320</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2144,76 +2139,71 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>152</v>
-      </c>
-      <c r="O22" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253362</v>
+        <v>252397</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>58.38333333333333</v>
+        <v>115.925</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:20</t>
+          <t>15-09-2025 14:14:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:04:20</t>
+          <t>15-09-2025 14:37:13</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:04:20</t>
+          <t>15-09-2025 14:37:13</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:02:43</t>
+          <t>16-09-2025 08:33:09</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>7006</v>
+        <v>13911</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2222,29 +2212,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>152</v>
-      </c>
-      <c r="O23" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -2256,46 +2241,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253591</v>
+        <v>253525</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>17.41666666666667</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:02:43</t>
+          <t>16-09-2025 08:33:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:36:43</t>
+          <t>16-09-2025 09:07:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:36:43</t>
+          <t>16-09-2025 09:07:09</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:54:08</t>
+          <t>16-09-2025 10:39:17</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2090</v>
+        <v>11057</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2304,80 +2289,75 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
-      </c>
-      <c r="O24" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252995</v>
+        <v>252529</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>68.31666666666666</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:54:08</t>
+          <t>16-09-2025 10:39:17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05-09-2025 14:13:08</t>
+          <t>16-09-2025 11:11:17</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>05-09-2025 14:13:08</t>
+          <t>16-09-2025 11:11:17</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-09-2025 07:21:27</t>
+          <t>16-09-2025 12:19:22</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>8198</v>
+        <v>8170</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2403,58 +2383,58 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-7.3065625</v>
+        <v>-11.51345486111111</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253259</v>
+        <v>253472</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>69.23333333333333</v>
+        <v>291.8</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 07:21:27</t>
+          <t>16-09-2025 12:19:22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 07:53:27</t>
+          <t>16-09-2025 12:53:22</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 07:53:27</t>
+          <t>16-09-2025 12:53:22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:02:41</t>
+          <t>17-09-2025 09:45:10</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>8308</v>
+        <v>35016</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2463,80 +2443,75 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.3768634259259259</v>
+        <v>-1.406371527777778</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253267</v>
+        <v>252906</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>164.3666666666667</v>
+        <v>34.725</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:02:41</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:21:41</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:21:41</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:06:03</t>
+          <t>08-09-2025 08:01:43</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>19724</v>
+        <v>4167</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2545,14 +2520,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2562,58 +2537,58 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-14.33453125</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253706</v>
+        <v>253140</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>311</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 12:06:03</t>
+          <t>08-09-2025 08:01:43</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:03</t>
+          <t>08-09-2025 08:28:43</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 12:44:03</t>
+          <t>08-09-2025 08:28:43</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:55:03</t>
+          <t>08-09-2025 09:24:33</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>37320</v>
+        <v>6700</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2622,11 +2597,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>76</v>
@@ -2639,14 +2614,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-13.39205439814815</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2655,7 +2630,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2664,29 +2639,29 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
         <v>56.99166666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 09:55:03</t>
+          <t>08-09-2025 09:24:33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:18:03</t>
+          <t>08-09-2025 09:51:33</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:18:03</t>
+          <t>08-09-2025 09:51:33</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:15:02</t>
+          <t>08-09-2025 10:48:33</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2720,7 +2695,7 @@
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-12.46877893518518</v>
+        <v>-11.45038194444444</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2728,7 +2703,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253313</v>
+        <v>250891</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2737,37 +2712,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>100.0083333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:15:02</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:30:02</t>
+          <t>05-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:30:02</t>
+          <t>05-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 13:10:03</t>
+          <t>05-09-2025 08:36:29</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>12001</v>
+        <v>9299</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2776,36 +2751,39 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>70</v>
+      </c>
+      <c r="O30" t="n">
+        <v>40299</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>13-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>4</v>
-      </c>
-      <c r="N30" t="n">
-        <v>76</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>05-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-4.548645833333333</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252827</v>
+        <v>253016</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2814,37 +2792,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
-        <v>410</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:10:03</t>
+          <t>05-09-2025 08:36:29</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:29:03</t>
+          <t>05-09-2025 09:12:29</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:29:03</t>
+          <t>05-09-2025 09:12:29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-09-2025 12:19:03</t>
+          <t>05-09-2025 10:25:52</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>49200</v>
+        <v>8806</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2860,29 +2838,34 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>76</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O31" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-6.513229166666667</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253710</v>
+        <v>253318</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2891,37 +2874,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>32</v>
       </c>
       <c r="E32" t="n">
-        <v>1.616666666666667</v>
+        <v>51.55</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:19:03</t>
+          <t>05-09-2025 10:25:52</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:51:03</t>
+          <t>05-09-2025 10:57:52</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:51:03</t>
+          <t>05-09-2025 10:57:52</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:52:40</t>
+          <t>05-09-2025 11:49:25</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>194</v>
+        <v>6186</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2930,14 +2913,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2947,19 +2930,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.5365740740740741</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253247</v>
+        <v>252843</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2968,37 +2951,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E33" t="n">
-        <v>109.575</v>
+        <v>19.2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:52:40</t>
+          <t>05-09-2025 11:49:25</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:09:40</t>
+          <t>05-09-2025 12:16:25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:09:40</t>
+          <t>05-09-2025 12:16:25</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-09-2025 14:59:14</t>
+          <t>05-09-2025 12:35:37</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>13149</v>
+        <v>2304</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3007,14 +2990,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3024,11 +3007,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.6244733796296297</v>
+        <v>-37.52473958333334</v>
       </c>
       <c r="T33" t="n">
         <v>2</v>
@@ -3036,46 +3019,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253401</v>
+        <v>252815</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>22.81666666666667</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>05-09-2025 12:35:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 12:52:37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 12:52:37</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:19</t>
+          <t>08-09-2025 08:55:34</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2738</v>
+        <v>29153</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3084,14 +3067,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3101,58 +3084,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-3.371921296296296</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253659</v>
+        <v>252664</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>34.5</v>
+        <v>42</v>
       </c>
       <c r="E35" t="n">
-        <v>323.75</v>
+        <v>365.975</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:19</t>
+          <t>08-09-2025 08:55:34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-09-2025 08:31:49</t>
+          <t>08-09-2025 09:37:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-09-2025 08:31:49</t>
+          <t>08-09-2025 09:37:34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-09-2025 13:55:34</t>
+          <t>09-09-2025 07:43:32</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>38850</v>
+        <v>43917</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3161,75 +3144,82 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-7.321903935185185</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253687</v>
+        <v>253359</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>44.23333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:55:34</t>
+          <t>09-09-2025 07:43:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:26:04</t>
+          <t>09-09-2025 08:00:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:26:04</t>
+          <t>09-09-2025 08:00:32</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10-09-2025 07:10:18</t>
+          <t>09-09-2025 10:14:33</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>5308</v>
+        <v>16082</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3242,7 +3232,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3255,7 +3245,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
@@ -3267,46 +3257,46 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253686</v>
+        <v>253278</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30.5</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>44.23333333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10-09-2025 07:10:18</t>
+          <t>09-09-2025 10:14:33</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10-09-2025 07:40:48</t>
+          <t>09-09-2025 10:35:33</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-09-2025 07:40:48</t>
+          <t>09-09-2025 10:35:33</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:02</t>
+          <t>09-09-2025 11:03:59</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>5308</v>
+        <v>3411</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3319,7 +3309,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
@@ -3339,51 +3329,51 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253295</v>
+        <v>244023</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>230.075</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:02</t>
+          <t>09-09-2025 11:03:59</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:32</t>
+          <t>09-09-2025 11:28:59</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:32</t>
+          <t>09-09-2025 11:28:59</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10-09-2025 12:45:36</t>
+          <t>09-09-2025 11:37:17</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>27609</v>
+        <v>997</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3396,76 +3386,71 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-344.4842303240741</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253370</v>
+        <v>253260</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>207.5416666666667</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10-09-2025 12:45:36</t>
+          <t>09-09-2025 11:37:17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:06</t>
+          <t>09-09-2025 11:56:17</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:06</t>
+          <t>09-09-2025 11:56:17</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:39</t>
+          <t>09-09-2025 13:45:42</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>24905</v>
+        <v>13129</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3474,11 +3459,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3491,58 +3476,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-15.57340277777778</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253371</v>
+        <v>253524</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>107.7666666666667</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:39</t>
+          <t>09-09-2025 13:45:42</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-09-2025 09:20:09</t>
+          <t>09-09-2025 14:02:42</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-09-2025 09:20:09</t>
+          <t>09-09-2025 14:02:42</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11-09-2025 11:07:55</t>
+          <t>10-09-2025 07:01:27</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>12932</v>
+        <v>7051</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3551,11 +3536,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
@@ -3568,7 +3553,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
@@ -3580,46 +3565,46 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253376</v>
+        <v>253527</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>179.6083333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11-09-2025 11:07:55</t>
+          <t>10-09-2025 07:01:27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11-09-2025 11:38:25</t>
+          <t>10-09-2025 07:16:27</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11-09-2025 11:38:25</t>
+          <t>10-09-2025 07:16:27</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:01</t>
+          <t>10-09-2025 08:23:56</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>21553</v>
+        <v>8098</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3628,11 +3613,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>70</v>
@@ -3645,7 +3630,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
@@ -3657,46 +3642,46 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253668</v>
+        <v>253721</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>189.8666666666667</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:01</t>
+          <t>10-09-2025 08:23:56</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12-09-2025 07:10:31</t>
+          <t>10-09-2025 08:42:56</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12-09-2025 07:10:31</t>
+          <t>10-09-2025 08:42:56</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12-09-2025 10:20:23</t>
+          <t>10-09-2025 09:22:20</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>22784</v>
+        <v>4727</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3705,11 +3690,11 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
         <v>70</v>
@@ -3722,19 +3707,19 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252741</v>
+        <v>253271</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3743,37 +3728,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="E43" t="n">
-        <v>61.49166666666667</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12-09-2025 10:20:23</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12-09-2025 10:56:53</t>
+          <t>09-09-2025 07:40:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12-09-2025 10:56:53</t>
+          <t>09-09-2025 07:40:30</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12-09-2025 11:58:23</t>
+          <t>09-09-2025 08:23:08</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>7379</v>
+        <v>5116</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3786,7 +3771,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N43" t="n">
         <v>70</v>
@@ -3799,19 +3784,19 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-4.349398148148148</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253368</v>
+        <v>253072</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3820,37 +3805,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>36.5</v>
+        <v>30.5</v>
       </c>
       <c r="E44" t="n">
-        <v>103.775</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12-09-2025 11:58:23</t>
+          <t>09-09-2025 08:23:08</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12-09-2025 12:34:53</t>
+          <t>09-09-2025 08:53:38</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>12-09-2025 12:34:53</t>
+          <t>09-09-2025 08:53:38</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12-09-2025 14:18:39</t>
+          <t>09-09-2025 09:22:46</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>12453</v>
+        <v>3496</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3859,11 +3844,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N44" t="n">
         <v>70</v>
@@ -3876,19 +3861,19 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-22.39081018518518</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253392</v>
+        <v>253332</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3897,37 +3882,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="E45" t="n">
-        <v>129.3833333333333</v>
+        <v>184.825</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>12-09-2025 14:18:39</t>
+          <t>09-09-2025 09:22:46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12-09-2025 14:51:09</t>
+          <t>09-09-2025 10:01:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>12-09-2025 14:51:09</t>
+          <t>09-09-2025 10:01:16</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15-09-2025 09:00:32</t>
+          <t>09-09-2025 13:06:05</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>15526</v>
+        <v>22179</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3936,11 +3921,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
         <v>70</v>
@@ -3953,19 +3938,19 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253549</v>
+        <v>253372</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3974,37 +3959,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="E46" t="n">
-        <v>163.6666666666667</v>
+        <v>103.775</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15-09-2025 09:00:32</t>
+          <t>09-09-2025 13:06:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15-09-2025 09:37:02</t>
+          <t>09-09-2025 13:38:35</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15-09-2025 09:37:02</t>
+          <t>09-09-2025 13:38:35</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15-09-2025 12:20:42</t>
+          <t>10-09-2025 07:22:22</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>19640</v>
+        <v>12453</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4013,11 +3998,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
         <v>70</v>
@@ -4037,12 +4022,12 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253393</v>
+        <v>253361</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4051,37 +4036,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36.5</v>
+        <v>30.5</v>
       </c>
       <c r="E47" t="n">
-        <v>77.63333333333334</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15-09-2025 12:20:42</t>
+          <t>10-09-2025 07:22:22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15-09-2025 12:57:12</t>
+          <t>10-09-2025 07:52:52</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15-09-2025 12:57:12</t>
+          <t>10-09-2025 07:52:52</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15-09-2025 14:14:50</t>
+          <t>10-09-2025 09:09:34</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>9316</v>
+        <v>9205</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4090,11 +4075,11 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
         <v>70</v>
@@ -4107,7 +4092,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
@@ -4119,7 +4104,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253525</v>
+        <v>253245</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4128,37 +4113,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="E48" t="n">
-        <v>92.14166666666667</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15-09-2025 14:14:50</t>
+          <t>10-09-2025 09:09:34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15-09-2025 14:47:20</t>
+          <t>10-09-2025 09:44:04</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15-09-2025 14:47:20</t>
+          <t>10-09-2025 09:44:04</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16-09-2025 08:19:29</t>
+          <t>10-09-2025 12:14:54</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>11057</v>
+        <v>18100</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4167,11 +4152,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
@@ -4184,11 +4169,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-0.5103530092592593</v>
       </c>
       <c r="T48" t="n">
         <v>2</v>
@@ -4196,7 +4181,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253377</v>
+        <v>253261</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4209,33 +4194,33 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="E49" t="n">
-        <v>127.7166666666667</v>
+        <v>18.85</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>16-09-2025 08:19:29</t>
+          <t>10-09-2025 12:14:54</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16-09-2025 08:49:59</t>
+          <t>10-09-2025 12:49:24</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16-09-2025 08:49:59</t>
+          <t>10-09-2025 12:49:24</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16-09-2025 10:57:42</t>
+          <t>10-09-2025 13:08:15</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>15326</v>
+        <v>2262</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4244,11 +4229,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4261,19 +4246,19 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-16.54740162037037</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253367</v>
+        <v>253268</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4282,37 +4267,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="E50" t="n">
-        <v>135.7</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>16-09-2025 10:57:42</t>
+          <t>10-09-2025 13:08:15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16-09-2025 11:28:12</t>
+          <t>10-09-2025 13:42:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16-09-2025 11:28:12</t>
+          <t>10-09-2025 13:42:45</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>16-09-2025 13:43:54</t>
+          <t>11-09-2025 07:01:19</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>16284</v>
+        <v>9427</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4321,11 +4306,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4338,58 +4323,58 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252002</v>
+        <v>244743</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>55</v>
+        <v>32.5</v>
       </c>
       <c r="E51" t="n">
-        <v>55.675</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>11-09-2025 07:01:19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-09-2025 07:33:49</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-09-2025 07:33:49</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>11-09-2025 08:03:09</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>6681</v>
+        <v>3521</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4402,23 +4387,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4426,54 +4404,54 @@
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>-17.33552662037037</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252883</v>
+        <v>253668</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>65</v>
+        <v>32.5</v>
       </c>
       <c r="E52" t="n">
-        <v>247.3083333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>11-09-2025 08:03:09</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04-09-2025 14:55:40</t>
+          <t>11-09-2025 08:35:39</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>04-09-2025 14:55:40</t>
+          <t>11-09-2025 08:35:39</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>05-09-2025 11:02:59</t>
+          <t>11-09-2025 11:45:31</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>29677</v>
+        <v>22784</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4482,11 +4460,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4499,58 +4477,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-7.460405092592593</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253314</v>
+        <v>253375</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>75</v>
+        <v>32.5</v>
       </c>
       <c r="E53" t="n">
-        <v>43.40833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>05-09-2025 11:02:59</t>
+          <t>11-09-2025 11:45:31</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:59</t>
+          <t>11-09-2025 12:18:01</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:59</t>
+          <t>11-09-2025 12:18:01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>05-09-2025 13:01:23</t>
+          <t>11-09-2025 13:09:54</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5209</v>
+        <v>6226</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4559,80 +4537,75 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>76</v>
-      </c>
-      <c r="O53" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253249</v>
+        <v>253371</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="E54" t="n">
-        <v>57.75833333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>05-09-2025 13:01:23</t>
+          <t>11-09-2025 13:09:54</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05-09-2025 13:31:23</t>
+          <t>11-09-2025 13:40:24</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>05-09-2025 13:31:23</t>
+          <t>11-09-2025 13:40:24</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>05-09-2025 14:29:09</t>
+          <t>12-09-2025 07:28:10</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>6931</v>
+        <v>12932</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4641,14 +4614,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4658,7 +4631,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
@@ -4670,46 +4643,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252682</v>
+        <v>253367</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="E55" t="n">
-        <v>83.40833333333333</v>
+        <v>135.7</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>05-09-2025 14:29:09</t>
+          <t>12-09-2025 07:28:10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05-09-2025 14:59:09</t>
+          <t>12-09-2025 07:58:40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>05-09-2025 14:59:09</t>
+          <t>12-09-2025 07:58:40</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:33</t>
+          <t>12-09-2025 10:14:22</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>10009</v>
+        <v>16284</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4718,80 +4691,75 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>76</v>
-      </c>
-      <c r="O55" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.3489988425925926</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252679</v>
+        <v>253392</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E56" t="n">
-        <v>60</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:33</t>
+          <t>12-09-2025 10:14:22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-09-2025 08:52:33</t>
+          <t>12-09-2025 10:46:52</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-09-2025 08:52:33</t>
+          <t>12-09-2025 10:46:52</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>08-09-2025 09:52:33</t>
+          <t>12-09-2025 12:56:15</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>7200</v>
+        <v>15526</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4800,41 +4768,36 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>76</v>
-      </c>
-      <c r="O56" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.4114988425925926</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252582</v>
+        <v>253313</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4847,33 +4810,33 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>46.08333333333334</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-09-2025 09:52:33</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:33</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:33</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>08-09-2025 11:13:38</t>
+          <t>04-09-2025 14:35:00</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>5530</v>
+        <v>12001</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4886,29 +4849,24 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
         <v>76</v>
       </c>
-      <c r="O57" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P57" t="n">
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.4678067129629629</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4916,7 +4874,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>250891</v>
+        <v>253317</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4925,37 +4883,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>77.49166666666666</v>
+        <v>102.775</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-09-2025 11:13:38</t>
+          <t>04-09-2025 14:35:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-09-2025 11:58:38</t>
+          <t>05-09-2025 07:05:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-09-2025 11:58:38</t>
+          <t>05-09-2025 07:05:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>08-09-2025 13:16:08</t>
+          <t>05-09-2025 08:47:47</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>9299</v>
+        <v>12333</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4964,17 +4922,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>40299</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4984,19 +4939,19 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.5528703703703703</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253036</v>
+        <v>252682</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5009,33 +4964,33 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>78.73333333333333</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-09-2025 13:16:08</t>
+          <t>05-09-2025 08:47:47</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-09-2025 14:01:08</t>
+          <t>05-09-2025 09:17:47</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-09-2025 14:01:08</t>
+          <t>05-09-2025 09:17:47</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:19:52</t>
+          <t>05-09-2025 10:41:11</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>9448</v>
+        <v>10009</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5044,36 +4999,41 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N59" t="n">
         <v>76</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="O59" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-18.30546296296296</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252601</v>
+        <v>252582</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5082,37 +5042,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>51.20833333333334</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-09-2025 07:19:52</t>
+          <t>05-09-2025 10:41:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:52</t>
+          <t>05-09-2025 11:11:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:52</t>
+          <t>05-09-2025 11:11:11</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>09-09-2025 09:41:04</t>
+          <t>05-09-2025 11:57:16</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>6145</v>
+        <v>5530</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5121,36 +5081,41 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>70</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253208</v>
+        <v>253314</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5159,37 +5124,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>104.2583333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-09-2025 09:41:04</t>
+          <t>05-09-2025 11:57:16</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:04</t>
+          <t>05-09-2025 12:27:16</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:04</t>
+          <t>05-09-2025 12:27:16</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09-09-2025 11:55:20</t>
+          <t>05-09-2025 13:10:41</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>12511</v>
+        <v>5209</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5198,36 +5163,41 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N61" t="n">
-        <v>70</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O61" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-4.496759259259259</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253210</v>
+        <v>253036</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5240,33 +5210,33 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>94.15833333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-09-2025 11:55:20</t>
+          <t>05-09-2025 13:10:41</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-09-2025 12:20:20</t>
+          <t>05-09-2025 13:40:41</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>09-09-2025 12:20:20</t>
+          <t>05-09-2025 13:40:41</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>09-09-2025 13:54:29</t>
+          <t>05-09-2025 14:59:25</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>11299</v>
+        <v>9448</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5275,14 +5245,17 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O62" t="n">
+        <v>40299</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5292,19 +5265,19 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253260</v>
+        <v>252002</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5313,37 +5286,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E63" t="n">
-        <v>109.4083333333333</v>
+        <v>55.675</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-09-2025 13:54:29</t>
+          <t>05-09-2025 14:59:25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-09-2025 07:04:29</t>
+          <t>08-09-2025 07:39:25</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-09-2025 07:04:29</t>
+          <t>08-09-2025 07:39:25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10-09-2025 08:53:54</t>
+          <t>08-09-2025 08:35:05</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>13129</v>
+        <v>6681</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5361,11 +5334,18 @@
       <c r="N63" t="n">
         <v>70</v>
       </c>
-      <c r="P63" t="n">
-        <v>0</v>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -5373,15 +5353,15 @@
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-16.37076388888889</v>
+        <v>-14.3577025462963</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253072</v>
+        <v>253223</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5394,33 +5374,33 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E64" t="n">
-        <v>29.13333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-09-2025 08:53:54</t>
+          <t>08-09-2025 08:35:05</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-09-2025 09:28:54</t>
+          <t>08-09-2025 09:45:05</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-09-2025 09:28:54</t>
+          <t>08-09-2025 09:45:05</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10-09-2025 09:58:02</t>
+          <t>08-09-2025 10:01:29</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>3496</v>
+        <v>1968</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5429,11 +5409,11 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
@@ -5446,19 +5426,19 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-23.41530092592593</v>
+        <v>-7.417702546296296</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253245</v>
+        <v>252833</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5467,37 +5447,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E65" t="n">
-        <v>150.8333333333333</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-09-2025 09:58:02</t>
+          <t>08-09-2025 10:01:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:02</t>
+          <t>08-09-2025 11:16:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:02</t>
+          <t>08-09-2025 11:16:29</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10-09-2025 13:03:52</t>
+          <t>08-09-2025 12:31:16</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>18100</v>
+        <v>8974</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5510,7 +5490,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
@@ -5523,19 +5503,19 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.5443518518518519</v>
+        <v>-13.52171875</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253223</v>
+        <v>252601</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5544,37 +5524,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E66" t="n">
-        <v>16.4</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10-09-2025 13:03:52</t>
+          <t>08-09-2025 12:31:16</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10-09-2025 14:13:52</t>
+          <t>08-09-2025 13:51:16</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10-09-2025 14:13:52</t>
+          <t>08-09-2025 13:51:16</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10-09-2025 14:30:16</t>
+          <t>08-09-2025 14:42:29</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1968</v>
+        <v>6145</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5587,7 +5567,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -5600,11 +5580,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-9.604351851851852</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5612,7 +5592,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253436</v>
+        <v>253208</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5621,37 +5601,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>18.85</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-09-2025 14:30:16</t>
+          <t>08-09-2025 14:42:29</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11-09-2025 07:30:16</t>
+          <t>09-09-2025 07:12:29</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>11-09-2025 07:30:16</t>
+          <t>09-09-2025 07:12:29</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>11-09-2025 07:49:07</t>
+          <t>09-09-2025 08:56:44</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2262</v>
+        <v>12511</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5660,11 +5640,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -5677,19 +5657,19 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-1.325775462962963</v>
+        <v>-4.372737268518518</v>
       </c>
       <c r="T67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253261</v>
+        <v>253210</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5698,37 +5678,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>18.85</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11-09-2025 07:49:07</t>
+          <t>09-09-2025 08:56:44</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11-09-2025 08:14:07</t>
+          <t>09-09-2025 09:21:44</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11-09-2025 08:14:07</t>
+          <t>09-09-2025 09:21:44</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11-09-2025 08:32:58</t>
+          <t>09-09-2025 10:55:54</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2262</v>
+        <v>11299</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5737,11 +5717,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5754,19 +5734,19 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-17.35622685185185</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253455</v>
+        <v>252679</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5775,37 +5755,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E69" t="n">
-        <v>55.55833333333333</v>
+        <v>60</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11-09-2025 08:32:58</t>
+          <t>09-09-2025 10:55:54</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11-09-2025 09:07:58</t>
+          <t>09-09-2025 12:10:54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11-09-2025 09:07:58</t>
+          <t>09-09-2025 12:10:54</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11-09-2025 10:03:31</t>
+          <t>09-09-2025 13:10:54</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>6667</v>
+        <v>7200</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5814,28 +5794,33 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>70</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O69" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-3.419114583333333</v>
+        <v>-1.549236111111111</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -5843,7 +5828,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252529</v>
+        <v>253659</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5852,37 +5837,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E70" t="n">
-        <v>68.08333333333333</v>
+        <v>323.75</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11-09-2025 10:03:31</t>
+          <t>09-09-2025 13:10:54</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11-09-2025 10:43:31</t>
+          <t>09-09-2025 14:05:54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11-09-2025 10:43:31</t>
+          <t>09-09-2025 14:05:54</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>11-09-2025 11:51:36</t>
+          <t>10-09-2025 11:29:39</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>8170</v>
+        <v>38850</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5891,14 +5876,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5908,19 +5893,19 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-6.494172453703704</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253602</v>
+        <v>253686</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5929,37 +5914,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>117.0833333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>11-09-2025 11:51:36</t>
+          <t>10-09-2025 11:29:39</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11-09-2025 12:26:36</t>
+          <t>10-09-2025 11:54:39</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11-09-2025 12:26:36</t>
+          <t>10-09-2025 11:54:39</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11-09-2025 14:23:41</t>
+          <t>10-09-2025 12:38:53</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>14050</v>
+        <v>5308</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5968,14 +5953,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -5985,19 +5970,19 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.59978587962963</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244743</v>
+        <v>253687</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6006,37 +5991,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>29.34166666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11-09-2025 14:23:41</t>
+          <t>10-09-2025 12:38:53</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12-09-2025 07:08:41</t>
+          <t>10-09-2025 13:03:53</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12-09-2025 07:08:41</t>
+          <t>10-09-2025 13:03:53</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12-09-2025 07:38:02</t>
+          <t>10-09-2025 13:48:07</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>3521</v>
+        <v>5308</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6049,7 +6034,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" t="n">
         <v>70</v>
@@ -6062,19 +6047,19 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-18.3180787037037</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253522</v>
+        <v>253401</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6083,37 +6068,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>198.625</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>12-09-2025 07:38:02</t>
+          <t>10-09-2025 13:48:07</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12-09-2025 08:13:02</t>
+          <t>10-09-2025 14:23:07</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12-09-2025 08:13:02</t>
+          <t>10-09-2025 14:23:07</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12-09-2025 11:31:39</t>
+          <t>10-09-2025 14:45:56</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>23835</v>
+        <v>2738</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6143,15 +6128,15 @@
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.4803182870370371</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253528</v>
+        <v>252883</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6160,37 +6145,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E74" t="n">
-        <v>119.175</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12-09-2025 11:31:39</t>
+          <t>10-09-2025 14:45:56</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12-09-2025 11:56:39</t>
+          <t>11-09-2025 07:55:56</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12-09-2025 11:56:39</t>
+          <t>11-09-2025 07:55:56</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12-09-2025 13:55:50</t>
+          <t>11-09-2025 12:03:14</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>14301</v>
+        <v>29677</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6199,11 +6184,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
@@ -6216,11 +6201,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-13.50225115740741</v>
       </c>
       <c r="T74" t="n">
         <v>1</v>
@@ -6228,7 +6213,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252274</v>
+        <v>253455</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6237,37 +6222,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E75" t="n">
-        <v>173.4166666666667</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12-09-2025 13:55:50</t>
+          <t>11-09-2025 12:03:14</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12-09-2025 14:40:50</t>
+          <t>11-09-2025 13:08:14</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>12-09-2025 14:40:50</t>
+          <t>11-09-2025 13:08:14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>15-09-2025 09:34:15</t>
+          <t>11-09-2025 14:03:48</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>20810</v>
+        <v>6667</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6276,14 +6261,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -6293,19 +6278,19 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-6.398784722222222</v>
+        <v>-3.585972222222222</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253244</v>
+        <v>253522</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6314,37 +6299,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>166.5</v>
+        <v>198.625</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>15-09-2025 09:34:15</t>
+          <t>11-09-2025 14:03:48</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15-09-2025 10:14:15</t>
+          <t>11-09-2025 14:33:48</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>15-09-2025 10:14:15</t>
+          <t>11-09-2025 14:33:48</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>15-09-2025 13:00:45</t>
+          <t>12-09-2025 09:52:25</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>19980</v>
+        <v>23835</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6357,7 +6342,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
         <v>70</v>
@@ -6370,19 +6355,19 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-5.5421875</v>
+        <v>-0.41140625</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>252397</v>
+        <v>253528</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6395,33 +6380,33 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E77" t="n">
-        <v>115.925</v>
+        <v>119.175</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15-09-2025 13:00:45</t>
+          <t>12-09-2025 09:52:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15-09-2025 13:50:45</t>
+          <t>12-09-2025 10:17:25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>15-09-2025 13:50:45</t>
+          <t>12-09-2025 10:17:25</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16-09-2025 07:46:40</t>
+          <t>12-09-2025 12:16:36</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>13911</v>
+        <v>14301</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6430,14 +6415,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6454,12 +6439,12 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253472</v>
+        <v>252274</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6468,37 +6453,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E78" t="n">
-        <v>291.8</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>16-09-2025 07:46:40</t>
+          <t>12-09-2025 12:16:36</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16-09-2025 08:26:40</t>
+          <t>12-09-2025 13:01:36</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16-09-2025 08:26:40</t>
+          <t>12-09-2025 13:01:36</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>16-09-2025 13:18:28</t>
+          <t>15-09-2025 07:55:01</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>35016</v>
+        <v>20810</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6507,14 +6492,14 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -6524,58 +6509,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-0.5544965277777778</v>
+        <v>-6.329872685185185</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253317</v>
+        <v>253549</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E79" t="n">
-        <v>102.775</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>15-09-2025 07:55:01</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>15-09-2025 08:35:01</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>15-09-2025 08:35:01</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>15-09-2025 11:18:41</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>12333</v>
+        <v>19640</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6584,14 +6569,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N79" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6601,58 +6586,58 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-0.3762326388888889</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253271</v>
+        <v>252741</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>42.63333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>15-09-2025 11:18:41</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:45:00</t>
+          <t>15-09-2025 11:48:41</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:45:00</t>
+          <t>15-09-2025 11:48:41</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>09-09-2025 08:27:38</t>
+          <t>15-09-2025 12:50:10</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>5116</v>
+        <v>7379</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6665,7 +6650,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N80" t="n">
         <v>70</v>
@@ -6678,58 +6663,58 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-4.352523148148149</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253246</v>
+        <v>253244</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
-        <v>194.25</v>
+        <v>166.5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>09-09-2025 08:27:38</t>
+          <t>15-09-2025 12:50:10</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:38</t>
+          <t>15-09-2025 13:20:10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:38</t>
+          <t>15-09-2025 13:20:10</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>09-09-2025 12:16:53</t>
+          <t>16-09-2025 08:06:40</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>23310</v>
+        <v>19980</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6759,7 +6744,7 @@
         </is>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-6.33796875</v>
       </c>
       <c r="T81" t="n">
         <v>2</v>
@@ -6767,46 +6752,46 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253332</v>
+        <v>253393</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>184.825</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:16:53</t>
+          <t>16-09-2025 08:06:40</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:51:53</t>
+          <t>16-09-2025 08:36:40</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:51:53</t>
+          <t>16-09-2025 08:36:40</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:42</t>
+          <t>16-09-2025 09:54:18</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>22179</v>
+        <v>9316</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6815,11 +6800,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N82" t="n">
         <v>70</v>
@@ -6832,58 +6817,58 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-0.3310474537037037</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253721</v>
+        <v>253425</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E83" t="n">
-        <v>39.39166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:42</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:42</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:42</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10-09-2025 09:06:06</t>
+          <t>08-09-2025 09:45:21</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>4727</v>
+        <v>17562</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6892,14 +6877,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6909,58 +6894,58 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-10.40649305555556</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253409</v>
+        <v>243569</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>27.18333333333333</v>
+        <v>21.675</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-09-2025 09:45:21</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05-09-2025 07:40:00</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>05-09-2025 07:40:00</t>
+          <t>08-09-2025 10:04:21</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>05-09-2025 08:07:11</t>
+          <t>08-09-2025 10:26:01</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3262</v>
+        <v>2601</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6969,7 +6954,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -6978,9 +6963,6 @@
       <c r="N84" t="n">
         <v>76</v>
       </c>
-      <c r="O84" t="n">
-        <v>40299</v>
-      </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
@@ -6989,58 +6971,58 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-357.4347395833333</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>243569</v>
+        <v>252827</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>21.675</v>
+        <v>410</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>05-09-2025 08:07:11</t>
+          <t>08-09-2025 10:26:01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05-09-2025 08:42:11</t>
+          <t>08-09-2025 10:43:01</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>05-09-2025 08:42:11</t>
+          <t>08-09-2025 10:43:01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>05-09-2025 09:03:51</t>
+          <t>09-09-2025 09:33:01</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>2601</v>
+        <v>49200</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7053,7 +7035,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N85" t="n">
         <v>76</v>
@@ -7066,58 +7048,58 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-354.3776793981481</v>
+        <v>-5.397934027777778</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>252664</v>
+        <v>253249</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E86" t="n">
-        <v>365.975</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:03:51</t>
+          <t>09-09-2025 09:33:01</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:38:51</t>
+          <t>09-09-2025 09:50:01</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:38:51</t>
+          <t>09-09-2025 09:50:01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:50</t>
+          <t>09-09-2025 10:47:47</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>43917</v>
+        <v>6931</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7126,82 +7108,75 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>70</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-6.322800925925926</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>250284</v>
+        <v>253246</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E87" t="n">
-        <v>146.35</v>
+        <v>194.25</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:50</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08-09-2025 08:39:50</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>08-09-2025 08:39:50</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:11</t>
+          <t>09-09-2025 10:49:15</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>17562</v>
+        <v>23310</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7214,7 +7189,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N87" t="n">
         <v>70</v>
@@ -7227,19 +7202,19 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-180.4626273148148</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>235572</v>
+        <v>253259</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7248,37 +7223,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>82.98333333333333</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:11</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:46:11</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:46:11</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:10</t>
+          <t>05-09-2025 08:44:14</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>9958</v>
+        <v>8308</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7287,36 +7262,41 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
         <v>70</v>
       </c>
-      <c r="P88" t="n">
-        <v>0</v>
+      <c r="O88" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-672.5480324074074</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>252833</v>
+        <v>253591</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7332,30 +7312,30 @@
         <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>74.78333333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:10</t>
+          <t>05-09-2025 08:44:14</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08-09-2025 13:44:10</t>
+          <t>05-09-2025 09:19:14</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>08-09-2025 13:44:10</t>
+          <t>05-09-2025 09:19:14</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>08-09-2025 14:58:57</t>
+          <t>05-09-2025 09:36:39</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>8974</v>
+        <v>2090</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7364,28 +7344,33 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>70</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-13.62427083333333</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
         <v>4</v>
@@ -7393,7 +7378,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253278</v>
+        <v>252685</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7402,37 +7387,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E90" t="n">
-        <v>28.425</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:58:57</t>
+          <t>05-09-2025 09:36:39</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:57</t>
+          <t>05-09-2025 10:06:39</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:57</t>
+          <t>05-09-2025 10:06:39</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>09-09-2025 08:07:22</t>
+          <t>05-09-2025 11:21:13</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3411</v>
+        <v>8948</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7441,36 +7426,41 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N90" t="n">
-        <v>70</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253361</v>
+        <v>252702</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7479,37 +7469,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E91" t="n">
-        <v>76.70833333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:07:22</t>
+          <t>05-09-2025 11:21:13</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:22</t>
+          <t>05-09-2025 11:56:13</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:22</t>
+          <t>05-09-2025 11:56:13</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>09-09-2025 10:09:05</t>
+          <t>05-09-2025 12:54:36</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>9205</v>
+        <v>7006</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7518,36 +7508,41 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="n">
+        <v>152</v>
+      </c>
+      <c r="O91" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
         <v>2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>70</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253375</v>
+        <v>253362</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7563,30 +7558,30 @@
         <v>25</v>
       </c>
       <c r="E92" t="n">
-        <v>51.88333333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>09-09-2025 10:09:05</t>
+          <t>05-09-2025 12:54:36</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09-09-2025 10:34:05</t>
+          <t>05-09-2025 13:19:36</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>09-09-2025 10:34:05</t>
+          <t>05-09-2025 13:19:36</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>09-09-2025 11:25:58</t>
+          <t>05-09-2025 14:17:59</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>6226</v>
+        <v>7006</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7595,36 +7590,41 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>152</v>
+      </c>
+      <c r="O92" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
         <v>2</v>
-      </c>
-      <c r="N92" t="n">
-        <v>70</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253372</v>
+        <v>253267</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7633,37 +7633,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E93" t="n">
-        <v>103.775</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>09-09-2025 11:25:58</t>
+          <t>05-09-2025 14:17:59</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:58</t>
+          <t>05-09-2025 14:52:59</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:58</t>
+          <t>05-09-2025 14:52:59</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>09-09-2025 13:34:44</t>
+          <t>08-09-2025 09:37:21</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>12453</v>
+        <v>19724</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -7672,11 +7672,11 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
         <v>70</v>
@@ -7689,14 +7689,14 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250284</v>
+        <v>252995</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>146.35</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -567,21 +567,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>08-09-2025 08:25:19</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>17562</v>
+        <v>8198</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -590,14 +590,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -607,11 +607,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-180.4196875</v>
+        <v>-7.350914351851852</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253100</v>
+        <v>252569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +628,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>47.35</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>08-09-2025 08:25:19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:21</t>
+          <t>08-09-2025 08:44:19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:21</t>
+          <t>08-09-2025 08:44:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 11:14:42</t>
+          <t>08-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5682</v>
+        <v>1150</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -667,14 +667,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -684,19 +684,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4685416666666667</v>
+        <v>-7.370763888888889</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253710</v>
+        <v>253687</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>1.616666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:14:42</t>
+          <t>08-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:31:42</t>
+          <t>08-09-2025 09:27:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:31:42</t>
+          <t>08-09-2025 09:27:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:33:19</t>
+          <t>08-09-2025 10:12:08</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>194</v>
+        <v>5308</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
@@ -761,19 +761,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252216</v>
+        <v>244023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +782,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>141.8083333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:33:19</t>
+          <t>08-09-2025 10:12:08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:02:19</t>
+          <t>08-09-2025 10:29:08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:02:19</t>
+          <t>08-09-2025 10:29:08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:07</t>
+          <t>08-09-2025 10:37:26</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>17017</v>
+        <v>997</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-14.60008680555556</v>
+        <v>-343.4426678240741</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252939</v>
+        <v>253260</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>89.8</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:07</t>
+          <t>08-09-2025 10:37:26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:53:07</t>
+          <t>08-09-2025 10:56:26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:53:07</t>
+          <t>08-09-2025 10:56:26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 08:22:55</t>
+          <t>08-09-2025 12:45:51</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10776</v>
+        <v>13129</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
@@ -915,11 +915,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-18.34925347222222</v>
+        <v>-14.53184027777778</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>235572</v>
+        <v>252833</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>82.98333333333333</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:22:55</t>
+          <t>08-09-2025 12:45:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:55</t>
+          <t>08-09-2025 13:02:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:55</t>
+          <t>08-09-2025 13:02:51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:54</t>
+          <t>08-09-2025 14:17:38</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>9958</v>
+        <v>8974</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -992,11 +992,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-673.4200752314815</v>
+        <v>-13.5955787037037</v>
       </c>
       <c r="T7" t="n">
         <v>4</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253194</v>
+        <v>253268</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1013,37 +1013,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>199.0833333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:54</t>
+          <t>08-09-2025 14:17:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:54</t>
+          <t>08-09-2025 14:34:38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:54</t>
+          <t>08-09-2025 14:34:38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 13:57:59</t>
+          <t>09-09-2025 07:53:11</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>23890</v>
+        <v>9427</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1069,19 +1069,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-20.58193865740741</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253409</v>
+        <v>253710</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1090,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>27.18333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 13:57:59</t>
+          <t>09-09-2025 07:53:11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 14:12:59</t>
+          <t>09-09-2025 08:10:11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 14:12:59</t>
+          <t>09-09-2025 08:10:11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 14:40:10</t>
+          <t>09-09-2025 08:11:48</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3262</v>
+        <v>194</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-11.61123263888889</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252995</v>
+        <v>253721</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1167,37 +1167,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>68.31666666666666</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:40:10</t>
+          <t>09-09-2025 08:11:48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:59:10</t>
+          <t>09-09-2025 08:30:48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:59:10</t>
+          <t>09-09-2025 08:30:48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:29</t>
+          <t>09-09-2025 09:10:12</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8198</v>
+        <v>4727</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1223,58 +1223,58 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-9.33853587962963</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252569</v>
+        <v>253284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>9.583333333333334</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:29</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:29</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:29</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:36:04</t>
+          <t>08-09-2025 08:23:59</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1150</v>
+        <v>6839</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>76</v>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-9.358385416666666</v>
+        <v>-11.34999421296296</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1312,46 +1312,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253602</v>
+        <v>253313</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>117.0833333333333</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:36:04</t>
+          <t>08-09-2025 08:23:59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:04</t>
+          <t>08-09-2025 08:48:59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:04</t>
+          <t>08-09-2025 08:48:59</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 10:52:09</t>
+          <t>08-09-2025 10:29:00</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>14050</v>
+        <v>12001</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>76</v>
@@ -1377,58 +1377,58 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.4528877314814815</v>
+        <v>-3.436805555555555</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253247</v>
+        <v>253140</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>109.575</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 10:52:09</t>
+          <t>08-09-2025 10:29:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:09</t>
+          <t>08-09-2025 10:56:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:09</t>
+          <t>08-09-2025 10:56:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:13:44</t>
+          <t>08-09-2025 11:51:50</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>13149</v>
+        <v>6700</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1454,58 +1454,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.5512037037037038</v>
+        <v>-13.4943287037037</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253368</v>
+        <v>253374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>103.775</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 13:13:44</t>
+          <t>08-09-2025 11:51:50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 13:32:44</t>
+          <t>08-09-2025 12:33:50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 13:32:44</t>
+          <t>08-09-2025 12:33:50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-09-2025 07:16:30</t>
+          <t>08-09-2025 13:33:26</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12453</v>
+        <v>7153</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
@@ -1543,46 +1543,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253376</v>
+        <v>253527</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>179.6083333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-09-2025 07:16:30</t>
+          <t>08-09-2025 13:33:26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-09-2025 07:31:30</t>
+          <t>08-09-2025 14:00:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-09-2025 07:31:30</t>
+          <t>08-09-2025 14:00:26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11-09-2025 10:31:07</t>
+          <t>09-09-2025 07:07:55</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>21553</v>
+        <v>8098</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>70</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -1620,46 +1620,46 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253370</v>
+        <v>253095</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>207.5416666666667</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11-09-2025 10:31:07</t>
+          <t>09-09-2025 07:07:55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11-09-2025 10:46:07</t>
+          <t>09-09-2025 07:34:55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11-09-2025 10:46:07</t>
+          <t>09-09-2025 07:34:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-09-2025 14:13:39</t>
+          <t>09-09-2025 08:51:14</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>24905</v>
+        <v>9158</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1685,58 +1685,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253377</v>
+        <v>253247</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>127.7166666666667</v>
+        <v>109.575</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11-09-2025 14:13:39</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11-09-2025 14:28:39</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-09-2025 14:28:39</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12-09-2025 08:36:22</t>
+          <t>05-09-2025 09:06:34</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15326</v>
+        <v>13149</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1762,58 +1762,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253295</v>
+        <v>250284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>230.075</v>
+        <v>146.35</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12-09-2025 08:36:22</t>
+          <t>05-09-2025 09:06:34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12-09-2025 08:57:22</t>
+          <t>05-09-2025 09:29:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12-09-2025 08:57:22</t>
+          <t>05-09-2025 09:29:34</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12-09-2025 12:47:27</t>
+          <t>05-09-2025 11:55:55</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>27609</v>
+        <v>17562</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1826,76 +1826,74 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
       </c>
       <c r="O18" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40299</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.5329513888888889</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253374</v>
+        <v>235572</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>59.60833333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12-09-2025 12:47:27</t>
+          <t>05-09-2025 11:55:55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12-09-2025 13:04:27</t>
+          <t>05-09-2025 12:16:55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12-09-2025 13:04:27</t>
+          <t>05-09-2025 12:16:55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12-09-2025 14:04:03</t>
+          <t>05-09-2025 13:39:54</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7153</v>
+        <v>9958</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1908,7 +1906,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>70</v>
@@ -1921,58 +1919,58 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-669.5693807870371</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253436</v>
+        <v>253706</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>18.85</v>
+        <v>311</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12-09-2025 14:04:03</t>
+          <t>05-09-2025 13:39:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12-09-2025 14:23:03</t>
+          <t>05-09-2025 14:15:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12-09-2025 14:23:03</t>
+          <t>05-09-2025 14:15:54</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12-09-2025 14:41:54</t>
+          <t>08-09-2025 11:26:54</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2262</v>
+        <v>37320</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1981,14 +1979,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1998,11 +1996,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.612436342592593</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2010,46 +2008,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253095</v>
+        <v>252843</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>76.31666666666666</v>
+        <v>19.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12-09-2025 14:41:54</t>
+          <t>08-09-2025 11:26:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15-09-2025 07:04:54</t>
+          <t>08-09-2025 11:43:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15-09-2025 07:04:54</t>
+          <t>08-09-2025 11:43:54</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15-09-2025 08:21:13</t>
+          <t>08-09-2025 12:03:06</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>9158</v>
+        <v>2304</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2058,75 +2056,75 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>76</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>30-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-40.50215856481481</v>
+      </c>
+      <c r="T21" t="n">
         <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>12-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-3.348072916666667</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253706</v>
+        <v>253425</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>311</v>
+        <v>146.35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15-09-2025 08:21:13</t>
+          <t>08-09-2025 12:03:06</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15-09-2025 09:03:13</t>
+          <t>08-09-2025 12:26:06</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15-09-2025 09:03:13</t>
+          <t>08-09-2025 12:26:06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15-09-2025 14:14:13</t>
+          <t>08-09-2025 14:52:27</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>37320</v>
+        <v>17562</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2135,11 +2133,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>76</v>
@@ -2152,58 +2150,58 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-10.61976273148148</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252397</v>
+        <v>253246</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>115.925</v>
+        <v>194.25</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15-09-2025 14:14:13</t>
+          <t>08-09-2025 14:52:27</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15-09-2025 14:37:13</t>
+          <t>09-09-2025 07:24:27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15-09-2025 14:37:13</t>
+          <t>09-09-2025 07:24:27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16-09-2025 08:33:09</t>
+          <t>09-09-2025 10:38:42</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>13911</v>
+        <v>23310</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2212,14 +2210,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2229,7 +2227,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -2241,46 +2239,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253525</v>
+        <v>252664</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>92.14166666666667</v>
+        <v>365.975</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16-09-2025 08:33:09</t>
+          <t>09-09-2025 10:38:42</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16-09-2025 09:07:09</t>
+          <t>09-09-2025 10:57:42</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16-09-2025 09:07:09</t>
+          <t>09-09-2025 10:57:42</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16-09-2025 10:39:17</t>
+          <t>10-09-2025 09:03:41</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>11057</v>
+        <v>43917</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2298,66 +2296,73 @@
       <c r="N24" t="n">
         <v>70</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-8.377557870370371</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252529</v>
+        <v>253401</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>68.08333333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>16-09-2025 10:39:17</t>
+          <t>10-09-2025 09:03:41</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16-09-2025 11:11:17</t>
+          <t>10-09-2025 09:20:41</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16-09-2025 11:11:17</t>
+          <t>10-09-2025 09:20:41</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16-09-2025 12:19:22</t>
+          <t>10-09-2025 09:43:30</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>8170</v>
+        <v>2738</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2366,14 +2371,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2383,58 +2388,58 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-11.51345486111111</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253472</v>
+        <v>253332</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>291.8</v>
+        <v>184.825</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16-09-2025 12:19:22</t>
+          <t>10-09-2025 09:43:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16-09-2025 12:53:22</t>
+          <t>10-09-2025 10:00:30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16-09-2025 12:53:22</t>
+          <t>10-09-2025 10:00:30</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>17-09-2025 09:45:10</t>
+          <t>10-09-2025 13:05:19</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>35016</v>
+        <v>22179</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2443,11 +2448,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
@@ -2460,58 +2465,58 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.406371527777778</v>
+        <v>-0.5453645833333334</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252906</v>
+        <v>253375</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>34.725</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>10-09-2025 13:05:19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>10-09-2025 13:22:19</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>10-09-2025 13:22:19</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:43</t>
+          <t>10-09-2025 14:14:12</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>4167</v>
+        <v>6226</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2520,14 +2525,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2537,58 +2542,58 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-14.33453125</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253140</v>
+        <v>253372</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>55.83333333333334</v>
+        <v>103.775</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:43</t>
+          <t>10-09-2025 14:14:12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 08:28:43</t>
+          <t>10-09-2025 14:29:12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 08:28:43</t>
+          <t>10-09-2025 14:29:12</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08-09-2025 09:24:33</t>
+          <t>11-09-2025 08:12:59</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6700</v>
+        <v>12453</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2597,14 +2602,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2614,11 +2619,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-13.39205439814815</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2626,46 +2631,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253284</v>
+        <v>253370</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>56.99166666666667</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-09-2025 09:24:33</t>
+          <t>11-09-2025 08:12:59</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:33</t>
+          <t>11-09-2025 08:27:59</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:33</t>
+          <t>11-09-2025 08:27:59</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08-09-2025 10:48:33</t>
+          <t>11-09-2025 11:55:31</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>6839</v>
+        <v>24905</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2674,14 +2679,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2691,11 +2696,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-11.45038194444444</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2703,7 +2708,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250891</v>
+        <v>253668</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2712,37 +2717,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>77.49166666666666</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>11-09-2025 11:55:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:19:00</t>
+          <t>11-09-2025 12:12:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:19:00</t>
+          <t>11-09-2025 12:12:31</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05-09-2025 08:36:29</t>
+          <t>12-09-2025 07:22:23</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>9299</v>
+        <v>22784</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2751,18 +2756,15 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40299</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2771,19 +2773,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253016</v>
+        <v>253259</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2792,37 +2794,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>73.38333333333334</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>05-09-2025 08:36:29</t>
+          <t>12-09-2025 07:22:23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:12:29</t>
+          <t>12-09-2025 07:39:23</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:12:29</t>
+          <t>12-09-2025 07:39:23</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05-09-2025 10:25:52</t>
+          <t>12-09-2025 08:48:37</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>8806</v>
+        <v>8308</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2831,14 +2833,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>40295</v>
@@ -2853,19 +2855,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-4.367100694444445</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253318</v>
+        <v>253368</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2874,37 +2876,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>51.55</v>
+        <v>103.775</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>05-09-2025 10:25:52</t>
+          <t>12-09-2025 08:48:37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05-09-2025 10:57:52</t>
+          <t>12-09-2025 09:05:37</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>05-09-2025 10:57:52</t>
+          <t>12-09-2025 09:05:37</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:25</t>
+          <t>12-09-2025 10:49:24</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>6186</v>
+        <v>12453</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2913,14 +2915,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2930,7 +2932,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -2942,7 +2944,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252843</v>
+        <v>253376</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2951,37 +2953,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>19.2</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:25</t>
+          <t>12-09-2025 10:49:24</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05-09-2025 12:16:25</t>
+          <t>12-09-2025 11:04:24</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>05-09-2025 12:16:25</t>
+          <t>12-09-2025 11:04:24</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05-09-2025 12:35:37</t>
+          <t>12-09-2025 14:04:00</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2304</v>
+        <v>21553</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2990,14 +2992,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3007,19 +3009,19 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-37.52473958333334</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252815</v>
+        <v>253377</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3028,37 +3030,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>242.9416666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:35:37</t>
+          <t>12-09-2025 14:04:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:52:37</t>
+          <t>12-09-2025 14:19:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:52:37</t>
+          <t>12-09-2025 14:19:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-09-2025 08:55:34</t>
+          <t>15-09-2025 08:26:43</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>29153</v>
+        <v>15326</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3067,14 +3069,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3084,19 +3086,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-3.371921296296296</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252664</v>
+        <v>244743</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3105,37 +3107,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>365.975</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-09-2025 08:55:34</t>
+          <t>15-09-2025 08:26:43</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-09-2025 09:37:34</t>
+          <t>15-09-2025 08:43:43</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-09-2025 09:37:34</t>
+          <t>15-09-2025 08:43:43</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-09-2025 07:43:32</t>
+          <t>15-09-2025 09:13:04</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>43917</v>
+        <v>3521</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3144,35 +3146,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-7.321903935185185</v>
+        <v>-21.38407407407407</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3180,7 +3175,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253359</v>
+        <v>253371</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3189,37 +3184,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>134.0166666666667</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 07:43:32</t>
+          <t>15-09-2025 09:13:04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 08:00:32</t>
+          <t>15-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 08:00:32</t>
+          <t>15-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:33</t>
+          <t>15-09-2025 11:17:50</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>16082</v>
+        <v>12932</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3228,11 +3223,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3245,7 +3240,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
@@ -3257,7 +3252,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253278</v>
+        <v>253367</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3266,37 +3261,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>28.425</v>
+        <v>135.7</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:33</t>
+          <t>15-09-2025 11:17:50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-09-2025 10:35:33</t>
+          <t>15-09-2025 11:32:50</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-09-2025 10:35:33</t>
+          <t>15-09-2025 11:32:50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:59</t>
+          <t>15-09-2025 13:48:32</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3411</v>
+        <v>16284</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3305,11 +3300,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
@@ -3322,19 +3317,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>244023</v>
+        <v>252741</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3343,37 +3338,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E38" t="n">
-        <v>8.308333333333334</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:59</t>
+          <t>15-09-2025 13:48:32</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:28:59</t>
+          <t>15-09-2025 14:09:32</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:28:59</t>
+          <t>15-09-2025 14:09:32</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:37:17</t>
+          <t>16-09-2025 07:11:01</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>997</v>
+        <v>7379</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3386,7 +3381,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
@@ -3399,19 +3394,19 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-344.4842303240741</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253260</v>
+        <v>253267</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3420,37 +3415,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>109.4083333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-09-2025 11:37:17</t>
+          <t>16-09-2025 07:11:01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-09-2025 11:56:17</t>
+          <t>16-09-2025 07:28:01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-09-2025 11:56:17</t>
+          <t>16-09-2025 07:28:01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09-09-2025 13:45:42</t>
+          <t>16-09-2025 10:12:23</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>13129</v>
+        <v>19724</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3476,19 +3471,19 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-15.57340277777778</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253524</v>
+        <v>252274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3497,37 +3492,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>58.75833333333333</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-09-2025 13:45:42</t>
+          <t>16-09-2025 10:12:23</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:42</t>
+          <t>16-09-2025 10:44:23</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:42</t>
+          <t>16-09-2025 10:44:23</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10-09-2025 07:01:27</t>
+          <t>16-09-2025 13:37:48</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>7051</v>
+        <v>20810</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3536,14 +3531,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3553,19 +3548,19 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-7.567922453703703</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253527</v>
+        <v>252397</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3574,37 +3569,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>67.48333333333333</v>
+        <v>115.925</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10-09-2025 07:01:27</t>
+          <t>16-09-2025 13:37:48</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10-09-2025 07:16:27</t>
+          <t>16-09-2025 13:54:48</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10-09-2025 07:16:27</t>
+          <t>16-09-2025 13:54:48</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10-09-2025 08:23:56</t>
+          <t>17-09-2025 07:50:44</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>8098</v>
+        <v>13911</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3613,14 +3608,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3630,19 +3625,19 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253721</v>
+        <v>253525</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3651,37 +3646,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E42" t="n">
-        <v>39.39166666666667</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10-09-2025 08:23:56</t>
+          <t>17-09-2025 07:50:44</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10-09-2025 08:42:56</t>
+          <t>17-09-2025 08:24:44</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10-09-2025 08:42:56</t>
+          <t>17-09-2025 08:24:44</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10-09-2025 09:22:20</t>
+          <t>17-09-2025 09:56:52</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>4727</v>
+        <v>11057</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3690,11 +3685,11 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
         <v>70</v>
@@ -3707,58 +3702,58 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253271</v>
+        <v>253549</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40.5</v>
+        <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>42.63333333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>17-09-2025 09:56:52</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:30</t>
+          <t>17-09-2025 10:19:52</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:30</t>
+          <t>17-09-2025 10:19:52</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09-09-2025 08:23:08</t>
+          <t>17-09-2025 13:03:32</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>5116</v>
+        <v>19640</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3784,11 +3779,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-4.349398148148148</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>2</v>
@@ -3796,7 +3791,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253072</v>
+        <v>253359</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3805,37 +3800,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="E44" t="n">
-        <v>29.13333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-09-2025 08:23:08</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-09-2025 08:53:38</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-09-2025 08:53:38</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:46</t>
+          <t>09-09-2025 09:48:31</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3496</v>
+        <v>16082</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3848,7 +3843,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
         <v>70</v>
@@ -3861,19 +3856,19 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-22.39081018518518</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253332</v>
+        <v>253659</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3882,37 +3877,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="E45" t="n">
-        <v>184.825</v>
+        <v>323.75</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:46</t>
+          <t>09-09-2025 09:48:31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-09-2025 10:01:16</t>
+          <t>09-09-2025 10:23:01</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-09-2025 10:01:16</t>
+          <t>09-09-2025 10:23:01</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>09-09-2025 13:06:05</t>
+          <t>10-09-2025 07:46:46</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>22179</v>
+        <v>38850</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3921,11 +3916,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>70</v>
@@ -3938,19 +3933,19 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253372</v>
+        <v>253686</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3959,37 +3954,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="E46" t="n">
-        <v>103.775</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-09-2025 13:06:05</t>
+          <t>10-09-2025 07:46:46</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-09-2025 13:38:35</t>
+          <t>10-09-2025 08:17:16</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-09-2025 13:38:35</t>
+          <t>10-09-2025 08:17:16</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:22</t>
+          <t>10-09-2025 09:01:30</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>12453</v>
+        <v>5308</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3998,11 +3993,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
         <v>70</v>
@@ -4015,7 +4010,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
@@ -4027,46 +4022,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253361</v>
+        <v>252582</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30.5</v>
+        <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>76.70833333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10-09-2025 07:22:22</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:52</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:52</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-09-2025 09:09:34</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>9205</v>
+        <v>5530</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4075,24 +4070,29 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
@@ -4104,46 +4104,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253245</v>
+        <v>253314</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>150.8333333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-09-2025 09:09:34</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-09-2025 09:44:04</t>
+          <t>04-09-2025 14:06:05</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-09-2025 09:44:04</t>
+          <t>04-09-2025 14:06:05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-09-2025 12:14:54</t>
+          <t>04-09-2025 14:49:29</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>18100</v>
+        <v>5209</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4152,75 +4152,80 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>70</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.5103530092592593</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253261</v>
+        <v>252679</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>18.85</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10-09-2025 12:14:54</t>
+          <t>04-09-2025 14:49:29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-09-2025 12:49:24</t>
+          <t>05-09-2025 07:19:29</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-09-2025 12:49:24</t>
+          <t>05-09-2025 07:19:29</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10-09-2025 13:08:15</t>
+          <t>05-09-2025 08:19:29</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2262</v>
+        <v>7200</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4229,40 +4234,45 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>70</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O49" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-16.54740162037037</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253268</v>
+        <v>252682</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4271,33 +4281,33 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>78.55833333333334</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-09-2025 13:08:15</t>
+          <t>05-09-2025 08:19:29</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:45</t>
+          <t>05-09-2025 08:49:29</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:45</t>
+          <t>05-09-2025 08:49:29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11-09-2025 07:01:19</t>
+          <t>05-09-2025 10:12:54</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>9427</v>
+        <v>10009</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4306,24 +4316,29 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="n">
-        <v>70</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O50" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
@@ -4335,46 +4350,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>244743</v>
+        <v>253208</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>32.5</v>
+        <v>80</v>
       </c>
       <c r="E51" t="n">
-        <v>29.34166666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11-09-2025 07:01:19</t>
+          <t>05-09-2025 10:12:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11-09-2025 07:33:49</t>
+          <t>05-09-2025 11:32:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11-09-2025 07:33:49</t>
+          <t>05-09-2025 11:32:54</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11-09-2025 08:03:09</t>
+          <t>05-09-2025 13:17:09</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3521</v>
+        <v>12511</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4383,11 +4398,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
@@ -4400,58 +4415,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-17.33552662037037</v>
+        <v>-0.553582175925926</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253668</v>
+        <v>253210</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>189.8666666666667</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11-09-2025 08:03:09</t>
+          <t>05-09-2025 13:17:09</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11-09-2025 08:35:39</t>
+          <t>05-09-2025 13:42:09</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-09-2025 08:35:39</t>
+          <t>05-09-2025 13:42:09</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11-09-2025 11:45:31</t>
+          <t>08-09-2025 07:16:19</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>22784</v>
+        <v>11299</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4460,11 +4475,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4477,23 +4492,23 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253375</v>
+        <v>253223</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4502,33 +4517,33 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32.5</v>
+        <v>85</v>
       </c>
       <c r="E53" t="n">
-        <v>51.88333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11-09-2025 11:45:31</t>
+          <t>08-09-2025 07:16:19</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11-09-2025 12:18:01</t>
+          <t>08-09-2025 08:41:19</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11-09-2025 12:18:01</t>
+          <t>08-09-2025 08:41:19</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11-09-2025 13:09:54</t>
+          <t>08-09-2025 08:57:43</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>6226</v>
+        <v>1968</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4537,11 +4552,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4554,58 +4569,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-7.373414351851852</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253371</v>
+        <v>252002</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30.5</v>
+        <v>70</v>
       </c>
       <c r="E54" t="n">
-        <v>107.7666666666667</v>
+        <v>55.675</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11-09-2025 13:09:54</t>
+          <t>08-09-2025 08:57:43</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11-09-2025 13:40:24</t>
+          <t>08-09-2025 10:07:43</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-09-2025 13:40:24</t>
+          <t>08-09-2025 10:07:43</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12-09-2025 07:28:10</t>
+          <t>08-09-2025 11:03:23</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>12932</v>
+        <v>6681</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4614,75 +4629,82 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
         <v>70</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-14.46068865740741</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253367</v>
+        <v>253036</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>135.7</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>12-09-2025 07:28:10</t>
+          <t>08-09-2025 11:03:23</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12-09-2025 07:58:40</t>
+          <t>08-09-2025 11:43:23</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12-09-2025 07:58:40</t>
+          <t>08-09-2025 11:43:23</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>12-09-2025 10:14:22</t>
+          <t>08-09-2025 13:02:07</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>16284</v>
+        <v>9448</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4691,14 +4713,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4708,58 +4730,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-17.54314236111111</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253392</v>
+        <v>252601</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>32.5</v>
+        <v>90</v>
       </c>
       <c r="E56" t="n">
-        <v>129.3833333333333</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>12-09-2025 10:14:22</t>
+          <t>08-09-2025 13:02:07</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12-09-2025 10:46:52</t>
+          <t>08-09-2025 14:32:07</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>12-09-2025 10:46:52</t>
+          <t>08-09-2025 14:32:07</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>12-09-2025 12:56:15</t>
+          <t>09-09-2025 07:23:20</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>15526</v>
+        <v>6145</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4768,11 +4790,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N56" t="n">
         <v>70</v>
@@ -4785,19 +4807,19 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253313</v>
+        <v>253317</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4810,33 +4832,33 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E57" t="n">
-        <v>100.0083333333333</v>
+        <v>102.775</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>09-09-2025 07:23:20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 08:53:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 08:53:20</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:35:00</t>
+          <t>09-09-2025 10:36:06</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>12001</v>
+        <v>12333</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4849,7 +4871,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
         <v>76</v>
@@ -4862,11 +4884,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-1.441741898148148</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4874,7 +4896,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253317</v>
+        <v>253249</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4883,37 +4905,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>102.775</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>04-09-2025 14:35:00</t>
+          <t>09-09-2025 10:36:06</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:05:00</t>
+          <t>09-09-2025 11:01:06</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:05:00</t>
+          <t>09-09-2025 11:01:06</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:47</t>
+          <t>09-09-2025 11:58:52</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>12333</v>
+        <v>6931</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4939,7 +4961,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
@@ -4951,7 +4973,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252682</v>
+        <v>253318</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4964,33 +4986,33 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E59" t="n">
-        <v>83.40833333333333</v>
+        <v>51.55</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:47</t>
+          <t>09-09-2025 11:58:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:17:47</t>
+          <t>09-09-2025 12:23:52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:17:47</t>
+          <t>09-09-2025 12:23:52</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05-09-2025 10:41:11</t>
+          <t>09-09-2025 13:15:25</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10009</v>
+        <v>6186</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5003,37 +5025,32 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>76</v>
       </c>
-      <c r="O59" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P59" t="n">
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.552372685185185</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252582</v>
+        <v>252883</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5042,37 +5059,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E60" t="n">
-        <v>46.08333333333334</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>05-09-2025 10:41:11</t>
+          <t>09-09-2025 13:15:25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:11:11</t>
+          <t>09-09-2025 14:35:25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:11:11</t>
+          <t>09-09-2025 14:35:25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>05-09-2025 11:57:16</t>
+          <t>10-09-2025 10:42:43</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>5530</v>
+        <v>29677</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5081,33 +5098,28 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-12.44633680555556</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5115,7 +5127,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253314</v>
+        <v>253602</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5124,37 +5136,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E61" t="n">
-        <v>43.40833333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>05-09-2025 11:57:16</t>
+          <t>10-09-2025 10:42:43</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05-09-2025 12:27:16</t>
+          <t>10-09-2025 11:52:43</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>05-09-2025 12:27:16</t>
+          <t>10-09-2025 11:52:43</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>05-09-2025 13:10:41</t>
+          <t>10-09-2025 13:49:48</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>5209</v>
+        <v>14050</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5167,37 +5179,32 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="n">
         <v>76</v>
       </c>
-      <c r="O61" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P61" t="n">
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-0.5762557870370371</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253036</v>
+        <v>253436</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5206,37 +5213,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>78.73333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>05-09-2025 13:10:41</t>
+          <t>10-09-2025 13:49:48</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:41</t>
+          <t>10-09-2025 14:29:48</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:41</t>
+          <t>10-09-2025 14:29:48</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:59:25</t>
+          <t>10-09-2025 14:48:39</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>9448</v>
+        <v>2262</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5245,17 +5252,14 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N62" t="n">
-        <v>76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5265,11 +5269,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-0.6171238425925926</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5277,7 +5281,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252002</v>
+        <v>253261</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5286,37 +5290,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>55.675</v>
+        <v>18.85</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>05-09-2025 14:59:25</t>
+          <t>10-09-2025 14:48:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-09-2025 07:39:25</t>
+          <t>11-09-2025 07:13:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-09-2025 07:39:25</t>
+          <t>11-09-2025 07:13:39</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-09-2025 08:35:05</t>
+          <t>11-09-2025 07:32:30</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>6681</v>
+        <v>2262</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5329,23 +5333,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P63" t="n">
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -5353,15 +5350,15 @@
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-14.3577025462963</v>
+        <v>-17.31424189814815</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253223</v>
+        <v>253455</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5370,37 +5367,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E64" t="n">
-        <v>16.4</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-09-2025 08:35:05</t>
+          <t>11-09-2025 07:32:30</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:05</t>
+          <t>11-09-2025 08:07:30</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:05</t>
+          <t>11-09-2025 08:07:30</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-09-2025 10:01:29</t>
+          <t>11-09-2025 09:03:04</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1968</v>
+        <v>6667</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5409,11 +5406,11 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
@@ -5426,19 +5423,19 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-7.417702546296296</v>
+        <v>-3.37712962962963</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252833</v>
+        <v>252529</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5447,37 +5444,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>74.78333333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-09-2025 10:01:29</t>
+          <t>11-09-2025 09:03:04</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:29</t>
+          <t>11-09-2025 09:43:04</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:29</t>
+          <t>11-09-2025 09:43:04</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>08-09-2025 12:31:16</t>
+          <t>11-09-2025 10:51:09</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>8974</v>
+        <v>8170</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5486,14 +5483,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5503,19 +5500,19 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-13.52171875</v>
+        <v>-6.4521875</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252601</v>
+        <v>253522</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5524,37 +5521,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
-        <v>51.20833333333334</v>
+        <v>198.625</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-09-2025 12:31:16</t>
+          <t>11-09-2025 10:51:09</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:16</t>
+          <t>11-09-2025 11:36:09</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:16</t>
+          <t>11-09-2025 11:36:09</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:29</t>
+          <t>11-09-2025 14:54:46</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>6145</v>
+        <v>23835</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5563,11 +5560,11 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -5580,19 +5577,19 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253208</v>
+        <v>253528</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5601,37 +5598,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>104.2583333333333</v>
+        <v>119.175</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:29</t>
+          <t>11-09-2025 14:54:46</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:29</t>
+          <t>12-09-2025 07:19:46</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:29</t>
+          <t>12-09-2025 07:19:46</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>09-09-2025 08:56:44</t>
+          <t>12-09-2025 09:18:57</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>12511</v>
+        <v>14301</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5640,11 +5637,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -5657,19 +5654,19 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-4.372737268518518</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253210</v>
+        <v>253295</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5678,37 +5675,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E68" t="n">
-        <v>94.15833333333333</v>
+        <v>230.075</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09-09-2025 08:56:44</t>
+          <t>12-09-2025 09:18:57</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09-09-2025 09:21:44</t>
+          <t>12-09-2025 09:53:57</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>09-09-2025 09:21:44</t>
+          <t>12-09-2025 09:53:57</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:54</t>
+          <t>12-09-2025 13:44:01</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>11299</v>
+        <v>27609</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5717,36 +5714,41 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
       </c>
-      <c r="P68" t="n">
-        <v>0</v>
+      <c r="O68" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-0.5722395833333334</v>
       </c>
       <c r="T68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252679</v>
+        <v>253244</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5755,37 +5757,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>60</v>
+        <v>166.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:54</t>
+          <t>12-09-2025 13:44:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09-09-2025 12:10:54</t>
+          <t>12-09-2025 14:14:01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>09-09-2025 12:10:54</t>
+          <t>12-09-2025 14:14:01</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>09-09-2025 13:10:54</t>
+          <t>15-09-2025 09:00:31</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>7200</v>
+        <v>19980</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5794,41 +5796,36 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>76</v>
-      </c>
-      <c r="O69" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-1.549236111111111</v>
+        <v>-5.375364583333333</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253659</v>
+        <v>253472</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5837,37 +5834,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
-        <v>323.75</v>
+        <v>291.8</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09-09-2025 13:10:54</t>
+          <t>15-09-2025 09:00:31</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-09-2025 14:05:54</t>
+          <t>15-09-2025 09:30:31</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-09-2025 14:05:54</t>
+          <t>15-09-2025 09:30:31</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10-09-2025 11:29:39</t>
+          <t>15-09-2025 14:22:19</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>38850</v>
+        <v>35016</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5893,7 +5890,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
@@ -5905,7 +5902,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253686</v>
+        <v>253245</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5914,37 +5911,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>44.23333333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10-09-2025 11:29:39</t>
+          <t>15-09-2025 14:22:19</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10-09-2025 11:54:39</t>
+          <t>15-09-2025 14:52:19</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10-09-2025 11:54:39</t>
+          <t>15-09-2025 14:52:19</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10-09-2025 12:38:53</t>
+          <t>16-09-2025 09:23:09</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>5308</v>
+        <v>18100</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5957,7 +5954,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
         <v>70</v>
@@ -5970,19 +5967,19 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-6.391082175925926</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253687</v>
+        <v>253393</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5991,37 +5988,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>44.23333333333333</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10-09-2025 12:38:53</t>
+          <t>16-09-2025 09:23:09</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10-09-2025 13:03:53</t>
+          <t>16-09-2025 09:53:09</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10-09-2025 13:03:53</t>
+          <t>16-09-2025 09:53:09</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10-09-2025 13:48:07</t>
+          <t>16-09-2025 11:10:47</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5308</v>
+        <v>9316</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6030,11 +6027,11 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>70</v>
@@ -6047,7 +6044,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
@@ -6059,7 +6056,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253401</v>
+        <v>253392</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6068,37 +6065,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>22.81666666666667</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10-09-2025 13:48:07</t>
+          <t>16-09-2025 11:10:47</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10-09-2025 14:23:07</t>
+          <t>16-09-2025 11:35:47</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>10-09-2025 14:23:07</t>
+          <t>16-09-2025 11:35:47</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10-09-2025 14:45:56</t>
+          <t>16-09-2025 13:45:10</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2738</v>
+        <v>15526</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6107,7 +6104,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -6124,23 +6121,23 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252883</v>
+        <v>252906</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6149,33 +6146,33 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E74" t="n">
-        <v>247.3083333333333</v>
+        <v>34.725</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10-09-2025 14:45:56</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11-09-2025 07:55:56</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>11-09-2025 07:55:56</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>11-09-2025 12:03:14</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>29677</v>
+        <v>4167</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6184,14 +6181,14 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6201,58 +6198,58 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-13.50225115740741</v>
+        <v>-14.32758680555555</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253455</v>
+        <v>253409</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E75" t="n">
-        <v>55.55833333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11-09-2025 12:03:14</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11-09-2025 13:08:14</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11-09-2025 13:08:14</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>11-09-2025 14:03:48</t>
+          <t>08-09-2025 08:35:54</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>6667</v>
+        <v>3262</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6261,14 +6258,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -6278,58 +6275,58 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-3.585972222222222</v>
+        <v>-10.35826967592593</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253522</v>
+        <v>252827</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>198.625</v>
+        <v>410</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11-09-2025 14:03:48</t>
+          <t>08-09-2025 08:35:54</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11-09-2025 14:33:48</t>
+          <t>08-09-2025 08:52:54</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>11-09-2025 14:33:48</t>
+          <t>08-09-2025 08:52:54</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>12-09-2025 09:52:25</t>
+          <t>09-09-2025 07:42:54</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>23835</v>
+        <v>49200</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6338,14 +6335,14 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6355,58 +6352,58 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-0.41140625</v>
+        <v>-5.32146412037037</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253528</v>
+        <v>243569</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>119.175</v>
+        <v>21.675</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>12-09-2025 09:52:25</t>
+          <t>09-09-2025 07:42:54</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12-09-2025 10:17:25</t>
+          <t>09-09-2025 07:59:54</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>12-09-2025 10:17:25</t>
+          <t>09-09-2025 07:59:54</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>12-09-2025 12:16:36</t>
+          <t>09-09-2025 08:21:35</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>14301</v>
+        <v>2601</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6415,14 +6412,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6432,58 +6429,58 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>0</v>
+        <v>-358.3483217592592</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>252274</v>
+        <v>252815</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>173.4166666666667</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12-09-2025 12:16:36</t>
+          <t>09-09-2025 08:21:35</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12-09-2025 13:01:36</t>
+          <t>09-09-2025 08:46:35</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>12-09-2025 13:01:36</t>
+          <t>09-09-2025 08:46:35</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>15-09-2025 07:55:01</t>
+          <t>09-09-2025 12:49:31</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>20810</v>
+        <v>29153</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6496,7 +6493,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N78" t="n">
         <v>76</v>
@@ -6509,58 +6506,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-6.329872685185185</v>
+        <v>-4.534392361111111</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253549</v>
+        <v>253194</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E79" t="n">
-        <v>163.6666666666667</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>15-09-2025 07:55:01</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15-09-2025 08:35:01</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15-09-2025 08:35:01</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>15-09-2025 11:18:41</t>
+          <t>09-09-2025 10:54:05</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>19640</v>
+        <v>23890</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6569,14 +6566,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6586,58 +6583,58 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-20.45422453703704</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>252741</v>
+        <v>253016</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>61.49166666666667</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>15-09-2025 11:18:41</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15-09-2025 11:48:41</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15-09-2025 11:48:41</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>15-09-2025 12:50:10</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>7379</v>
+        <v>8806</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6646,75 +6643,80 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>70</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O80" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253244</v>
+        <v>253591</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E81" t="n">
-        <v>166.5</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>15-09-2025 12:50:10</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15-09-2025 13:20:10</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>15-09-2025 13:20:10</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>16-09-2025 08:06:40</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>19980</v>
+        <v>2090</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6723,75 +6725,80 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>76</v>
+      </c>
+      <c r="O81" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
         <v>4</v>
-      </c>
-      <c r="N81" t="n">
-        <v>70</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-6.33796875</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253393</v>
+        <v>252685</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>77.63333333333334</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>16-09-2025 08:06:40</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16-09-2025 08:36:40</t>
+          <t>05-09-2025 10:05:48</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16-09-2025 08:36:40</t>
+          <t>05-09-2025 10:05:48</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>16-09-2025 09:54:18</t>
+          <t>05-09-2025 11:20:22</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>9316</v>
+        <v>8948</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6800,75 +6807,80 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82" t="n">
-        <v>70</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O82" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S82" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253425</v>
+        <v>252702</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E83" t="n">
-        <v>146.35</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>05-09-2025 11:20:22</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>05-09-2025 11:55:22</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>05-09-2025 11:55:22</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:21</t>
+          <t>05-09-2025 12:53:45</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>17562</v>
+        <v>7006</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6877,28 +6889,33 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>76</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O83" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-10.40649305555556</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
         <v>2</v>
@@ -6906,46 +6923,46 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>243569</v>
+        <v>253362</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>21.675</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-09-2025 09:45:21</t>
+          <t>05-09-2025 12:53:45</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>05-09-2025 13:18:45</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>08-09-2025 10:04:21</t>
+          <t>05-09-2025 13:18:45</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:01</t>
+          <t>05-09-2025 14:17:08</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2601</v>
+        <v>7006</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6961,21 +6978,26 @@
         <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>76</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O84" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-357.4347395833333</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
         <v>2</v>
@@ -6983,46 +7005,46 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>252827</v>
+        <v>253100</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>410</v>
+        <v>47.35</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:01</t>
+          <t>05-09-2025 14:17:08</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08-09-2025 10:43:01</t>
+          <t>05-09-2025 14:52:08</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>08-09-2025 10:43:01</t>
+          <t>05-09-2025 14:52:08</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:01</t>
+          <t>08-09-2025 07:39:29</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>49200</v>
+        <v>5682</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7031,14 +7053,14 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -7048,11 +7070,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-5.397934027777778</v>
+        <v>-0.3190856481481482</v>
       </c>
       <c r="T85" t="n">
         <v>4</v>
@@ -7060,46 +7082,46 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253249</v>
+        <v>250891</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>57.75833333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:01</t>
+          <t>08-09-2025 07:39:29</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:01</t>
+          <t>08-09-2025 08:09:29</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:01</t>
+          <t>08-09-2025 08:09:29</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>09-09-2025 10:47:47</t>
+          <t>08-09-2025 09:26:58</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>6931</v>
+        <v>9299</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7108,14 +7130,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7125,58 +7147,58 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-26.39373263888889</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253246</v>
+        <v>252216</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E87" t="n">
-        <v>194.25</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>08-09-2025 09:26:58</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>08-09-2025 10:16:58</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>08-09-2025 10:16:58</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:15</t>
+          <t>08-09-2025 12:38:47</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>23310</v>
+        <v>17017</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7189,7 +7211,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
         <v>70</v>
@@ -7202,19 +7224,19 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-14.52693287037037</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253259</v>
+        <v>253278</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7223,37 +7245,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E88" t="n">
-        <v>69.23333333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-09-2025 12:38:47</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>08-09-2025 13:23:47</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>08-09-2025 13:23:47</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>05-09-2025 08:44:14</t>
+          <t>08-09-2025 13:52:12</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>8308</v>
+        <v>3411</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7262,41 +7284,36 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N88" t="n">
         <v>70</v>
       </c>
-      <c r="O88" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P88" t="n">
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253591</v>
+        <v>253271</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7305,37 +7322,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E89" t="n">
-        <v>17.41666666666667</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>05-09-2025 08:44:14</t>
+          <t>08-09-2025 13:52:12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05-09-2025 09:19:14</t>
+          <t>08-09-2025 14:17:12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>05-09-2025 09:19:14</t>
+          <t>08-09-2025 14:17:12</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>05-09-2025 09:36:39</t>
+          <t>08-09-2025 14:59:50</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>2090</v>
+        <v>5116</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7344,41 +7361,36 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N89" t="n">
-        <v>76</v>
-      </c>
-      <c r="O89" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>0</v>
+        <v>-3.624890046296296</v>
       </c>
       <c r="T89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>252685</v>
+        <v>253072</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7391,33 +7403,33 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>74.56666666666666</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>05-09-2025 09:36:39</t>
+          <t>08-09-2025 14:59:50</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05-09-2025 10:06:39</t>
+          <t>09-09-2025 07:24:50</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>05-09-2025 10:06:39</t>
+          <t>09-09-2025 07:24:50</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>05-09-2025 11:21:13</t>
+          <t>09-09-2025 07:53:58</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>8948</v>
+        <v>3496</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7426,41 +7438,36 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N90" t="n">
-        <v>76</v>
-      </c>
-      <c r="O90" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
-        <v>0</v>
+        <v>-22.32914930555556</v>
       </c>
       <c r="T90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252702</v>
+        <v>252939</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7469,37 +7476,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E91" t="n">
-        <v>58.38333333333333</v>
+        <v>89.8</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>05-09-2025 11:21:13</t>
+          <t>09-09-2025 07:53:58</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05-09-2025 11:56:13</t>
+          <t>09-09-2025 08:33:58</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>05-09-2025 11:56:13</t>
+          <t>09-09-2025 08:33:58</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>05-09-2025 12:54:36</t>
+          <t>09-09-2025 10:03:46</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>7006</v>
+        <v>10776</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7508,41 +7515,36 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>152</v>
-      </c>
-      <c r="O91" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
-        <v>0</v>
+        <v>-18.41928819444444</v>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253362</v>
+        <v>253361</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7551,37 +7553,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E92" t="n">
-        <v>58.38333333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>05-09-2025 12:54:36</t>
+          <t>09-09-2025 10:03:46</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:36</t>
+          <t>09-09-2025 10:33:46</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:36</t>
+          <t>09-09-2025 10:33:46</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>05-09-2025 14:17:59</t>
+          <t>09-09-2025 11:50:29</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>7006</v>
+        <v>9205</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7590,41 +7592,36 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>152</v>
-      </c>
-      <c r="O92" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S92" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253267</v>
+        <v>253524</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7633,37 +7630,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
-        <v>164.3666666666667</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>05-09-2025 14:17:59</t>
+          <t>09-09-2025 11:50:29</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05-09-2025 14:52:59</t>
+          <t>09-09-2025 12:20:29</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>05-09-2025 14:52:59</t>
+          <t>09-09-2025 12:20:29</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>08-09-2025 09:37:21</t>
+          <t>09-09-2025 13:19:14</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>19724</v>
+        <v>7051</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -7676,7 +7673,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
         <v>70</v>
@@ -7689,14 +7686,14 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/best.xlsx
+++ b/PS-VRP/Dati_output/best.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252995</v>
+        <v>252201</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,37 +551,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>68.31666666666666</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:19</t>
+          <t>08-07-2025 12:51:06</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8198</v>
+        <v>4093</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -599,6 +599,9 @@
       <c r="N2" t="n">
         <v>76</v>
       </c>
+      <c r="O2" t="n">
+        <v>40055</v>
+      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -607,19 +610,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-7.350914351851852</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252569</v>
+        <v>252362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +631,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>9.583333333333334</v>
+        <v>39.95</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:19</t>
+          <t>08-07-2025 12:51:06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:19</t>
+          <t>08-07-2025 13:10:06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:44:19</t>
+          <t>08-07-2025 13:10:06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:54</t>
+          <t>08-07-2025 13:50:03</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1150</v>
+        <v>4794</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -671,7 +674,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>76</v>
@@ -684,19 +687,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-7.370763888888889</v>
+        <v>-4.576429398148148</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253687</v>
+        <v>252298</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +708,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>01-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>44.23333333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:54</t>
+          <t>08-07-2025 13:50:03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:27:54</t>
+          <t>08-07-2025 14:07:03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:27:54</t>
+          <t>08-07-2025 14:07:03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:12:08</t>
+          <t>09-07-2025 07:17:49</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5308</v>
+        <v>8492</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,14 +747,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -761,19 +764,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-16.30404513888889</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244023</v>
+        <v>252210</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +785,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>8.308333333333334</v>
+        <v>29.2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:12:08</t>
+          <t>09-07-2025 07:17:49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:08</t>
+          <t>09-07-2025 07:38:49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:08</t>
+          <t>09-07-2025 07:38:49</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:37:26</t>
+          <t>09-07-2025 08:08:01</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>997</v>
+        <v>3504</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -821,14 +824,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -838,11 +841,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-343.4426678240741</v>
+        <v>-13.33890625</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253260</v>
+        <v>252209</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +862,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>109.4083333333333</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:37:26</t>
+          <t>09-07-2025 08:08:01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:26</t>
+          <t>09-07-2025 08:23:01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:26</t>
+          <t>09-07-2025 08:23:01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:51</t>
+          <t>09-07-2025 08:52:13</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>13129</v>
+        <v>3503</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -898,14 +901,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -915,19 +918,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-14.53184027777778</v>
+        <v>-13.36959490740741</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252833</v>
+        <v>244023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +939,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>74.78333333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:51</t>
+          <t>09-07-2025 08:52:13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:51</t>
+          <t>09-07-2025 09:28:13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:51</t>
+          <t>09-07-2025 09:28:13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:38</t>
+          <t>09-07-2025 09:36:31</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>8974</v>
+        <v>997</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,11 +982,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
+      <c r="O7" t="n">
+        <v>40054</v>
+      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -992,19 +998,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-13.5955787037037</v>
+        <v>-0.4003645833333334</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253268</v>
+        <v>252783</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1013,37 +1019,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>78.55833333333334</v>
+        <v>11.95</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:38</t>
+          <t>09-07-2025 09:36:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:34:38</t>
+          <t>09-07-2025 10:01:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:34:38</t>
+          <t>09-07-2025 10:01:31</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:11</t>
+          <t>09-07-2025 10:13:28</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>9427</v>
+        <v>1434</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1056,32 +1062,37 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
         <v>70</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
+      <c r="O8" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.4260243055555555</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253710</v>
+        <v>252785</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1101,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>1.616666666666667</v>
+        <v>58.34166666666667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:11</t>
+          <t>09-07-2025 10:13:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:11</t>
+          <t>09-07-2025 10:28:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:11</t>
+          <t>09-07-2025 10:28:28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:11:48</t>
+          <t>09-07-2025 11:26:49</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>194</v>
+        <v>7001</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1133,32 +1144,37 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="O9" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-0.4769560185185185</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253721</v>
+        <v>252784</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1167,37 +1183,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>39.39166666666667</v>
+        <v>26.975</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 08:11:48</t>
+          <t>09-07-2025 11:26:49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 08:30:48</t>
+          <t>09-07-2025 11:41:49</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 08:30:48</t>
+          <t>09-07-2025 11:41:49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:10:12</t>
+          <t>09-07-2025 12:08:47</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4727</v>
+        <v>3237</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1210,24 +1226,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="O10" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.506105324074074</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1235,46 +1256,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253284</v>
+        <v>252245</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>56.99166666666667</v>
+        <v>489.7583333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-07-2025 12:08:47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>09-07-2025 12:42:47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>09-07-2025 12:42:47</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:59</t>
+          <t>10-07-2025 12:52:33</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>6839</v>
+        <v>58771</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1283,14 +1304,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1300,11 +1321,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-11.34999421296296</v>
+        <v>-13.53649305555555</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1312,46 +1333,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253313</v>
+        <v>252456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>100.0083333333333</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:59</t>
+          <t>10-07-2025 12:52:33</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 08:48:59</t>
+          <t>10-07-2025 13:24:33</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 08:48:59</t>
+          <t>10-07-2025 13:24:33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:00</t>
+          <t>11-07-2025 07:49:00</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12001</v>
+        <v>17335</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1360,75 +1381,80 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>76</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>40051</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>40051</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-3.436805555555555</v>
+        <v>-1.325700231481481</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253140</v>
+        <v>252519</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>55.83333333333334</v>
+        <v>11.475</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:00</t>
+          <t>11-07-2025 07:49:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:00</t>
+          <t>11-07-2025 08:23:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 10:56:00</t>
+          <t>11-07-2025 08:23:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08-09-2025 11:51:50</t>
+          <t>11-07-2025 08:34:29</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>6700</v>
+        <v>1377</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1454,58 +1480,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-13.4943287037037</v>
+        <v>-7.357280092592593</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253374</v>
+        <v>252978</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>04-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>59.60833333333333</v>
+        <v>23.3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-09-2025 11:51:50</t>
+          <t>11-07-2025 08:34:29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-09-2025 12:33:50</t>
+          <t>11-07-2025 08:53:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-09-2025 12:33:50</t>
+          <t>11-07-2025 08:53:29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08-09-2025 13:33:26</t>
+          <t>11-07-2025 09:16:47</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>7153</v>
+        <v>2796</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,14 +1540,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O14" t="n">
+        <v>40049</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1531,58 +1560,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.3866550925925926</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253527</v>
+        <v>252495</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>67.48333333333333</v>
+        <v>70.77500000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 13:33:26</t>
+          <t>11-07-2025 09:16:47</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:26</t>
+          <t>11-07-2025 09:33:47</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:26</t>
+          <t>11-07-2025 09:33:47</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 07:07:55</t>
+          <t>11-07-2025 10:44:33</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>8098</v>
+        <v>8493</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,14 +1620,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1608,58 +1637,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-4.447609953703703</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253095</v>
+        <v>252755</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>76.31666666666666</v>
+        <v>109.575</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-09-2025 07:07:55</t>
+          <t>11-07-2025 10:44:33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:55</t>
+          <t>11-07-2025 11:20:33</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:55</t>
+          <t>11-07-2025 11:20:33</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>09-09-2025 08:51:14</t>
+          <t>11-07-2025 13:10:08</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>9158</v>
+        <v>13149</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,11 +1697,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1685,58 +1714,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253247</v>
+        <v>251812</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>109.575</v>
+        <v>33.875</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05-09-2025 09:06:34</t>
+          <t>08-07-2025 13:00:52</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>13149</v>
+        <v>4065</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,75 +1774,75 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>23-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>-15.54227430555556</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>70</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250284</v>
+        <v>252999</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>146.35</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 09:06:34</t>
+          <t>08-07-2025 13:00:52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 09:29:34</t>
+          <t>08-07-2025 13:42:52</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 09:29:34</t>
+          <t>08-07-2025 13:42:52</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:55</t>
+          <t>09-07-2025 11:08:43</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>17562</v>
+        <v>39101</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,18 +1851,15 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>40299</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
@@ -1842,7 +1868,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -1854,46 +1880,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>235572</v>
+        <v>252662</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>82.98333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:55</t>
+          <t>09-07-2025 11:08:43</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:16:55</t>
+          <t>09-07-2025 11:35:43</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 12:16:55</t>
+          <t>09-07-2025 11:35:43</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 13:39:54</t>
+          <t>09-07-2025 14:45:35</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>9958</v>
+        <v>22784</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1902,11 +1928,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
         <v>70</v>
@@ -1919,58 +1945,58 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-669.5693807870371</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253706</v>
+        <v>252350</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>311</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 13:39:54</t>
+          <t>09-07-2025 14:45:35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:54</t>
+          <t>10-07-2025 07:10:35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:54</t>
+          <t>10-07-2025 07:10:35</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-09-2025 11:26:54</t>
+          <t>10-07-2025 08:02:28</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>37320</v>
+        <v>6226</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1979,75 +2005,80 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-1.335046296296296</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252843</v>
+        <v>252680</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>19.2</v>
+        <v>254.7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-09-2025 11:26:54</t>
+          <t>10-07-2025 08:02:28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-09-2025 11:43:54</t>
+          <t>10-07-2025 08:44:28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 11:43:54</t>
+          <t>10-07-2025 08:44:28</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:06</t>
+          <t>10-07-2025 12:59:10</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2304</v>
+        <v>30564</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2056,11 +2087,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>76</v>
@@ -2077,54 +2108,54 @@
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-40.50215856481481</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253425</v>
+        <v>251926</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>146.35</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:06</t>
+          <t>10-07-2025 12:59:10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-09-2025 12:26:06</t>
+          <t>10-07-2025 13:43:10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-09-2025 12:26:06</t>
+          <t>10-07-2025 13:43:10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08-09-2025 14:52:27</t>
+          <t>11-07-2025 07:02:05</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>17562</v>
+        <v>9470</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2133,14 +2164,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2150,58 +2181,58 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-10.61976273148148</v>
+        <v>-2.293113425925926</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253246</v>
+        <v>252336</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>194.25</v>
+        <v>120.275</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-09-2025 14:52:27</t>
+          <t>11-07-2025 07:02:05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09-09-2025 07:24:27</t>
+          <t>11-07-2025 07:29:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-09-2025 07:24:27</t>
+          <t>11-07-2025 07:29:05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:42</t>
+          <t>11-07-2025 09:29:21</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>23310</v>
+        <v>14433</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2214,7 +2245,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
         <v>70</v>
@@ -2227,11 +2258,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-7.395387731481481</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
@@ -2239,46 +2270,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252664</v>
+        <v>252467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>365.975</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:42</t>
+          <t>11-07-2025 09:29:21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:42</t>
+          <t>11-07-2025 09:54:21</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:42</t>
+          <t>11-07-2025 09:54:21</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10-09-2025 09:03:41</t>
+          <t>11-07-2025 11:15:31</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>43917</v>
+        <v>9740</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2287,43 +2318,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-8.377557870370371</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253401</v>
+        <v>252790</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2332,37 +2356,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>22.81666666666667</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10-09-2025 09:03:41</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10-09-2025 09:20:41</t>
+          <t>08-07-2025 12:36:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10-09-2025 09:20:41</t>
+          <t>08-07-2025 12:36:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:30</t>
+          <t>08-07-2025 12:48:06</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2738</v>
+        <v>1453</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2375,7 +2399,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
@@ -2388,19 +2412,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253332</v>
+        <v>252277</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2409,37 +2433,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>184.825</v>
+        <v>144.925</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:30</t>
+          <t>08-07-2025 12:48:06</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10-09-2025 10:00:30</t>
+          <t>08-07-2025 13:07:06</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-09-2025 10:00:30</t>
+          <t>08-07-2025 13:07:06</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-09-2025 13:05:19</t>
+          <t>09-07-2025 07:32:02</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>22179</v>
+        <v>17391</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2448,28 +2472,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
+      <c r="O26" t="n">
+        <v>40024</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.5453645833333334</v>
+        <v>-19.31391203703704</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2477,7 +2506,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253375</v>
+        <v>245089</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2486,37 +2515,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>51.88333333333333</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-09-2025 13:05:19</t>
+          <t>09-07-2025 07:32:02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:19</t>
+          <t>09-07-2025 08:04:02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:19</t>
+          <t>09-07-2025 08:04:02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10-09-2025 14:14:12</t>
+          <t>11-07-2025 09:06:14</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>6226</v>
+        <v>122665</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2525,14 +2554,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2542,7 +2571,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -2554,46 +2583,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253372</v>
+        <v>235572</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="E28" t="n">
-        <v>103.775</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-09-2025 14:14:12</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:12</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:12</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11-09-2025 08:12:59</t>
+          <t>08-07-2025 13:57:29</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>12453</v>
+        <v>9958</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2602,15 +2631,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
+      <c r="O28" t="n">
+        <v>40055</v>
+      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
@@ -2619,58 +2651,58 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253370</v>
+        <v>252547</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>38.5</v>
       </c>
       <c r="E29" t="n">
-        <v>207.5416666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11-09-2025 08:12:59</t>
+          <t>08-07-2025 13:57:29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11-09-2025 08:27:59</t>
+          <t>08-07-2025 14:35:59</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-09-2025 08:27:59</t>
+          <t>08-07-2025 14:35:59</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-09-2025 11:55:31</t>
+          <t>09-07-2025 07:57:09</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>24905</v>
+        <v>9740</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2679,11 +2711,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2696,11 +2728,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-5.331354166666666</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2708,46 +2740,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253668</v>
+        <v>252713</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>38.5</v>
       </c>
       <c r="E30" t="n">
-        <v>189.8666666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11-09-2025 11:55:31</t>
+          <t>09-07-2025 07:57:09</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:31</t>
+          <t>09-07-2025 08:35:39</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:31</t>
+          <t>09-07-2